--- a/01_基本設計書/20200220リリース/SC-K20_全工程で試作の在庫払出可能化.xlsx
+++ b/01_基本設計書/20200220リリース/SC-K20_全工程で試作の在庫払出可能化.xlsx
@@ -6,12 +6,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201910\実績参照\20191017\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zhang\Documents\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73703025-1C4B-49D9-B819-1E53E485022A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4516B9D0-9F8D-4FD6-947E-054641924342}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="390" windowWidth="20490" windowHeight="10230" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -2981,6 +2981,91 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3008,103 +3093,6 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="27" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3123,10 +3111,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3998,16 +3998,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>102</xdr:col>
-      <xdr:colOff>122277</xdr:colOff>
+      <xdr:colOff>93706</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>37420</xdr:rowOff>
+      <xdr:rowOff>8849</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
+        <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{350D2F10-8A0E-4701-B39B-B5205BF3594C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60667808-1E9D-4CAA-BF9E-1C336FBB8FA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4024,7 +4024,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="371475" y="1095375"/>
-          <a:ext cx="12380952" cy="5438095"/>
+          <a:ext cx="12352381" cy="5409524"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4944,1770 +4944,2003 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="48"/>
-      <c r="B1" s="122" t="s">
+      <c r="B1" s="153" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
-      <c r="J1" s="122"/>
-      <c r="K1" s="122"/>
-      <c r="L1" s="122"/>
-      <c r="M1" s="122"/>
-      <c r="N1" s="122"/>
-      <c r="O1" s="122"/>
-      <c r="P1" s="122"/>
-      <c r="Q1" s="122"/>
-      <c r="R1" s="122"/>
-      <c r="S1" s="122"/>
-      <c r="T1" s="122"/>
-      <c r="U1" s="122"/>
-      <c r="V1" s="122"/>
-      <c r="W1" s="122"/>
-      <c r="X1" s="122"/>
-      <c r="Y1" s="122"/>
-      <c r="Z1" s="122"/>
-      <c r="AA1" s="122"/>
-      <c r="AB1" s="122"/>
-      <c r="AC1" s="122"/>
-      <c r="AD1" s="122"/>
-      <c r="AE1" s="122"/>
-      <c r="AF1" s="122"/>
-      <c r="AG1" s="122"/>
-      <c r="AH1" s="122"/>
-      <c r="AI1" s="122"/>
-      <c r="AJ1" s="122"/>
-      <c r="AK1" s="122"/>
-      <c r="AL1" s="122"/>
-      <c r="AM1" s="122"/>
-      <c r="AN1" s="122"/>
-      <c r="AO1" s="122"/>
-      <c r="AP1" s="122"/>
-      <c r="AQ1" s="122"/>
-      <c r="AR1" s="122"/>
-      <c r="AS1" s="122"/>
-      <c r="AT1" s="122"/>
-      <c r="AU1" s="122"/>
-      <c r="AV1" s="122"/>
-      <c r="AW1" s="122"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
+      <c r="I1" s="153"/>
+      <c r="J1" s="153"/>
+      <c r="K1" s="153"/>
+      <c r="L1" s="153"/>
+      <c r="M1" s="153"/>
+      <c r="N1" s="153"/>
+      <c r="O1" s="153"/>
+      <c r="P1" s="153"/>
+      <c r="Q1" s="153"/>
+      <c r="R1" s="153"/>
+      <c r="S1" s="153"/>
+      <c r="T1" s="153"/>
+      <c r="U1" s="153"/>
+      <c r="V1" s="153"/>
+      <c r="W1" s="153"/>
+      <c r="X1" s="153"/>
+      <c r="Y1" s="153"/>
+      <c r="Z1" s="153"/>
+      <c r="AA1" s="153"/>
+      <c r="AB1" s="153"/>
+      <c r="AC1" s="153"/>
+      <c r="AD1" s="153"/>
+      <c r="AE1" s="153"/>
+      <c r="AF1" s="153"/>
+      <c r="AG1" s="153"/>
+      <c r="AH1" s="153"/>
+      <c r="AI1" s="153"/>
+      <c r="AJ1" s="153"/>
+      <c r="AK1" s="153"/>
+      <c r="AL1" s="153"/>
+      <c r="AM1" s="153"/>
+      <c r="AN1" s="153"/>
+      <c r="AO1" s="153"/>
+      <c r="AP1" s="153"/>
+      <c r="AQ1" s="153"/>
+      <c r="AR1" s="153"/>
+      <c r="AS1" s="153"/>
+      <c r="AT1" s="153"/>
+      <c r="AU1" s="153"/>
+      <c r="AV1" s="153"/>
+      <c r="AW1" s="153"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="48"/>
-      <c r="B2" s="123"/>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
-      <c r="L2" s="123"/>
-      <c r="M2" s="123"/>
-      <c r="N2" s="123"/>
-      <c r="O2" s="123"/>
-      <c r="P2" s="123"/>
-      <c r="Q2" s="123"/>
-      <c r="R2" s="123"/>
-      <c r="S2" s="123"/>
-      <c r="T2" s="123"/>
-      <c r="U2" s="123"/>
-      <c r="V2" s="123"/>
-      <c r="W2" s="123"/>
-      <c r="X2" s="123"/>
-      <c r="Y2" s="123"/>
-      <c r="Z2" s="123"/>
-      <c r="AA2" s="123"/>
-      <c r="AB2" s="123"/>
-      <c r="AC2" s="123"/>
-      <c r="AD2" s="123"/>
-      <c r="AE2" s="123"/>
-      <c r="AF2" s="123"/>
-      <c r="AG2" s="123"/>
-      <c r="AH2" s="123"/>
-      <c r="AI2" s="123"/>
-      <c r="AJ2" s="123"/>
-      <c r="AK2" s="123"/>
-      <c r="AL2" s="123"/>
-      <c r="AM2" s="123"/>
-      <c r="AN2" s="123"/>
-      <c r="AO2" s="123"/>
-      <c r="AP2" s="123"/>
-      <c r="AQ2" s="123"/>
-      <c r="AR2" s="123"/>
-      <c r="AS2" s="123"/>
-      <c r="AT2" s="123"/>
-      <c r="AU2" s="123"/>
-      <c r="AV2" s="123"/>
-      <c r="AW2" s="123"/>
+      <c r="B2" s="154"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="154"/>
+      <c r="J2" s="154"/>
+      <c r="K2" s="154"/>
+      <c r="L2" s="154"/>
+      <c r="M2" s="154"/>
+      <c r="N2" s="154"/>
+      <c r="O2" s="154"/>
+      <c r="P2" s="154"/>
+      <c r="Q2" s="154"/>
+      <c r="R2" s="154"/>
+      <c r="S2" s="154"/>
+      <c r="T2" s="154"/>
+      <c r="U2" s="154"/>
+      <c r="V2" s="154"/>
+      <c r="W2" s="154"/>
+      <c r="X2" s="154"/>
+      <c r="Y2" s="154"/>
+      <c r="Z2" s="154"/>
+      <c r="AA2" s="154"/>
+      <c r="AB2" s="154"/>
+      <c r="AC2" s="154"/>
+      <c r="AD2" s="154"/>
+      <c r="AE2" s="154"/>
+      <c r="AF2" s="154"/>
+      <c r="AG2" s="154"/>
+      <c r="AH2" s="154"/>
+      <c r="AI2" s="154"/>
+      <c r="AJ2" s="154"/>
+      <c r="AK2" s="154"/>
+      <c r="AL2" s="154"/>
+      <c r="AM2" s="154"/>
+      <c r="AN2" s="154"/>
+      <c r="AO2" s="154"/>
+      <c r="AP2" s="154"/>
+      <c r="AQ2" s="154"/>
+      <c r="AR2" s="154"/>
+      <c r="AS2" s="154"/>
+      <c r="AT2" s="154"/>
+      <c r="AU2" s="154"/>
+      <c r="AV2" s="154"/>
+      <c r="AW2" s="154"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="48"/>
-      <c r="B3" s="124" t="s">
+      <c r="B3" s="155" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124" t="s">
+      <c r="C3" s="155"/>
+      <c r="D3" s="155"/>
+      <c r="E3" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="124"/>
-      <c r="J3" s="125" t="s">
+      <c r="F3" s="155"/>
+      <c r="G3" s="155"/>
+      <c r="H3" s="155"/>
+      <c r="I3" s="155"/>
+      <c r="J3" s="156" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="126"/>
-      <c r="L3" s="127"/>
-      <c r="M3" s="125" t="s">
+      <c r="K3" s="157"/>
+      <c r="L3" s="158"/>
+      <c r="M3" s="156" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="126"/>
-      <c r="O3" s="126"/>
-      <c r="P3" s="126"/>
-      <c r="Q3" s="126"/>
-      <c r="R3" s="127"/>
-      <c r="S3" s="124" t="s">
+      <c r="N3" s="157"/>
+      <c r="O3" s="157"/>
+      <c r="P3" s="157"/>
+      <c r="Q3" s="157"/>
+      <c r="R3" s="158"/>
+      <c r="S3" s="155" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="124"/>
-      <c r="U3" s="124"/>
-      <c r="V3" s="124" t="s">
+      <c r="T3" s="155"/>
+      <c r="U3" s="155"/>
+      <c r="V3" s="155" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="124"/>
-      <c r="X3" s="124"/>
-      <c r="Y3" s="124"/>
-      <c r="Z3" s="124"/>
-      <c r="AA3" s="124"/>
-      <c r="AB3" s="124"/>
-      <c r="AC3" s="124"/>
-      <c r="AD3" s="124"/>
-      <c r="AE3" s="124"/>
-      <c r="AF3" s="124"/>
-      <c r="AG3" s="124"/>
-      <c r="AH3" s="124"/>
-      <c r="AI3" s="124"/>
-      <c r="AJ3" s="124"/>
-      <c r="AK3" s="124"/>
-      <c r="AL3" s="124"/>
-      <c r="AM3" s="124"/>
-      <c r="AN3" s="124" t="s">
+      <c r="W3" s="155"/>
+      <c r="X3" s="155"/>
+      <c r="Y3" s="155"/>
+      <c r="Z3" s="155"/>
+      <c r="AA3" s="155"/>
+      <c r="AB3" s="155"/>
+      <c r="AC3" s="155"/>
+      <c r="AD3" s="155"/>
+      <c r="AE3" s="155"/>
+      <c r="AF3" s="155"/>
+      <c r="AG3" s="155"/>
+      <c r="AH3" s="155"/>
+      <c r="AI3" s="155"/>
+      <c r="AJ3" s="155"/>
+      <c r="AK3" s="155"/>
+      <c r="AL3" s="155"/>
+      <c r="AM3" s="155"/>
+      <c r="AN3" s="155" t="s">
         <v>13</v>
       </c>
-      <c r="AO3" s="124"/>
-      <c r="AP3" s="124"/>
-      <c r="AQ3" s="124"/>
-      <c r="AR3" s="124"/>
-      <c r="AS3" s="124" t="s">
+      <c r="AO3" s="155"/>
+      <c r="AP3" s="155"/>
+      <c r="AQ3" s="155"/>
+      <c r="AR3" s="155"/>
+      <c r="AS3" s="155" t="s">
         <v>14</v>
       </c>
-      <c r="AT3" s="124"/>
-      <c r="AU3" s="124"/>
-      <c r="AV3" s="124"/>
-      <c r="AW3" s="124"/>
+      <c r="AT3" s="155"/>
+      <c r="AU3" s="155"/>
+      <c r="AV3" s="155"/>
+      <c r="AW3" s="155"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="48"/>
-      <c r="B4" s="124"/>
-      <c r="C4" s="124"/>
-      <c r="D4" s="124"/>
-      <c r="E4" s="124"/>
-      <c r="F4" s="124"/>
-      <c r="G4" s="124"/>
-      <c r="H4" s="124"/>
-      <c r="I4" s="124"/>
-      <c r="J4" s="128"/>
-      <c r="K4" s="129"/>
-      <c r="L4" s="130"/>
-      <c r="M4" s="128"/>
-      <c r="N4" s="129"/>
-      <c r="O4" s="129"/>
-      <c r="P4" s="129"/>
-      <c r="Q4" s="129"/>
-      <c r="R4" s="130"/>
-      <c r="S4" s="124"/>
-      <c r="T4" s="124"/>
-      <c r="U4" s="124"/>
-      <c r="V4" s="124"/>
-      <c r="W4" s="124"/>
-      <c r="X4" s="124"/>
-      <c r="Y4" s="124"/>
-      <c r="Z4" s="124"/>
-      <c r="AA4" s="124"/>
-      <c r="AB4" s="124"/>
-      <c r="AC4" s="124"/>
-      <c r="AD4" s="124"/>
-      <c r="AE4" s="124"/>
-      <c r="AF4" s="124"/>
-      <c r="AG4" s="124"/>
-      <c r="AH4" s="124"/>
-      <c r="AI4" s="124"/>
-      <c r="AJ4" s="124"/>
-      <c r="AK4" s="124"/>
-      <c r="AL4" s="124"/>
-      <c r="AM4" s="124"/>
-      <c r="AN4" s="124"/>
-      <c r="AO4" s="124"/>
-      <c r="AP4" s="124"/>
-      <c r="AQ4" s="124"/>
-      <c r="AR4" s="124"/>
-      <c r="AS4" s="124"/>
-      <c r="AT4" s="124"/>
-      <c r="AU4" s="124"/>
-      <c r="AV4" s="124"/>
-      <c r="AW4" s="124"/>
+      <c r="B4" s="155"/>
+      <c r="C4" s="155"/>
+      <c r="D4" s="155"/>
+      <c r="E4" s="155"/>
+      <c r="F4" s="155"/>
+      <c r="G4" s="155"/>
+      <c r="H4" s="155"/>
+      <c r="I4" s="155"/>
+      <c r="J4" s="159"/>
+      <c r="K4" s="160"/>
+      <c r="L4" s="161"/>
+      <c r="M4" s="159"/>
+      <c r="N4" s="160"/>
+      <c r="O4" s="160"/>
+      <c r="P4" s="160"/>
+      <c r="Q4" s="160"/>
+      <c r="R4" s="161"/>
+      <c r="S4" s="155"/>
+      <c r="T4" s="155"/>
+      <c r="U4" s="155"/>
+      <c r="V4" s="155"/>
+      <c r="W4" s="155"/>
+      <c r="X4" s="155"/>
+      <c r="Y4" s="155"/>
+      <c r="Z4" s="155"/>
+      <c r="AA4" s="155"/>
+      <c r="AB4" s="155"/>
+      <c r="AC4" s="155"/>
+      <c r="AD4" s="155"/>
+      <c r="AE4" s="155"/>
+      <c r="AF4" s="155"/>
+      <c r="AG4" s="155"/>
+      <c r="AH4" s="155"/>
+      <c r="AI4" s="155"/>
+      <c r="AJ4" s="155"/>
+      <c r="AK4" s="155"/>
+      <c r="AL4" s="155"/>
+      <c r="AM4" s="155"/>
+      <c r="AN4" s="155"/>
+      <c r="AO4" s="155"/>
+      <c r="AP4" s="155"/>
+      <c r="AQ4" s="155"/>
+      <c r="AR4" s="155"/>
+      <c r="AS4" s="155"/>
+      <c r="AT4" s="155"/>
+      <c r="AU4" s="155"/>
+      <c r="AV4" s="155"/>
+      <c r="AW4" s="155"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="50"/>
-      <c r="B5" s="132">
+      <c r="B5" s="147">
         <v>1</v>
       </c>
-      <c r="C5" s="132"/>
-      <c r="D5" s="132"/>
-      <c r="E5" s="133">
+      <c r="C5" s="147"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="128">
         <v>43714</v>
       </c>
-      <c r="F5" s="133"/>
-      <c r="G5" s="133"/>
-      <c r="H5" s="133"/>
-      <c r="I5" s="133"/>
-      <c r="J5" s="134" t="s">
+      <c r="F5" s="128"/>
+      <c r="G5" s="128"/>
+      <c r="H5" s="128"/>
+      <c r="I5" s="128"/>
+      <c r="J5" s="129" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="135"/>
-      <c r="L5" s="136"/>
-      <c r="M5" s="134" t="s">
+      <c r="K5" s="130"/>
+      <c r="L5" s="131"/>
+      <c r="M5" s="129" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="135"/>
-      <c r="O5" s="135"/>
-      <c r="P5" s="135"/>
-      <c r="Q5" s="135"/>
-      <c r="R5" s="136"/>
-      <c r="S5" s="131" t="s">
+      <c r="N5" s="130"/>
+      <c r="O5" s="130"/>
+      <c r="P5" s="130"/>
+      <c r="Q5" s="130"/>
+      <c r="R5" s="131"/>
+      <c r="S5" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="131"/>
-      <c r="U5" s="131"/>
-      <c r="V5" s="140" t="s">
+      <c r="T5" s="135"/>
+      <c r="U5" s="135"/>
+      <c r="V5" s="146" t="s">
         <v>18</v>
       </c>
-      <c r="W5" s="140"/>
-      <c r="X5" s="140"/>
-      <c r="Y5" s="140"/>
-      <c r="Z5" s="140"/>
-      <c r="AA5" s="140"/>
-      <c r="AB5" s="140"/>
-      <c r="AC5" s="140"/>
-      <c r="AD5" s="140"/>
-      <c r="AE5" s="140"/>
-      <c r="AF5" s="140"/>
-      <c r="AG5" s="140"/>
-      <c r="AH5" s="140"/>
-      <c r="AI5" s="140"/>
-      <c r="AJ5" s="140"/>
-      <c r="AK5" s="140"/>
-      <c r="AL5" s="140"/>
-      <c r="AM5" s="140"/>
-      <c r="AN5" s="131" t="s">
+      <c r="W5" s="146"/>
+      <c r="X5" s="146"/>
+      <c r="Y5" s="146"/>
+      <c r="Z5" s="146"/>
+      <c r="AA5" s="146"/>
+      <c r="AB5" s="146"/>
+      <c r="AC5" s="146"/>
+      <c r="AD5" s="146"/>
+      <c r="AE5" s="146"/>
+      <c r="AF5" s="146"/>
+      <c r="AG5" s="146"/>
+      <c r="AH5" s="146"/>
+      <c r="AI5" s="146"/>
+      <c r="AJ5" s="146"/>
+      <c r="AK5" s="146"/>
+      <c r="AL5" s="146"/>
+      <c r="AM5" s="146"/>
+      <c r="AN5" s="135" t="s">
         <v>106</v>
       </c>
-      <c r="AO5" s="131"/>
-      <c r="AP5" s="131"/>
-      <c r="AQ5" s="131"/>
-      <c r="AR5" s="131"/>
-      <c r="AS5" s="131"/>
-      <c r="AT5" s="131"/>
-      <c r="AU5" s="131"/>
-      <c r="AV5" s="131"/>
-      <c r="AW5" s="131"/>
+      <c r="AO5" s="135"/>
+      <c r="AP5" s="135"/>
+      <c r="AQ5" s="135"/>
+      <c r="AR5" s="135"/>
+      <c r="AS5" s="135"/>
+      <c r="AT5" s="135"/>
+      <c r="AU5" s="135"/>
+      <c r="AV5" s="135"/>
+      <c r="AW5" s="135"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="50"/>
-      <c r="B6" s="132"/>
-      <c r="C6" s="132"/>
-      <c r="D6" s="132"/>
-      <c r="E6" s="133"/>
-      <c r="F6" s="133"/>
-      <c r="G6" s="133"/>
-      <c r="H6" s="133"/>
-      <c r="I6" s="133"/>
-      <c r="J6" s="134"/>
-      <c r="K6" s="135"/>
-      <c r="L6" s="136"/>
-      <c r="M6" s="137"/>
-      <c r="N6" s="138"/>
-      <c r="O6" s="138"/>
-      <c r="P6" s="138"/>
-      <c r="Q6" s="138"/>
-      <c r="R6" s="139"/>
-      <c r="S6" s="131"/>
-      <c r="T6" s="131"/>
-      <c r="U6" s="131"/>
-      <c r="V6" s="140"/>
-      <c r="W6" s="140"/>
-      <c r="X6" s="140"/>
-      <c r="Y6" s="140"/>
-      <c r="Z6" s="140"/>
-      <c r="AA6" s="140"/>
-      <c r="AB6" s="140"/>
-      <c r="AC6" s="140"/>
-      <c r="AD6" s="140"/>
-      <c r="AE6" s="140"/>
-      <c r="AF6" s="140"/>
-      <c r="AG6" s="140"/>
-      <c r="AH6" s="140"/>
-      <c r="AI6" s="140"/>
-      <c r="AJ6" s="140"/>
-      <c r="AK6" s="140"/>
-      <c r="AL6" s="140"/>
-      <c r="AM6" s="140"/>
-      <c r="AN6" s="131"/>
-      <c r="AO6" s="131"/>
-      <c r="AP6" s="131"/>
-      <c r="AQ6" s="131"/>
-      <c r="AR6" s="131"/>
-      <c r="AS6" s="131"/>
-      <c r="AT6" s="131"/>
-      <c r="AU6" s="131"/>
-      <c r="AV6" s="131"/>
-      <c r="AW6" s="131"/>
+      <c r="B6" s="147"/>
+      <c r="C6" s="147"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="128"/>
+      <c r="G6" s="128"/>
+      <c r="H6" s="128"/>
+      <c r="I6" s="128"/>
+      <c r="J6" s="129"/>
+      <c r="K6" s="130"/>
+      <c r="L6" s="131"/>
+      <c r="M6" s="150"/>
+      <c r="N6" s="151"/>
+      <c r="O6" s="151"/>
+      <c r="P6" s="151"/>
+      <c r="Q6" s="151"/>
+      <c r="R6" s="152"/>
+      <c r="S6" s="135"/>
+      <c r="T6" s="135"/>
+      <c r="U6" s="135"/>
+      <c r="V6" s="146"/>
+      <c r="W6" s="146"/>
+      <c r="X6" s="146"/>
+      <c r="Y6" s="146"/>
+      <c r="Z6" s="146"/>
+      <c r="AA6" s="146"/>
+      <c r="AB6" s="146"/>
+      <c r="AC6" s="146"/>
+      <c r="AD6" s="146"/>
+      <c r="AE6" s="146"/>
+      <c r="AF6" s="146"/>
+      <c r="AG6" s="146"/>
+      <c r="AH6" s="146"/>
+      <c r="AI6" s="146"/>
+      <c r="AJ6" s="146"/>
+      <c r="AK6" s="146"/>
+      <c r="AL6" s="146"/>
+      <c r="AM6" s="146"/>
+      <c r="AN6" s="135"/>
+      <c r="AO6" s="135"/>
+      <c r="AP6" s="135"/>
+      <c r="AQ6" s="135"/>
+      <c r="AR6" s="135"/>
+      <c r="AS6" s="135"/>
+      <c r="AT6" s="135"/>
+      <c r="AU6" s="135"/>
+      <c r="AV6" s="135"/>
+      <c r="AW6" s="135"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="50"/>
-      <c r="B7" s="132"/>
-      <c r="C7" s="132"/>
-      <c r="D7" s="132"/>
-      <c r="E7" s="133"/>
-      <c r="F7" s="133"/>
-      <c r="G7" s="133"/>
-      <c r="H7" s="133"/>
-      <c r="I7" s="133"/>
-      <c r="J7" s="134"/>
-      <c r="K7" s="135"/>
-      <c r="L7" s="136"/>
-      <c r="M7" s="137"/>
-      <c r="N7" s="138"/>
-      <c r="O7" s="138"/>
-      <c r="P7" s="138"/>
-      <c r="Q7" s="138"/>
-      <c r="R7" s="139"/>
-      <c r="S7" s="131"/>
-      <c r="T7" s="131"/>
-      <c r="U7" s="131"/>
-      <c r="V7" s="140"/>
-      <c r="W7" s="140"/>
-      <c r="X7" s="140"/>
-      <c r="Y7" s="140"/>
-      <c r="Z7" s="140"/>
-      <c r="AA7" s="140"/>
-      <c r="AB7" s="140"/>
-      <c r="AC7" s="140"/>
-      <c r="AD7" s="140"/>
-      <c r="AE7" s="140"/>
-      <c r="AF7" s="140"/>
-      <c r="AG7" s="140"/>
-      <c r="AH7" s="140"/>
-      <c r="AI7" s="140"/>
-      <c r="AJ7" s="140"/>
-      <c r="AK7" s="140"/>
-      <c r="AL7" s="140"/>
-      <c r="AM7" s="140"/>
-      <c r="AN7" s="131"/>
-      <c r="AO7" s="131"/>
-      <c r="AP7" s="131"/>
-      <c r="AQ7" s="131"/>
-      <c r="AR7" s="131"/>
-      <c r="AS7" s="131"/>
-      <c r="AT7" s="131"/>
-      <c r="AU7" s="131"/>
-      <c r="AV7" s="131"/>
-      <c r="AW7" s="131"/>
+      <c r="B7" s="147"/>
+      <c r="C7" s="147"/>
+      <c r="D7" s="147"/>
+      <c r="E7" s="128"/>
+      <c r="F7" s="128"/>
+      <c r="G7" s="128"/>
+      <c r="H7" s="128"/>
+      <c r="I7" s="128"/>
+      <c r="J7" s="129"/>
+      <c r="K7" s="130"/>
+      <c r="L7" s="131"/>
+      <c r="M7" s="150"/>
+      <c r="N7" s="151"/>
+      <c r="O7" s="151"/>
+      <c r="P7" s="151"/>
+      <c r="Q7" s="151"/>
+      <c r="R7" s="152"/>
+      <c r="S7" s="135"/>
+      <c r="T7" s="135"/>
+      <c r="U7" s="135"/>
+      <c r="V7" s="146"/>
+      <c r="W7" s="146"/>
+      <c r="X7" s="146"/>
+      <c r="Y7" s="146"/>
+      <c r="Z7" s="146"/>
+      <c r="AA7" s="146"/>
+      <c r="AB7" s="146"/>
+      <c r="AC7" s="146"/>
+      <c r="AD7" s="146"/>
+      <c r="AE7" s="146"/>
+      <c r="AF7" s="146"/>
+      <c r="AG7" s="146"/>
+      <c r="AH7" s="146"/>
+      <c r="AI7" s="146"/>
+      <c r="AJ7" s="146"/>
+      <c r="AK7" s="146"/>
+      <c r="AL7" s="146"/>
+      <c r="AM7" s="146"/>
+      <c r="AN7" s="135"/>
+      <c r="AO7" s="135"/>
+      <c r="AP7" s="135"/>
+      <c r="AQ7" s="135"/>
+      <c r="AR7" s="135"/>
+      <c r="AS7" s="135"/>
+      <c r="AT7" s="135"/>
+      <c r="AU7" s="135"/>
+      <c r="AV7" s="135"/>
+      <c r="AW7" s="135"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="50"/>
-      <c r="B8" s="132"/>
-      <c r="C8" s="132"/>
-      <c r="D8" s="132"/>
-      <c r="E8" s="133"/>
-      <c r="F8" s="133"/>
-      <c r="G8" s="133"/>
-      <c r="H8" s="133"/>
-      <c r="I8" s="133"/>
-      <c r="J8" s="134"/>
-      <c r="K8" s="135"/>
-      <c r="L8" s="136"/>
-      <c r="M8" s="137"/>
-      <c r="N8" s="138"/>
-      <c r="O8" s="138"/>
-      <c r="P8" s="138"/>
-      <c r="Q8" s="138"/>
-      <c r="R8" s="139"/>
-      <c r="S8" s="131"/>
-      <c r="T8" s="131"/>
-      <c r="U8" s="131"/>
-      <c r="V8" s="140"/>
-      <c r="W8" s="140"/>
-      <c r="X8" s="140"/>
-      <c r="Y8" s="140"/>
-      <c r="Z8" s="140"/>
-      <c r="AA8" s="140"/>
-      <c r="AB8" s="140"/>
-      <c r="AC8" s="140"/>
-      <c r="AD8" s="140"/>
-      <c r="AE8" s="140"/>
-      <c r="AF8" s="140"/>
-      <c r="AG8" s="140"/>
-      <c r="AH8" s="140"/>
-      <c r="AI8" s="140"/>
-      <c r="AJ8" s="140"/>
-      <c r="AK8" s="140"/>
-      <c r="AL8" s="140"/>
-      <c r="AM8" s="140"/>
-      <c r="AN8" s="131"/>
-      <c r="AO8" s="131"/>
-      <c r="AP8" s="131"/>
-      <c r="AQ8" s="131"/>
-      <c r="AR8" s="131"/>
-      <c r="AS8" s="131"/>
-      <c r="AT8" s="131"/>
-      <c r="AU8" s="131"/>
-      <c r="AV8" s="131"/>
-      <c r="AW8" s="131"/>
+      <c r="B8" s="147"/>
+      <c r="C8" s="147"/>
+      <c r="D8" s="147"/>
+      <c r="E8" s="128"/>
+      <c r="F8" s="128"/>
+      <c r="G8" s="128"/>
+      <c r="H8" s="128"/>
+      <c r="I8" s="128"/>
+      <c r="J8" s="129"/>
+      <c r="K8" s="130"/>
+      <c r="L8" s="131"/>
+      <c r="M8" s="150"/>
+      <c r="N8" s="151"/>
+      <c r="O8" s="151"/>
+      <c r="P8" s="151"/>
+      <c r="Q8" s="151"/>
+      <c r="R8" s="152"/>
+      <c r="S8" s="135"/>
+      <c r="T8" s="135"/>
+      <c r="U8" s="135"/>
+      <c r="V8" s="146"/>
+      <c r="W8" s="146"/>
+      <c r="X8" s="146"/>
+      <c r="Y8" s="146"/>
+      <c r="Z8" s="146"/>
+      <c r="AA8" s="146"/>
+      <c r="AB8" s="146"/>
+      <c r="AC8" s="146"/>
+      <c r="AD8" s="146"/>
+      <c r="AE8" s="146"/>
+      <c r="AF8" s="146"/>
+      <c r="AG8" s="146"/>
+      <c r="AH8" s="146"/>
+      <c r="AI8" s="146"/>
+      <c r="AJ8" s="146"/>
+      <c r="AK8" s="146"/>
+      <c r="AL8" s="146"/>
+      <c r="AM8" s="146"/>
+      <c r="AN8" s="135"/>
+      <c r="AO8" s="135"/>
+      <c r="AP8" s="135"/>
+      <c r="AQ8" s="135"/>
+      <c r="AR8" s="135"/>
+      <c r="AS8" s="135"/>
+      <c r="AT8" s="135"/>
+      <c r="AU8" s="135"/>
+      <c r="AV8" s="135"/>
+      <c r="AW8" s="135"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="50"/>
-      <c r="B9" s="132"/>
-      <c r="C9" s="132"/>
-      <c r="D9" s="132"/>
-      <c r="E9" s="133"/>
-      <c r="F9" s="133"/>
-      <c r="G9" s="133"/>
-      <c r="H9" s="133"/>
-      <c r="I9" s="133"/>
-      <c r="J9" s="134"/>
-      <c r="K9" s="135"/>
-      <c r="L9" s="136"/>
-      <c r="M9" s="137"/>
-      <c r="N9" s="138"/>
-      <c r="O9" s="138"/>
-      <c r="P9" s="138"/>
-      <c r="Q9" s="138"/>
-      <c r="R9" s="139"/>
-      <c r="S9" s="131"/>
-      <c r="T9" s="131"/>
-      <c r="U9" s="131"/>
-      <c r="V9" s="140"/>
-      <c r="W9" s="140"/>
-      <c r="X9" s="140"/>
-      <c r="Y9" s="140"/>
-      <c r="Z9" s="140"/>
-      <c r="AA9" s="140"/>
-      <c r="AB9" s="140"/>
-      <c r="AC9" s="140"/>
-      <c r="AD9" s="140"/>
-      <c r="AE9" s="140"/>
-      <c r="AF9" s="140"/>
-      <c r="AG9" s="140"/>
-      <c r="AH9" s="140"/>
-      <c r="AI9" s="140"/>
-      <c r="AJ9" s="140"/>
-      <c r="AK9" s="140"/>
-      <c r="AL9" s="140"/>
-      <c r="AM9" s="140"/>
-      <c r="AN9" s="131"/>
-      <c r="AO9" s="131"/>
-      <c r="AP9" s="131"/>
-      <c r="AQ9" s="131"/>
-      <c r="AR9" s="131"/>
-      <c r="AS9" s="131"/>
-      <c r="AT9" s="131"/>
-      <c r="AU9" s="131"/>
-      <c r="AV9" s="131"/>
-      <c r="AW9" s="131"/>
+      <c r="B9" s="147"/>
+      <c r="C9" s="147"/>
+      <c r="D9" s="147"/>
+      <c r="E9" s="128"/>
+      <c r="F9" s="128"/>
+      <c r="G9" s="128"/>
+      <c r="H9" s="128"/>
+      <c r="I9" s="128"/>
+      <c r="J9" s="129"/>
+      <c r="K9" s="130"/>
+      <c r="L9" s="131"/>
+      <c r="M9" s="150"/>
+      <c r="N9" s="151"/>
+      <c r="O9" s="151"/>
+      <c r="P9" s="151"/>
+      <c r="Q9" s="151"/>
+      <c r="R9" s="152"/>
+      <c r="S9" s="135"/>
+      <c r="T9" s="135"/>
+      <c r="U9" s="135"/>
+      <c r="V9" s="146"/>
+      <c r="W9" s="146"/>
+      <c r="X9" s="146"/>
+      <c r="Y9" s="146"/>
+      <c r="Z9" s="146"/>
+      <c r="AA9" s="146"/>
+      <c r="AB9" s="146"/>
+      <c r="AC9" s="146"/>
+      <c r="AD9" s="146"/>
+      <c r="AE9" s="146"/>
+      <c r="AF9" s="146"/>
+      <c r="AG9" s="146"/>
+      <c r="AH9" s="146"/>
+      <c r="AI9" s="146"/>
+      <c r="AJ9" s="146"/>
+      <c r="AK9" s="146"/>
+      <c r="AL9" s="146"/>
+      <c r="AM9" s="146"/>
+      <c r="AN9" s="135"/>
+      <c r="AO9" s="135"/>
+      <c r="AP9" s="135"/>
+      <c r="AQ9" s="135"/>
+      <c r="AR9" s="135"/>
+      <c r="AS9" s="135"/>
+      <c r="AT9" s="135"/>
+      <c r="AU9" s="135"/>
+      <c r="AV9" s="135"/>
+      <c r="AW9" s="135"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="50"/>
-      <c r="B10" s="132"/>
-      <c r="C10" s="132"/>
-      <c r="D10" s="132"/>
-      <c r="E10" s="133"/>
-      <c r="F10" s="133"/>
-      <c r="G10" s="133"/>
-      <c r="H10" s="133"/>
-      <c r="I10" s="133"/>
-      <c r="J10" s="134"/>
-      <c r="K10" s="135"/>
-      <c r="L10" s="136"/>
-      <c r="M10" s="137"/>
-      <c r="N10" s="138"/>
-      <c r="O10" s="138"/>
-      <c r="P10" s="138"/>
-      <c r="Q10" s="138"/>
-      <c r="R10" s="139"/>
-      <c r="S10" s="131"/>
-      <c r="T10" s="131"/>
-      <c r="U10" s="131"/>
-      <c r="V10" s="140"/>
-      <c r="W10" s="140"/>
-      <c r="X10" s="140"/>
-      <c r="Y10" s="140"/>
-      <c r="Z10" s="140"/>
-      <c r="AA10" s="140"/>
-      <c r="AB10" s="140"/>
-      <c r="AC10" s="140"/>
-      <c r="AD10" s="140"/>
-      <c r="AE10" s="140"/>
-      <c r="AF10" s="140"/>
-      <c r="AG10" s="140"/>
-      <c r="AH10" s="140"/>
-      <c r="AI10" s="140"/>
-      <c r="AJ10" s="140"/>
-      <c r="AK10" s="140"/>
-      <c r="AL10" s="140"/>
-      <c r="AM10" s="140"/>
-      <c r="AN10" s="131"/>
-      <c r="AO10" s="131"/>
-      <c r="AP10" s="131"/>
-      <c r="AQ10" s="131"/>
-      <c r="AR10" s="131"/>
-      <c r="AS10" s="131"/>
-      <c r="AT10" s="131"/>
-      <c r="AU10" s="131"/>
-      <c r="AV10" s="131"/>
-      <c r="AW10" s="131"/>
+      <c r="B10" s="147"/>
+      <c r="C10" s="147"/>
+      <c r="D10" s="147"/>
+      <c r="E10" s="128"/>
+      <c r="F10" s="128"/>
+      <c r="G10" s="128"/>
+      <c r="H10" s="128"/>
+      <c r="I10" s="128"/>
+      <c r="J10" s="129"/>
+      <c r="K10" s="130"/>
+      <c r="L10" s="131"/>
+      <c r="M10" s="150"/>
+      <c r="N10" s="151"/>
+      <c r="O10" s="151"/>
+      <c r="P10" s="151"/>
+      <c r="Q10" s="151"/>
+      <c r="R10" s="152"/>
+      <c r="S10" s="135"/>
+      <c r="T10" s="135"/>
+      <c r="U10" s="135"/>
+      <c r="V10" s="146"/>
+      <c r="W10" s="146"/>
+      <c r="X10" s="146"/>
+      <c r="Y10" s="146"/>
+      <c r="Z10" s="146"/>
+      <c r="AA10" s="146"/>
+      <c r="AB10" s="146"/>
+      <c r="AC10" s="146"/>
+      <c r="AD10" s="146"/>
+      <c r="AE10" s="146"/>
+      <c r="AF10" s="146"/>
+      <c r="AG10" s="146"/>
+      <c r="AH10" s="146"/>
+      <c r="AI10" s="146"/>
+      <c r="AJ10" s="146"/>
+      <c r="AK10" s="146"/>
+      <c r="AL10" s="146"/>
+      <c r="AM10" s="146"/>
+      <c r="AN10" s="135"/>
+      <c r="AO10" s="135"/>
+      <c r="AP10" s="135"/>
+      <c r="AQ10" s="135"/>
+      <c r="AR10" s="135"/>
+      <c r="AS10" s="135"/>
+      <c r="AT10" s="135"/>
+      <c r="AU10" s="135"/>
+      <c r="AV10" s="135"/>
+      <c r="AW10" s="135"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="50"/>
-      <c r="B11" s="132"/>
-      <c r="C11" s="132"/>
-      <c r="D11" s="132"/>
-      <c r="E11" s="133"/>
-      <c r="F11" s="133"/>
-      <c r="G11" s="133"/>
-      <c r="H11" s="133"/>
-      <c r="I11" s="133"/>
-      <c r="J11" s="134"/>
-      <c r="K11" s="135"/>
-      <c r="L11" s="136"/>
-      <c r="M11" s="144"/>
-      <c r="N11" s="145"/>
-      <c r="O11" s="145"/>
-      <c r="P11" s="145"/>
-      <c r="Q11" s="145"/>
-      <c r="R11" s="146"/>
-      <c r="S11" s="131"/>
-      <c r="T11" s="131"/>
-      <c r="U11" s="131"/>
-      <c r="V11" s="147"/>
-      <c r="W11" s="153"/>
-      <c r="X11" s="153"/>
-      <c r="Y11" s="153"/>
-      <c r="Z11" s="153"/>
-      <c r="AA11" s="153"/>
-      <c r="AB11" s="153"/>
-      <c r="AC11" s="153"/>
-      <c r="AD11" s="153"/>
-      <c r="AE11" s="153"/>
-      <c r="AF11" s="153"/>
-      <c r="AG11" s="153"/>
-      <c r="AH11" s="153"/>
-      <c r="AI11" s="153"/>
-      <c r="AJ11" s="153"/>
-      <c r="AK11" s="153"/>
-      <c r="AL11" s="153"/>
-      <c r="AM11" s="154"/>
-      <c r="AN11" s="131"/>
-      <c r="AO11" s="131"/>
-      <c r="AP11" s="131"/>
-      <c r="AQ11" s="131"/>
-      <c r="AR11" s="131"/>
-      <c r="AS11" s="131"/>
-      <c r="AT11" s="131"/>
-      <c r="AU11" s="131"/>
-      <c r="AV11" s="131"/>
-      <c r="AW11" s="131"/>
+      <c r="B11" s="147"/>
+      <c r="C11" s="147"/>
+      <c r="D11" s="147"/>
+      <c r="E11" s="128"/>
+      <c r="F11" s="128"/>
+      <c r="G11" s="128"/>
+      <c r="H11" s="128"/>
+      <c r="I11" s="128"/>
+      <c r="J11" s="129"/>
+      <c r="K11" s="130"/>
+      <c r="L11" s="131"/>
+      <c r="M11" s="142"/>
+      <c r="N11" s="140"/>
+      <c r="O11" s="140"/>
+      <c r="P11" s="140"/>
+      <c r="Q11" s="140"/>
+      <c r="R11" s="141"/>
+      <c r="S11" s="135"/>
+      <c r="T11" s="135"/>
+      <c r="U11" s="135"/>
+      <c r="V11" s="136"/>
+      <c r="W11" s="148"/>
+      <c r="X11" s="148"/>
+      <c r="Y11" s="148"/>
+      <c r="Z11" s="148"/>
+      <c r="AA11" s="148"/>
+      <c r="AB11" s="148"/>
+      <c r="AC11" s="148"/>
+      <c r="AD11" s="148"/>
+      <c r="AE11" s="148"/>
+      <c r="AF11" s="148"/>
+      <c r="AG11" s="148"/>
+      <c r="AH11" s="148"/>
+      <c r="AI11" s="148"/>
+      <c r="AJ11" s="148"/>
+      <c r="AK11" s="148"/>
+      <c r="AL11" s="148"/>
+      <c r="AM11" s="149"/>
+      <c r="AN11" s="135"/>
+      <c r="AO11" s="135"/>
+      <c r="AP11" s="135"/>
+      <c r="AQ11" s="135"/>
+      <c r="AR11" s="135"/>
+      <c r="AS11" s="135"/>
+      <c r="AT11" s="135"/>
+      <c r="AU11" s="135"/>
+      <c r="AV11" s="135"/>
+      <c r="AW11" s="135"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="50"/>
-      <c r="B12" s="141"/>
-      <c r="C12" s="142"/>
-      <c r="D12" s="143"/>
-      <c r="E12" s="133"/>
-      <c r="F12" s="133"/>
-      <c r="G12" s="133"/>
-      <c r="H12" s="133"/>
-      <c r="I12" s="133"/>
-      <c r="J12" s="134"/>
-      <c r="K12" s="135"/>
-      <c r="L12" s="136"/>
-      <c r="M12" s="144"/>
-      <c r="N12" s="145"/>
-      <c r="O12" s="145"/>
-      <c r="P12" s="145"/>
-      <c r="Q12" s="145"/>
-      <c r="R12" s="146"/>
-      <c r="S12" s="131"/>
-      <c r="T12" s="131"/>
-      <c r="U12" s="131"/>
-      <c r="V12" s="147"/>
-      <c r="W12" s="148"/>
-      <c r="X12" s="148"/>
-      <c r="Y12" s="148"/>
-      <c r="Z12" s="148"/>
-      <c r="AA12" s="148"/>
-      <c r="AB12" s="148"/>
-      <c r="AC12" s="148"/>
-      <c r="AD12" s="148"/>
-      <c r="AE12" s="148"/>
-      <c r="AF12" s="148"/>
-      <c r="AG12" s="148"/>
-      <c r="AH12" s="148"/>
-      <c r="AI12" s="148"/>
-      <c r="AJ12" s="148"/>
-      <c r="AK12" s="148"/>
-      <c r="AL12" s="148"/>
-      <c r="AM12" s="149"/>
-      <c r="AN12" s="150"/>
-      <c r="AO12" s="151"/>
-      <c r="AP12" s="151"/>
-      <c r="AQ12" s="151"/>
-      <c r="AR12" s="152"/>
-      <c r="AS12" s="150"/>
-      <c r="AT12" s="151"/>
-      <c r="AU12" s="151"/>
-      <c r="AV12" s="151"/>
-      <c r="AW12" s="152"/>
+      <c r="B12" s="125"/>
+      <c r="C12" s="126"/>
+      <c r="D12" s="127"/>
+      <c r="E12" s="128"/>
+      <c r="F12" s="128"/>
+      <c r="G12" s="128"/>
+      <c r="H12" s="128"/>
+      <c r="I12" s="128"/>
+      <c r="J12" s="129"/>
+      <c r="K12" s="130"/>
+      <c r="L12" s="131"/>
+      <c r="M12" s="142"/>
+      <c r="N12" s="140"/>
+      <c r="O12" s="140"/>
+      <c r="P12" s="140"/>
+      <c r="Q12" s="140"/>
+      <c r="R12" s="141"/>
+      <c r="S12" s="135"/>
+      <c r="T12" s="135"/>
+      <c r="U12" s="135"/>
+      <c r="V12" s="136"/>
+      <c r="W12" s="137"/>
+      <c r="X12" s="137"/>
+      <c r="Y12" s="137"/>
+      <c r="Z12" s="137"/>
+      <c r="AA12" s="137"/>
+      <c r="AB12" s="137"/>
+      <c r="AC12" s="137"/>
+      <c r="AD12" s="137"/>
+      <c r="AE12" s="137"/>
+      <c r="AF12" s="137"/>
+      <c r="AG12" s="137"/>
+      <c r="AH12" s="137"/>
+      <c r="AI12" s="137"/>
+      <c r="AJ12" s="137"/>
+      <c r="AK12" s="137"/>
+      <c r="AL12" s="137"/>
+      <c r="AM12" s="138"/>
+      <c r="AN12" s="122"/>
+      <c r="AO12" s="123"/>
+      <c r="AP12" s="123"/>
+      <c r="AQ12" s="123"/>
+      <c r="AR12" s="124"/>
+      <c r="AS12" s="122"/>
+      <c r="AT12" s="123"/>
+      <c r="AU12" s="123"/>
+      <c r="AV12" s="123"/>
+      <c r="AW12" s="124"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="50"/>
-      <c r="B13" s="141"/>
-      <c r="C13" s="142"/>
-      <c r="D13" s="143"/>
-      <c r="E13" s="133"/>
-      <c r="F13" s="133"/>
-      <c r="G13" s="133"/>
-      <c r="H13" s="133"/>
-      <c r="I13" s="133"/>
-      <c r="J13" s="134"/>
-      <c r="K13" s="135"/>
-      <c r="L13" s="136"/>
-      <c r="M13" s="155"/>
-      <c r="N13" s="145"/>
-      <c r="O13" s="145"/>
-      <c r="P13" s="145"/>
-      <c r="Q13" s="145"/>
-      <c r="R13" s="146"/>
-      <c r="S13" s="131"/>
-      <c r="T13" s="131"/>
-      <c r="U13" s="131"/>
-      <c r="V13" s="147"/>
-      <c r="W13" s="148"/>
-      <c r="X13" s="148"/>
-      <c r="Y13" s="148"/>
-      <c r="Z13" s="148"/>
-      <c r="AA13" s="148"/>
-      <c r="AB13" s="148"/>
-      <c r="AC13" s="148"/>
-      <c r="AD13" s="148"/>
-      <c r="AE13" s="148"/>
-      <c r="AF13" s="148"/>
-      <c r="AG13" s="148"/>
-      <c r="AH13" s="148"/>
-      <c r="AI13" s="148"/>
-      <c r="AJ13" s="148"/>
-      <c r="AK13" s="148"/>
-      <c r="AL13" s="148"/>
-      <c r="AM13" s="149"/>
-      <c r="AN13" s="150"/>
-      <c r="AO13" s="151"/>
-      <c r="AP13" s="151"/>
-      <c r="AQ13" s="151"/>
-      <c r="AR13" s="152"/>
-      <c r="AS13" s="150"/>
-      <c r="AT13" s="151"/>
-      <c r="AU13" s="151"/>
-      <c r="AV13" s="151"/>
-      <c r="AW13" s="152"/>
+      <c r="B13" s="125"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="127"/>
+      <c r="E13" s="128"/>
+      <c r="F13" s="128"/>
+      <c r="G13" s="128"/>
+      <c r="H13" s="128"/>
+      <c r="I13" s="128"/>
+      <c r="J13" s="129"/>
+      <c r="K13" s="130"/>
+      <c r="L13" s="131"/>
+      <c r="M13" s="139"/>
+      <c r="N13" s="140"/>
+      <c r="O13" s="140"/>
+      <c r="P13" s="140"/>
+      <c r="Q13" s="140"/>
+      <c r="R13" s="141"/>
+      <c r="S13" s="135"/>
+      <c r="T13" s="135"/>
+      <c r="U13" s="135"/>
+      <c r="V13" s="136"/>
+      <c r="W13" s="137"/>
+      <c r="X13" s="137"/>
+      <c r="Y13" s="137"/>
+      <c r="Z13" s="137"/>
+      <c r="AA13" s="137"/>
+      <c r="AB13" s="137"/>
+      <c r="AC13" s="137"/>
+      <c r="AD13" s="137"/>
+      <c r="AE13" s="137"/>
+      <c r="AF13" s="137"/>
+      <c r="AG13" s="137"/>
+      <c r="AH13" s="137"/>
+      <c r="AI13" s="137"/>
+      <c r="AJ13" s="137"/>
+      <c r="AK13" s="137"/>
+      <c r="AL13" s="137"/>
+      <c r="AM13" s="138"/>
+      <c r="AN13" s="122"/>
+      <c r="AO13" s="123"/>
+      <c r="AP13" s="123"/>
+      <c r="AQ13" s="123"/>
+      <c r="AR13" s="124"/>
+      <c r="AS13" s="122"/>
+      <c r="AT13" s="123"/>
+      <c r="AU13" s="123"/>
+      <c r="AV13" s="123"/>
+      <c r="AW13" s="124"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="50"/>
-      <c r="B14" s="141"/>
-      <c r="C14" s="142"/>
-      <c r="D14" s="143"/>
-      <c r="E14" s="133"/>
-      <c r="F14" s="133"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="133"/>
-      <c r="I14" s="133"/>
-      <c r="J14" s="134"/>
-      <c r="K14" s="135"/>
-      <c r="L14" s="136"/>
-      <c r="M14" s="155"/>
-      <c r="N14" s="145"/>
-      <c r="O14" s="145"/>
-      <c r="P14" s="145"/>
-      <c r="Q14" s="145"/>
-      <c r="R14" s="146"/>
-      <c r="S14" s="131"/>
-      <c r="T14" s="131"/>
-      <c r="U14" s="131"/>
-      <c r="V14" s="156"/>
-      <c r="W14" s="140"/>
-      <c r="X14" s="140"/>
-      <c r="Y14" s="140"/>
-      <c r="Z14" s="140"/>
-      <c r="AA14" s="140"/>
-      <c r="AB14" s="140"/>
-      <c r="AC14" s="140"/>
-      <c r="AD14" s="140"/>
-      <c r="AE14" s="140"/>
-      <c r="AF14" s="140"/>
-      <c r="AG14" s="140"/>
-      <c r="AH14" s="140"/>
-      <c r="AI14" s="140"/>
-      <c r="AJ14" s="140"/>
-      <c r="AK14" s="140"/>
-      <c r="AL14" s="140"/>
-      <c r="AM14" s="140"/>
-      <c r="AN14" s="131"/>
-      <c r="AO14" s="131"/>
-      <c r="AP14" s="131"/>
-      <c r="AQ14" s="131"/>
-      <c r="AR14" s="131"/>
-      <c r="AS14" s="150"/>
-      <c r="AT14" s="151"/>
-      <c r="AU14" s="151"/>
-      <c r="AV14" s="151"/>
-      <c r="AW14" s="152"/>
+      <c r="B14" s="125"/>
+      <c r="C14" s="126"/>
+      <c r="D14" s="127"/>
+      <c r="E14" s="128"/>
+      <c r="F14" s="128"/>
+      <c r="G14" s="128"/>
+      <c r="H14" s="128"/>
+      <c r="I14" s="128"/>
+      <c r="J14" s="129"/>
+      <c r="K14" s="130"/>
+      <c r="L14" s="131"/>
+      <c r="M14" s="139"/>
+      <c r="N14" s="140"/>
+      <c r="O14" s="140"/>
+      <c r="P14" s="140"/>
+      <c r="Q14" s="140"/>
+      <c r="R14" s="141"/>
+      <c r="S14" s="135"/>
+      <c r="T14" s="135"/>
+      <c r="U14" s="135"/>
+      <c r="V14" s="145"/>
+      <c r="W14" s="146"/>
+      <c r="X14" s="146"/>
+      <c r="Y14" s="146"/>
+      <c r="Z14" s="146"/>
+      <c r="AA14" s="146"/>
+      <c r="AB14" s="146"/>
+      <c r="AC14" s="146"/>
+      <c r="AD14" s="146"/>
+      <c r="AE14" s="146"/>
+      <c r="AF14" s="146"/>
+      <c r="AG14" s="146"/>
+      <c r="AH14" s="146"/>
+      <c r="AI14" s="146"/>
+      <c r="AJ14" s="146"/>
+      <c r="AK14" s="146"/>
+      <c r="AL14" s="146"/>
+      <c r="AM14" s="146"/>
+      <c r="AN14" s="135"/>
+      <c r="AO14" s="135"/>
+      <c r="AP14" s="135"/>
+      <c r="AQ14" s="135"/>
+      <c r="AR14" s="135"/>
+      <c r="AS14" s="122"/>
+      <c r="AT14" s="123"/>
+      <c r="AU14" s="123"/>
+      <c r="AV14" s="123"/>
+      <c r="AW14" s="124"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="50"/>
-      <c r="B15" s="141"/>
-      <c r="C15" s="142"/>
-      <c r="D15" s="143"/>
-      <c r="E15" s="133"/>
-      <c r="F15" s="133"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="133"/>
-      <c r="I15" s="133"/>
-      <c r="J15" s="134"/>
-      <c r="K15" s="135"/>
-      <c r="L15" s="136"/>
-      <c r="M15" s="144"/>
-      <c r="N15" s="145"/>
-      <c r="O15" s="145"/>
-      <c r="P15" s="145"/>
-      <c r="Q15" s="145"/>
-      <c r="R15" s="146"/>
-      <c r="S15" s="131"/>
-      <c r="T15" s="131"/>
-      <c r="U15" s="131"/>
-      <c r="V15" s="147"/>
-      <c r="W15" s="148"/>
-      <c r="X15" s="148"/>
-      <c r="Y15" s="148"/>
-      <c r="Z15" s="148"/>
-      <c r="AA15" s="148"/>
-      <c r="AB15" s="148"/>
-      <c r="AC15" s="148"/>
-      <c r="AD15" s="148"/>
-      <c r="AE15" s="148"/>
-      <c r="AF15" s="148"/>
-      <c r="AG15" s="148"/>
-      <c r="AH15" s="148"/>
-      <c r="AI15" s="148"/>
-      <c r="AJ15" s="148"/>
-      <c r="AK15" s="148"/>
-      <c r="AL15" s="148"/>
-      <c r="AM15" s="149"/>
-      <c r="AN15" s="150"/>
-      <c r="AO15" s="151"/>
-      <c r="AP15" s="151"/>
-      <c r="AQ15" s="151"/>
-      <c r="AR15" s="152"/>
-      <c r="AS15" s="150"/>
-      <c r="AT15" s="151"/>
-      <c r="AU15" s="151"/>
-      <c r="AV15" s="151"/>
-      <c r="AW15" s="152"/>
+      <c r="B15" s="125"/>
+      <c r="C15" s="126"/>
+      <c r="D15" s="127"/>
+      <c r="E15" s="128"/>
+      <c r="F15" s="128"/>
+      <c r="G15" s="128"/>
+      <c r="H15" s="128"/>
+      <c r="I15" s="128"/>
+      <c r="J15" s="129"/>
+      <c r="K15" s="130"/>
+      <c r="L15" s="131"/>
+      <c r="M15" s="142"/>
+      <c r="N15" s="140"/>
+      <c r="O15" s="140"/>
+      <c r="P15" s="140"/>
+      <c r="Q15" s="140"/>
+      <c r="R15" s="141"/>
+      <c r="S15" s="135"/>
+      <c r="T15" s="135"/>
+      <c r="U15" s="135"/>
+      <c r="V15" s="136"/>
+      <c r="W15" s="137"/>
+      <c r="X15" s="137"/>
+      <c r="Y15" s="137"/>
+      <c r="Z15" s="137"/>
+      <c r="AA15" s="137"/>
+      <c r="AB15" s="137"/>
+      <c r="AC15" s="137"/>
+      <c r="AD15" s="137"/>
+      <c r="AE15" s="137"/>
+      <c r="AF15" s="137"/>
+      <c r="AG15" s="137"/>
+      <c r="AH15" s="137"/>
+      <c r="AI15" s="137"/>
+      <c r="AJ15" s="137"/>
+      <c r="AK15" s="137"/>
+      <c r="AL15" s="137"/>
+      <c r="AM15" s="138"/>
+      <c r="AN15" s="122"/>
+      <c r="AO15" s="123"/>
+      <c r="AP15" s="123"/>
+      <c r="AQ15" s="123"/>
+      <c r="AR15" s="124"/>
+      <c r="AS15" s="122"/>
+      <c r="AT15" s="123"/>
+      <c r="AU15" s="123"/>
+      <c r="AV15" s="123"/>
+      <c r="AW15" s="124"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="50"/>
-      <c r="B16" s="141"/>
-      <c r="C16" s="142"/>
-      <c r="D16" s="143"/>
-      <c r="E16" s="133"/>
-      <c r="F16" s="133"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="133"/>
-      <c r="I16" s="133"/>
-      <c r="J16" s="134"/>
-      <c r="K16" s="135"/>
-      <c r="L16" s="136"/>
-      <c r="M16" s="144"/>
-      <c r="N16" s="145"/>
-      <c r="O16" s="145"/>
-      <c r="P16" s="145"/>
-      <c r="Q16" s="145"/>
-      <c r="R16" s="146"/>
-      <c r="S16" s="131"/>
-      <c r="T16" s="131"/>
-      <c r="U16" s="131"/>
-      <c r="V16" s="147"/>
-      <c r="W16" s="148"/>
-      <c r="X16" s="148"/>
-      <c r="Y16" s="148"/>
-      <c r="Z16" s="148"/>
-      <c r="AA16" s="148"/>
-      <c r="AB16" s="148"/>
-      <c r="AC16" s="148"/>
-      <c r="AD16" s="148"/>
-      <c r="AE16" s="148"/>
-      <c r="AF16" s="148"/>
-      <c r="AG16" s="148"/>
-      <c r="AH16" s="148"/>
-      <c r="AI16" s="148"/>
-      <c r="AJ16" s="148"/>
-      <c r="AK16" s="148"/>
-      <c r="AL16" s="148"/>
-      <c r="AM16" s="149"/>
-      <c r="AN16" s="150"/>
-      <c r="AO16" s="151"/>
-      <c r="AP16" s="151"/>
-      <c r="AQ16" s="151"/>
-      <c r="AR16" s="152"/>
-      <c r="AS16" s="150"/>
-      <c r="AT16" s="151"/>
-      <c r="AU16" s="151"/>
-      <c r="AV16" s="151"/>
-      <c r="AW16" s="152"/>
+      <c r="B16" s="125"/>
+      <c r="C16" s="126"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="128"/>
+      <c r="F16" s="128"/>
+      <c r="G16" s="128"/>
+      <c r="H16" s="128"/>
+      <c r="I16" s="128"/>
+      <c r="J16" s="129"/>
+      <c r="K16" s="130"/>
+      <c r="L16" s="131"/>
+      <c r="M16" s="142"/>
+      <c r="N16" s="140"/>
+      <c r="O16" s="140"/>
+      <c r="P16" s="140"/>
+      <c r="Q16" s="140"/>
+      <c r="R16" s="141"/>
+      <c r="S16" s="135"/>
+      <c r="T16" s="135"/>
+      <c r="U16" s="135"/>
+      <c r="V16" s="136"/>
+      <c r="W16" s="137"/>
+      <c r="X16" s="137"/>
+      <c r="Y16" s="137"/>
+      <c r="Z16" s="137"/>
+      <c r="AA16" s="137"/>
+      <c r="AB16" s="137"/>
+      <c r="AC16" s="137"/>
+      <c r="AD16" s="137"/>
+      <c r="AE16" s="137"/>
+      <c r="AF16" s="137"/>
+      <c r="AG16" s="137"/>
+      <c r="AH16" s="137"/>
+      <c r="AI16" s="137"/>
+      <c r="AJ16" s="137"/>
+      <c r="AK16" s="137"/>
+      <c r="AL16" s="137"/>
+      <c r="AM16" s="138"/>
+      <c r="AN16" s="122"/>
+      <c r="AO16" s="123"/>
+      <c r="AP16" s="123"/>
+      <c r="AQ16" s="123"/>
+      <c r="AR16" s="124"/>
+      <c r="AS16" s="122"/>
+      <c r="AT16" s="123"/>
+      <c r="AU16" s="123"/>
+      <c r="AV16" s="123"/>
+      <c r="AW16" s="124"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="50"/>
-      <c r="B17" s="141"/>
-      <c r="C17" s="142"/>
-      <c r="D17" s="143"/>
-      <c r="E17" s="133"/>
-      <c r="F17" s="133"/>
-      <c r="G17" s="133"/>
-      <c r="H17" s="133"/>
-      <c r="I17" s="133"/>
-      <c r="J17" s="134"/>
-      <c r="K17" s="135"/>
-      <c r="L17" s="136"/>
-      <c r="M17" s="144"/>
-      <c r="N17" s="145"/>
-      <c r="O17" s="145"/>
-      <c r="P17" s="145"/>
-      <c r="Q17" s="145"/>
-      <c r="R17" s="157"/>
-      <c r="S17" s="158"/>
-      <c r="T17" s="158"/>
-      <c r="U17" s="158"/>
-      <c r="V17" s="147"/>
-      <c r="W17" s="148"/>
-      <c r="X17" s="148"/>
-      <c r="Y17" s="148"/>
-      <c r="Z17" s="148"/>
-      <c r="AA17" s="148"/>
-      <c r="AB17" s="148"/>
-      <c r="AC17" s="148"/>
-      <c r="AD17" s="148"/>
-      <c r="AE17" s="148"/>
-      <c r="AF17" s="148"/>
-      <c r="AG17" s="148"/>
-      <c r="AH17" s="148"/>
-      <c r="AI17" s="148"/>
-      <c r="AJ17" s="148"/>
-      <c r="AK17" s="148"/>
-      <c r="AL17" s="148"/>
-      <c r="AM17" s="149"/>
-      <c r="AN17" s="150"/>
-      <c r="AO17" s="151"/>
-      <c r="AP17" s="151"/>
-      <c r="AQ17" s="151"/>
-      <c r="AR17" s="152"/>
-      <c r="AS17" s="150"/>
-      <c r="AT17" s="151"/>
-      <c r="AU17" s="151"/>
-      <c r="AV17" s="151"/>
-      <c r="AW17" s="152"/>
+      <c r="B17" s="125"/>
+      <c r="C17" s="126"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="128"/>
+      <c r="F17" s="128"/>
+      <c r="G17" s="128"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="128"/>
+      <c r="J17" s="129"/>
+      <c r="K17" s="130"/>
+      <c r="L17" s="131"/>
+      <c r="M17" s="142"/>
+      <c r="N17" s="140"/>
+      <c r="O17" s="140"/>
+      <c r="P17" s="140"/>
+      <c r="Q17" s="140"/>
+      <c r="R17" s="143"/>
+      <c r="S17" s="144"/>
+      <c r="T17" s="144"/>
+      <c r="U17" s="144"/>
+      <c r="V17" s="136"/>
+      <c r="W17" s="137"/>
+      <c r="X17" s="137"/>
+      <c r="Y17" s="137"/>
+      <c r="Z17" s="137"/>
+      <c r="AA17" s="137"/>
+      <c r="AB17" s="137"/>
+      <c r="AC17" s="137"/>
+      <c r="AD17" s="137"/>
+      <c r="AE17" s="137"/>
+      <c r="AF17" s="137"/>
+      <c r="AG17" s="137"/>
+      <c r="AH17" s="137"/>
+      <c r="AI17" s="137"/>
+      <c r="AJ17" s="137"/>
+      <c r="AK17" s="137"/>
+      <c r="AL17" s="137"/>
+      <c r="AM17" s="138"/>
+      <c r="AN17" s="122"/>
+      <c r="AO17" s="123"/>
+      <c r="AP17" s="123"/>
+      <c r="AQ17" s="123"/>
+      <c r="AR17" s="124"/>
+      <c r="AS17" s="122"/>
+      <c r="AT17" s="123"/>
+      <c r="AU17" s="123"/>
+      <c r="AV17" s="123"/>
+      <c r="AW17" s="124"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="50"/>
-      <c r="B18" s="141"/>
-      <c r="C18" s="142"/>
-      <c r="D18" s="143"/>
-      <c r="E18" s="133"/>
-      <c r="F18" s="133"/>
-      <c r="G18" s="133"/>
-      <c r="H18" s="133"/>
-      <c r="I18" s="133"/>
-      <c r="J18" s="134"/>
-      <c r="K18" s="135"/>
-      <c r="L18" s="136"/>
-      <c r="M18" s="155"/>
-      <c r="N18" s="145"/>
-      <c r="O18" s="145"/>
-      <c r="P18" s="145"/>
-      <c r="Q18" s="145"/>
-      <c r="R18" s="146"/>
-      <c r="S18" s="131"/>
-      <c r="T18" s="131"/>
-      <c r="U18" s="131"/>
-      <c r="V18" s="147"/>
-      <c r="W18" s="148"/>
-      <c r="X18" s="148"/>
-      <c r="Y18" s="148"/>
-      <c r="Z18" s="148"/>
-      <c r="AA18" s="148"/>
-      <c r="AB18" s="148"/>
-      <c r="AC18" s="148"/>
-      <c r="AD18" s="148"/>
-      <c r="AE18" s="148"/>
-      <c r="AF18" s="148"/>
-      <c r="AG18" s="148"/>
-      <c r="AH18" s="148"/>
-      <c r="AI18" s="148"/>
-      <c r="AJ18" s="148"/>
-      <c r="AK18" s="148"/>
-      <c r="AL18" s="148"/>
-      <c r="AM18" s="149"/>
-      <c r="AN18" s="150"/>
-      <c r="AO18" s="151"/>
-      <c r="AP18" s="151"/>
-      <c r="AQ18" s="151"/>
-      <c r="AR18" s="152"/>
-      <c r="AS18" s="150"/>
-      <c r="AT18" s="151"/>
-      <c r="AU18" s="151"/>
-      <c r="AV18" s="151"/>
-      <c r="AW18" s="152"/>
+      <c r="B18" s="125"/>
+      <c r="C18" s="126"/>
+      <c r="D18" s="127"/>
+      <c r="E18" s="128"/>
+      <c r="F18" s="128"/>
+      <c r="G18" s="128"/>
+      <c r="H18" s="128"/>
+      <c r="I18" s="128"/>
+      <c r="J18" s="129"/>
+      <c r="K18" s="130"/>
+      <c r="L18" s="131"/>
+      <c r="M18" s="139"/>
+      <c r="N18" s="140"/>
+      <c r="O18" s="140"/>
+      <c r="P18" s="140"/>
+      <c r="Q18" s="140"/>
+      <c r="R18" s="141"/>
+      <c r="S18" s="135"/>
+      <c r="T18" s="135"/>
+      <c r="U18" s="135"/>
+      <c r="V18" s="136"/>
+      <c r="W18" s="137"/>
+      <c r="X18" s="137"/>
+      <c r="Y18" s="137"/>
+      <c r="Z18" s="137"/>
+      <c r="AA18" s="137"/>
+      <c r="AB18" s="137"/>
+      <c r="AC18" s="137"/>
+      <c r="AD18" s="137"/>
+      <c r="AE18" s="137"/>
+      <c r="AF18" s="137"/>
+      <c r="AG18" s="137"/>
+      <c r="AH18" s="137"/>
+      <c r="AI18" s="137"/>
+      <c r="AJ18" s="137"/>
+      <c r="AK18" s="137"/>
+      <c r="AL18" s="137"/>
+      <c r="AM18" s="138"/>
+      <c r="AN18" s="122"/>
+      <c r="AO18" s="123"/>
+      <c r="AP18" s="123"/>
+      <c r="AQ18" s="123"/>
+      <c r="AR18" s="124"/>
+      <c r="AS18" s="122"/>
+      <c r="AT18" s="123"/>
+      <c r="AU18" s="123"/>
+      <c r="AV18" s="123"/>
+      <c r="AW18" s="124"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="50"/>
-      <c r="B19" s="141"/>
-      <c r="C19" s="142"/>
-      <c r="D19" s="143"/>
-      <c r="E19" s="133"/>
-      <c r="F19" s="133"/>
-      <c r="G19" s="133"/>
-      <c r="H19" s="133"/>
-      <c r="I19" s="133"/>
-      <c r="J19" s="134"/>
-      <c r="K19" s="135"/>
-      <c r="L19" s="136"/>
-      <c r="M19" s="144"/>
-      <c r="N19" s="145"/>
-      <c r="O19" s="145"/>
-      <c r="P19" s="145"/>
-      <c r="Q19" s="145"/>
-      <c r="R19" s="146"/>
-      <c r="S19" s="131"/>
-      <c r="T19" s="131"/>
-      <c r="U19" s="131"/>
-      <c r="V19" s="147"/>
-      <c r="W19" s="148"/>
-      <c r="X19" s="148"/>
-      <c r="Y19" s="148"/>
-      <c r="Z19" s="148"/>
-      <c r="AA19" s="148"/>
-      <c r="AB19" s="148"/>
-      <c r="AC19" s="148"/>
-      <c r="AD19" s="148"/>
-      <c r="AE19" s="148"/>
-      <c r="AF19" s="148"/>
-      <c r="AG19" s="148"/>
-      <c r="AH19" s="148"/>
-      <c r="AI19" s="148"/>
-      <c r="AJ19" s="148"/>
-      <c r="AK19" s="148"/>
-      <c r="AL19" s="148"/>
-      <c r="AM19" s="149"/>
-      <c r="AN19" s="131"/>
-      <c r="AO19" s="131"/>
-      <c r="AP19" s="131"/>
-      <c r="AQ19" s="131"/>
-      <c r="AR19" s="131"/>
-      <c r="AS19" s="150"/>
-      <c r="AT19" s="151"/>
-      <c r="AU19" s="151"/>
-      <c r="AV19" s="151"/>
-      <c r="AW19" s="152"/>
+      <c r="B19" s="125"/>
+      <c r="C19" s="126"/>
+      <c r="D19" s="127"/>
+      <c r="E19" s="128"/>
+      <c r="F19" s="128"/>
+      <c r="G19" s="128"/>
+      <c r="H19" s="128"/>
+      <c r="I19" s="128"/>
+      <c r="J19" s="129"/>
+      <c r="K19" s="130"/>
+      <c r="L19" s="131"/>
+      <c r="M19" s="142"/>
+      <c r="N19" s="140"/>
+      <c r="O19" s="140"/>
+      <c r="P19" s="140"/>
+      <c r="Q19" s="140"/>
+      <c r="R19" s="141"/>
+      <c r="S19" s="135"/>
+      <c r="T19" s="135"/>
+      <c r="U19" s="135"/>
+      <c r="V19" s="136"/>
+      <c r="W19" s="137"/>
+      <c r="X19" s="137"/>
+      <c r="Y19" s="137"/>
+      <c r="Z19" s="137"/>
+      <c r="AA19" s="137"/>
+      <c r="AB19" s="137"/>
+      <c r="AC19" s="137"/>
+      <c r="AD19" s="137"/>
+      <c r="AE19" s="137"/>
+      <c r="AF19" s="137"/>
+      <c r="AG19" s="137"/>
+      <c r="AH19" s="137"/>
+      <c r="AI19" s="137"/>
+      <c r="AJ19" s="137"/>
+      <c r="AK19" s="137"/>
+      <c r="AL19" s="137"/>
+      <c r="AM19" s="138"/>
+      <c r="AN19" s="135"/>
+      <c r="AO19" s="135"/>
+      <c r="AP19" s="135"/>
+      <c r="AQ19" s="135"/>
+      <c r="AR19" s="135"/>
+      <c r="AS19" s="122"/>
+      <c r="AT19" s="123"/>
+      <c r="AU19" s="123"/>
+      <c r="AV19" s="123"/>
+      <c r="AW19" s="124"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="50"/>
-      <c r="B20" s="141"/>
-      <c r="C20" s="142"/>
-      <c r="D20" s="143"/>
-      <c r="E20" s="133"/>
-      <c r="F20" s="133"/>
-      <c r="G20" s="133"/>
-      <c r="H20" s="133"/>
-      <c r="I20" s="133"/>
-      <c r="J20" s="134"/>
-      <c r="K20" s="135"/>
-      <c r="L20" s="136"/>
-      <c r="M20" s="144"/>
-      <c r="N20" s="145"/>
-      <c r="O20" s="145"/>
-      <c r="P20" s="145"/>
-      <c r="Q20" s="145"/>
-      <c r="R20" s="146"/>
-      <c r="S20" s="150"/>
-      <c r="T20" s="151"/>
-      <c r="U20" s="152"/>
-      <c r="V20" s="147"/>
-      <c r="W20" s="148"/>
-      <c r="X20" s="148"/>
-      <c r="Y20" s="148"/>
-      <c r="Z20" s="148"/>
-      <c r="AA20" s="148"/>
-      <c r="AB20" s="148"/>
-      <c r="AC20" s="148"/>
-      <c r="AD20" s="148"/>
-      <c r="AE20" s="148"/>
-      <c r="AF20" s="148"/>
-      <c r="AG20" s="148"/>
-      <c r="AH20" s="148"/>
-      <c r="AI20" s="148"/>
-      <c r="AJ20" s="148"/>
-      <c r="AK20" s="148"/>
-      <c r="AL20" s="148"/>
-      <c r="AM20" s="149"/>
-      <c r="AN20" s="150"/>
-      <c r="AO20" s="151"/>
-      <c r="AP20" s="151"/>
-      <c r="AQ20" s="151"/>
-      <c r="AR20" s="152"/>
-      <c r="AS20" s="150"/>
-      <c r="AT20" s="151"/>
-      <c r="AU20" s="151"/>
-      <c r="AV20" s="151"/>
-      <c r="AW20" s="152"/>
+      <c r="B20" s="125"/>
+      <c r="C20" s="126"/>
+      <c r="D20" s="127"/>
+      <c r="E20" s="128"/>
+      <c r="F20" s="128"/>
+      <c r="G20" s="128"/>
+      <c r="H20" s="128"/>
+      <c r="I20" s="128"/>
+      <c r="J20" s="129"/>
+      <c r="K20" s="130"/>
+      <c r="L20" s="131"/>
+      <c r="M20" s="142"/>
+      <c r="N20" s="140"/>
+      <c r="O20" s="140"/>
+      <c r="P20" s="140"/>
+      <c r="Q20" s="140"/>
+      <c r="R20" s="141"/>
+      <c r="S20" s="122"/>
+      <c r="T20" s="123"/>
+      <c r="U20" s="124"/>
+      <c r="V20" s="136"/>
+      <c r="W20" s="137"/>
+      <c r="X20" s="137"/>
+      <c r="Y20" s="137"/>
+      <c r="Z20" s="137"/>
+      <c r="AA20" s="137"/>
+      <c r="AB20" s="137"/>
+      <c r="AC20" s="137"/>
+      <c r="AD20" s="137"/>
+      <c r="AE20" s="137"/>
+      <c r="AF20" s="137"/>
+      <c r="AG20" s="137"/>
+      <c r="AH20" s="137"/>
+      <c r="AI20" s="137"/>
+      <c r="AJ20" s="137"/>
+      <c r="AK20" s="137"/>
+      <c r="AL20" s="137"/>
+      <c r="AM20" s="138"/>
+      <c r="AN20" s="122"/>
+      <c r="AO20" s="123"/>
+      <c r="AP20" s="123"/>
+      <c r="AQ20" s="123"/>
+      <c r="AR20" s="124"/>
+      <c r="AS20" s="122"/>
+      <c r="AT20" s="123"/>
+      <c r="AU20" s="123"/>
+      <c r="AV20" s="123"/>
+      <c r="AW20" s="124"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="50"/>
-      <c r="B21" s="141"/>
-      <c r="C21" s="142"/>
-      <c r="D21" s="143"/>
-      <c r="E21" s="133"/>
-      <c r="F21" s="133"/>
-      <c r="G21" s="133"/>
-      <c r="H21" s="133"/>
-      <c r="I21" s="133"/>
-      <c r="J21" s="134"/>
-      <c r="K21" s="135"/>
-      <c r="L21" s="136"/>
-      <c r="M21" s="144"/>
-      <c r="N21" s="145"/>
-      <c r="O21" s="145"/>
-      <c r="P21" s="145"/>
-      <c r="Q21" s="145"/>
-      <c r="R21" s="146"/>
-      <c r="S21" s="131"/>
-      <c r="T21" s="131"/>
-      <c r="U21" s="131"/>
-      <c r="V21" s="147"/>
-      <c r="W21" s="148"/>
-      <c r="X21" s="148"/>
-      <c r="Y21" s="148"/>
-      <c r="Z21" s="148"/>
-      <c r="AA21" s="148"/>
-      <c r="AB21" s="148"/>
-      <c r="AC21" s="148"/>
-      <c r="AD21" s="148"/>
-      <c r="AE21" s="148"/>
-      <c r="AF21" s="148"/>
-      <c r="AG21" s="148"/>
-      <c r="AH21" s="148"/>
-      <c r="AI21" s="148"/>
-      <c r="AJ21" s="148"/>
-      <c r="AK21" s="148"/>
-      <c r="AL21" s="148"/>
-      <c r="AM21" s="149"/>
-      <c r="AN21" s="150"/>
-      <c r="AO21" s="151"/>
-      <c r="AP21" s="151"/>
-      <c r="AQ21" s="151"/>
-      <c r="AR21" s="152"/>
-      <c r="AS21" s="150"/>
-      <c r="AT21" s="151"/>
-      <c r="AU21" s="151"/>
-      <c r="AV21" s="151"/>
-      <c r="AW21" s="152"/>
+      <c r="B21" s="125"/>
+      <c r="C21" s="126"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="128"/>
+      <c r="F21" s="128"/>
+      <c r="G21" s="128"/>
+      <c r="H21" s="128"/>
+      <c r="I21" s="128"/>
+      <c r="J21" s="129"/>
+      <c r="K21" s="130"/>
+      <c r="L21" s="131"/>
+      <c r="M21" s="142"/>
+      <c r="N21" s="140"/>
+      <c r="O21" s="140"/>
+      <c r="P21" s="140"/>
+      <c r="Q21" s="140"/>
+      <c r="R21" s="141"/>
+      <c r="S21" s="135"/>
+      <c r="T21" s="135"/>
+      <c r="U21" s="135"/>
+      <c r="V21" s="136"/>
+      <c r="W21" s="137"/>
+      <c r="X21" s="137"/>
+      <c r="Y21" s="137"/>
+      <c r="Z21" s="137"/>
+      <c r="AA21" s="137"/>
+      <c r="AB21" s="137"/>
+      <c r="AC21" s="137"/>
+      <c r="AD21" s="137"/>
+      <c r="AE21" s="137"/>
+      <c r="AF21" s="137"/>
+      <c r="AG21" s="137"/>
+      <c r="AH21" s="137"/>
+      <c r="AI21" s="137"/>
+      <c r="AJ21" s="137"/>
+      <c r="AK21" s="137"/>
+      <c r="AL21" s="137"/>
+      <c r="AM21" s="138"/>
+      <c r="AN21" s="122"/>
+      <c r="AO21" s="123"/>
+      <c r="AP21" s="123"/>
+      <c r="AQ21" s="123"/>
+      <c r="AR21" s="124"/>
+      <c r="AS21" s="122"/>
+      <c r="AT21" s="123"/>
+      <c r="AU21" s="123"/>
+      <c r="AV21" s="123"/>
+      <c r="AW21" s="124"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="50"/>
-      <c r="B22" s="141"/>
-      <c r="C22" s="142"/>
-      <c r="D22" s="143"/>
-      <c r="E22" s="133"/>
-      <c r="F22" s="133"/>
-      <c r="G22" s="133"/>
-      <c r="H22" s="133"/>
-      <c r="I22" s="133"/>
-      <c r="J22" s="134"/>
-      <c r="K22" s="135"/>
-      <c r="L22" s="136"/>
-      <c r="M22" s="144"/>
-      <c r="N22" s="145"/>
-      <c r="O22" s="145"/>
-      <c r="P22" s="145"/>
-      <c r="Q22" s="145"/>
-      <c r="R22" s="146"/>
-      <c r="S22" s="131"/>
-      <c r="T22" s="131"/>
-      <c r="U22" s="131"/>
-      <c r="V22" s="147"/>
-      <c r="W22" s="148"/>
-      <c r="X22" s="148"/>
-      <c r="Y22" s="148"/>
-      <c r="Z22" s="148"/>
-      <c r="AA22" s="148"/>
-      <c r="AB22" s="148"/>
-      <c r="AC22" s="148"/>
-      <c r="AD22" s="148"/>
-      <c r="AE22" s="148"/>
-      <c r="AF22" s="148"/>
-      <c r="AG22" s="148"/>
-      <c r="AH22" s="148"/>
-      <c r="AI22" s="148"/>
-      <c r="AJ22" s="148"/>
-      <c r="AK22" s="148"/>
-      <c r="AL22" s="148"/>
-      <c r="AM22" s="149"/>
-      <c r="AN22" s="150"/>
-      <c r="AO22" s="151"/>
-      <c r="AP22" s="151"/>
-      <c r="AQ22" s="151"/>
-      <c r="AR22" s="152"/>
-      <c r="AS22" s="150"/>
-      <c r="AT22" s="151"/>
-      <c r="AU22" s="151"/>
-      <c r="AV22" s="151"/>
-      <c r="AW22" s="152"/>
+      <c r="B22" s="125"/>
+      <c r="C22" s="126"/>
+      <c r="D22" s="127"/>
+      <c r="E22" s="128"/>
+      <c r="F22" s="128"/>
+      <c r="G22" s="128"/>
+      <c r="H22" s="128"/>
+      <c r="I22" s="128"/>
+      <c r="J22" s="129"/>
+      <c r="K22" s="130"/>
+      <c r="L22" s="131"/>
+      <c r="M22" s="142"/>
+      <c r="N22" s="140"/>
+      <c r="O22" s="140"/>
+      <c r="P22" s="140"/>
+      <c r="Q22" s="140"/>
+      <c r="R22" s="141"/>
+      <c r="S22" s="135"/>
+      <c r="T22" s="135"/>
+      <c r="U22" s="135"/>
+      <c r="V22" s="136"/>
+      <c r="W22" s="137"/>
+      <c r="X22" s="137"/>
+      <c r="Y22" s="137"/>
+      <c r="Z22" s="137"/>
+      <c r="AA22" s="137"/>
+      <c r="AB22" s="137"/>
+      <c r="AC22" s="137"/>
+      <c r="AD22" s="137"/>
+      <c r="AE22" s="137"/>
+      <c r="AF22" s="137"/>
+      <c r="AG22" s="137"/>
+      <c r="AH22" s="137"/>
+      <c r="AI22" s="137"/>
+      <c r="AJ22" s="137"/>
+      <c r="AK22" s="137"/>
+      <c r="AL22" s="137"/>
+      <c r="AM22" s="138"/>
+      <c r="AN22" s="122"/>
+      <c r="AO22" s="123"/>
+      <c r="AP22" s="123"/>
+      <c r="AQ22" s="123"/>
+      <c r="AR22" s="124"/>
+      <c r="AS22" s="122"/>
+      <c r="AT22" s="123"/>
+      <c r="AU22" s="123"/>
+      <c r="AV22" s="123"/>
+      <c r="AW22" s="124"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="48"/>
-      <c r="B23" s="141"/>
-      <c r="C23" s="142"/>
-      <c r="D23" s="143"/>
-      <c r="E23" s="133"/>
-      <c r="F23" s="133"/>
-      <c r="G23" s="133"/>
-      <c r="H23" s="133"/>
-      <c r="I23" s="133"/>
-      <c r="J23" s="134"/>
-      <c r="K23" s="135"/>
-      <c r="L23" s="136"/>
-      <c r="M23" s="144"/>
-      <c r="N23" s="145"/>
-      <c r="O23" s="145"/>
-      <c r="P23" s="145"/>
-      <c r="Q23" s="145"/>
-      <c r="R23" s="146"/>
-      <c r="S23" s="131"/>
-      <c r="T23" s="131"/>
-      <c r="U23" s="131"/>
-      <c r="V23" s="147"/>
-      <c r="W23" s="148"/>
-      <c r="X23" s="148"/>
-      <c r="Y23" s="148"/>
-      <c r="Z23" s="148"/>
-      <c r="AA23" s="148"/>
-      <c r="AB23" s="148"/>
-      <c r="AC23" s="148"/>
-      <c r="AD23" s="148"/>
-      <c r="AE23" s="148"/>
-      <c r="AF23" s="148"/>
-      <c r="AG23" s="148"/>
-      <c r="AH23" s="148"/>
-      <c r="AI23" s="148"/>
-      <c r="AJ23" s="148"/>
-      <c r="AK23" s="148"/>
-      <c r="AL23" s="148"/>
-      <c r="AM23" s="149"/>
-      <c r="AN23" s="150"/>
-      <c r="AO23" s="151"/>
-      <c r="AP23" s="151"/>
-      <c r="AQ23" s="151"/>
-      <c r="AR23" s="152"/>
-      <c r="AS23" s="150"/>
-      <c r="AT23" s="151"/>
-      <c r="AU23" s="151"/>
-      <c r="AV23" s="151"/>
-      <c r="AW23" s="152"/>
+      <c r="B23" s="125"/>
+      <c r="C23" s="126"/>
+      <c r="D23" s="127"/>
+      <c r="E23" s="128"/>
+      <c r="F23" s="128"/>
+      <c r="G23" s="128"/>
+      <c r="H23" s="128"/>
+      <c r="I23" s="128"/>
+      <c r="J23" s="129"/>
+      <c r="K23" s="130"/>
+      <c r="L23" s="131"/>
+      <c r="M23" s="142"/>
+      <c r="N23" s="140"/>
+      <c r="O23" s="140"/>
+      <c r="P23" s="140"/>
+      <c r="Q23" s="140"/>
+      <c r="R23" s="141"/>
+      <c r="S23" s="135"/>
+      <c r="T23" s="135"/>
+      <c r="U23" s="135"/>
+      <c r="V23" s="136"/>
+      <c r="W23" s="137"/>
+      <c r="X23" s="137"/>
+      <c r="Y23" s="137"/>
+      <c r="Z23" s="137"/>
+      <c r="AA23" s="137"/>
+      <c r="AB23" s="137"/>
+      <c r="AC23" s="137"/>
+      <c r="AD23" s="137"/>
+      <c r="AE23" s="137"/>
+      <c r="AF23" s="137"/>
+      <c r="AG23" s="137"/>
+      <c r="AH23" s="137"/>
+      <c r="AI23" s="137"/>
+      <c r="AJ23" s="137"/>
+      <c r="AK23" s="137"/>
+      <c r="AL23" s="137"/>
+      <c r="AM23" s="138"/>
+      <c r="AN23" s="122"/>
+      <c r="AO23" s="123"/>
+      <c r="AP23" s="123"/>
+      <c r="AQ23" s="123"/>
+      <c r="AR23" s="124"/>
+      <c r="AS23" s="122"/>
+      <c r="AT23" s="123"/>
+      <c r="AU23" s="123"/>
+      <c r="AV23" s="123"/>
+      <c r="AW23" s="124"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="48"/>
-      <c r="B24" s="141"/>
-      <c r="C24" s="142"/>
-      <c r="D24" s="143"/>
-      <c r="E24" s="133"/>
-      <c r="F24" s="133"/>
-      <c r="G24" s="133"/>
-      <c r="H24" s="133"/>
-      <c r="I24" s="133"/>
-      <c r="J24" s="134"/>
-      <c r="K24" s="135"/>
-      <c r="L24" s="136"/>
-      <c r="M24" s="144"/>
-      <c r="N24" s="145"/>
-      <c r="O24" s="145"/>
-      <c r="P24" s="145"/>
-      <c r="Q24" s="145"/>
-      <c r="R24" s="146"/>
-      <c r="S24" s="131"/>
-      <c r="T24" s="131"/>
-      <c r="U24" s="131"/>
-      <c r="V24" s="147"/>
-      <c r="W24" s="148"/>
-      <c r="X24" s="148"/>
-      <c r="Y24" s="148"/>
-      <c r="Z24" s="148"/>
-      <c r="AA24" s="148"/>
-      <c r="AB24" s="148"/>
-      <c r="AC24" s="148"/>
-      <c r="AD24" s="148"/>
-      <c r="AE24" s="148"/>
-      <c r="AF24" s="148"/>
-      <c r="AG24" s="148"/>
-      <c r="AH24" s="148"/>
-      <c r="AI24" s="148"/>
-      <c r="AJ24" s="148"/>
-      <c r="AK24" s="148"/>
-      <c r="AL24" s="148"/>
-      <c r="AM24" s="149"/>
-      <c r="AN24" s="150"/>
-      <c r="AO24" s="151"/>
-      <c r="AP24" s="151"/>
-      <c r="AQ24" s="151"/>
-      <c r="AR24" s="152"/>
-      <c r="AS24" s="150"/>
-      <c r="AT24" s="151"/>
-      <c r="AU24" s="151"/>
-      <c r="AV24" s="151"/>
-      <c r="AW24" s="152"/>
+      <c r="B24" s="125"/>
+      <c r="C24" s="126"/>
+      <c r="D24" s="127"/>
+      <c r="E24" s="128"/>
+      <c r="F24" s="128"/>
+      <c r="G24" s="128"/>
+      <c r="H24" s="128"/>
+      <c r="I24" s="128"/>
+      <c r="J24" s="129"/>
+      <c r="K24" s="130"/>
+      <c r="L24" s="131"/>
+      <c r="M24" s="142"/>
+      <c r="N24" s="140"/>
+      <c r="O24" s="140"/>
+      <c r="P24" s="140"/>
+      <c r="Q24" s="140"/>
+      <c r="R24" s="141"/>
+      <c r="S24" s="135"/>
+      <c r="T24" s="135"/>
+      <c r="U24" s="135"/>
+      <c r="V24" s="136"/>
+      <c r="W24" s="137"/>
+      <c r="X24" s="137"/>
+      <c r="Y24" s="137"/>
+      <c r="Z24" s="137"/>
+      <c r="AA24" s="137"/>
+      <c r="AB24" s="137"/>
+      <c r="AC24" s="137"/>
+      <c r="AD24" s="137"/>
+      <c r="AE24" s="137"/>
+      <c r="AF24" s="137"/>
+      <c r="AG24" s="137"/>
+      <c r="AH24" s="137"/>
+      <c r="AI24" s="137"/>
+      <c r="AJ24" s="137"/>
+      <c r="AK24" s="137"/>
+      <c r="AL24" s="137"/>
+      <c r="AM24" s="138"/>
+      <c r="AN24" s="122"/>
+      <c r="AO24" s="123"/>
+      <c r="AP24" s="123"/>
+      <c r="AQ24" s="123"/>
+      <c r="AR24" s="124"/>
+      <c r="AS24" s="122"/>
+      <c r="AT24" s="123"/>
+      <c r="AU24" s="123"/>
+      <c r="AV24" s="123"/>
+      <c r="AW24" s="124"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="48"/>
-      <c r="B25" s="141"/>
-      <c r="C25" s="142"/>
-      <c r="D25" s="143"/>
-      <c r="E25" s="133"/>
-      <c r="F25" s="133"/>
-      <c r="G25" s="133"/>
-      <c r="H25" s="133"/>
-      <c r="I25" s="133"/>
-      <c r="J25" s="134"/>
-      <c r="K25" s="135"/>
-      <c r="L25" s="136"/>
-      <c r="M25" s="155"/>
-      <c r="N25" s="145"/>
-      <c r="O25" s="145"/>
-      <c r="P25" s="145"/>
-      <c r="Q25" s="145"/>
-      <c r="R25" s="146"/>
-      <c r="S25" s="131"/>
-      <c r="T25" s="131"/>
-      <c r="U25" s="131"/>
-      <c r="V25" s="147"/>
-      <c r="W25" s="148"/>
-      <c r="X25" s="148"/>
-      <c r="Y25" s="148"/>
-      <c r="Z25" s="148"/>
-      <c r="AA25" s="148"/>
-      <c r="AB25" s="148"/>
-      <c r="AC25" s="148"/>
-      <c r="AD25" s="148"/>
-      <c r="AE25" s="148"/>
-      <c r="AF25" s="148"/>
-      <c r="AG25" s="148"/>
-      <c r="AH25" s="148"/>
-      <c r="AI25" s="148"/>
-      <c r="AJ25" s="148"/>
-      <c r="AK25" s="148"/>
-      <c r="AL25" s="148"/>
-      <c r="AM25" s="149"/>
-      <c r="AN25" s="150"/>
-      <c r="AO25" s="151"/>
-      <c r="AP25" s="151"/>
-      <c r="AQ25" s="151"/>
-      <c r="AR25" s="152"/>
-      <c r="AS25" s="150"/>
-      <c r="AT25" s="151"/>
-      <c r="AU25" s="151"/>
-      <c r="AV25" s="151"/>
-      <c r="AW25" s="152"/>
+      <c r="B25" s="125"/>
+      <c r="C25" s="126"/>
+      <c r="D25" s="127"/>
+      <c r="E25" s="128"/>
+      <c r="F25" s="128"/>
+      <c r="G25" s="128"/>
+      <c r="H25" s="128"/>
+      <c r="I25" s="128"/>
+      <c r="J25" s="129"/>
+      <c r="K25" s="130"/>
+      <c r="L25" s="131"/>
+      <c r="M25" s="139"/>
+      <c r="N25" s="140"/>
+      <c r="O25" s="140"/>
+      <c r="P25" s="140"/>
+      <c r="Q25" s="140"/>
+      <c r="R25" s="141"/>
+      <c r="S25" s="135"/>
+      <c r="T25" s="135"/>
+      <c r="U25" s="135"/>
+      <c r="V25" s="136"/>
+      <c r="W25" s="137"/>
+      <c r="X25" s="137"/>
+      <c r="Y25" s="137"/>
+      <c r="Z25" s="137"/>
+      <c r="AA25" s="137"/>
+      <c r="AB25" s="137"/>
+      <c r="AC25" s="137"/>
+      <c r="AD25" s="137"/>
+      <c r="AE25" s="137"/>
+      <c r="AF25" s="137"/>
+      <c r="AG25" s="137"/>
+      <c r="AH25" s="137"/>
+      <c r="AI25" s="137"/>
+      <c r="AJ25" s="137"/>
+      <c r="AK25" s="137"/>
+      <c r="AL25" s="137"/>
+      <c r="AM25" s="138"/>
+      <c r="AN25" s="122"/>
+      <c r="AO25" s="123"/>
+      <c r="AP25" s="123"/>
+      <c r="AQ25" s="123"/>
+      <c r="AR25" s="124"/>
+      <c r="AS25" s="122"/>
+      <c r="AT25" s="123"/>
+      <c r="AU25" s="123"/>
+      <c r="AV25" s="123"/>
+      <c r="AW25" s="124"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="48"/>
-      <c r="B26" s="141"/>
-      <c r="C26" s="142"/>
-      <c r="D26" s="143"/>
-      <c r="E26" s="133"/>
-      <c r="F26" s="133"/>
-      <c r="G26" s="133"/>
-      <c r="H26" s="133"/>
-      <c r="I26" s="133"/>
-      <c r="J26" s="134"/>
-      <c r="K26" s="135"/>
-      <c r="L26" s="136"/>
-      <c r="M26" s="155"/>
-      <c r="N26" s="145"/>
-      <c r="O26" s="145"/>
-      <c r="P26" s="145"/>
-      <c r="Q26" s="145"/>
-      <c r="R26" s="146"/>
-      <c r="S26" s="131"/>
-      <c r="T26" s="131"/>
-      <c r="U26" s="131"/>
-      <c r="V26" s="147"/>
-      <c r="W26" s="148"/>
-      <c r="X26" s="148"/>
-      <c r="Y26" s="148"/>
-      <c r="Z26" s="148"/>
-      <c r="AA26" s="148"/>
-      <c r="AB26" s="148"/>
-      <c r="AC26" s="148"/>
-      <c r="AD26" s="148"/>
-      <c r="AE26" s="148"/>
-      <c r="AF26" s="148"/>
-      <c r="AG26" s="148"/>
-      <c r="AH26" s="148"/>
-      <c r="AI26" s="148"/>
-      <c r="AJ26" s="148"/>
-      <c r="AK26" s="148"/>
-      <c r="AL26" s="148"/>
-      <c r="AM26" s="149"/>
-      <c r="AN26" s="150"/>
-      <c r="AO26" s="151"/>
-      <c r="AP26" s="151"/>
-      <c r="AQ26" s="151"/>
-      <c r="AR26" s="152"/>
-      <c r="AS26" s="150"/>
-      <c r="AT26" s="151"/>
-      <c r="AU26" s="151"/>
-      <c r="AV26" s="151"/>
-      <c r="AW26" s="152"/>
+      <c r="B26" s="125"/>
+      <c r="C26" s="126"/>
+      <c r="D26" s="127"/>
+      <c r="E26" s="128"/>
+      <c r="F26" s="128"/>
+      <c r="G26" s="128"/>
+      <c r="H26" s="128"/>
+      <c r="I26" s="128"/>
+      <c r="J26" s="129"/>
+      <c r="K26" s="130"/>
+      <c r="L26" s="131"/>
+      <c r="M26" s="139"/>
+      <c r="N26" s="140"/>
+      <c r="O26" s="140"/>
+      <c r="P26" s="140"/>
+      <c r="Q26" s="140"/>
+      <c r="R26" s="141"/>
+      <c r="S26" s="135"/>
+      <c r="T26" s="135"/>
+      <c r="U26" s="135"/>
+      <c r="V26" s="136"/>
+      <c r="W26" s="137"/>
+      <c r="X26" s="137"/>
+      <c r="Y26" s="137"/>
+      <c r="Z26" s="137"/>
+      <c r="AA26" s="137"/>
+      <c r="AB26" s="137"/>
+      <c r="AC26" s="137"/>
+      <c r="AD26" s="137"/>
+      <c r="AE26" s="137"/>
+      <c r="AF26" s="137"/>
+      <c r="AG26" s="137"/>
+      <c r="AH26" s="137"/>
+      <c r="AI26" s="137"/>
+      <c r="AJ26" s="137"/>
+      <c r="AK26" s="137"/>
+      <c r="AL26" s="137"/>
+      <c r="AM26" s="138"/>
+      <c r="AN26" s="122"/>
+      <c r="AO26" s="123"/>
+      <c r="AP26" s="123"/>
+      <c r="AQ26" s="123"/>
+      <c r="AR26" s="124"/>
+      <c r="AS26" s="122"/>
+      <c r="AT26" s="123"/>
+      <c r="AU26" s="123"/>
+      <c r="AV26" s="123"/>
+      <c r="AW26" s="124"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="48"/>
-      <c r="B27" s="141"/>
-      <c r="C27" s="142"/>
-      <c r="D27" s="143"/>
-      <c r="E27" s="133"/>
-      <c r="F27" s="133"/>
-      <c r="G27" s="133"/>
-      <c r="H27" s="133"/>
-      <c r="I27" s="133"/>
-      <c r="J27" s="134"/>
-      <c r="K27" s="135"/>
-      <c r="L27" s="136"/>
-      <c r="M27" s="155"/>
-      <c r="N27" s="145"/>
-      <c r="O27" s="145"/>
-      <c r="P27" s="145"/>
-      <c r="Q27" s="145"/>
-      <c r="R27" s="146"/>
-      <c r="S27" s="131"/>
-      <c r="T27" s="131"/>
-      <c r="U27" s="131"/>
-      <c r="V27" s="147"/>
-      <c r="W27" s="148"/>
-      <c r="X27" s="148"/>
-      <c r="Y27" s="148"/>
-      <c r="Z27" s="148"/>
-      <c r="AA27" s="148"/>
-      <c r="AB27" s="148"/>
-      <c r="AC27" s="148"/>
-      <c r="AD27" s="148"/>
-      <c r="AE27" s="148"/>
-      <c r="AF27" s="148"/>
-      <c r="AG27" s="148"/>
-      <c r="AH27" s="148"/>
-      <c r="AI27" s="148"/>
-      <c r="AJ27" s="148"/>
-      <c r="AK27" s="148"/>
-      <c r="AL27" s="148"/>
-      <c r="AM27" s="149"/>
-      <c r="AN27" s="150"/>
-      <c r="AO27" s="151"/>
-      <c r="AP27" s="151"/>
-      <c r="AQ27" s="151"/>
-      <c r="AR27" s="152"/>
-      <c r="AS27" s="150"/>
-      <c r="AT27" s="151"/>
-      <c r="AU27" s="151"/>
-      <c r="AV27" s="151"/>
-      <c r="AW27" s="152"/>
+      <c r="B27" s="125"/>
+      <c r="C27" s="126"/>
+      <c r="D27" s="127"/>
+      <c r="E27" s="128"/>
+      <c r="F27" s="128"/>
+      <c r="G27" s="128"/>
+      <c r="H27" s="128"/>
+      <c r="I27" s="128"/>
+      <c r="J27" s="129"/>
+      <c r="K27" s="130"/>
+      <c r="L27" s="131"/>
+      <c r="M27" s="139"/>
+      <c r="N27" s="140"/>
+      <c r="O27" s="140"/>
+      <c r="P27" s="140"/>
+      <c r="Q27" s="140"/>
+      <c r="R27" s="141"/>
+      <c r="S27" s="135"/>
+      <c r="T27" s="135"/>
+      <c r="U27" s="135"/>
+      <c r="V27" s="136"/>
+      <c r="W27" s="137"/>
+      <c r="X27" s="137"/>
+      <c r="Y27" s="137"/>
+      <c r="Z27" s="137"/>
+      <c r="AA27" s="137"/>
+      <c r="AB27" s="137"/>
+      <c r="AC27" s="137"/>
+      <c r="AD27" s="137"/>
+      <c r="AE27" s="137"/>
+      <c r="AF27" s="137"/>
+      <c r="AG27" s="137"/>
+      <c r="AH27" s="137"/>
+      <c r="AI27" s="137"/>
+      <c r="AJ27" s="137"/>
+      <c r="AK27" s="137"/>
+      <c r="AL27" s="137"/>
+      <c r="AM27" s="138"/>
+      <c r="AN27" s="122"/>
+      <c r="AO27" s="123"/>
+      <c r="AP27" s="123"/>
+      <c r="AQ27" s="123"/>
+      <c r="AR27" s="124"/>
+      <c r="AS27" s="122"/>
+      <c r="AT27" s="123"/>
+      <c r="AU27" s="123"/>
+      <c r="AV27" s="123"/>
+      <c r="AW27" s="124"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="48"/>
-      <c r="B28" s="141"/>
-      <c r="C28" s="142"/>
-      <c r="D28" s="143"/>
-      <c r="E28" s="133"/>
-      <c r="F28" s="133"/>
-      <c r="G28" s="133"/>
-      <c r="H28" s="133"/>
-      <c r="I28" s="133"/>
-      <c r="J28" s="134"/>
-      <c r="K28" s="135"/>
-      <c r="L28" s="136"/>
-      <c r="M28" s="144"/>
-      <c r="N28" s="145"/>
-      <c r="O28" s="145"/>
-      <c r="P28" s="145"/>
-      <c r="Q28" s="145"/>
-      <c r="R28" s="146"/>
-      <c r="S28" s="131"/>
-      <c r="T28" s="131"/>
-      <c r="U28" s="131"/>
-      <c r="V28" s="147"/>
-      <c r="W28" s="148"/>
-      <c r="X28" s="148"/>
-      <c r="Y28" s="148"/>
-      <c r="Z28" s="148"/>
-      <c r="AA28" s="148"/>
-      <c r="AB28" s="148"/>
-      <c r="AC28" s="148"/>
-      <c r="AD28" s="148"/>
-      <c r="AE28" s="148"/>
-      <c r="AF28" s="148"/>
-      <c r="AG28" s="148"/>
-      <c r="AH28" s="148"/>
-      <c r="AI28" s="148"/>
-      <c r="AJ28" s="148"/>
-      <c r="AK28" s="148"/>
-      <c r="AL28" s="148"/>
-      <c r="AM28" s="149"/>
-      <c r="AN28" s="150"/>
-      <c r="AO28" s="151"/>
-      <c r="AP28" s="151"/>
-      <c r="AQ28" s="151"/>
-      <c r="AR28" s="152"/>
-      <c r="AS28" s="150"/>
-      <c r="AT28" s="151"/>
-      <c r="AU28" s="151"/>
-      <c r="AV28" s="151"/>
-      <c r="AW28" s="152"/>
+      <c r="B28" s="125"/>
+      <c r="C28" s="126"/>
+      <c r="D28" s="127"/>
+      <c r="E28" s="128"/>
+      <c r="F28" s="128"/>
+      <c r="G28" s="128"/>
+      <c r="H28" s="128"/>
+      <c r="I28" s="128"/>
+      <c r="J28" s="129"/>
+      <c r="K28" s="130"/>
+      <c r="L28" s="131"/>
+      <c r="M28" s="142"/>
+      <c r="N28" s="140"/>
+      <c r="O28" s="140"/>
+      <c r="P28" s="140"/>
+      <c r="Q28" s="140"/>
+      <c r="R28" s="141"/>
+      <c r="S28" s="135"/>
+      <c r="T28" s="135"/>
+      <c r="U28" s="135"/>
+      <c r="V28" s="136"/>
+      <c r="W28" s="137"/>
+      <c r="X28" s="137"/>
+      <c r="Y28" s="137"/>
+      <c r="Z28" s="137"/>
+      <c r="AA28" s="137"/>
+      <c r="AB28" s="137"/>
+      <c r="AC28" s="137"/>
+      <c r="AD28" s="137"/>
+      <c r="AE28" s="137"/>
+      <c r="AF28" s="137"/>
+      <c r="AG28" s="137"/>
+      <c r="AH28" s="137"/>
+      <c r="AI28" s="137"/>
+      <c r="AJ28" s="137"/>
+      <c r="AK28" s="137"/>
+      <c r="AL28" s="137"/>
+      <c r="AM28" s="138"/>
+      <c r="AN28" s="122"/>
+      <c r="AO28" s="123"/>
+      <c r="AP28" s="123"/>
+      <c r="AQ28" s="123"/>
+      <c r="AR28" s="124"/>
+      <c r="AS28" s="122"/>
+      <c r="AT28" s="123"/>
+      <c r="AU28" s="123"/>
+      <c r="AV28" s="123"/>
+      <c r="AW28" s="124"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="48"/>
-      <c r="B29" s="141"/>
-      <c r="C29" s="142"/>
-      <c r="D29" s="143"/>
-      <c r="E29" s="133"/>
-      <c r="F29" s="133"/>
-      <c r="G29" s="133"/>
-      <c r="H29" s="133"/>
-      <c r="I29" s="133"/>
-      <c r="J29" s="134"/>
-      <c r="K29" s="135"/>
-      <c r="L29" s="136"/>
-      <c r="M29" s="144"/>
-      <c r="N29" s="145"/>
-      <c r="O29" s="145"/>
-      <c r="P29" s="145"/>
-      <c r="Q29" s="145"/>
-      <c r="R29" s="146"/>
-      <c r="S29" s="131"/>
-      <c r="T29" s="131"/>
-      <c r="U29" s="131"/>
-      <c r="V29" s="147"/>
-      <c r="W29" s="148"/>
-      <c r="X29" s="148"/>
-      <c r="Y29" s="148"/>
-      <c r="Z29" s="148"/>
-      <c r="AA29" s="148"/>
-      <c r="AB29" s="148"/>
-      <c r="AC29" s="148"/>
-      <c r="AD29" s="148"/>
-      <c r="AE29" s="148"/>
-      <c r="AF29" s="148"/>
-      <c r="AG29" s="148"/>
-      <c r="AH29" s="148"/>
-      <c r="AI29" s="148"/>
-      <c r="AJ29" s="148"/>
-      <c r="AK29" s="148"/>
-      <c r="AL29" s="148"/>
-      <c r="AM29" s="149"/>
-      <c r="AN29" s="150"/>
-      <c r="AO29" s="151"/>
-      <c r="AP29" s="151"/>
-      <c r="AQ29" s="151"/>
-      <c r="AR29" s="152"/>
-      <c r="AS29" s="150"/>
-      <c r="AT29" s="151"/>
-      <c r="AU29" s="151"/>
-      <c r="AV29" s="151"/>
-      <c r="AW29" s="152"/>
+      <c r="B29" s="125"/>
+      <c r="C29" s="126"/>
+      <c r="D29" s="127"/>
+      <c r="E29" s="128"/>
+      <c r="F29" s="128"/>
+      <c r="G29" s="128"/>
+      <c r="H29" s="128"/>
+      <c r="I29" s="128"/>
+      <c r="J29" s="129"/>
+      <c r="K29" s="130"/>
+      <c r="L29" s="131"/>
+      <c r="M29" s="142"/>
+      <c r="N29" s="140"/>
+      <c r="O29" s="140"/>
+      <c r="P29" s="140"/>
+      <c r="Q29" s="140"/>
+      <c r="R29" s="141"/>
+      <c r="S29" s="135"/>
+      <c r="T29" s="135"/>
+      <c r="U29" s="135"/>
+      <c r="V29" s="136"/>
+      <c r="W29" s="137"/>
+      <c r="X29" s="137"/>
+      <c r="Y29" s="137"/>
+      <c r="Z29" s="137"/>
+      <c r="AA29" s="137"/>
+      <c r="AB29" s="137"/>
+      <c r="AC29" s="137"/>
+      <c r="AD29" s="137"/>
+      <c r="AE29" s="137"/>
+      <c r="AF29" s="137"/>
+      <c r="AG29" s="137"/>
+      <c r="AH29" s="137"/>
+      <c r="AI29" s="137"/>
+      <c r="AJ29" s="137"/>
+      <c r="AK29" s="137"/>
+      <c r="AL29" s="137"/>
+      <c r="AM29" s="138"/>
+      <c r="AN29" s="122"/>
+      <c r="AO29" s="123"/>
+      <c r="AP29" s="123"/>
+      <c r="AQ29" s="123"/>
+      <c r="AR29" s="124"/>
+      <c r="AS29" s="122"/>
+      <c r="AT29" s="123"/>
+      <c r="AU29" s="123"/>
+      <c r="AV29" s="123"/>
+      <c r="AW29" s="124"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="48"/>
-      <c r="B30" s="141"/>
-      <c r="C30" s="142"/>
-      <c r="D30" s="143"/>
-      <c r="E30" s="133"/>
-      <c r="F30" s="133"/>
-      <c r="G30" s="133"/>
-      <c r="H30" s="133"/>
-      <c r="I30" s="133"/>
-      <c r="J30" s="134"/>
-      <c r="K30" s="135"/>
-      <c r="L30" s="136"/>
-      <c r="M30" s="155"/>
-      <c r="N30" s="145"/>
-      <c r="O30" s="145"/>
-      <c r="P30" s="145"/>
-      <c r="Q30" s="145"/>
-      <c r="R30" s="146"/>
-      <c r="S30" s="131"/>
-      <c r="T30" s="131"/>
-      <c r="U30" s="131"/>
-      <c r="V30" s="147"/>
-      <c r="W30" s="148"/>
-      <c r="X30" s="148"/>
-      <c r="Y30" s="148"/>
-      <c r="Z30" s="148"/>
-      <c r="AA30" s="148"/>
-      <c r="AB30" s="148"/>
-      <c r="AC30" s="148"/>
-      <c r="AD30" s="148"/>
-      <c r="AE30" s="148"/>
-      <c r="AF30" s="148"/>
-      <c r="AG30" s="148"/>
-      <c r="AH30" s="148"/>
-      <c r="AI30" s="148"/>
-      <c r="AJ30" s="148"/>
-      <c r="AK30" s="148"/>
-      <c r="AL30" s="148"/>
-      <c r="AM30" s="149"/>
-      <c r="AN30" s="150"/>
-      <c r="AO30" s="151"/>
-      <c r="AP30" s="151"/>
-      <c r="AQ30" s="151"/>
-      <c r="AR30" s="152"/>
-      <c r="AS30" s="150"/>
-      <c r="AT30" s="151"/>
-      <c r="AU30" s="151"/>
-      <c r="AV30" s="151"/>
-      <c r="AW30" s="152"/>
+      <c r="B30" s="125"/>
+      <c r="C30" s="126"/>
+      <c r="D30" s="127"/>
+      <c r="E30" s="128"/>
+      <c r="F30" s="128"/>
+      <c r="G30" s="128"/>
+      <c r="H30" s="128"/>
+      <c r="I30" s="128"/>
+      <c r="J30" s="129"/>
+      <c r="K30" s="130"/>
+      <c r="L30" s="131"/>
+      <c r="M30" s="139"/>
+      <c r="N30" s="140"/>
+      <c r="O30" s="140"/>
+      <c r="P30" s="140"/>
+      <c r="Q30" s="140"/>
+      <c r="R30" s="141"/>
+      <c r="S30" s="135"/>
+      <c r="T30" s="135"/>
+      <c r="U30" s="135"/>
+      <c r="V30" s="136"/>
+      <c r="W30" s="137"/>
+      <c r="X30" s="137"/>
+      <c r="Y30" s="137"/>
+      <c r="Z30" s="137"/>
+      <c r="AA30" s="137"/>
+      <c r="AB30" s="137"/>
+      <c r="AC30" s="137"/>
+      <c r="AD30" s="137"/>
+      <c r="AE30" s="137"/>
+      <c r="AF30" s="137"/>
+      <c r="AG30" s="137"/>
+      <c r="AH30" s="137"/>
+      <c r="AI30" s="137"/>
+      <c r="AJ30" s="137"/>
+      <c r="AK30" s="137"/>
+      <c r="AL30" s="137"/>
+      <c r="AM30" s="138"/>
+      <c r="AN30" s="122"/>
+      <c r="AO30" s="123"/>
+      <c r="AP30" s="123"/>
+      <c r="AQ30" s="123"/>
+      <c r="AR30" s="124"/>
+      <c r="AS30" s="122"/>
+      <c r="AT30" s="123"/>
+      <c r="AU30" s="123"/>
+      <c r="AV30" s="123"/>
+      <c r="AW30" s="124"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="48"/>
-      <c r="B31" s="141"/>
-      <c r="C31" s="142"/>
-      <c r="D31" s="143"/>
-      <c r="E31" s="133"/>
-      <c r="F31" s="133"/>
-      <c r="G31" s="133"/>
-      <c r="H31" s="133"/>
-      <c r="I31" s="133"/>
-      <c r="J31" s="134"/>
-      <c r="K31" s="135"/>
-      <c r="L31" s="136"/>
-      <c r="M31" s="155"/>
-      <c r="N31" s="145"/>
-      <c r="O31" s="145"/>
-      <c r="P31" s="145"/>
-      <c r="Q31" s="145"/>
-      <c r="R31" s="146"/>
-      <c r="S31" s="131"/>
-      <c r="T31" s="131"/>
-      <c r="U31" s="131"/>
-      <c r="V31" s="147"/>
-      <c r="W31" s="148"/>
-      <c r="X31" s="148"/>
-      <c r="Y31" s="148"/>
-      <c r="Z31" s="148"/>
-      <c r="AA31" s="148"/>
-      <c r="AB31" s="148"/>
-      <c r="AC31" s="148"/>
-      <c r="AD31" s="148"/>
-      <c r="AE31" s="148"/>
-      <c r="AF31" s="148"/>
-      <c r="AG31" s="148"/>
-      <c r="AH31" s="148"/>
-      <c r="AI31" s="148"/>
-      <c r="AJ31" s="148"/>
-      <c r="AK31" s="148"/>
-      <c r="AL31" s="148"/>
-      <c r="AM31" s="149"/>
-      <c r="AN31" s="150"/>
-      <c r="AO31" s="151"/>
-      <c r="AP31" s="151"/>
-      <c r="AQ31" s="151"/>
-      <c r="AR31" s="152"/>
-      <c r="AS31" s="150"/>
-      <c r="AT31" s="151"/>
-      <c r="AU31" s="151"/>
-      <c r="AV31" s="151"/>
-      <c r="AW31" s="152"/>
+      <c r="B31" s="125"/>
+      <c r="C31" s="126"/>
+      <c r="D31" s="127"/>
+      <c r="E31" s="128"/>
+      <c r="F31" s="128"/>
+      <c r="G31" s="128"/>
+      <c r="H31" s="128"/>
+      <c r="I31" s="128"/>
+      <c r="J31" s="129"/>
+      <c r="K31" s="130"/>
+      <c r="L31" s="131"/>
+      <c r="M31" s="139"/>
+      <c r="N31" s="140"/>
+      <c r="O31" s="140"/>
+      <c r="P31" s="140"/>
+      <c r="Q31" s="140"/>
+      <c r="R31" s="141"/>
+      <c r="S31" s="135"/>
+      <c r="T31" s="135"/>
+      <c r="U31" s="135"/>
+      <c r="V31" s="136"/>
+      <c r="W31" s="137"/>
+      <c r="X31" s="137"/>
+      <c r="Y31" s="137"/>
+      <c r="Z31" s="137"/>
+      <c r="AA31" s="137"/>
+      <c r="AB31" s="137"/>
+      <c r="AC31" s="137"/>
+      <c r="AD31" s="137"/>
+      <c r="AE31" s="137"/>
+      <c r="AF31" s="137"/>
+      <c r="AG31" s="137"/>
+      <c r="AH31" s="137"/>
+      <c r="AI31" s="137"/>
+      <c r="AJ31" s="137"/>
+      <c r="AK31" s="137"/>
+      <c r="AL31" s="137"/>
+      <c r="AM31" s="138"/>
+      <c r="AN31" s="122"/>
+      <c r="AO31" s="123"/>
+      <c r="AP31" s="123"/>
+      <c r="AQ31" s="123"/>
+      <c r="AR31" s="124"/>
+      <c r="AS31" s="122"/>
+      <c r="AT31" s="123"/>
+      <c r="AU31" s="123"/>
+      <c r="AV31" s="123"/>
+      <c r="AW31" s="124"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="48"/>
-      <c r="B32" s="141"/>
-      <c r="C32" s="142"/>
-      <c r="D32" s="143"/>
-      <c r="E32" s="133"/>
-      <c r="F32" s="133"/>
-      <c r="G32" s="133"/>
-      <c r="H32" s="133"/>
-      <c r="I32" s="133"/>
-      <c r="J32" s="134"/>
-      <c r="K32" s="135"/>
-      <c r="L32" s="136"/>
-      <c r="M32" s="155"/>
-      <c r="N32" s="145"/>
-      <c r="O32" s="145"/>
-      <c r="P32" s="145"/>
-      <c r="Q32" s="145"/>
-      <c r="R32" s="146"/>
-      <c r="S32" s="131"/>
-      <c r="T32" s="131"/>
-      <c r="U32" s="131"/>
-      <c r="V32" s="147"/>
-      <c r="W32" s="148"/>
-      <c r="X32" s="148"/>
-      <c r="Y32" s="148"/>
-      <c r="Z32" s="148"/>
-      <c r="AA32" s="148"/>
-      <c r="AB32" s="148"/>
-      <c r="AC32" s="148"/>
-      <c r="AD32" s="148"/>
-      <c r="AE32" s="148"/>
-      <c r="AF32" s="148"/>
-      <c r="AG32" s="148"/>
-      <c r="AH32" s="148"/>
-      <c r="AI32" s="148"/>
-      <c r="AJ32" s="148"/>
-      <c r="AK32" s="148"/>
-      <c r="AL32" s="148"/>
-      <c r="AM32" s="149"/>
-      <c r="AN32" s="150"/>
-      <c r="AO32" s="151"/>
-      <c r="AP32" s="151"/>
-      <c r="AQ32" s="151"/>
-      <c r="AR32" s="152"/>
-      <c r="AS32" s="150"/>
-      <c r="AT32" s="151"/>
-      <c r="AU32" s="151"/>
-      <c r="AV32" s="151"/>
-      <c r="AW32" s="152"/>
+      <c r="B32" s="125"/>
+      <c r="C32" s="126"/>
+      <c r="D32" s="127"/>
+      <c r="E32" s="128"/>
+      <c r="F32" s="128"/>
+      <c r="G32" s="128"/>
+      <c r="H32" s="128"/>
+      <c r="I32" s="128"/>
+      <c r="J32" s="129"/>
+      <c r="K32" s="130"/>
+      <c r="L32" s="131"/>
+      <c r="M32" s="139"/>
+      <c r="N32" s="140"/>
+      <c r="O32" s="140"/>
+      <c r="P32" s="140"/>
+      <c r="Q32" s="140"/>
+      <c r="R32" s="141"/>
+      <c r="S32" s="135"/>
+      <c r="T32" s="135"/>
+      <c r="U32" s="135"/>
+      <c r="V32" s="136"/>
+      <c r="W32" s="137"/>
+      <c r="X32" s="137"/>
+      <c r="Y32" s="137"/>
+      <c r="Z32" s="137"/>
+      <c r="AA32" s="137"/>
+      <c r="AB32" s="137"/>
+      <c r="AC32" s="137"/>
+      <c r="AD32" s="137"/>
+      <c r="AE32" s="137"/>
+      <c r="AF32" s="137"/>
+      <c r="AG32" s="137"/>
+      <c r="AH32" s="137"/>
+      <c r="AI32" s="137"/>
+      <c r="AJ32" s="137"/>
+      <c r="AK32" s="137"/>
+      <c r="AL32" s="137"/>
+      <c r="AM32" s="138"/>
+      <c r="AN32" s="122"/>
+      <c r="AO32" s="123"/>
+      <c r="AP32" s="123"/>
+      <c r="AQ32" s="123"/>
+      <c r="AR32" s="124"/>
+      <c r="AS32" s="122"/>
+      <c r="AT32" s="123"/>
+      <c r="AU32" s="123"/>
+      <c r="AV32" s="123"/>
+      <c r="AW32" s="124"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="141"/>
-      <c r="C33" s="142"/>
-      <c r="D33" s="143"/>
-      <c r="E33" s="133"/>
-      <c r="F33" s="133"/>
-      <c r="G33" s="133"/>
-      <c r="H33" s="133"/>
-      <c r="I33" s="133"/>
-      <c r="J33" s="134"/>
-      <c r="K33" s="135"/>
-      <c r="L33" s="136"/>
-      <c r="M33" s="155"/>
-      <c r="N33" s="145"/>
-      <c r="O33" s="145"/>
-      <c r="P33" s="145"/>
-      <c r="Q33" s="145"/>
-      <c r="R33" s="146"/>
-      <c r="S33" s="131"/>
-      <c r="T33" s="131"/>
-      <c r="U33" s="131"/>
-      <c r="V33" s="147"/>
-      <c r="W33" s="148"/>
-      <c r="X33" s="148"/>
-      <c r="Y33" s="148"/>
-      <c r="Z33" s="148"/>
-      <c r="AA33" s="148"/>
-      <c r="AB33" s="148"/>
-      <c r="AC33" s="148"/>
-      <c r="AD33" s="148"/>
-      <c r="AE33" s="148"/>
-      <c r="AF33" s="148"/>
-      <c r="AG33" s="148"/>
-      <c r="AH33" s="148"/>
-      <c r="AI33" s="148"/>
-      <c r="AJ33" s="148"/>
-      <c r="AK33" s="148"/>
-      <c r="AL33" s="148"/>
-      <c r="AM33" s="149"/>
-      <c r="AN33" s="150"/>
-      <c r="AO33" s="151"/>
-      <c r="AP33" s="151"/>
-      <c r="AQ33" s="151"/>
-      <c r="AR33" s="152"/>
-      <c r="AS33" s="150"/>
-      <c r="AT33" s="151"/>
-      <c r="AU33" s="151"/>
-      <c r="AV33" s="151"/>
-      <c r="AW33" s="152"/>
+      <c r="B33" s="125"/>
+      <c r="C33" s="126"/>
+      <c r="D33" s="127"/>
+      <c r="E33" s="128"/>
+      <c r="F33" s="128"/>
+      <c r="G33" s="128"/>
+      <c r="H33" s="128"/>
+      <c r="I33" s="128"/>
+      <c r="J33" s="129"/>
+      <c r="K33" s="130"/>
+      <c r="L33" s="131"/>
+      <c r="M33" s="139"/>
+      <c r="N33" s="140"/>
+      <c r="O33" s="140"/>
+      <c r="P33" s="140"/>
+      <c r="Q33" s="140"/>
+      <c r="R33" s="141"/>
+      <c r="S33" s="135"/>
+      <c r="T33" s="135"/>
+      <c r="U33" s="135"/>
+      <c r="V33" s="136"/>
+      <c r="W33" s="137"/>
+      <c r="X33" s="137"/>
+      <c r="Y33" s="137"/>
+      <c r="Z33" s="137"/>
+      <c r="AA33" s="137"/>
+      <c r="AB33" s="137"/>
+      <c r="AC33" s="137"/>
+      <c r="AD33" s="137"/>
+      <c r="AE33" s="137"/>
+      <c r="AF33" s="137"/>
+      <c r="AG33" s="137"/>
+      <c r="AH33" s="137"/>
+      <c r="AI33" s="137"/>
+      <c r="AJ33" s="137"/>
+      <c r="AK33" s="137"/>
+      <c r="AL33" s="137"/>
+      <c r="AM33" s="138"/>
+      <c r="AN33" s="122"/>
+      <c r="AO33" s="123"/>
+      <c r="AP33" s="123"/>
+      <c r="AQ33" s="123"/>
+      <c r="AR33" s="124"/>
+      <c r="AS33" s="122"/>
+      <c r="AT33" s="123"/>
+      <c r="AU33" s="123"/>
+      <c r="AV33" s="123"/>
+      <c r="AW33" s="124"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="141"/>
-      <c r="C34" s="142"/>
-      <c r="D34" s="143"/>
-      <c r="E34" s="133"/>
-      <c r="F34" s="133"/>
-      <c r="G34" s="133"/>
-      <c r="H34" s="133"/>
-      <c r="I34" s="133"/>
-      <c r="J34" s="134"/>
-      <c r="K34" s="135"/>
-      <c r="L34" s="136"/>
-      <c r="M34" s="159"/>
-      <c r="N34" s="160"/>
-      <c r="O34" s="160"/>
-      <c r="P34" s="160"/>
-      <c r="Q34" s="160"/>
-      <c r="R34" s="161"/>
-      <c r="S34" s="131"/>
-      <c r="T34" s="131"/>
-      <c r="U34" s="131"/>
-      <c r="V34" s="147"/>
-      <c r="W34" s="148"/>
-      <c r="X34" s="148"/>
-      <c r="Y34" s="148"/>
-      <c r="Z34" s="148"/>
-      <c r="AA34" s="148"/>
-      <c r="AB34" s="148"/>
-      <c r="AC34" s="148"/>
-      <c r="AD34" s="148"/>
-      <c r="AE34" s="148"/>
-      <c r="AF34" s="148"/>
-      <c r="AG34" s="148"/>
-      <c r="AH34" s="148"/>
-      <c r="AI34" s="148"/>
-      <c r="AJ34" s="148"/>
-      <c r="AK34" s="148"/>
-      <c r="AL34" s="148"/>
-      <c r="AM34" s="149"/>
-      <c r="AN34" s="150"/>
-      <c r="AO34" s="151"/>
-      <c r="AP34" s="151"/>
-      <c r="AQ34" s="151"/>
-      <c r="AR34" s="152"/>
-      <c r="AS34" s="150"/>
-      <c r="AT34" s="151"/>
-      <c r="AU34" s="151"/>
-      <c r="AV34" s="151"/>
-      <c r="AW34" s="152"/>
+      <c r="B34" s="125"/>
+      <c r="C34" s="126"/>
+      <c r="D34" s="127"/>
+      <c r="E34" s="128"/>
+      <c r="F34" s="128"/>
+      <c r="G34" s="128"/>
+      <c r="H34" s="128"/>
+      <c r="I34" s="128"/>
+      <c r="J34" s="129"/>
+      <c r="K34" s="130"/>
+      <c r="L34" s="131"/>
+      <c r="M34" s="132"/>
+      <c r="N34" s="133"/>
+      <c r="O34" s="133"/>
+      <c r="P34" s="133"/>
+      <c r="Q34" s="133"/>
+      <c r="R34" s="134"/>
+      <c r="S34" s="135"/>
+      <c r="T34" s="135"/>
+      <c r="U34" s="135"/>
+      <c r="V34" s="136"/>
+      <c r="W34" s="137"/>
+      <c r="X34" s="137"/>
+      <c r="Y34" s="137"/>
+      <c r="Z34" s="137"/>
+      <c r="AA34" s="137"/>
+      <c r="AB34" s="137"/>
+      <c r="AC34" s="137"/>
+      <c r="AD34" s="137"/>
+      <c r="AE34" s="137"/>
+      <c r="AF34" s="137"/>
+      <c r="AG34" s="137"/>
+      <c r="AH34" s="137"/>
+      <c r="AI34" s="137"/>
+      <c r="AJ34" s="137"/>
+      <c r="AK34" s="137"/>
+      <c r="AL34" s="137"/>
+      <c r="AM34" s="138"/>
+      <c r="AN34" s="122"/>
+      <c r="AO34" s="123"/>
+      <c r="AP34" s="123"/>
+      <c r="AQ34" s="123"/>
+      <c r="AR34" s="124"/>
+      <c r="AS34" s="122"/>
+      <c r="AT34" s="123"/>
+      <c r="AU34" s="123"/>
+      <c r="AV34" s="123"/>
+      <c r="AW34" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="249">
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN5:AR5"/>
+    <mergeCell ref="AS5:AW5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:R6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="V6:AM6"/>
+    <mergeCell ref="AN6:AR6"/>
+    <mergeCell ref="AS6:AW6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:R5"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="V5:AM5"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
     <mergeCell ref="AN33:AR33"/>
     <mergeCell ref="AS33:AW33"/>
     <mergeCell ref="B34:D34"/>
@@ -6724,239 +6957,6 @@
     <mergeCell ref="M33:R33"/>
     <mergeCell ref="S33:U33"/>
     <mergeCell ref="V33:AM33"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN5:AR5"/>
-    <mergeCell ref="AS5:AW5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:R6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="V6:AM6"/>
-    <mergeCell ref="AN6:AR6"/>
-    <mergeCell ref="AS6:AW6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:R5"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7116,11 +7116,11 @@
       <c r="AL2" s="33"/>
       <c r="AM2" s="33"/>
       <c r="AN2" s="34"/>
-      <c r="AO2" s="166"/>
-      <c r="AP2" s="167"/>
-      <c r="AQ2" s="167"/>
-      <c r="AR2" s="167"/>
-      <c r="AS2" s="168"/>
+      <c r="AO2" s="162"/>
+      <c r="AP2" s="163"/>
+      <c r="AQ2" s="163"/>
+      <c r="AR2" s="163"/>
+      <c r="AS2" s="164"/>
       <c r="AT2" s="32" t="s">
         <v>26</v>
       </c>
@@ -7129,14 +7129,14 @@
       <c r="AW2" s="33"/>
       <c r="AX2" s="33"/>
       <c r="AY2" s="34"/>
-      <c r="AZ2" s="169"/>
-      <c r="BA2" s="170"/>
-      <c r="BB2" s="170"/>
-      <c r="BC2" s="170"/>
-      <c r="BD2" s="170"/>
-      <c r="BE2" s="170"/>
-      <c r="BF2" s="170"/>
-      <c r="BG2" s="171"/>
+      <c r="AZ2" s="165"/>
+      <c r="BA2" s="166"/>
+      <c r="BB2" s="166"/>
+      <c r="BC2" s="166"/>
+      <c r="BD2" s="166"/>
+      <c r="BE2" s="166"/>
+      <c r="BF2" s="166"/>
+      <c r="BG2" s="167"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A3" s="31"/>
@@ -8579,10 +8579,10 @@
     </row>
     <row r="41" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A41" s="27"/>
-      <c r="B41" s="172" t="s">
+      <c r="B41" s="170" t="s">
         <v>81</v>
       </c>
-      <c r="C41" s="173"/>
+      <c r="C41" s="171"/>
       <c r="D41" s="75" t="s">
         <v>80</v>
       </c>
@@ -8665,10 +8665,10 @@
     </row>
     <row r="42" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A42" s="27"/>
-      <c r="B42" s="162">
+      <c r="B42" s="172">
         <v>1</v>
       </c>
-      <c r="C42" s="163"/>
+      <c r="C42" s="173"/>
       <c r="D42" s="69" t="s">
         <v>135</v>
       </c>
@@ -8700,16 +8700,16 @@
       <c r="AB42" s="73"/>
       <c r="AC42" s="73"/>
       <c r="AD42" s="74"/>
-      <c r="AE42" s="164" t="s">
+      <c r="AE42" s="168" t="s">
         <v>89</v>
       </c>
-      <c r="AF42" s="165"/>
-      <c r="AG42" s="164"/>
-      <c r="AH42" s="165"/>
-      <c r="AI42" s="164"/>
-      <c r="AJ42" s="165"/>
-      <c r="AK42" s="164"/>
-      <c r="AL42" s="165"/>
+      <c r="AF42" s="169"/>
+      <c r="AG42" s="168"/>
+      <c r="AH42" s="169"/>
+      <c r="AI42" s="168"/>
+      <c r="AJ42" s="169"/>
+      <c r="AK42" s="168"/>
+      <c r="AL42" s="169"/>
       <c r="AM42" s="70" t="s">
         <v>138</v>
       </c>
@@ -8743,10 +8743,10 @@
     </row>
     <row r="43" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A43" s="27"/>
-      <c r="B43" s="162">
+      <c r="B43" s="172">
         <v>2</v>
       </c>
-      <c r="C43" s="163"/>
+      <c r="C43" s="173"/>
       <c r="D43" s="101" t="s">
         <v>135</v>
       </c>
@@ -8778,16 +8778,16 @@
       <c r="AB43" s="73"/>
       <c r="AC43" s="73"/>
       <c r="AD43" s="102"/>
-      <c r="AE43" s="164" t="s">
+      <c r="AE43" s="168" t="s">
         <v>89</v>
       </c>
-      <c r="AF43" s="165"/>
-      <c r="AG43" s="164"/>
-      <c r="AH43" s="165"/>
-      <c r="AI43" s="164"/>
-      <c r="AJ43" s="165"/>
-      <c r="AK43" s="164"/>
-      <c r="AL43" s="165"/>
+      <c r="AF43" s="169"/>
+      <c r="AG43" s="168"/>
+      <c r="AH43" s="169"/>
+      <c r="AI43" s="168"/>
+      <c r="AJ43" s="169"/>
+      <c r="AK43" s="168"/>
+      <c r="AL43" s="169"/>
       <c r="AM43" s="70" t="s">
         <v>139</v>
       </c>
@@ -8821,10 +8821,10 @@
     </row>
     <row r="44" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A44" s="27"/>
-      <c r="B44" s="162">
+      <c r="B44" s="172">
         <v>3</v>
       </c>
-      <c r="C44" s="163"/>
+      <c r="C44" s="173"/>
       <c r="D44" s="101" t="s">
         <v>135</v>
       </c>
@@ -8856,16 +8856,16 @@
       <c r="AB44" s="73"/>
       <c r="AC44" s="73"/>
       <c r="AD44" s="102"/>
-      <c r="AE44" s="164" t="s">
+      <c r="AE44" s="168" t="s">
         <v>89</v>
       </c>
-      <c r="AF44" s="165"/>
-      <c r="AG44" s="164"/>
-      <c r="AH44" s="165"/>
-      <c r="AI44" s="164"/>
-      <c r="AJ44" s="165"/>
-      <c r="AK44" s="164"/>
-      <c r="AL44" s="165"/>
+      <c r="AF44" s="169"/>
+      <c r="AG44" s="168"/>
+      <c r="AH44" s="169"/>
+      <c r="AI44" s="168"/>
+      <c r="AJ44" s="169"/>
+      <c r="AK44" s="168"/>
+      <c r="AL44" s="169"/>
       <c r="AM44" s="70" t="s">
         <v>146</v>
       </c>
@@ -8899,10 +8899,10 @@
     </row>
     <row r="45" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A45" s="27"/>
-      <c r="B45" s="162">
+      <c r="B45" s="172">
         <v>4</v>
       </c>
-      <c r="C45" s="163"/>
+      <c r="C45" s="173"/>
       <c r="D45" s="105" t="s">
         <v>147</v>
       </c>
@@ -8934,16 +8934,16 @@
       <c r="AB45" s="73"/>
       <c r="AC45" s="73"/>
       <c r="AD45" s="106"/>
-      <c r="AE45" s="164"/>
-      <c r="AF45" s="165"/>
-      <c r="AG45" s="164"/>
-      <c r="AH45" s="165"/>
-      <c r="AI45" s="164" t="s">
+      <c r="AE45" s="168"/>
+      <c r="AF45" s="169"/>
+      <c r="AG45" s="168"/>
+      <c r="AH45" s="169"/>
+      <c r="AI45" s="168" t="s">
         <v>89</v>
       </c>
-      <c r="AJ45" s="165"/>
-      <c r="AK45" s="164"/>
-      <c r="AL45" s="165"/>
+      <c r="AJ45" s="169"/>
+      <c r="AK45" s="168"/>
+      <c r="AL45" s="169"/>
       <c r="AM45" s="70" t="s">
         <v>151</v>
       </c>
@@ -8977,10 +8977,10 @@
     </row>
     <row r="46" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A46" s="27"/>
-      <c r="B46" s="162">
+      <c r="B46" s="172">
         <v>5</v>
       </c>
-      <c r="C46" s="163"/>
+      <c r="C46" s="173"/>
       <c r="D46" s="101" t="s">
         <v>147</v>
       </c>
@@ -9012,16 +9012,16 @@
       <c r="AB46" s="73"/>
       <c r="AC46" s="73"/>
       <c r="AD46" s="102"/>
-      <c r="AE46" s="164" t="s">
+      <c r="AE46" s="168" t="s">
         <v>89</v>
       </c>
-      <c r="AF46" s="165"/>
-      <c r="AG46" s="164"/>
-      <c r="AH46" s="165"/>
-      <c r="AI46" s="164"/>
-      <c r="AJ46" s="165"/>
-      <c r="AK46" s="164"/>
-      <c r="AL46" s="165"/>
+      <c r="AF46" s="169"/>
+      <c r="AG46" s="168"/>
+      <c r="AH46" s="169"/>
+      <c r="AI46" s="168"/>
+      <c r="AJ46" s="169"/>
+      <c r="AK46" s="168"/>
+      <c r="AL46" s="169"/>
       <c r="AM46" s="70" t="s">
         <v>152</v>
       </c>
@@ -9055,10 +9055,10 @@
     </row>
     <row r="47" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A47" s="27"/>
-      <c r="B47" s="162">
+      <c r="B47" s="172">
         <v>6</v>
       </c>
-      <c r="C47" s="163"/>
+      <c r="C47" s="173"/>
       <c r="D47" s="101" t="s">
         <v>147</v>
       </c>
@@ -9090,16 +9090,16 @@
       <c r="AB47" s="73"/>
       <c r="AC47" s="73"/>
       <c r="AD47" s="102"/>
-      <c r="AE47" s="164"/>
-      <c r="AF47" s="165"/>
-      <c r="AG47" s="164" t="s">
+      <c r="AE47" s="168"/>
+      <c r="AF47" s="169"/>
+      <c r="AG47" s="168" t="s">
         <v>89</v>
       </c>
-      <c r="AH47" s="165"/>
-      <c r="AI47" s="164"/>
-      <c r="AJ47" s="165"/>
-      <c r="AK47" s="164"/>
-      <c r="AL47" s="165"/>
+      <c r="AH47" s="169"/>
+      <c r="AI47" s="168"/>
+      <c r="AJ47" s="169"/>
+      <c r="AK47" s="168"/>
+      <c r="AL47" s="169"/>
       <c r="AM47" s="70" t="s">
         <v>140</v>
       </c>
@@ -9138,6 +9138,31 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="AE43:AF43"/>
+    <mergeCell ref="AG43:AH43"/>
+    <mergeCell ref="AI43:AJ43"/>
+    <mergeCell ref="AK43:AL43"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="AE44:AF44"/>
+    <mergeCell ref="AG44:AH44"/>
+    <mergeCell ref="AI44:AJ44"/>
+    <mergeCell ref="AK44:AL44"/>
+    <mergeCell ref="AE45:AF45"/>
+    <mergeCell ref="AG45:AH45"/>
+    <mergeCell ref="AI45:AJ45"/>
+    <mergeCell ref="AK45:AL45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="AE46:AF46"/>
+    <mergeCell ref="AI46:AJ46"/>
+    <mergeCell ref="AG46:AH46"/>
+    <mergeCell ref="AK46:AL46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="AE47:AF47"/>
+    <mergeCell ref="AI47:AJ47"/>
+    <mergeCell ref="AG47:AH47"/>
+    <mergeCell ref="AK47:AL47"/>
     <mergeCell ref="AO2:AS2"/>
     <mergeCell ref="AZ2:BG2"/>
     <mergeCell ref="AK42:AL42"/>
@@ -9146,31 +9171,6 @@
     <mergeCell ref="AI42:AJ42"/>
     <mergeCell ref="AE42:AF42"/>
     <mergeCell ref="AG42:AH42"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="AE47:AF47"/>
-    <mergeCell ref="AI47:AJ47"/>
-    <mergeCell ref="AG47:AH47"/>
-    <mergeCell ref="AK47:AL47"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="AE46:AF46"/>
-    <mergeCell ref="AI46:AJ46"/>
-    <mergeCell ref="AG46:AH46"/>
-    <mergeCell ref="AK46:AL46"/>
-    <mergeCell ref="AK44:AL44"/>
-    <mergeCell ref="AE45:AF45"/>
-    <mergeCell ref="AG45:AH45"/>
-    <mergeCell ref="AI45:AJ45"/>
-    <mergeCell ref="AK45:AL45"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="AE44:AF44"/>
-    <mergeCell ref="AG44:AH44"/>
-    <mergeCell ref="AI44:AJ44"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="AE43:AF43"/>
-    <mergeCell ref="AG43:AH43"/>
-    <mergeCell ref="AI43:AJ43"/>
-    <mergeCell ref="AK43:AL43"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -9316,7 +9316,7 @@
       <c r="CR1" s="33"/>
       <c r="CS1" s="33"/>
       <c r="CT1" s="34"/>
-      <c r="CU1" s="169" t="str">
+      <c r="CU1" s="165" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -9447,7 +9447,7 @@
       <c r="CR2" s="33"/>
       <c r="CS2" s="33"/>
       <c r="CT2" s="34"/>
-      <c r="CU2" s="169"/>
+      <c r="CU2" s="165"/>
       <c r="CV2" s="174"/>
       <c r="CW2" s="174"/>
       <c r="CX2" s="174"/>
@@ -9663,22 +9663,22 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
-      <c r="C6" s="124" t="s">
+      <c r="C6" s="155" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="124" t="s">
+      <c r="D6" s="155" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="124" t="s">
+      <c r="E6" s="155" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="124" t="s">
+      <c r="F6" s="155" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="124" t="s">
+      <c r="G6" s="155" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="124" t="s">
+      <c r="H6" s="155" t="s">
         <v>29</v>
       </c>
       <c r="I6" s="183" t="s">
@@ -9687,13 +9687,13 @@
       <c r="J6" s="183" t="s">
         <v>41</v>
       </c>
-      <c r="K6" s="124" t="s">
+      <c r="K6" s="155" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="124" t="s">
+      <c r="L6" s="155" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="124" t="s">
+      <c r="M6" s="155" t="s">
         <v>33</v>
       </c>
       <c r="N6" s="58" t="s">
@@ -9708,17 +9708,17 @@
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
-      <c r="C7" s="124"/>
-      <c r="D7" s="124"/>
-      <c r="E7" s="124"/>
-      <c r="F7" s="124"/>
-      <c r="G7" s="124"/>
-      <c r="H7" s="124"/>
+      <c r="C7" s="155"/>
+      <c r="D7" s="155"/>
+      <c r="E7" s="155"/>
+      <c r="F7" s="155"/>
+      <c r="G7" s="155"/>
+      <c r="H7" s="155"/>
       <c r="I7" s="183"/>
       <c r="J7" s="183"/>
-      <c r="K7" s="124"/>
-      <c r="L7" s="124"/>
-      <c r="M7" s="124"/>
+      <c r="K7" s="155"/>
+      <c r="L7" s="155"/>
+      <c r="M7" s="155"/>
       <c r="N7" s="41" t="s">
         <v>62</v>
       </c>
@@ -9937,22 +9937,22 @@
     <row r="14" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
-      <c r="C14" s="124" t="s">
+      <c r="C14" s="155" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="124" t="s">
+      <c r="D14" s="155" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="124" t="s">
+      <c r="E14" s="155" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="124" t="s">
+      <c r="F14" s="155" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="124" t="s">
+      <c r="G14" s="155" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="124" t="s">
+      <c r="H14" s="155" t="s">
         <v>29</v>
       </c>
       <c r="I14" s="184" t="s">
@@ -9961,13 +9961,13 @@
       <c r="J14" s="183" t="s">
         <v>41</v>
       </c>
-      <c r="K14" s="124" t="s">
+      <c r="K14" s="155" t="s">
         <v>31</v>
       </c>
-      <c r="L14" s="124" t="s">
+      <c r="L14" s="155" t="s">
         <v>30</v>
       </c>
-      <c r="M14" s="124" t="s">
+      <c r="M14" s="155" t="s">
         <v>33</v>
       </c>
       <c r="N14" s="58" t="s">
@@ -9982,17 +9982,17 @@
     <row r="15" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
-      <c r="C15" s="124"/>
-      <c r="D15" s="124"/>
-      <c r="E15" s="124"/>
-      <c r="F15" s="124"/>
-      <c r="G15" s="124"/>
-      <c r="H15" s="124"/>
+      <c r="C15" s="155"/>
+      <c r="D15" s="155"/>
+      <c r="E15" s="155"/>
+      <c r="F15" s="155"/>
+      <c r="G15" s="155"/>
+      <c r="H15" s="155"/>
       <c r="I15" s="185"/>
       <c r="J15" s="183"/>
-      <c r="K15" s="124"/>
-      <c r="L15" s="124"/>
-      <c r="M15" s="124"/>
+      <c r="K15" s="155"/>
+      <c r="L15" s="155"/>
+      <c r="M15" s="155"/>
       <c r="N15" s="41" t="s">
         <v>62</v>
       </c>
@@ -10179,22 +10179,22 @@
     <row r="21" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="13"/>
       <c r="B21" s="52"/>
-      <c r="C21" s="124" t="s">
+      <c r="C21" s="155" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="124" t="s">
+      <c r="D21" s="155" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="124" t="s">
+      <c r="E21" s="155" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="124" t="s">
+      <c r="F21" s="155" t="s">
         <v>38</v>
       </c>
-      <c r="G21" s="124" t="s">
+      <c r="G21" s="155" t="s">
         <v>28</v>
       </c>
-      <c r="H21" s="124" t="s">
+      <c r="H21" s="155" t="s">
         <v>29</v>
       </c>
       <c r="I21" s="183" t="s">
@@ -10203,13 +10203,13 @@
       <c r="J21" s="183" t="s">
         <v>41</v>
       </c>
-      <c r="K21" s="124" t="s">
+      <c r="K21" s="155" t="s">
         <v>31</v>
       </c>
-      <c r="L21" s="124" t="s">
+      <c r="L21" s="155" t="s">
         <v>30</v>
       </c>
-      <c r="M21" s="124" t="s">
+      <c r="M21" s="155" t="s">
         <v>33</v>
       </c>
       <c r="N21" s="58" t="s">
@@ -10224,17 +10224,17 @@
     <row r="22" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="13"/>
       <c r="B22" s="52"/>
-      <c r="C22" s="124"/>
-      <c r="D22" s="124"/>
-      <c r="E22" s="124"/>
-      <c r="F22" s="124"/>
-      <c r="G22" s="124"/>
-      <c r="H22" s="124"/>
+      <c r="C22" s="155"/>
+      <c r="D22" s="155"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="155"/>
+      <c r="G22" s="155"/>
+      <c r="H22" s="155"/>
       <c r="I22" s="183"/>
       <c r="J22" s="183"/>
-      <c r="K22" s="124"/>
-      <c r="L22" s="124"/>
-      <c r="M22" s="124"/>
+      <c r="K22" s="155"/>
+      <c r="L22" s="155"/>
+      <c r="M22" s="155"/>
       <c r="N22" s="80" t="s">
         <v>62</v>
       </c>
@@ -10542,30 +10542,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="L14:L15"/>
     <mergeCell ref="Q21:Q22"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="D21:D22"/>
@@ -10578,6 +10554,30 @@
     <mergeCell ref="K21:K22"/>
     <mergeCell ref="L21:L22"/>
     <mergeCell ref="M21:M22"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="D14:D15"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -10651,7 +10651,7 @@
       <c r="AF1" s="33"/>
       <c r="AG1" s="33"/>
       <c r="AH1" s="34"/>
-      <c r="AI1" s="166">
+      <c r="AI1" s="162">
         <f>変更履歴!E5</f>
         <v>43714</v>
       </c>
@@ -10667,7 +10667,7 @@
       <c r="AQ1" s="33"/>
       <c r="AR1" s="33"/>
       <c r="AS1" s="34"/>
-      <c r="AT1" s="169" t="str">
+      <c r="AT1" s="165" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -10738,7 +10738,7 @@
       <c r="AQ2" s="33"/>
       <c r="AR2" s="33"/>
       <c r="AS2" s="34"/>
-      <c r="AT2" s="169"/>
+      <c r="AT2" s="165"/>
       <c r="AU2" s="174"/>
       <c r="AV2" s="174"/>
       <c r="AW2" s="174"/>
@@ -14275,7 +14275,7 @@
       <c r="AF1" s="33"/>
       <c r="AG1" s="33"/>
       <c r="AH1" s="34"/>
-      <c r="AI1" s="166">
+      <c r="AI1" s="162">
         <f>変更履歴!E5</f>
         <v>43714</v>
       </c>
@@ -14291,7 +14291,7 @@
       <c r="AQ1" s="33"/>
       <c r="AR1" s="33"/>
       <c r="AS1" s="34"/>
-      <c r="AT1" s="169" t="str">
+      <c r="AT1" s="165" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -14362,7 +14362,7 @@
       <c r="AQ2" s="33"/>
       <c r="AR2" s="33"/>
       <c r="AS2" s="34"/>
-      <c r="AT2" s="169"/>
+      <c r="AT2" s="165"/>
       <c r="AU2" s="174"/>
       <c r="AV2" s="174"/>
       <c r="AW2" s="174"/>
@@ -19252,11 +19252,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="T17:AC18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="T15:AC16"/>
     <mergeCell ref="AT1:AZ1"/>
     <mergeCell ref="S2:AD2"/>
     <mergeCell ref="AI2:AM2"/>
@@ -19267,6 +19262,11 @@
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="AI1:AM1"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="T17:AC18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="T15:AC16"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.78740157480314965" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.19685039370078741"/>
@@ -19340,7 +19340,7 @@
       <c r="AF1" s="33"/>
       <c r="AG1" s="33"/>
       <c r="AH1" s="34"/>
-      <c r="AI1" s="166">
+      <c r="AI1" s="162">
         <f>変更履歴!E5</f>
         <v>43714</v>
       </c>
@@ -19356,7 +19356,7 @@
       <c r="AQ1" s="33"/>
       <c r="AR1" s="33"/>
       <c r="AS1" s="34"/>
-      <c r="AT1" s="169" t="str">
+      <c r="AT1" s="165" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -19427,7 +19427,7 @@
       <c r="AQ2" s="33"/>
       <c r="AR2" s="33"/>
       <c r="AS2" s="34"/>
-      <c r="AT2" s="169"/>
+      <c r="AT2" s="165"/>
       <c r="AU2" s="174"/>
       <c r="AV2" s="174"/>
       <c r="AW2" s="174"/>
@@ -30592,12 +30592,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005B3AFDF1A27EF4448B30400A700269C9" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="af1e50296a73b747a155d4c5a148cd8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72c70d25-b9e8-475b-ae7b-39931ca24b85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7c374c4e1cfeff0cf58497e8c642c22" ns2:_="">
     <xsd:import namespace="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
@@ -30755,6 +30749,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
   <ds:schemaRefs>
@@ -30764,15 +30764,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F39FE47-ED8B-411A-AD54-8C8E5636C88B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -30788,4 +30779,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/01_基本設計書/20200220リリース/SC-K20_全工程で試作の在庫払出可能化.xlsx
+++ b/01_基本設計書/20200220リリース/SC-K20_全工程で試作の在庫払出可能化.xlsx
@@ -6,12 +6,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zhang\Documents\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201911\仕様書\K-20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4516B9D0-9F8D-4FD6-947E-054641924342}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE2CA7C-232B-410F-9664-38DCAA8CB67E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="390" windowWidth="20490" windowHeight="10230" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1170" windowWidth="20490" windowHeight="10230" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="279">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -1390,10 +1390,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>Payment division</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>受払数量</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -1528,17 +1524,6 @@
     </rPh>
     <rPh sb="15" eb="17">
       <t>ヒッス</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>・1のみ入力可能
-・登録処理場合、必須</t>
-    <rPh sb="4" eb="6">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>カノウ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -1964,32 +1949,6 @@
     <t>引当可能数量 - 画面の受払数量(1固定)</t>
   </si>
   <si>
-    <r>
-      <t>受払データの受払区分、コードマスタ(コード区分=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>'025'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>)のコード名称</t>
-    </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>クリア</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -2147,6 +2106,29 @@
       </rPr>
       <t/>
     </r>
+  </si>
+  <si>
+    <t>Payment CD</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>払出区分</t>
+    <rPh sb="1" eb="2">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・「1」固定
+・登録処理場合、必須</t>
+    <rPh sb="4" eb="6">
+      <t>コテイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>コードマスタ(コード区分='PAYMENT_CD')のコード、コード名称</t>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
@@ -2634,7 +2616,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="194">
+  <cellXfs count="195">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3"/>
@@ -2981,91 +2963,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3093,6 +2990,103 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="27" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3111,22 +3105,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3188,6 +3170,9 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="16">
@@ -4944,1779 +4929,1994 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="48"/>
-      <c r="B1" s="153" t="s">
+      <c r="B1" s="122" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153"/>
-      <c r="I1" s="153"/>
-      <c r="J1" s="153"/>
-      <c r="K1" s="153"/>
-      <c r="L1" s="153"/>
-      <c r="M1" s="153"/>
-      <c r="N1" s="153"/>
-      <c r="O1" s="153"/>
-      <c r="P1" s="153"/>
-      <c r="Q1" s="153"/>
-      <c r="R1" s="153"/>
-      <c r="S1" s="153"/>
-      <c r="T1" s="153"/>
-      <c r="U1" s="153"/>
-      <c r="V1" s="153"/>
-      <c r="W1" s="153"/>
-      <c r="X1" s="153"/>
-      <c r="Y1" s="153"/>
-      <c r="Z1" s="153"/>
-      <c r="AA1" s="153"/>
-      <c r="AB1" s="153"/>
-      <c r="AC1" s="153"/>
-      <c r="AD1" s="153"/>
-      <c r="AE1" s="153"/>
-      <c r="AF1" s="153"/>
-      <c r="AG1" s="153"/>
-      <c r="AH1" s="153"/>
-      <c r="AI1" s="153"/>
-      <c r="AJ1" s="153"/>
-      <c r="AK1" s="153"/>
-      <c r="AL1" s="153"/>
-      <c r="AM1" s="153"/>
-      <c r="AN1" s="153"/>
-      <c r="AO1" s="153"/>
-      <c r="AP1" s="153"/>
-      <c r="AQ1" s="153"/>
-      <c r="AR1" s="153"/>
-      <c r="AS1" s="153"/>
-      <c r="AT1" s="153"/>
-      <c r="AU1" s="153"/>
-      <c r="AV1" s="153"/>
-      <c r="AW1" s="153"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="122"/>
+      <c r="N1" s="122"/>
+      <c r="O1" s="122"/>
+      <c r="P1" s="122"/>
+      <c r="Q1" s="122"/>
+      <c r="R1" s="122"/>
+      <c r="S1" s="122"/>
+      <c r="T1" s="122"/>
+      <c r="U1" s="122"/>
+      <c r="V1" s="122"/>
+      <c r="W1" s="122"/>
+      <c r="X1" s="122"/>
+      <c r="Y1" s="122"/>
+      <c r="Z1" s="122"/>
+      <c r="AA1" s="122"/>
+      <c r="AB1" s="122"/>
+      <c r="AC1" s="122"/>
+      <c r="AD1" s="122"/>
+      <c r="AE1" s="122"/>
+      <c r="AF1" s="122"/>
+      <c r="AG1" s="122"/>
+      <c r="AH1" s="122"/>
+      <c r="AI1" s="122"/>
+      <c r="AJ1" s="122"/>
+      <c r="AK1" s="122"/>
+      <c r="AL1" s="122"/>
+      <c r="AM1" s="122"/>
+      <c r="AN1" s="122"/>
+      <c r="AO1" s="122"/>
+      <c r="AP1" s="122"/>
+      <c r="AQ1" s="122"/>
+      <c r="AR1" s="122"/>
+      <c r="AS1" s="122"/>
+      <c r="AT1" s="122"/>
+      <c r="AU1" s="122"/>
+      <c r="AV1" s="122"/>
+      <c r="AW1" s="122"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="48"/>
-      <c r="B2" s="154"/>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
-      <c r="I2" s="154"/>
-      <c r="J2" s="154"/>
-      <c r="K2" s="154"/>
-      <c r="L2" s="154"/>
-      <c r="M2" s="154"/>
-      <c r="N2" s="154"/>
-      <c r="O2" s="154"/>
-      <c r="P2" s="154"/>
-      <c r="Q2" s="154"/>
-      <c r="R2" s="154"/>
-      <c r="S2" s="154"/>
-      <c r="T2" s="154"/>
-      <c r="U2" s="154"/>
-      <c r="V2" s="154"/>
-      <c r="W2" s="154"/>
-      <c r="X2" s="154"/>
-      <c r="Y2" s="154"/>
-      <c r="Z2" s="154"/>
-      <c r="AA2" s="154"/>
-      <c r="AB2" s="154"/>
-      <c r="AC2" s="154"/>
-      <c r="AD2" s="154"/>
-      <c r="AE2" s="154"/>
-      <c r="AF2" s="154"/>
-      <c r="AG2" s="154"/>
-      <c r="AH2" s="154"/>
-      <c r="AI2" s="154"/>
-      <c r="AJ2" s="154"/>
-      <c r="AK2" s="154"/>
-      <c r="AL2" s="154"/>
-      <c r="AM2" s="154"/>
-      <c r="AN2" s="154"/>
-      <c r="AO2" s="154"/>
-      <c r="AP2" s="154"/>
-      <c r="AQ2" s="154"/>
-      <c r="AR2" s="154"/>
-      <c r="AS2" s="154"/>
-      <c r="AT2" s="154"/>
-      <c r="AU2" s="154"/>
-      <c r="AV2" s="154"/>
-      <c r="AW2" s="154"/>
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="123"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="123"/>
+      <c r="P2" s="123"/>
+      <c r="Q2" s="123"/>
+      <c r="R2" s="123"/>
+      <c r="S2" s="123"/>
+      <c r="T2" s="123"/>
+      <c r="U2" s="123"/>
+      <c r="V2" s="123"/>
+      <c r="W2" s="123"/>
+      <c r="X2" s="123"/>
+      <c r="Y2" s="123"/>
+      <c r="Z2" s="123"/>
+      <c r="AA2" s="123"/>
+      <c r="AB2" s="123"/>
+      <c r="AC2" s="123"/>
+      <c r="AD2" s="123"/>
+      <c r="AE2" s="123"/>
+      <c r="AF2" s="123"/>
+      <c r="AG2" s="123"/>
+      <c r="AH2" s="123"/>
+      <c r="AI2" s="123"/>
+      <c r="AJ2" s="123"/>
+      <c r="AK2" s="123"/>
+      <c r="AL2" s="123"/>
+      <c r="AM2" s="123"/>
+      <c r="AN2" s="123"/>
+      <c r="AO2" s="123"/>
+      <c r="AP2" s="123"/>
+      <c r="AQ2" s="123"/>
+      <c r="AR2" s="123"/>
+      <c r="AS2" s="123"/>
+      <c r="AT2" s="123"/>
+      <c r="AU2" s="123"/>
+      <c r="AV2" s="123"/>
+      <c r="AW2" s="123"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="48"/>
-      <c r="B3" s="155" t="s">
+      <c r="B3" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="155"/>
-      <c r="D3" s="155"/>
-      <c r="E3" s="155" t="s">
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="155"/>
-      <c r="G3" s="155"/>
-      <c r="H3" s="155"/>
-      <c r="I3" s="155"/>
-      <c r="J3" s="156" t="s">
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="157"/>
-      <c r="L3" s="158"/>
-      <c r="M3" s="156" t="s">
+      <c r="K3" s="126"/>
+      <c r="L3" s="127"/>
+      <c r="M3" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="157"/>
-      <c r="O3" s="157"/>
-      <c r="P3" s="157"/>
-      <c r="Q3" s="157"/>
-      <c r="R3" s="158"/>
-      <c r="S3" s="155" t="s">
+      <c r="N3" s="126"/>
+      <c r="O3" s="126"/>
+      <c r="P3" s="126"/>
+      <c r="Q3" s="126"/>
+      <c r="R3" s="127"/>
+      <c r="S3" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="155"/>
-      <c r="U3" s="155"/>
-      <c r="V3" s="155" t="s">
+      <c r="T3" s="124"/>
+      <c r="U3" s="124"/>
+      <c r="V3" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="155"/>
-      <c r="X3" s="155"/>
-      <c r="Y3" s="155"/>
-      <c r="Z3" s="155"/>
-      <c r="AA3" s="155"/>
-      <c r="AB3" s="155"/>
-      <c r="AC3" s="155"/>
-      <c r="AD3" s="155"/>
-      <c r="AE3" s="155"/>
-      <c r="AF3" s="155"/>
-      <c r="AG3" s="155"/>
-      <c r="AH3" s="155"/>
-      <c r="AI3" s="155"/>
-      <c r="AJ3" s="155"/>
-      <c r="AK3" s="155"/>
-      <c r="AL3" s="155"/>
-      <c r="AM3" s="155"/>
-      <c r="AN3" s="155" t="s">
+      <c r="W3" s="124"/>
+      <c r="X3" s="124"/>
+      <c r="Y3" s="124"/>
+      <c r="Z3" s="124"/>
+      <c r="AA3" s="124"/>
+      <c r="AB3" s="124"/>
+      <c r="AC3" s="124"/>
+      <c r="AD3" s="124"/>
+      <c r="AE3" s="124"/>
+      <c r="AF3" s="124"/>
+      <c r="AG3" s="124"/>
+      <c r="AH3" s="124"/>
+      <c r="AI3" s="124"/>
+      <c r="AJ3" s="124"/>
+      <c r="AK3" s="124"/>
+      <c r="AL3" s="124"/>
+      <c r="AM3" s="124"/>
+      <c r="AN3" s="124" t="s">
         <v>13</v>
       </c>
-      <c r="AO3" s="155"/>
-      <c r="AP3" s="155"/>
-      <c r="AQ3" s="155"/>
-      <c r="AR3" s="155"/>
-      <c r="AS3" s="155" t="s">
+      <c r="AO3" s="124"/>
+      <c r="AP3" s="124"/>
+      <c r="AQ3" s="124"/>
+      <c r="AR3" s="124"/>
+      <c r="AS3" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="AT3" s="155"/>
-      <c r="AU3" s="155"/>
-      <c r="AV3" s="155"/>
-      <c r="AW3" s="155"/>
+      <c r="AT3" s="124"/>
+      <c r="AU3" s="124"/>
+      <c r="AV3" s="124"/>
+      <c r="AW3" s="124"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="48"/>
-      <c r="B4" s="155"/>
-      <c r="C4" s="155"/>
-      <c r="D4" s="155"/>
-      <c r="E4" s="155"/>
-      <c r="F4" s="155"/>
-      <c r="G4" s="155"/>
-      <c r="H4" s="155"/>
-      <c r="I4" s="155"/>
-      <c r="J4" s="159"/>
-      <c r="K4" s="160"/>
-      <c r="L4" s="161"/>
-      <c r="M4" s="159"/>
-      <c r="N4" s="160"/>
-      <c r="O4" s="160"/>
-      <c r="P4" s="160"/>
-      <c r="Q4" s="160"/>
-      <c r="R4" s="161"/>
-      <c r="S4" s="155"/>
-      <c r="T4" s="155"/>
-      <c r="U4" s="155"/>
-      <c r="V4" s="155"/>
-      <c r="W4" s="155"/>
-      <c r="X4" s="155"/>
-      <c r="Y4" s="155"/>
-      <c r="Z4" s="155"/>
-      <c r="AA4" s="155"/>
-      <c r="AB4" s="155"/>
-      <c r="AC4" s="155"/>
-      <c r="AD4" s="155"/>
-      <c r="AE4" s="155"/>
-      <c r="AF4" s="155"/>
-      <c r="AG4" s="155"/>
-      <c r="AH4" s="155"/>
-      <c r="AI4" s="155"/>
-      <c r="AJ4" s="155"/>
-      <c r="AK4" s="155"/>
-      <c r="AL4" s="155"/>
-      <c r="AM4" s="155"/>
-      <c r="AN4" s="155"/>
-      <c r="AO4" s="155"/>
-      <c r="AP4" s="155"/>
-      <c r="AQ4" s="155"/>
-      <c r="AR4" s="155"/>
-      <c r="AS4" s="155"/>
-      <c r="AT4" s="155"/>
-      <c r="AU4" s="155"/>
-      <c r="AV4" s="155"/>
-      <c r="AW4" s="155"/>
+      <c r="B4" s="124"/>
+      <c r="C4" s="124"/>
+      <c r="D4" s="124"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="124"/>
+      <c r="G4" s="124"/>
+      <c r="H4" s="124"/>
+      <c r="I4" s="124"/>
+      <c r="J4" s="128"/>
+      <c r="K4" s="129"/>
+      <c r="L4" s="130"/>
+      <c r="M4" s="128"/>
+      <c r="N4" s="129"/>
+      <c r="O4" s="129"/>
+      <c r="P4" s="129"/>
+      <c r="Q4" s="129"/>
+      <c r="R4" s="130"/>
+      <c r="S4" s="124"/>
+      <c r="T4" s="124"/>
+      <c r="U4" s="124"/>
+      <c r="V4" s="124"/>
+      <c r="W4" s="124"/>
+      <c r="X4" s="124"/>
+      <c r="Y4" s="124"/>
+      <c r="Z4" s="124"/>
+      <c r="AA4" s="124"/>
+      <c r="AB4" s="124"/>
+      <c r="AC4" s="124"/>
+      <c r="AD4" s="124"/>
+      <c r="AE4" s="124"/>
+      <c r="AF4" s="124"/>
+      <c r="AG4" s="124"/>
+      <c r="AH4" s="124"/>
+      <c r="AI4" s="124"/>
+      <c r="AJ4" s="124"/>
+      <c r="AK4" s="124"/>
+      <c r="AL4" s="124"/>
+      <c r="AM4" s="124"/>
+      <c r="AN4" s="124"/>
+      <c r="AO4" s="124"/>
+      <c r="AP4" s="124"/>
+      <c r="AQ4" s="124"/>
+      <c r="AR4" s="124"/>
+      <c r="AS4" s="124"/>
+      <c r="AT4" s="124"/>
+      <c r="AU4" s="124"/>
+      <c r="AV4" s="124"/>
+      <c r="AW4" s="124"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="50"/>
-      <c r="B5" s="147">
+      <c r="B5" s="132">
         <v>1</v>
       </c>
-      <c r="C5" s="147"/>
-      <c r="D5" s="147"/>
-      <c r="E5" s="128">
+      <c r="C5" s="132"/>
+      <c r="D5" s="132"/>
+      <c r="E5" s="133">
         <v>43714</v>
       </c>
-      <c r="F5" s="128"/>
-      <c r="G5" s="128"/>
-      <c r="H5" s="128"/>
-      <c r="I5" s="128"/>
-      <c r="J5" s="129" t="s">
+      <c r="F5" s="133"/>
+      <c r="G5" s="133"/>
+      <c r="H5" s="133"/>
+      <c r="I5" s="133"/>
+      <c r="J5" s="134" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="130"/>
-      <c r="L5" s="131"/>
-      <c r="M5" s="129" t="s">
+      <c r="K5" s="135"/>
+      <c r="L5" s="136"/>
+      <c r="M5" s="134" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="130"/>
-      <c r="O5" s="130"/>
-      <c r="P5" s="130"/>
-      <c r="Q5" s="130"/>
-      <c r="R5" s="131"/>
-      <c r="S5" s="135" t="s">
+      <c r="N5" s="135"/>
+      <c r="O5" s="135"/>
+      <c r="P5" s="135"/>
+      <c r="Q5" s="135"/>
+      <c r="R5" s="136"/>
+      <c r="S5" s="131" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="135"/>
-      <c r="U5" s="135"/>
-      <c r="V5" s="146" t="s">
+      <c r="T5" s="131"/>
+      <c r="U5" s="131"/>
+      <c r="V5" s="140" t="s">
         <v>18</v>
       </c>
-      <c r="W5" s="146"/>
-      <c r="X5" s="146"/>
-      <c r="Y5" s="146"/>
-      <c r="Z5" s="146"/>
-      <c r="AA5" s="146"/>
-      <c r="AB5" s="146"/>
-      <c r="AC5" s="146"/>
-      <c r="AD5" s="146"/>
-      <c r="AE5" s="146"/>
-      <c r="AF5" s="146"/>
-      <c r="AG5" s="146"/>
-      <c r="AH5" s="146"/>
-      <c r="AI5" s="146"/>
-      <c r="AJ5" s="146"/>
-      <c r="AK5" s="146"/>
-      <c r="AL5" s="146"/>
-      <c r="AM5" s="146"/>
-      <c r="AN5" s="135" t="s">
+      <c r="W5" s="140"/>
+      <c r="X5" s="140"/>
+      <c r="Y5" s="140"/>
+      <c r="Z5" s="140"/>
+      <c r="AA5" s="140"/>
+      <c r="AB5" s="140"/>
+      <c r="AC5" s="140"/>
+      <c r="AD5" s="140"/>
+      <c r="AE5" s="140"/>
+      <c r="AF5" s="140"/>
+      <c r="AG5" s="140"/>
+      <c r="AH5" s="140"/>
+      <c r="AI5" s="140"/>
+      <c r="AJ5" s="140"/>
+      <c r="AK5" s="140"/>
+      <c r="AL5" s="140"/>
+      <c r="AM5" s="140"/>
+      <c r="AN5" s="131" t="s">
         <v>106</v>
       </c>
-      <c r="AO5" s="135"/>
-      <c r="AP5" s="135"/>
-      <c r="AQ5" s="135"/>
-      <c r="AR5" s="135"/>
-      <c r="AS5" s="135"/>
-      <c r="AT5" s="135"/>
-      <c r="AU5" s="135"/>
-      <c r="AV5" s="135"/>
-      <c r="AW5" s="135"/>
+      <c r="AO5" s="131"/>
+      <c r="AP5" s="131"/>
+      <c r="AQ5" s="131"/>
+      <c r="AR5" s="131"/>
+      <c r="AS5" s="131"/>
+      <c r="AT5" s="131"/>
+      <c r="AU5" s="131"/>
+      <c r="AV5" s="131"/>
+      <c r="AW5" s="131"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="50"/>
-      <c r="B6" s="147"/>
-      <c r="C6" s="147"/>
-      <c r="D6" s="147"/>
-      <c r="E6" s="128"/>
-      <c r="F6" s="128"/>
-      <c r="G6" s="128"/>
-      <c r="H6" s="128"/>
-      <c r="I6" s="128"/>
-      <c r="J6" s="129"/>
-      <c r="K6" s="130"/>
-      <c r="L6" s="131"/>
-      <c r="M6" s="150"/>
-      <c r="N6" s="151"/>
-      <c r="O6" s="151"/>
-      <c r="P6" s="151"/>
-      <c r="Q6" s="151"/>
-      <c r="R6" s="152"/>
-      <c r="S6" s="135"/>
-      <c r="T6" s="135"/>
-      <c r="U6" s="135"/>
-      <c r="V6" s="146"/>
-      <c r="W6" s="146"/>
-      <c r="X6" s="146"/>
-      <c r="Y6" s="146"/>
-      <c r="Z6" s="146"/>
-      <c r="AA6" s="146"/>
-      <c r="AB6" s="146"/>
-      <c r="AC6" s="146"/>
-      <c r="AD6" s="146"/>
-      <c r="AE6" s="146"/>
-      <c r="AF6" s="146"/>
-      <c r="AG6" s="146"/>
-      <c r="AH6" s="146"/>
-      <c r="AI6" s="146"/>
-      <c r="AJ6" s="146"/>
-      <c r="AK6" s="146"/>
-      <c r="AL6" s="146"/>
-      <c r="AM6" s="146"/>
-      <c r="AN6" s="135"/>
-      <c r="AO6" s="135"/>
-      <c r="AP6" s="135"/>
-      <c r="AQ6" s="135"/>
-      <c r="AR6" s="135"/>
-      <c r="AS6" s="135"/>
-      <c r="AT6" s="135"/>
-      <c r="AU6" s="135"/>
-      <c r="AV6" s="135"/>
-      <c r="AW6" s="135"/>
+      <c r="B6" s="132"/>
+      <c r="C6" s="132"/>
+      <c r="D6" s="132"/>
+      <c r="E6" s="133"/>
+      <c r="F6" s="133"/>
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="133"/>
+      <c r="J6" s="134"/>
+      <c r="K6" s="135"/>
+      <c r="L6" s="136"/>
+      <c r="M6" s="137"/>
+      <c r="N6" s="138"/>
+      <c r="O6" s="138"/>
+      <c r="P6" s="138"/>
+      <c r="Q6" s="138"/>
+      <c r="R6" s="139"/>
+      <c r="S6" s="131"/>
+      <c r="T6" s="131"/>
+      <c r="U6" s="131"/>
+      <c r="V6" s="140"/>
+      <c r="W6" s="140"/>
+      <c r="X6" s="140"/>
+      <c r="Y6" s="140"/>
+      <c r="Z6" s="140"/>
+      <c r="AA6" s="140"/>
+      <c r="AB6" s="140"/>
+      <c r="AC6" s="140"/>
+      <c r="AD6" s="140"/>
+      <c r="AE6" s="140"/>
+      <c r="AF6" s="140"/>
+      <c r="AG6" s="140"/>
+      <c r="AH6" s="140"/>
+      <c r="AI6" s="140"/>
+      <c r="AJ6" s="140"/>
+      <c r="AK6" s="140"/>
+      <c r="AL6" s="140"/>
+      <c r="AM6" s="140"/>
+      <c r="AN6" s="131"/>
+      <c r="AO6" s="131"/>
+      <c r="AP6" s="131"/>
+      <c r="AQ6" s="131"/>
+      <c r="AR6" s="131"/>
+      <c r="AS6" s="131"/>
+      <c r="AT6" s="131"/>
+      <c r="AU6" s="131"/>
+      <c r="AV6" s="131"/>
+      <c r="AW6" s="131"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="50"/>
-      <c r="B7" s="147"/>
-      <c r="C7" s="147"/>
-      <c r="D7" s="147"/>
-      <c r="E7" s="128"/>
-      <c r="F7" s="128"/>
-      <c r="G7" s="128"/>
-      <c r="H7" s="128"/>
-      <c r="I7" s="128"/>
-      <c r="J7" s="129"/>
-      <c r="K7" s="130"/>
-      <c r="L7" s="131"/>
-      <c r="M7" s="150"/>
-      <c r="N7" s="151"/>
-      <c r="O7" s="151"/>
-      <c r="P7" s="151"/>
-      <c r="Q7" s="151"/>
-      <c r="R7" s="152"/>
-      <c r="S7" s="135"/>
-      <c r="T7" s="135"/>
-      <c r="U7" s="135"/>
-      <c r="V7" s="146"/>
-      <c r="W7" s="146"/>
-      <c r="X7" s="146"/>
-      <c r="Y7" s="146"/>
-      <c r="Z7" s="146"/>
-      <c r="AA7" s="146"/>
-      <c r="AB7" s="146"/>
-      <c r="AC7" s="146"/>
-      <c r="AD7" s="146"/>
-      <c r="AE7" s="146"/>
-      <c r="AF7" s="146"/>
-      <c r="AG7" s="146"/>
-      <c r="AH7" s="146"/>
-      <c r="AI7" s="146"/>
-      <c r="AJ7" s="146"/>
-      <c r="AK7" s="146"/>
-      <c r="AL7" s="146"/>
-      <c r="AM7" s="146"/>
-      <c r="AN7" s="135"/>
-      <c r="AO7" s="135"/>
-      <c r="AP7" s="135"/>
-      <c r="AQ7" s="135"/>
-      <c r="AR7" s="135"/>
-      <c r="AS7" s="135"/>
-      <c r="AT7" s="135"/>
-      <c r="AU7" s="135"/>
-      <c r="AV7" s="135"/>
-      <c r="AW7" s="135"/>
+      <c r="B7" s="132"/>
+      <c r="C7" s="132"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="133"/>
+      <c r="F7" s="133"/>
+      <c r="G7" s="133"/>
+      <c r="H7" s="133"/>
+      <c r="I7" s="133"/>
+      <c r="J7" s="134"/>
+      <c r="K7" s="135"/>
+      <c r="L7" s="136"/>
+      <c r="M7" s="137"/>
+      <c r="N7" s="138"/>
+      <c r="O7" s="138"/>
+      <c r="P7" s="138"/>
+      <c r="Q7" s="138"/>
+      <c r="R7" s="139"/>
+      <c r="S7" s="131"/>
+      <c r="T7" s="131"/>
+      <c r="U7" s="131"/>
+      <c r="V7" s="140"/>
+      <c r="W7" s="140"/>
+      <c r="X7" s="140"/>
+      <c r="Y7" s="140"/>
+      <c r="Z7" s="140"/>
+      <c r="AA7" s="140"/>
+      <c r="AB7" s="140"/>
+      <c r="AC7" s="140"/>
+      <c r="AD7" s="140"/>
+      <c r="AE7" s="140"/>
+      <c r="AF7" s="140"/>
+      <c r="AG7" s="140"/>
+      <c r="AH7" s="140"/>
+      <c r="AI7" s="140"/>
+      <c r="AJ7" s="140"/>
+      <c r="AK7" s="140"/>
+      <c r="AL7" s="140"/>
+      <c r="AM7" s="140"/>
+      <c r="AN7" s="131"/>
+      <c r="AO7" s="131"/>
+      <c r="AP7" s="131"/>
+      <c r="AQ7" s="131"/>
+      <c r="AR7" s="131"/>
+      <c r="AS7" s="131"/>
+      <c r="AT7" s="131"/>
+      <c r="AU7" s="131"/>
+      <c r="AV7" s="131"/>
+      <c r="AW7" s="131"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="50"/>
-      <c r="B8" s="147"/>
-      <c r="C8" s="147"/>
-      <c r="D8" s="147"/>
-      <c r="E8" s="128"/>
-      <c r="F8" s="128"/>
-      <c r="G8" s="128"/>
-      <c r="H8" s="128"/>
-      <c r="I8" s="128"/>
-      <c r="J8" s="129"/>
-      <c r="K8" s="130"/>
-      <c r="L8" s="131"/>
-      <c r="M8" s="150"/>
-      <c r="N8" s="151"/>
-      <c r="O8" s="151"/>
-      <c r="P8" s="151"/>
-      <c r="Q8" s="151"/>
-      <c r="R8" s="152"/>
-      <c r="S8" s="135"/>
-      <c r="T8" s="135"/>
-      <c r="U8" s="135"/>
-      <c r="V8" s="146"/>
-      <c r="W8" s="146"/>
-      <c r="X8" s="146"/>
-      <c r="Y8" s="146"/>
-      <c r="Z8" s="146"/>
-      <c r="AA8" s="146"/>
-      <c r="AB8" s="146"/>
-      <c r="AC8" s="146"/>
-      <c r="AD8" s="146"/>
-      <c r="AE8" s="146"/>
-      <c r="AF8" s="146"/>
-      <c r="AG8" s="146"/>
-      <c r="AH8" s="146"/>
-      <c r="AI8" s="146"/>
-      <c r="AJ8" s="146"/>
-      <c r="AK8" s="146"/>
-      <c r="AL8" s="146"/>
-      <c r="AM8" s="146"/>
-      <c r="AN8" s="135"/>
-      <c r="AO8" s="135"/>
-      <c r="AP8" s="135"/>
-      <c r="AQ8" s="135"/>
-      <c r="AR8" s="135"/>
-      <c r="AS8" s="135"/>
-      <c r="AT8" s="135"/>
-      <c r="AU8" s="135"/>
-      <c r="AV8" s="135"/>
-      <c r="AW8" s="135"/>
+      <c r="B8" s="132"/>
+      <c r="C8" s="132"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="133"/>
+      <c r="F8" s="133"/>
+      <c r="G8" s="133"/>
+      <c r="H8" s="133"/>
+      <c r="I8" s="133"/>
+      <c r="J8" s="134"/>
+      <c r="K8" s="135"/>
+      <c r="L8" s="136"/>
+      <c r="M8" s="137"/>
+      <c r="N8" s="138"/>
+      <c r="O8" s="138"/>
+      <c r="P8" s="138"/>
+      <c r="Q8" s="138"/>
+      <c r="R8" s="139"/>
+      <c r="S8" s="131"/>
+      <c r="T8" s="131"/>
+      <c r="U8" s="131"/>
+      <c r="V8" s="140"/>
+      <c r="W8" s="140"/>
+      <c r="X8" s="140"/>
+      <c r="Y8" s="140"/>
+      <c r="Z8" s="140"/>
+      <c r="AA8" s="140"/>
+      <c r="AB8" s="140"/>
+      <c r="AC8" s="140"/>
+      <c r="AD8" s="140"/>
+      <c r="AE8" s="140"/>
+      <c r="AF8" s="140"/>
+      <c r="AG8" s="140"/>
+      <c r="AH8" s="140"/>
+      <c r="AI8" s="140"/>
+      <c r="AJ8" s="140"/>
+      <c r="AK8" s="140"/>
+      <c r="AL8" s="140"/>
+      <c r="AM8" s="140"/>
+      <c r="AN8" s="131"/>
+      <c r="AO8" s="131"/>
+      <c r="AP8" s="131"/>
+      <c r="AQ8" s="131"/>
+      <c r="AR8" s="131"/>
+      <c r="AS8" s="131"/>
+      <c r="AT8" s="131"/>
+      <c r="AU8" s="131"/>
+      <c r="AV8" s="131"/>
+      <c r="AW8" s="131"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="50"/>
-      <c r="B9" s="147"/>
-      <c r="C9" s="147"/>
-      <c r="D9" s="147"/>
-      <c r="E9" s="128"/>
-      <c r="F9" s="128"/>
-      <c r="G9" s="128"/>
-      <c r="H9" s="128"/>
-      <c r="I9" s="128"/>
-      <c r="J9" s="129"/>
-      <c r="K9" s="130"/>
-      <c r="L9" s="131"/>
-      <c r="M9" s="150"/>
-      <c r="N9" s="151"/>
-      <c r="O9" s="151"/>
-      <c r="P9" s="151"/>
-      <c r="Q9" s="151"/>
-      <c r="R9" s="152"/>
-      <c r="S9" s="135"/>
-      <c r="T9" s="135"/>
-      <c r="U9" s="135"/>
-      <c r="V9" s="146"/>
-      <c r="W9" s="146"/>
-      <c r="X9" s="146"/>
-      <c r="Y9" s="146"/>
-      <c r="Z9" s="146"/>
-      <c r="AA9" s="146"/>
-      <c r="AB9" s="146"/>
-      <c r="AC9" s="146"/>
-      <c r="AD9" s="146"/>
-      <c r="AE9" s="146"/>
-      <c r="AF9" s="146"/>
-      <c r="AG9" s="146"/>
-      <c r="AH9" s="146"/>
-      <c r="AI9" s="146"/>
-      <c r="AJ9" s="146"/>
-      <c r="AK9" s="146"/>
-      <c r="AL9" s="146"/>
-      <c r="AM9" s="146"/>
-      <c r="AN9" s="135"/>
-      <c r="AO9" s="135"/>
-      <c r="AP9" s="135"/>
-      <c r="AQ9" s="135"/>
-      <c r="AR9" s="135"/>
-      <c r="AS9" s="135"/>
-      <c r="AT9" s="135"/>
-      <c r="AU9" s="135"/>
-      <c r="AV9" s="135"/>
-      <c r="AW9" s="135"/>
+      <c r="B9" s="132"/>
+      <c r="C9" s="132"/>
+      <c r="D9" s="132"/>
+      <c r="E9" s="133"/>
+      <c r="F9" s="133"/>
+      <c r="G9" s="133"/>
+      <c r="H9" s="133"/>
+      <c r="I9" s="133"/>
+      <c r="J9" s="134"/>
+      <c r="K9" s="135"/>
+      <c r="L9" s="136"/>
+      <c r="M9" s="137"/>
+      <c r="N9" s="138"/>
+      <c r="O9" s="138"/>
+      <c r="P9" s="138"/>
+      <c r="Q9" s="138"/>
+      <c r="R9" s="139"/>
+      <c r="S9" s="131"/>
+      <c r="T9" s="131"/>
+      <c r="U9" s="131"/>
+      <c r="V9" s="140"/>
+      <c r="W9" s="140"/>
+      <c r="X9" s="140"/>
+      <c r="Y9" s="140"/>
+      <c r="Z9" s="140"/>
+      <c r="AA9" s="140"/>
+      <c r="AB9" s="140"/>
+      <c r="AC9" s="140"/>
+      <c r="AD9" s="140"/>
+      <c r="AE9" s="140"/>
+      <c r="AF9" s="140"/>
+      <c r="AG9" s="140"/>
+      <c r="AH9" s="140"/>
+      <c r="AI9" s="140"/>
+      <c r="AJ9" s="140"/>
+      <c r="AK9" s="140"/>
+      <c r="AL9" s="140"/>
+      <c r="AM9" s="140"/>
+      <c r="AN9" s="131"/>
+      <c r="AO9" s="131"/>
+      <c r="AP9" s="131"/>
+      <c r="AQ9" s="131"/>
+      <c r="AR9" s="131"/>
+      <c r="AS9" s="131"/>
+      <c r="AT9" s="131"/>
+      <c r="AU9" s="131"/>
+      <c r="AV9" s="131"/>
+      <c r="AW9" s="131"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="50"/>
-      <c r="B10" s="147"/>
-      <c r="C10" s="147"/>
-      <c r="D10" s="147"/>
-      <c r="E10" s="128"/>
-      <c r="F10" s="128"/>
-      <c r="G10" s="128"/>
-      <c r="H10" s="128"/>
-      <c r="I10" s="128"/>
-      <c r="J10" s="129"/>
-      <c r="K10" s="130"/>
-      <c r="L10" s="131"/>
-      <c r="M10" s="150"/>
-      <c r="N10" s="151"/>
-      <c r="O10" s="151"/>
-      <c r="P10" s="151"/>
-      <c r="Q10" s="151"/>
-      <c r="R10" s="152"/>
-      <c r="S10" s="135"/>
-      <c r="T10" s="135"/>
-      <c r="U10" s="135"/>
-      <c r="V10" s="146"/>
-      <c r="W10" s="146"/>
-      <c r="X10" s="146"/>
-      <c r="Y10" s="146"/>
-      <c r="Z10" s="146"/>
-      <c r="AA10" s="146"/>
-      <c r="AB10" s="146"/>
-      <c r="AC10" s="146"/>
-      <c r="AD10" s="146"/>
-      <c r="AE10" s="146"/>
-      <c r="AF10" s="146"/>
-      <c r="AG10" s="146"/>
-      <c r="AH10" s="146"/>
-      <c r="AI10" s="146"/>
-      <c r="AJ10" s="146"/>
-      <c r="AK10" s="146"/>
-      <c r="AL10" s="146"/>
-      <c r="AM10" s="146"/>
-      <c r="AN10" s="135"/>
-      <c r="AO10" s="135"/>
-      <c r="AP10" s="135"/>
-      <c r="AQ10" s="135"/>
-      <c r="AR10" s="135"/>
-      <c r="AS10" s="135"/>
-      <c r="AT10" s="135"/>
-      <c r="AU10" s="135"/>
-      <c r="AV10" s="135"/>
-      <c r="AW10" s="135"/>
+      <c r="B10" s="132"/>
+      <c r="C10" s="132"/>
+      <c r="D10" s="132"/>
+      <c r="E10" s="133"/>
+      <c r="F10" s="133"/>
+      <c r="G10" s="133"/>
+      <c r="H10" s="133"/>
+      <c r="I10" s="133"/>
+      <c r="J10" s="134"/>
+      <c r="K10" s="135"/>
+      <c r="L10" s="136"/>
+      <c r="M10" s="137"/>
+      <c r="N10" s="138"/>
+      <c r="O10" s="138"/>
+      <c r="P10" s="138"/>
+      <c r="Q10" s="138"/>
+      <c r="R10" s="139"/>
+      <c r="S10" s="131"/>
+      <c r="T10" s="131"/>
+      <c r="U10" s="131"/>
+      <c r="V10" s="140"/>
+      <c r="W10" s="140"/>
+      <c r="X10" s="140"/>
+      <c r="Y10" s="140"/>
+      <c r="Z10" s="140"/>
+      <c r="AA10" s="140"/>
+      <c r="AB10" s="140"/>
+      <c r="AC10" s="140"/>
+      <c r="AD10" s="140"/>
+      <c r="AE10" s="140"/>
+      <c r="AF10" s="140"/>
+      <c r="AG10" s="140"/>
+      <c r="AH10" s="140"/>
+      <c r="AI10" s="140"/>
+      <c r="AJ10" s="140"/>
+      <c r="AK10" s="140"/>
+      <c r="AL10" s="140"/>
+      <c r="AM10" s="140"/>
+      <c r="AN10" s="131"/>
+      <c r="AO10" s="131"/>
+      <c r="AP10" s="131"/>
+      <c r="AQ10" s="131"/>
+      <c r="AR10" s="131"/>
+      <c r="AS10" s="131"/>
+      <c r="AT10" s="131"/>
+      <c r="AU10" s="131"/>
+      <c r="AV10" s="131"/>
+      <c r="AW10" s="131"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="50"/>
-      <c r="B11" s="147"/>
-      <c r="C11" s="147"/>
-      <c r="D11" s="147"/>
-      <c r="E11" s="128"/>
-      <c r="F11" s="128"/>
-      <c r="G11" s="128"/>
-      <c r="H11" s="128"/>
-      <c r="I11" s="128"/>
-      <c r="J11" s="129"/>
-      <c r="K11" s="130"/>
-      <c r="L11" s="131"/>
-      <c r="M11" s="142"/>
-      <c r="N11" s="140"/>
-      <c r="O11" s="140"/>
-      <c r="P11" s="140"/>
-      <c r="Q11" s="140"/>
-      <c r="R11" s="141"/>
-      <c r="S11" s="135"/>
-      <c r="T11" s="135"/>
-      <c r="U11" s="135"/>
-      <c r="V11" s="136"/>
-      <c r="W11" s="148"/>
-      <c r="X11" s="148"/>
-      <c r="Y11" s="148"/>
-      <c r="Z11" s="148"/>
-      <c r="AA11" s="148"/>
-      <c r="AB11" s="148"/>
-      <c r="AC11" s="148"/>
-      <c r="AD11" s="148"/>
-      <c r="AE11" s="148"/>
-      <c r="AF11" s="148"/>
-      <c r="AG11" s="148"/>
-      <c r="AH11" s="148"/>
-      <c r="AI11" s="148"/>
-      <c r="AJ11" s="148"/>
-      <c r="AK11" s="148"/>
-      <c r="AL11" s="148"/>
-      <c r="AM11" s="149"/>
-      <c r="AN11" s="135"/>
-      <c r="AO11" s="135"/>
-      <c r="AP11" s="135"/>
-      <c r="AQ11" s="135"/>
-      <c r="AR11" s="135"/>
-      <c r="AS11" s="135"/>
-      <c r="AT11" s="135"/>
-      <c r="AU11" s="135"/>
-      <c r="AV11" s="135"/>
-      <c r="AW11" s="135"/>
+      <c r="B11" s="132"/>
+      <c r="C11" s="132"/>
+      <c r="D11" s="132"/>
+      <c r="E11" s="133"/>
+      <c r="F11" s="133"/>
+      <c r="G11" s="133"/>
+      <c r="H11" s="133"/>
+      <c r="I11" s="133"/>
+      <c r="J11" s="134"/>
+      <c r="K11" s="135"/>
+      <c r="L11" s="136"/>
+      <c r="M11" s="144"/>
+      <c r="N11" s="145"/>
+      <c r="O11" s="145"/>
+      <c r="P11" s="145"/>
+      <c r="Q11" s="145"/>
+      <c r="R11" s="146"/>
+      <c r="S11" s="131"/>
+      <c r="T11" s="131"/>
+      <c r="U11" s="131"/>
+      <c r="V11" s="147"/>
+      <c r="W11" s="153"/>
+      <c r="X11" s="153"/>
+      <c r="Y11" s="153"/>
+      <c r="Z11" s="153"/>
+      <c r="AA11" s="153"/>
+      <c r="AB11" s="153"/>
+      <c r="AC11" s="153"/>
+      <c r="AD11" s="153"/>
+      <c r="AE11" s="153"/>
+      <c r="AF11" s="153"/>
+      <c r="AG11" s="153"/>
+      <c r="AH11" s="153"/>
+      <c r="AI11" s="153"/>
+      <c r="AJ11" s="153"/>
+      <c r="AK11" s="153"/>
+      <c r="AL11" s="153"/>
+      <c r="AM11" s="154"/>
+      <c r="AN11" s="131"/>
+      <c r="AO11" s="131"/>
+      <c r="AP11" s="131"/>
+      <c r="AQ11" s="131"/>
+      <c r="AR11" s="131"/>
+      <c r="AS11" s="131"/>
+      <c r="AT11" s="131"/>
+      <c r="AU11" s="131"/>
+      <c r="AV11" s="131"/>
+      <c r="AW11" s="131"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="50"/>
-      <c r="B12" s="125"/>
-      <c r="C12" s="126"/>
-      <c r="D12" s="127"/>
-      <c r="E12" s="128"/>
-      <c r="F12" s="128"/>
-      <c r="G12" s="128"/>
-      <c r="H12" s="128"/>
-      <c r="I12" s="128"/>
-      <c r="J12" s="129"/>
-      <c r="K12" s="130"/>
-      <c r="L12" s="131"/>
-      <c r="M12" s="142"/>
-      <c r="N12" s="140"/>
-      <c r="O12" s="140"/>
-      <c r="P12" s="140"/>
-      <c r="Q12" s="140"/>
-      <c r="R12" s="141"/>
-      <c r="S12" s="135"/>
-      <c r="T12" s="135"/>
-      <c r="U12" s="135"/>
-      <c r="V12" s="136"/>
-      <c r="W12" s="137"/>
-      <c r="X12" s="137"/>
-      <c r="Y12" s="137"/>
-      <c r="Z12" s="137"/>
-      <c r="AA12" s="137"/>
-      <c r="AB12" s="137"/>
-      <c r="AC12" s="137"/>
-      <c r="AD12" s="137"/>
-      <c r="AE12" s="137"/>
-      <c r="AF12" s="137"/>
-      <c r="AG12" s="137"/>
-      <c r="AH12" s="137"/>
-      <c r="AI12" s="137"/>
-      <c r="AJ12" s="137"/>
-      <c r="AK12" s="137"/>
-      <c r="AL12" s="137"/>
-      <c r="AM12" s="138"/>
-      <c r="AN12" s="122"/>
-      <c r="AO12" s="123"/>
-      <c r="AP12" s="123"/>
-      <c r="AQ12" s="123"/>
-      <c r="AR12" s="124"/>
-      <c r="AS12" s="122"/>
-      <c r="AT12" s="123"/>
-      <c r="AU12" s="123"/>
-      <c r="AV12" s="123"/>
-      <c r="AW12" s="124"/>
+      <c r="B12" s="141"/>
+      <c r="C12" s="142"/>
+      <c r="D12" s="143"/>
+      <c r="E12" s="133"/>
+      <c r="F12" s="133"/>
+      <c r="G12" s="133"/>
+      <c r="H12" s="133"/>
+      <c r="I12" s="133"/>
+      <c r="J12" s="134"/>
+      <c r="K12" s="135"/>
+      <c r="L12" s="136"/>
+      <c r="M12" s="144"/>
+      <c r="N12" s="145"/>
+      <c r="O12" s="145"/>
+      <c r="P12" s="145"/>
+      <c r="Q12" s="145"/>
+      <c r="R12" s="146"/>
+      <c r="S12" s="131"/>
+      <c r="T12" s="131"/>
+      <c r="U12" s="131"/>
+      <c r="V12" s="147"/>
+      <c r="W12" s="148"/>
+      <c r="X12" s="148"/>
+      <c r="Y12" s="148"/>
+      <c r="Z12" s="148"/>
+      <c r="AA12" s="148"/>
+      <c r="AB12" s="148"/>
+      <c r="AC12" s="148"/>
+      <c r="AD12" s="148"/>
+      <c r="AE12" s="148"/>
+      <c r="AF12" s="148"/>
+      <c r="AG12" s="148"/>
+      <c r="AH12" s="148"/>
+      <c r="AI12" s="148"/>
+      <c r="AJ12" s="148"/>
+      <c r="AK12" s="148"/>
+      <c r="AL12" s="148"/>
+      <c r="AM12" s="149"/>
+      <c r="AN12" s="150"/>
+      <c r="AO12" s="151"/>
+      <c r="AP12" s="151"/>
+      <c r="AQ12" s="151"/>
+      <c r="AR12" s="152"/>
+      <c r="AS12" s="150"/>
+      <c r="AT12" s="151"/>
+      <c r="AU12" s="151"/>
+      <c r="AV12" s="151"/>
+      <c r="AW12" s="152"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="50"/>
-      <c r="B13" s="125"/>
-      <c r="C13" s="126"/>
-      <c r="D13" s="127"/>
-      <c r="E13" s="128"/>
-      <c r="F13" s="128"/>
-      <c r="G13" s="128"/>
-      <c r="H13" s="128"/>
-      <c r="I13" s="128"/>
-      <c r="J13" s="129"/>
-      <c r="K13" s="130"/>
-      <c r="L13" s="131"/>
-      <c r="M13" s="139"/>
-      <c r="N13" s="140"/>
-      <c r="O13" s="140"/>
-      <c r="P13" s="140"/>
-      <c r="Q13" s="140"/>
-      <c r="R13" s="141"/>
-      <c r="S13" s="135"/>
-      <c r="T13" s="135"/>
-      <c r="U13" s="135"/>
-      <c r="V13" s="136"/>
-      <c r="W13" s="137"/>
-      <c r="X13" s="137"/>
-      <c r="Y13" s="137"/>
-      <c r="Z13" s="137"/>
-      <c r="AA13" s="137"/>
-      <c r="AB13" s="137"/>
-      <c r="AC13" s="137"/>
-      <c r="AD13" s="137"/>
-      <c r="AE13" s="137"/>
-      <c r="AF13" s="137"/>
-      <c r="AG13" s="137"/>
-      <c r="AH13" s="137"/>
-      <c r="AI13" s="137"/>
-      <c r="AJ13" s="137"/>
-      <c r="AK13" s="137"/>
-      <c r="AL13" s="137"/>
-      <c r="AM13" s="138"/>
-      <c r="AN13" s="122"/>
-      <c r="AO13" s="123"/>
-      <c r="AP13" s="123"/>
-      <c r="AQ13" s="123"/>
-      <c r="AR13" s="124"/>
-      <c r="AS13" s="122"/>
-      <c r="AT13" s="123"/>
-      <c r="AU13" s="123"/>
-      <c r="AV13" s="123"/>
-      <c r="AW13" s="124"/>
+      <c r="B13" s="141"/>
+      <c r="C13" s="142"/>
+      <c r="D13" s="143"/>
+      <c r="E13" s="133"/>
+      <c r="F13" s="133"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="133"/>
+      <c r="I13" s="133"/>
+      <c r="J13" s="134"/>
+      <c r="K13" s="135"/>
+      <c r="L13" s="136"/>
+      <c r="M13" s="155"/>
+      <c r="N13" s="145"/>
+      <c r="O13" s="145"/>
+      <c r="P13" s="145"/>
+      <c r="Q13" s="145"/>
+      <c r="R13" s="146"/>
+      <c r="S13" s="131"/>
+      <c r="T13" s="131"/>
+      <c r="U13" s="131"/>
+      <c r="V13" s="147"/>
+      <c r="W13" s="148"/>
+      <c r="X13" s="148"/>
+      <c r="Y13" s="148"/>
+      <c r="Z13" s="148"/>
+      <c r="AA13" s="148"/>
+      <c r="AB13" s="148"/>
+      <c r="AC13" s="148"/>
+      <c r="AD13" s="148"/>
+      <c r="AE13" s="148"/>
+      <c r="AF13" s="148"/>
+      <c r="AG13" s="148"/>
+      <c r="AH13" s="148"/>
+      <c r="AI13" s="148"/>
+      <c r="AJ13" s="148"/>
+      <c r="AK13" s="148"/>
+      <c r="AL13" s="148"/>
+      <c r="AM13" s="149"/>
+      <c r="AN13" s="150"/>
+      <c r="AO13" s="151"/>
+      <c r="AP13" s="151"/>
+      <c r="AQ13" s="151"/>
+      <c r="AR13" s="152"/>
+      <c r="AS13" s="150"/>
+      <c r="AT13" s="151"/>
+      <c r="AU13" s="151"/>
+      <c r="AV13" s="151"/>
+      <c r="AW13" s="152"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="50"/>
-      <c r="B14" s="125"/>
-      <c r="C14" s="126"/>
-      <c r="D14" s="127"/>
-      <c r="E14" s="128"/>
-      <c r="F14" s="128"/>
-      <c r="G14" s="128"/>
-      <c r="H14" s="128"/>
-      <c r="I14" s="128"/>
-      <c r="J14" s="129"/>
-      <c r="K14" s="130"/>
-      <c r="L14" s="131"/>
-      <c r="M14" s="139"/>
-      <c r="N14" s="140"/>
-      <c r="O14" s="140"/>
-      <c r="P14" s="140"/>
-      <c r="Q14" s="140"/>
-      <c r="R14" s="141"/>
-      <c r="S14" s="135"/>
-      <c r="T14" s="135"/>
-      <c r="U14" s="135"/>
-      <c r="V14" s="145"/>
-      <c r="W14" s="146"/>
-      <c r="X14" s="146"/>
-      <c r="Y14" s="146"/>
-      <c r="Z14" s="146"/>
-      <c r="AA14" s="146"/>
-      <c r="AB14" s="146"/>
-      <c r="AC14" s="146"/>
-      <c r="AD14" s="146"/>
-      <c r="AE14" s="146"/>
-      <c r="AF14" s="146"/>
-      <c r="AG14" s="146"/>
-      <c r="AH14" s="146"/>
-      <c r="AI14" s="146"/>
-      <c r="AJ14" s="146"/>
-      <c r="AK14" s="146"/>
-      <c r="AL14" s="146"/>
-      <c r="AM14" s="146"/>
-      <c r="AN14" s="135"/>
-      <c r="AO14" s="135"/>
-      <c r="AP14" s="135"/>
-      <c r="AQ14" s="135"/>
-      <c r="AR14" s="135"/>
-      <c r="AS14" s="122"/>
-      <c r="AT14" s="123"/>
-      <c r="AU14" s="123"/>
-      <c r="AV14" s="123"/>
-      <c r="AW14" s="124"/>
+      <c r="B14" s="141"/>
+      <c r="C14" s="142"/>
+      <c r="D14" s="143"/>
+      <c r="E14" s="133"/>
+      <c r="F14" s="133"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="133"/>
+      <c r="I14" s="133"/>
+      <c r="J14" s="134"/>
+      <c r="K14" s="135"/>
+      <c r="L14" s="136"/>
+      <c r="M14" s="155"/>
+      <c r="N14" s="145"/>
+      <c r="O14" s="145"/>
+      <c r="P14" s="145"/>
+      <c r="Q14" s="145"/>
+      <c r="R14" s="146"/>
+      <c r="S14" s="131"/>
+      <c r="T14" s="131"/>
+      <c r="U14" s="131"/>
+      <c r="V14" s="156"/>
+      <c r="W14" s="140"/>
+      <c r="X14" s="140"/>
+      <c r="Y14" s="140"/>
+      <c r="Z14" s="140"/>
+      <c r="AA14" s="140"/>
+      <c r="AB14" s="140"/>
+      <c r="AC14" s="140"/>
+      <c r="AD14" s="140"/>
+      <c r="AE14" s="140"/>
+      <c r="AF14" s="140"/>
+      <c r="AG14" s="140"/>
+      <c r="AH14" s="140"/>
+      <c r="AI14" s="140"/>
+      <c r="AJ14" s="140"/>
+      <c r="AK14" s="140"/>
+      <c r="AL14" s="140"/>
+      <c r="AM14" s="140"/>
+      <c r="AN14" s="131"/>
+      <c r="AO14" s="131"/>
+      <c r="AP14" s="131"/>
+      <c r="AQ14" s="131"/>
+      <c r="AR14" s="131"/>
+      <c r="AS14" s="150"/>
+      <c r="AT14" s="151"/>
+      <c r="AU14" s="151"/>
+      <c r="AV14" s="151"/>
+      <c r="AW14" s="152"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="50"/>
-      <c r="B15" s="125"/>
-      <c r="C15" s="126"/>
-      <c r="D15" s="127"/>
-      <c r="E15" s="128"/>
-      <c r="F15" s="128"/>
-      <c r="G15" s="128"/>
-      <c r="H15" s="128"/>
-      <c r="I15" s="128"/>
-      <c r="J15" s="129"/>
-      <c r="K15" s="130"/>
-      <c r="L15" s="131"/>
-      <c r="M15" s="142"/>
-      <c r="N15" s="140"/>
-      <c r="O15" s="140"/>
-      <c r="P15" s="140"/>
-      <c r="Q15" s="140"/>
-      <c r="R15" s="141"/>
-      <c r="S15" s="135"/>
-      <c r="T15" s="135"/>
-      <c r="U15" s="135"/>
-      <c r="V15" s="136"/>
-      <c r="W15" s="137"/>
-      <c r="X15" s="137"/>
-      <c r="Y15" s="137"/>
-      <c r="Z15" s="137"/>
-      <c r="AA15" s="137"/>
-      <c r="AB15" s="137"/>
-      <c r="AC15" s="137"/>
-      <c r="AD15" s="137"/>
-      <c r="AE15" s="137"/>
-      <c r="AF15" s="137"/>
-      <c r="AG15" s="137"/>
-      <c r="AH15" s="137"/>
-      <c r="AI15" s="137"/>
-      <c r="AJ15" s="137"/>
-      <c r="AK15" s="137"/>
-      <c r="AL15" s="137"/>
-      <c r="AM15" s="138"/>
-      <c r="AN15" s="122"/>
-      <c r="AO15" s="123"/>
-      <c r="AP15" s="123"/>
-      <c r="AQ15" s="123"/>
-      <c r="AR15" s="124"/>
-      <c r="AS15" s="122"/>
-      <c r="AT15" s="123"/>
-      <c r="AU15" s="123"/>
-      <c r="AV15" s="123"/>
-      <c r="AW15" s="124"/>
+      <c r="B15" s="141"/>
+      <c r="C15" s="142"/>
+      <c r="D15" s="143"/>
+      <c r="E15" s="133"/>
+      <c r="F15" s="133"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="133"/>
+      <c r="I15" s="133"/>
+      <c r="J15" s="134"/>
+      <c r="K15" s="135"/>
+      <c r="L15" s="136"/>
+      <c r="M15" s="144"/>
+      <c r="N15" s="145"/>
+      <c r="O15" s="145"/>
+      <c r="P15" s="145"/>
+      <c r="Q15" s="145"/>
+      <c r="R15" s="146"/>
+      <c r="S15" s="131"/>
+      <c r="T15" s="131"/>
+      <c r="U15" s="131"/>
+      <c r="V15" s="147"/>
+      <c r="W15" s="148"/>
+      <c r="X15" s="148"/>
+      <c r="Y15" s="148"/>
+      <c r="Z15" s="148"/>
+      <c r="AA15" s="148"/>
+      <c r="AB15" s="148"/>
+      <c r="AC15" s="148"/>
+      <c r="AD15" s="148"/>
+      <c r="AE15" s="148"/>
+      <c r="AF15" s="148"/>
+      <c r="AG15" s="148"/>
+      <c r="AH15" s="148"/>
+      <c r="AI15" s="148"/>
+      <c r="AJ15" s="148"/>
+      <c r="AK15" s="148"/>
+      <c r="AL15" s="148"/>
+      <c r="AM15" s="149"/>
+      <c r="AN15" s="150"/>
+      <c r="AO15" s="151"/>
+      <c r="AP15" s="151"/>
+      <c r="AQ15" s="151"/>
+      <c r="AR15" s="152"/>
+      <c r="AS15" s="150"/>
+      <c r="AT15" s="151"/>
+      <c r="AU15" s="151"/>
+      <c r="AV15" s="151"/>
+      <c r="AW15" s="152"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="50"/>
-      <c r="B16" s="125"/>
-      <c r="C16" s="126"/>
-      <c r="D16" s="127"/>
-      <c r="E16" s="128"/>
-      <c r="F16" s="128"/>
-      <c r="G16" s="128"/>
-      <c r="H16" s="128"/>
-      <c r="I16" s="128"/>
-      <c r="J16" s="129"/>
-      <c r="K16" s="130"/>
-      <c r="L16" s="131"/>
-      <c r="M16" s="142"/>
-      <c r="N16" s="140"/>
-      <c r="O16" s="140"/>
-      <c r="P16" s="140"/>
-      <c r="Q16" s="140"/>
-      <c r="R16" s="141"/>
-      <c r="S16" s="135"/>
-      <c r="T16" s="135"/>
-      <c r="U16" s="135"/>
-      <c r="V16" s="136"/>
-      <c r="W16" s="137"/>
-      <c r="X16" s="137"/>
-      <c r="Y16" s="137"/>
-      <c r="Z16" s="137"/>
-      <c r="AA16" s="137"/>
-      <c r="AB16" s="137"/>
-      <c r="AC16" s="137"/>
-      <c r="AD16" s="137"/>
-      <c r="AE16" s="137"/>
-      <c r="AF16" s="137"/>
-      <c r="AG16" s="137"/>
-      <c r="AH16" s="137"/>
-      <c r="AI16" s="137"/>
-      <c r="AJ16" s="137"/>
-      <c r="AK16" s="137"/>
-      <c r="AL16" s="137"/>
-      <c r="AM16" s="138"/>
-      <c r="AN16" s="122"/>
-      <c r="AO16" s="123"/>
-      <c r="AP16" s="123"/>
-      <c r="AQ16" s="123"/>
-      <c r="AR16" s="124"/>
-      <c r="AS16" s="122"/>
-      <c r="AT16" s="123"/>
-      <c r="AU16" s="123"/>
-      <c r="AV16" s="123"/>
-      <c r="AW16" s="124"/>
+      <c r="B16" s="141"/>
+      <c r="C16" s="142"/>
+      <c r="D16" s="143"/>
+      <c r="E16" s="133"/>
+      <c r="F16" s="133"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="133"/>
+      <c r="I16" s="133"/>
+      <c r="J16" s="134"/>
+      <c r="K16" s="135"/>
+      <c r="L16" s="136"/>
+      <c r="M16" s="144"/>
+      <c r="N16" s="145"/>
+      <c r="O16" s="145"/>
+      <c r="P16" s="145"/>
+      <c r="Q16" s="145"/>
+      <c r="R16" s="146"/>
+      <c r="S16" s="131"/>
+      <c r="T16" s="131"/>
+      <c r="U16" s="131"/>
+      <c r="V16" s="147"/>
+      <c r="W16" s="148"/>
+      <c r="X16" s="148"/>
+      <c r="Y16" s="148"/>
+      <c r="Z16" s="148"/>
+      <c r="AA16" s="148"/>
+      <c r="AB16" s="148"/>
+      <c r="AC16" s="148"/>
+      <c r="AD16" s="148"/>
+      <c r="AE16" s="148"/>
+      <c r="AF16" s="148"/>
+      <c r="AG16" s="148"/>
+      <c r="AH16" s="148"/>
+      <c r="AI16" s="148"/>
+      <c r="AJ16" s="148"/>
+      <c r="AK16" s="148"/>
+      <c r="AL16" s="148"/>
+      <c r="AM16" s="149"/>
+      <c r="AN16" s="150"/>
+      <c r="AO16" s="151"/>
+      <c r="AP16" s="151"/>
+      <c r="AQ16" s="151"/>
+      <c r="AR16" s="152"/>
+      <c r="AS16" s="150"/>
+      <c r="AT16" s="151"/>
+      <c r="AU16" s="151"/>
+      <c r="AV16" s="151"/>
+      <c r="AW16" s="152"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="50"/>
-      <c r="B17" s="125"/>
-      <c r="C17" s="126"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="128"/>
-      <c r="F17" s="128"/>
-      <c r="G17" s="128"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="128"/>
-      <c r="J17" s="129"/>
-      <c r="K17" s="130"/>
-      <c r="L17" s="131"/>
-      <c r="M17" s="142"/>
-      <c r="N17" s="140"/>
-      <c r="O17" s="140"/>
-      <c r="P17" s="140"/>
-      <c r="Q17" s="140"/>
-      <c r="R17" s="143"/>
-      <c r="S17" s="144"/>
-      <c r="T17" s="144"/>
-      <c r="U17" s="144"/>
-      <c r="V17" s="136"/>
-      <c r="W17" s="137"/>
-      <c r="X17" s="137"/>
-      <c r="Y17" s="137"/>
-      <c r="Z17" s="137"/>
-      <c r="AA17" s="137"/>
-      <c r="AB17" s="137"/>
-      <c r="AC17" s="137"/>
-      <c r="AD17" s="137"/>
-      <c r="AE17" s="137"/>
-      <c r="AF17" s="137"/>
-      <c r="AG17" s="137"/>
-      <c r="AH17" s="137"/>
-      <c r="AI17" s="137"/>
-      <c r="AJ17" s="137"/>
-      <c r="AK17" s="137"/>
-      <c r="AL17" s="137"/>
-      <c r="AM17" s="138"/>
-      <c r="AN17" s="122"/>
-      <c r="AO17" s="123"/>
-      <c r="AP17" s="123"/>
-      <c r="AQ17" s="123"/>
-      <c r="AR17" s="124"/>
-      <c r="AS17" s="122"/>
-      <c r="AT17" s="123"/>
-      <c r="AU17" s="123"/>
-      <c r="AV17" s="123"/>
-      <c r="AW17" s="124"/>
+      <c r="B17" s="141"/>
+      <c r="C17" s="142"/>
+      <c r="D17" s="143"/>
+      <c r="E17" s="133"/>
+      <c r="F17" s="133"/>
+      <c r="G17" s="133"/>
+      <c r="H17" s="133"/>
+      <c r="I17" s="133"/>
+      <c r="J17" s="134"/>
+      <c r="K17" s="135"/>
+      <c r="L17" s="136"/>
+      <c r="M17" s="144"/>
+      <c r="N17" s="145"/>
+      <c r="O17" s="145"/>
+      <c r="P17" s="145"/>
+      <c r="Q17" s="145"/>
+      <c r="R17" s="157"/>
+      <c r="S17" s="158"/>
+      <c r="T17" s="158"/>
+      <c r="U17" s="158"/>
+      <c r="V17" s="147"/>
+      <c r="W17" s="148"/>
+      <c r="X17" s="148"/>
+      <c r="Y17" s="148"/>
+      <c r="Z17" s="148"/>
+      <c r="AA17" s="148"/>
+      <c r="AB17" s="148"/>
+      <c r="AC17" s="148"/>
+      <c r="AD17" s="148"/>
+      <c r="AE17" s="148"/>
+      <c r="AF17" s="148"/>
+      <c r="AG17" s="148"/>
+      <c r="AH17" s="148"/>
+      <c r="AI17" s="148"/>
+      <c r="AJ17" s="148"/>
+      <c r="AK17" s="148"/>
+      <c r="AL17" s="148"/>
+      <c r="AM17" s="149"/>
+      <c r="AN17" s="150"/>
+      <c r="AO17" s="151"/>
+      <c r="AP17" s="151"/>
+      <c r="AQ17" s="151"/>
+      <c r="AR17" s="152"/>
+      <c r="AS17" s="150"/>
+      <c r="AT17" s="151"/>
+      <c r="AU17" s="151"/>
+      <c r="AV17" s="151"/>
+      <c r="AW17" s="152"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="50"/>
-      <c r="B18" s="125"/>
-      <c r="C18" s="126"/>
-      <c r="D18" s="127"/>
-      <c r="E18" s="128"/>
-      <c r="F18" s="128"/>
-      <c r="G18" s="128"/>
-      <c r="H18" s="128"/>
-      <c r="I18" s="128"/>
-      <c r="J18" s="129"/>
-      <c r="K18" s="130"/>
-      <c r="L18" s="131"/>
-      <c r="M18" s="139"/>
-      <c r="N18" s="140"/>
-      <c r="O18" s="140"/>
-      <c r="P18" s="140"/>
-      <c r="Q18" s="140"/>
-      <c r="R18" s="141"/>
-      <c r="S18" s="135"/>
-      <c r="T18" s="135"/>
-      <c r="U18" s="135"/>
-      <c r="V18" s="136"/>
-      <c r="W18" s="137"/>
-      <c r="X18" s="137"/>
-      <c r="Y18" s="137"/>
-      <c r="Z18" s="137"/>
-      <c r="AA18" s="137"/>
-      <c r="AB18" s="137"/>
-      <c r="AC18" s="137"/>
-      <c r="AD18" s="137"/>
-      <c r="AE18" s="137"/>
-      <c r="AF18" s="137"/>
-      <c r="AG18" s="137"/>
-      <c r="AH18" s="137"/>
-      <c r="AI18" s="137"/>
-      <c r="AJ18" s="137"/>
-      <c r="AK18" s="137"/>
-      <c r="AL18" s="137"/>
-      <c r="AM18" s="138"/>
-      <c r="AN18" s="122"/>
-      <c r="AO18" s="123"/>
-      <c r="AP18" s="123"/>
-      <c r="AQ18" s="123"/>
-      <c r="AR18" s="124"/>
-      <c r="AS18" s="122"/>
-      <c r="AT18" s="123"/>
-      <c r="AU18" s="123"/>
-      <c r="AV18" s="123"/>
-      <c r="AW18" s="124"/>
+      <c r="B18" s="141"/>
+      <c r="C18" s="142"/>
+      <c r="D18" s="143"/>
+      <c r="E18" s="133"/>
+      <c r="F18" s="133"/>
+      <c r="G18" s="133"/>
+      <c r="H18" s="133"/>
+      <c r="I18" s="133"/>
+      <c r="J18" s="134"/>
+      <c r="K18" s="135"/>
+      <c r="L18" s="136"/>
+      <c r="M18" s="155"/>
+      <c r="N18" s="145"/>
+      <c r="O18" s="145"/>
+      <c r="P18" s="145"/>
+      <c r="Q18" s="145"/>
+      <c r="R18" s="146"/>
+      <c r="S18" s="131"/>
+      <c r="T18" s="131"/>
+      <c r="U18" s="131"/>
+      <c r="V18" s="147"/>
+      <c r="W18" s="148"/>
+      <c r="X18" s="148"/>
+      <c r="Y18" s="148"/>
+      <c r="Z18" s="148"/>
+      <c r="AA18" s="148"/>
+      <c r="AB18" s="148"/>
+      <c r="AC18" s="148"/>
+      <c r="AD18" s="148"/>
+      <c r="AE18" s="148"/>
+      <c r="AF18" s="148"/>
+      <c r="AG18" s="148"/>
+      <c r="AH18" s="148"/>
+      <c r="AI18" s="148"/>
+      <c r="AJ18" s="148"/>
+      <c r="AK18" s="148"/>
+      <c r="AL18" s="148"/>
+      <c r="AM18" s="149"/>
+      <c r="AN18" s="150"/>
+      <c r="AO18" s="151"/>
+      <c r="AP18" s="151"/>
+      <c r="AQ18" s="151"/>
+      <c r="AR18" s="152"/>
+      <c r="AS18" s="150"/>
+      <c r="AT18" s="151"/>
+      <c r="AU18" s="151"/>
+      <c r="AV18" s="151"/>
+      <c r="AW18" s="152"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="50"/>
-      <c r="B19" s="125"/>
-      <c r="C19" s="126"/>
-      <c r="D19" s="127"/>
-      <c r="E19" s="128"/>
-      <c r="F19" s="128"/>
-      <c r="G19" s="128"/>
-      <c r="H19" s="128"/>
-      <c r="I19" s="128"/>
-      <c r="J19" s="129"/>
-      <c r="K19" s="130"/>
-      <c r="L19" s="131"/>
-      <c r="M19" s="142"/>
-      <c r="N19" s="140"/>
-      <c r="O19" s="140"/>
-      <c r="P19" s="140"/>
-      <c r="Q19" s="140"/>
-      <c r="R19" s="141"/>
-      <c r="S19" s="135"/>
-      <c r="T19" s="135"/>
-      <c r="U19" s="135"/>
-      <c r="V19" s="136"/>
-      <c r="W19" s="137"/>
-      <c r="X19" s="137"/>
-      <c r="Y19" s="137"/>
-      <c r="Z19" s="137"/>
-      <c r="AA19" s="137"/>
-      <c r="AB19" s="137"/>
-      <c r="AC19" s="137"/>
-      <c r="AD19" s="137"/>
-      <c r="AE19" s="137"/>
-      <c r="AF19" s="137"/>
-      <c r="AG19" s="137"/>
-      <c r="AH19" s="137"/>
-      <c r="AI19" s="137"/>
-      <c r="AJ19" s="137"/>
-      <c r="AK19" s="137"/>
-      <c r="AL19" s="137"/>
-      <c r="AM19" s="138"/>
-      <c r="AN19" s="135"/>
-      <c r="AO19" s="135"/>
-      <c r="AP19" s="135"/>
-      <c r="AQ19" s="135"/>
-      <c r="AR19" s="135"/>
-      <c r="AS19" s="122"/>
-      <c r="AT19" s="123"/>
-      <c r="AU19" s="123"/>
-      <c r="AV19" s="123"/>
-      <c r="AW19" s="124"/>
+      <c r="B19" s="141"/>
+      <c r="C19" s="142"/>
+      <c r="D19" s="143"/>
+      <c r="E19" s="133"/>
+      <c r="F19" s="133"/>
+      <c r="G19" s="133"/>
+      <c r="H19" s="133"/>
+      <c r="I19" s="133"/>
+      <c r="J19" s="134"/>
+      <c r="K19" s="135"/>
+      <c r="L19" s="136"/>
+      <c r="M19" s="144"/>
+      <c r="N19" s="145"/>
+      <c r="O19" s="145"/>
+      <c r="P19" s="145"/>
+      <c r="Q19" s="145"/>
+      <c r="R19" s="146"/>
+      <c r="S19" s="131"/>
+      <c r="T19" s="131"/>
+      <c r="U19" s="131"/>
+      <c r="V19" s="147"/>
+      <c r="W19" s="148"/>
+      <c r="X19" s="148"/>
+      <c r="Y19" s="148"/>
+      <c r="Z19" s="148"/>
+      <c r="AA19" s="148"/>
+      <c r="AB19" s="148"/>
+      <c r="AC19" s="148"/>
+      <c r="AD19" s="148"/>
+      <c r="AE19" s="148"/>
+      <c r="AF19" s="148"/>
+      <c r="AG19" s="148"/>
+      <c r="AH19" s="148"/>
+      <c r="AI19" s="148"/>
+      <c r="AJ19" s="148"/>
+      <c r="AK19" s="148"/>
+      <c r="AL19" s="148"/>
+      <c r="AM19" s="149"/>
+      <c r="AN19" s="131"/>
+      <c r="AO19" s="131"/>
+      <c r="AP19" s="131"/>
+      <c r="AQ19" s="131"/>
+      <c r="AR19" s="131"/>
+      <c r="AS19" s="150"/>
+      <c r="AT19" s="151"/>
+      <c r="AU19" s="151"/>
+      <c r="AV19" s="151"/>
+      <c r="AW19" s="152"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="50"/>
-      <c r="B20" s="125"/>
-      <c r="C20" s="126"/>
-      <c r="D20" s="127"/>
-      <c r="E20" s="128"/>
-      <c r="F20" s="128"/>
-      <c r="G20" s="128"/>
-      <c r="H20" s="128"/>
-      <c r="I20" s="128"/>
-      <c r="J20" s="129"/>
-      <c r="K20" s="130"/>
-      <c r="L20" s="131"/>
-      <c r="M20" s="142"/>
-      <c r="N20" s="140"/>
-      <c r="O20" s="140"/>
-      <c r="P20" s="140"/>
-      <c r="Q20" s="140"/>
-      <c r="R20" s="141"/>
-      <c r="S20" s="122"/>
-      <c r="T20" s="123"/>
-      <c r="U20" s="124"/>
-      <c r="V20" s="136"/>
-      <c r="W20" s="137"/>
-      <c r="X20" s="137"/>
-      <c r="Y20" s="137"/>
-      <c r="Z20" s="137"/>
-      <c r="AA20" s="137"/>
-      <c r="AB20" s="137"/>
-      <c r="AC20" s="137"/>
-      <c r="AD20" s="137"/>
-      <c r="AE20" s="137"/>
-      <c r="AF20" s="137"/>
-      <c r="AG20" s="137"/>
-      <c r="AH20" s="137"/>
-      <c r="AI20" s="137"/>
-      <c r="AJ20" s="137"/>
-      <c r="AK20" s="137"/>
-      <c r="AL20" s="137"/>
-      <c r="AM20" s="138"/>
-      <c r="AN20" s="122"/>
-      <c r="AO20" s="123"/>
-      <c r="AP20" s="123"/>
-      <c r="AQ20" s="123"/>
-      <c r="AR20" s="124"/>
-      <c r="AS20" s="122"/>
-      <c r="AT20" s="123"/>
-      <c r="AU20" s="123"/>
-      <c r="AV20" s="123"/>
-      <c r="AW20" s="124"/>
+      <c r="B20" s="141"/>
+      <c r="C20" s="142"/>
+      <c r="D20" s="143"/>
+      <c r="E20" s="133"/>
+      <c r="F20" s="133"/>
+      <c r="G20" s="133"/>
+      <c r="H20" s="133"/>
+      <c r="I20" s="133"/>
+      <c r="J20" s="134"/>
+      <c r="K20" s="135"/>
+      <c r="L20" s="136"/>
+      <c r="M20" s="144"/>
+      <c r="N20" s="145"/>
+      <c r="O20" s="145"/>
+      <c r="P20" s="145"/>
+      <c r="Q20" s="145"/>
+      <c r="R20" s="146"/>
+      <c r="S20" s="150"/>
+      <c r="T20" s="151"/>
+      <c r="U20" s="152"/>
+      <c r="V20" s="147"/>
+      <c r="W20" s="148"/>
+      <c r="X20" s="148"/>
+      <c r="Y20" s="148"/>
+      <c r="Z20" s="148"/>
+      <c r="AA20" s="148"/>
+      <c r="AB20" s="148"/>
+      <c r="AC20" s="148"/>
+      <c r="AD20" s="148"/>
+      <c r="AE20" s="148"/>
+      <c r="AF20" s="148"/>
+      <c r="AG20" s="148"/>
+      <c r="AH20" s="148"/>
+      <c r="AI20" s="148"/>
+      <c r="AJ20" s="148"/>
+      <c r="AK20" s="148"/>
+      <c r="AL20" s="148"/>
+      <c r="AM20" s="149"/>
+      <c r="AN20" s="150"/>
+      <c r="AO20" s="151"/>
+      <c r="AP20" s="151"/>
+      <c r="AQ20" s="151"/>
+      <c r="AR20" s="152"/>
+      <c r="AS20" s="150"/>
+      <c r="AT20" s="151"/>
+      <c r="AU20" s="151"/>
+      <c r="AV20" s="151"/>
+      <c r="AW20" s="152"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="50"/>
-      <c r="B21" s="125"/>
-      <c r="C21" s="126"/>
-      <c r="D21" s="127"/>
-      <c r="E21" s="128"/>
-      <c r="F21" s="128"/>
-      <c r="G21" s="128"/>
-      <c r="H21" s="128"/>
-      <c r="I21" s="128"/>
-      <c r="J21" s="129"/>
-      <c r="K21" s="130"/>
-      <c r="L21" s="131"/>
-      <c r="M21" s="142"/>
-      <c r="N21" s="140"/>
-      <c r="O21" s="140"/>
-      <c r="P21" s="140"/>
-      <c r="Q21" s="140"/>
-      <c r="R21" s="141"/>
-      <c r="S21" s="135"/>
-      <c r="T21" s="135"/>
-      <c r="U21" s="135"/>
-      <c r="V21" s="136"/>
-      <c r="W21" s="137"/>
-      <c r="X21" s="137"/>
-      <c r="Y21" s="137"/>
-      <c r="Z21" s="137"/>
-      <c r="AA21" s="137"/>
-      <c r="AB21" s="137"/>
-      <c r="AC21" s="137"/>
-      <c r="AD21" s="137"/>
-      <c r="AE21" s="137"/>
-      <c r="AF21" s="137"/>
-      <c r="AG21" s="137"/>
-      <c r="AH21" s="137"/>
-      <c r="AI21" s="137"/>
-      <c r="AJ21" s="137"/>
-      <c r="AK21" s="137"/>
-      <c r="AL21" s="137"/>
-      <c r="AM21" s="138"/>
-      <c r="AN21" s="122"/>
-      <c r="AO21" s="123"/>
-      <c r="AP21" s="123"/>
-      <c r="AQ21" s="123"/>
-      <c r="AR21" s="124"/>
-      <c r="AS21" s="122"/>
-      <c r="AT21" s="123"/>
-      <c r="AU21" s="123"/>
-      <c r="AV21" s="123"/>
-      <c r="AW21" s="124"/>
+      <c r="B21" s="141"/>
+      <c r="C21" s="142"/>
+      <c r="D21" s="143"/>
+      <c r="E21" s="133"/>
+      <c r="F21" s="133"/>
+      <c r="G21" s="133"/>
+      <c r="H21" s="133"/>
+      <c r="I21" s="133"/>
+      <c r="J21" s="134"/>
+      <c r="K21" s="135"/>
+      <c r="L21" s="136"/>
+      <c r="M21" s="144"/>
+      <c r="N21" s="145"/>
+      <c r="O21" s="145"/>
+      <c r="P21" s="145"/>
+      <c r="Q21" s="145"/>
+      <c r="R21" s="146"/>
+      <c r="S21" s="131"/>
+      <c r="T21" s="131"/>
+      <c r="U21" s="131"/>
+      <c r="V21" s="147"/>
+      <c r="W21" s="148"/>
+      <c r="X21" s="148"/>
+      <c r="Y21" s="148"/>
+      <c r="Z21" s="148"/>
+      <c r="AA21" s="148"/>
+      <c r="AB21" s="148"/>
+      <c r="AC21" s="148"/>
+      <c r="AD21" s="148"/>
+      <c r="AE21" s="148"/>
+      <c r="AF21" s="148"/>
+      <c r="AG21" s="148"/>
+      <c r="AH21" s="148"/>
+      <c r="AI21" s="148"/>
+      <c r="AJ21" s="148"/>
+      <c r="AK21" s="148"/>
+      <c r="AL21" s="148"/>
+      <c r="AM21" s="149"/>
+      <c r="AN21" s="150"/>
+      <c r="AO21" s="151"/>
+      <c r="AP21" s="151"/>
+      <c r="AQ21" s="151"/>
+      <c r="AR21" s="152"/>
+      <c r="AS21" s="150"/>
+      <c r="AT21" s="151"/>
+      <c r="AU21" s="151"/>
+      <c r="AV21" s="151"/>
+      <c r="AW21" s="152"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="50"/>
-      <c r="B22" s="125"/>
-      <c r="C22" s="126"/>
-      <c r="D22" s="127"/>
-      <c r="E22" s="128"/>
-      <c r="F22" s="128"/>
-      <c r="G22" s="128"/>
-      <c r="H22" s="128"/>
-      <c r="I22" s="128"/>
-      <c r="J22" s="129"/>
-      <c r="K22" s="130"/>
-      <c r="L22" s="131"/>
-      <c r="M22" s="142"/>
-      <c r="N22" s="140"/>
-      <c r="O22" s="140"/>
-      <c r="P22" s="140"/>
-      <c r="Q22" s="140"/>
-      <c r="R22" s="141"/>
-      <c r="S22" s="135"/>
-      <c r="T22" s="135"/>
-      <c r="U22" s="135"/>
-      <c r="V22" s="136"/>
-      <c r="W22" s="137"/>
-      <c r="X22" s="137"/>
-      <c r="Y22" s="137"/>
-      <c r="Z22" s="137"/>
-      <c r="AA22" s="137"/>
-      <c r="AB22" s="137"/>
-      <c r="AC22" s="137"/>
-      <c r="AD22" s="137"/>
-      <c r="AE22" s="137"/>
-      <c r="AF22" s="137"/>
-      <c r="AG22" s="137"/>
-      <c r="AH22" s="137"/>
-      <c r="AI22" s="137"/>
-      <c r="AJ22" s="137"/>
-      <c r="AK22" s="137"/>
-      <c r="AL22" s="137"/>
-      <c r="AM22" s="138"/>
-      <c r="AN22" s="122"/>
-      <c r="AO22" s="123"/>
-      <c r="AP22" s="123"/>
-      <c r="AQ22" s="123"/>
-      <c r="AR22" s="124"/>
-      <c r="AS22" s="122"/>
-      <c r="AT22" s="123"/>
-      <c r="AU22" s="123"/>
-      <c r="AV22" s="123"/>
-      <c r="AW22" s="124"/>
+      <c r="B22" s="141"/>
+      <c r="C22" s="142"/>
+      <c r="D22" s="143"/>
+      <c r="E22" s="133"/>
+      <c r="F22" s="133"/>
+      <c r="G22" s="133"/>
+      <c r="H22" s="133"/>
+      <c r="I22" s="133"/>
+      <c r="J22" s="134"/>
+      <c r="K22" s="135"/>
+      <c r="L22" s="136"/>
+      <c r="M22" s="144"/>
+      <c r="N22" s="145"/>
+      <c r="O22" s="145"/>
+      <c r="P22" s="145"/>
+      <c r="Q22" s="145"/>
+      <c r="R22" s="146"/>
+      <c r="S22" s="131"/>
+      <c r="T22" s="131"/>
+      <c r="U22" s="131"/>
+      <c r="V22" s="147"/>
+      <c r="W22" s="148"/>
+      <c r="X22" s="148"/>
+      <c r="Y22" s="148"/>
+      <c r="Z22" s="148"/>
+      <c r="AA22" s="148"/>
+      <c r="AB22" s="148"/>
+      <c r="AC22" s="148"/>
+      <c r="AD22" s="148"/>
+      <c r="AE22" s="148"/>
+      <c r="AF22" s="148"/>
+      <c r="AG22" s="148"/>
+      <c r="AH22" s="148"/>
+      <c r="AI22" s="148"/>
+      <c r="AJ22" s="148"/>
+      <c r="AK22" s="148"/>
+      <c r="AL22" s="148"/>
+      <c r="AM22" s="149"/>
+      <c r="AN22" s="150"/>
+      <c r="AO22" s="151"/>
+      <c r="AP22" s="151"/>
+      <c r="AQ22" s="151"/>
+      <c r="AR22" s="152"/>
+      <c r="AS22" s="150"/>
+      <c r="AT22" s="151"/>
+      <c r="AU22" s="151"/>
+      <c r="AV22" s="151"/>
+      <c r="AW22" s="152"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="48"/>
-      <c r="B23" s="125"/>
-      <c r="C23" s="126"/>
-      <c r="D23" s="127"/>
-      <c r="E23" s="128"/>
-      <c r="F23" s="128"/>
-      <c r="G23" s="128"/>
-      <c r="H23" s="128"/>
-      <c r="I23" s="128"/>
-      <c r="J23" s="129"/>
-      <c r="K23" s="130"/>
-      <c r="L23" s="131"/>
-      <c r="M23" s="142"/>
-      <c r="N23" s="140"/>
-      <c r="O23" s="140"/>
-      <c r="P23" s="140"/>
-      <c r="Q23" s="140"/>
-      <c r="R23" s="141"/>
-      <c r="S23" s="135"/>
-      <c r="T23" s="135"/>
-      <c r="U23" s="135"/>
-      <c r="V23" s="136"/>
-      <c r="W23" s="137"/>
-      <c r="X23" s="137"/>
-      <c r="Y23" s="137"/>
-      <c r="Z23" s="137"/>
-      <c r="AA23" s="137"/>
-      <c r="AB23" s="137"/>
-      <c r="AC23" s="137"/>
-      <c r="AD23" s="137"/>
-      <c r="AE23" s="137"/>
-      <c r="AF23" s="137"/>
-      <c r="AG23" s="137"/>
-      <c r="AH23" s="137"/>
-      <c r="AI23" s="137"/>
-      <c r="AJ23" s="137"/>
-      <c r="AK23" s="137"/>
-      <c r="AL23" s="137"/>
-      <c r="AM23" s="138"/>
-      <c r="AN23" s="122"/>
-      <c r="AO23" s="123"/>
-      <c r="AP23" s="123"/>
-      <c r="AQ23" s="123"/>
-      <c r="AR23" s="124"/>
-      <c r="AS23" s="122"/>
-      <c r="AT23" s="123"/>
-      <c r="AU23" s="123"/>
-      <c r="AV23" s="123"/>
-      <c r="AW23" s="124"/>
+      <c r="B23" s="141"/>
+      <c r="C23" s="142"/>
+      <c r="D23" s="143"/>
+      <c r="E23" s="133"/>
+      <c r="F23" s="133"/>
+      <c r="G23" s="133"/>
+      <c r="H23" s="133"/>
+      <c r="I23" s="133"/>
+      <c r="J23" s="134"/>
+      <c r="K23" s="135"/>
+      <c r="L23" s="136"/>
+      <c r="M23" s="144"/>
+      <c r="N23" s="145"/>
+      <c r="O23" s="145"/>
+      <c r="P23" s="145"/>
+      <c r="Q23" s="145"/>
+      <c r="R23" s="146"/>
+      <c r="S23" s="131"/>
+      <c r="T23" s="131"/>
+      <c r="U23" s="131"/>
+      <c r="V23" s="147"/>
+      <c r="W23" s="148"/>
+      <c r="X23" s="148"/>
+      <c r="Y23" s="148"/>
+      <c r="Z23" s="148"/>
+      <c r="AA23" s="148"/>
+      <c r="AB23" s="148"/>
+      <c r="AC23" s="148"/>
+      <c r="AD23" s="148"/>
+      <c r="AE23" s="148"/>
+      <c r="AF23" s="148"/>
+      <c r="AG23" s="148"/>
+      <c r="AH23" s="148"/>
+      <c r="AI23" s="148"/>
+      <c r="AJ23" s="148"/>
+      <c r="AK23" s="148"/>
+      <c r="AL23" s="148"/>
+      <c r="AM23" s="149"/>
+      <c r="AN23" s="150"/>
+      <c r="AO23" s="151"/>
+      <c r="AP23" s="151"/>
+      <c r="AQ23" s="151"/>
+      <c r="AR23" s="152"/>
+      <c r="AS23" s="150"/>
+      <c r="AT23" s="151"/>
+      <c r="AU23" s="151"/>
+      <c r="AV23" s="151"/>
+      <c r="AW23" s="152"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="48"/>
-      <c r="B24" s="125"/>
-      <c r="C24" s="126"/>
-      <c r="D24" s="127"/>
-      <c r="E24" s="128"/>
-      <c r="F24" s="128"/>
-      <c r="G24" s="128"/>
-      <c r="H24" s="128"/>
-      <c r="I24" s="128"/>
-      <c r="J24" s="129"/>
-      <c r="K24" s="130"/>
-      <c r="L24" s="131"/>
-      <c r="M24" s="142"/>
-      <c r="N24" s="140"/>
-      <c r="O24" s="140"/>
-      <c r="P24" s="140"/>
-      <c r="Q24" s="140"/>
-      <c r="R24" s="141"/>
-      <c r="S24" s="135"/>
-      <c r="T24" s="135"/>
-      <c r="U24" s="135"/>
-      <c r="V24" s="136"/>
-      <c r="W24" s="137"/>
-      <c r="X24" s="137"/>
-      <c r="Y24" s="137"/>
-      <c r="Z24" s="137"/>
-      <c r="AA24" s="137"/>
-      <c r="AB24" s="137"/>
-      <c r="AC24" s="137"/>
-      <c r="AD24" s="137"/>
-      <c r="AE24" s="137"/>
-      <c r="AF24" s="137"/>
-      <c r="AG24" s="137"/>
-      <c r="AH24" s="137"/>
-      <c r="AI24" s="137"/>
-      <c r="AJ24" s="137"/>
-      <c r="AK24" s="137"/>
-      <c r="AL24" s="137"/>
-      <c r="AM24" s="138"/>
-      <c r="AN24" s="122"/>
-      <c r="AO24" s="123"/>
-      <c r="AP24" s="123"/>
-      <c r="AQ24" s="123"/>
-      <c r="AR24" s="124"/>
-      <c r="AS24" s="122"/>
-      <c r="AT24" s="123"/>
-      <c r="AU24" s="123"/>
-      <c r="AV24" s="123"/>
-      <c r="AW24" s="124"/>
+      <c r="B24" s="141"/>
+      <c r="C24" s="142"/>
+      <c r="D24" s="143"/>
+      <c r="E24" s="133"/>
+      <c r="F24" s="133"/>
+      <c r="G24" s="133"/>
+      <c r="H24" s="133"/>
+      <c r="I24" s="133"/>
+      <c r="J24" s="134"/>
+      <c r="K24" s="135"/>
+      <c r="L24" s="136"/>
+      <c r="M24" s="144"/>
+      <c r="N24" s="145"/>
+      <c r="O24" s="145"/>
+      <c r="P24" s="145"/>
+      <c r="Q24" s="145"/>
+      <c r="R24" s="146"/>
+      <c r="S24" s="131"/>
+      <c r="T24" s="131"/>
+      <c r="U24" s="131"/>
+      <c r="V24" s="147"/>
+      <c r="W24" s="148"/>
+      <c r="X24" s="148"/>
+      <c r="Y24" s="148"/>
+      <c r="Z24" s="148"/>
+      <c r="AA24" s="148"/>
+      <c r="AB24" s="148"/>
+      <c r="AC24" s="148"/>
+      <c r="AD24" s="148"/>
+      <c r="AE24" s="148"/>
+      <c r="AF24" s="148"/>
+      <c r="AG24" s="148"/>
+      <c r="AH24" s="148"/>
+      <c r="AI24" s="148"/>
+      <c r="AJ24" s="148"/>
+      <c r="AK24" s="148"/>
+      <c r="AL24" s="148"/>
+      <c r="AM24" s="149"/>
+      <c r="AN24" s="150"/>
+      <c r="AO24" s="151"/>
+      <c r="AP24" s="151"/>
+      <c r="AQ24" s="151"/>
+      <c r="AR24" s="152"/>
+      <c r="AS24" s="150"/>
+      <c r="AT24" s="151"/>
+      <c r="AU24" s="151"/>
+      <c r="AV24" s="151"/>
+      <c r="AW24" s="152"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="48"/>
-      <c r="B25" s="125"/>
-      <c r="C25" s="126"/>
-      <c r="D25" s="127"/>
-      <c r="E25" s="128"/>
-      <c r="F25" s="128"/>
-      <c r="G25" s="128"/>
-      <c r="H25" s="128"/>
-      <c r="I25" s="128"/>
-      <c r="J25" s="129"/>
-      <c r="K25" s="130"/>
-      <c r="L25" s="131"/>
-      <c r="M25" s="139"/>
-      <c r="N25" s="140"/>
-      <c r="O25" s="140"/>
-      <c r="P25" s="140"/>
-      <c r="Q25" s="140"/>
-      <c r="R25" s="141"/>
-      <c r="S25" s="135"/>
-      <c r="T25" s="135"/>
-      <c r="U25" s="135"/>
-      <c r="V25" s="136"/>
-      <c r="W25" s="137"/>
-      <c r="X25" s="137"/>
-      <c r="Y25" s="137"/>
-      <c r="Z25" s="137"/>
-      <c r="AA25" s="137"/>
-      <c r="AB25" s="137"/>
-      <c r="AC25" s="137"/>
-      <c r="AD25" s="137"/>
-      <c r="AE25" s="137"/>
-      <c r="AF25" s="137"/>
-      <c r="AG25" s="137"/>
-      <c r="AH25" s="137"/>
-      <c r="AI25" s="137"/>
-      <c r="AJ25" s="137"/>
-      <c r="AK25" s="137"/>
-      <c r="AL25" s="137"/>
-      <c r="AM25" s="138"/>
-      <c r="AN25" s="122"/>
-      <c r="AO25" s="123"/>
-      <c r="AP25" s="123"/>
-      <c r="AQ25" s="123"/>
-      <c r="AR25" s="124"/>
-      <c r="AS25" s="122"/>
-      <c r="AT25" s="123"/>
-      <c r="AU25" s="123"/>
-      <c r="AV25" s="123"/>
-      <c r="AW25" s="124"/>
+      <c r="B25" s="141"/>
+      <c r="C25" s="142"/>
+      <c r="D25" s="143"/>
+      <c r="E25" s="133"/>
+      <c r="F25" s="133"/>
+      <c r="G25" s="133"/>
+      <c r="H25" s="133"/>
+      <c r="I25" s="133"/>
+      <c r="J25" s="134"/>
+      <c r="K25" s="135"/>
+      <c r="L25" s="136"/>
+      <c r="M25" s="155"/>
+      <c r="N25" s="145"/>
+      <c r="O25" s="145"/>
+      <c r="P25" s="145"/>
+      <c r="Q25" s="145"/>
+      <c r="R25" s="146"/>
+      <c r="S25" s="131"/>
+      <c r="T25" s="131"/>
+      <c r="U25" s="131"/>
+      <c r="V25" s="147"/>
+      <c r="W25" s="148"/>
+      <c r="X25" s="148"/>
+      <c r="Y25" s="148"/>
+      <c r="Z25" s="148"/>
+      <c r="AA25" s="148"/>
+      <c r="AB25" s="148"/>
+      <c r="AC25" s="148"/>
+      <c r="AD25" s="148"/>
+      <c r="AE25" s="148"/>
+      <c r="AF25" s="148"/>
+      <c r="AG25" s="148"/>
+      <c r="AH25" s="148"/>
+      <c r="AI25" s="148"/>
+      <c r="AJ25" s="148"/>
+      <c r="AK25" s="148"/>
+      <c r="AL25" s="148"/>
+      <c r="AM25" s="149"/>
+      <c r="AN25" s="150"/>
+      <c r="AO25" s="151"/>
+      <c r="AP25" s="151"/>
+      <c r="AQ25" s="151"/>
+      <c r="AR25" s="152"/>
+      <c r="AS25" s="150"/>
+      <c r="AT25" s="151"/>
+      <c r="AU25" s="151"/>
+      <c r="AV25" s="151"/>
+      <c r="AW25" s="152"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="48"/>
-      <c r="B26" s="125"/>
-      <c r="C26" s="126"/>
-      <c r="D26" s="127"/>
-      <c r="E26" s="128"/>
-      <c r="F26" s="128"/>
-      <c r="G26" s="128"/>
-      <c r="H26" s="128"/>
-      <c r="I26" s="128"/>
-      <c r="J26" s="129"/>
-      <c r="K26" s="130"/>
-      <c r="L26" s="131"/>
-      <c r="M26" s="139"/>
-      <c r="N26" s="140"/>
-      <c r="O26" s="140"/>
-      <c r="P26" s="140"/>
-      <c r="Q26" s="140"/>
-      <c r="R26" s="141"/>
-      <c r="S26" s="135"/>
-      <c r="T26" s="135"/>
-      <c r="U26" s="135"/>
-      <c r="V26" s="136"/>
-      <c r="W26" s="137"/>
-      <c r="X26" s="137"/>
-      <c r="Y26" s="137"/>
-      <c r="Z26" s="137"/>
-      <c r="AA26" s="137"/>
-      <c r="AB26" s="137"/>
-      <c r="AC26" s="137"/>
-      <c r="AD26" s="137"/>
-      <c r="AE26" s="137"/>
-      <c r="AF26" s="137"/>
-      <c r="AG26" s="137"/>
-      <c r="AH26" s="137"/>
-      <c r="AI26" s="137"/>
-      <c r="AJ26" s="137"/>
-      <c r="AK26" s="137"/>
-      <c r="AL26" s="137"/>
-      <c r="AM26" s="138"/>
-      <c r="AN26" s="122"/>
-      <c r="AO26" s="123"/>
-      <c r="AP26" s="123"/>
-      <c r="AQ26" s="123"/>
-      <c r="AR26" s="124"/>
-      <c r="AS26" s="122"/>
-      <c r="AT26" s="123"/>
-      <c r="AU26" s="123"/>
-      <c r="AV26" s="123"/>
-      <c r="AW26" s="124"/>
+      <c r="B26" s="141"/>
+      <c r="C26" s="142"/>
+      <c r="D26" s="143"/>
+      <c r="E26" s="133"/>
+      <c r="F26" s="133"/>
+      <c r="G26" s="133"/>
+      <c r="H26" s="133"/>
+      <c r="I26" s="133"/>
+      <c r="J26" s="134"/>
+      <c r="K26" s="135"/>
+      <c r="L26" s="136"/>
+      <c r="M26" s="155"/>
+      <c r="N26" s="145"/>
+      <c r="O26" s="145"/>
+      <c r="P26" s="145"/>
+      <c r="Q26" s="145"/>
+      <c r="R26" s="146"/>
+      <c r="S26" s="131"/>
+      <c r="T26" s="131"/>
+      <c r="U26" s="131"/>
+      <c r="V26" s="147"/>
+      <c r="W26" s="148"/>
+      <c r="X26" s="148"/>
+      <c r="Y26" s="148"/>
+      <c r="Z26" s="148"/>
+      <c r="AA26" s="148"/>
+      <c r="AB26" s="148"/>
+      <c r="AC26" s="148"/>
+      <c r="AD26" s="148"/>
+      <c r="AE26" s="148"/>
+      <c r="AF26" s="148"/>
+      <c r="AG26" s="148"/>
+      <c r="AH26" s="148"/>
+      <c r="AI26" s="148"/>
+      <c r="AJ26" s="148"/>
+      <c r="AK26" s="148"/>
+      <c r="AL26" s="148"/>
+      <c r="AM26" s="149"/>
+      <c r="AN26" s="150"/>
+      <c r="AO26" s="151"/>
+      <c r="AP26" s="151"/>
+      <c r="AQ26" s="151"/>
+      <c r="AR26" s="152"/>
+      <c r="AS26" s="150"/>
+      <c r="AT26" s="151"/>
+      <c r="AU26" s="151"/>
+      <c r="AV26" s="151"/>
+      <c r="AW26" s="152"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="48"/>
-      <c r="B27" s="125"/>
-      <c r="C27" s="126"/>
-      <c r="D27" s="127"/>
-      <c r="E27" s="128"/>
-      <c r="F27" s="128"/>
-      <c r="G27" s="128"/>
-      <c r="H27" s="128"/>
-      <c r="I27" s="128"/>
-      <c r="J27" s="129"/>
-      <c r="K27" s="130"/>
-      <c r="L27" s="131"/>
-      <c r="M27" s="139"/>
-      <c r="N27" s="140"/>
-      <c r="O27" s="140"/>
-      <c r="P27" s="140"/>
-      <c r="Q27" s="140"/>
-      <c r="R27" s="141"/>
-      <c r="S27" s="135"/>
-      <c r="T27" s="135"/>
-      <c r="U27" s="135"/>
-      <c r="V27" s="136"/>
-      <c r="W27" s="137"/>
-      <c r="X27" s="137"/>
-      <c r="Y27" s="137"/>
-      <c r="Z27" s="137"/>
-      <c r="AA27" s="137"/>
-      <c r="AB27" s="137"/>
-      <c r="AC27" s="137"/>
-      <c r="AD27" s="137"/>
-      <c r="AE27" s="137"/>
-      <c r="AF27" s="137"/>
-      <c r="AG27" s="137"/>
-      <c r="AH27" s="137"/>
-      <c r="AI27" s="137"/>
-      <c r="AJ27" s="137"/>
-      <c r="AK27" s="137"/>
-      <c r="AL27" s="137"/>
-      <c r="AM27" s="138"/>
-      <c r="AN27" s="122"/>
-      <c r="AO27" s="123"/>
-      <c r="AP27" s="123"/>
-      <c r="AQ27" s="123"/>
-      <c r="AR27" s="124"/>
-      <c r="AS27" s="122"/>
-      <c r="AT27" s="123"/>
-      <c r="AU27" s="123"/>
-      <c r="AV27" s="123"/>
-      <c r="AW27" s="124"/>
+      <c r="B27" s="141"/>
+      <c r="C27" s="142"/>
+      <c r="D27" s="143"/>
+      <c r="E27" s="133"/>
+      <c r="F27" s="133"/>
+      <c r="G27" s="133"/>
+      <c r="H27" s="133"/>
+      <c r="I27" s="133"/>
+      <c r="J27" s="134"/>
+      <c r="K27" s="135"/>
+      <c r="L27" s="136"/>
+      <c r="M27" s="155"/>
+      <c r="N27" s="145"/>
+      <c r="O27" s="145"/>
+      <c r="P27" s="145"/>
+      <c r="Q27" s="145"/>
+      <c r="R27" s="146"/>
+      <c r="S27" s="131"/>
+      <c r="T27" s="131"/>
+      <c r="U27" s="131"/>
+      <c r="V27" s="147"/>
+      <c r="W27" s="148"/>
+      <c r="X27" s="148"/>
+      <c r="Y27" s="148"/>
+      <c r="Z27" s="148"/>
+      <c r="AA27" s="148"/>
+      <c r="AB27" s="148"/>
+      <c r="AC27" s="148"/>
+      <c r="AD27" s="148"/>
+      <c r="AE27" s="148"/>
+      <c r="AF27" s="148"/>
+      <c r="AG27" s="148"/>
+      <c r="AH27" s="148"/>
+      <c r="AI27" s="148"/>
+      <c r="AJ27" s="148"/>
+      <c r="AK27" s="148"/>
+      <c r="AL27" s="148"/>
+      <c r="AM27" s="149"/>
+      <c r="AN27" s="150"/>
+      <c r="AO27" s="151"/>
+      <c r="AP27" s="151"/>
+      <c r="AQ27" s="151"/>
+      <c r="AR27" s="152"/>
+      <c r="AS27" s="150"/>
+      <c r="AT27" s="151"/>
+      <c r="AU27" s="151"/>
+      <c r="AV27" s="151"/>
+      <c r="AW27" s="152"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="48"/>
-      <c r="B28" s="125"/>
-      <c r="C28" s="126"/>
-      <c r="D28" s="127"/>
-      <c r="E28" s="128"/>
-      <c r="F28" s="128"/>
-      <c r="G28" s="128"/>
-      <c r="H28" s="128"/>
-      <c r="I28" s="128"/>
-      <c r="J28" s="129"/>
-      <c r="K28" s="130"/>
-      <c r="L28" s="131"/>
-      <c r="M28" s="142"/>
-      <c r="N28" s="140"/>
-      <c r="O28" s="140"/>
-      <c r="P28" s="140"/>
-      <c r="Q28" s="140"/>
-      <c r="R28" s="141"/>
-      <c r="S28" s="135"/>
-      <c r="T28" s="135"/>
-      <c r="U28" s="135"/>
-      <c r="V28" s="136"/>
-      <c r="W28" s="137"/>
-      <c r="X28" s="137"/>
-      <c r="Y28" s="137"/>
-      <c r="Z28" s="137"/>
-      <c r="AA28" s="137"/>
-      <c r="AB28" s="137"/>
-      <c r="AC28" s="137"/>
-      <c r="AD28" s="137"/>
-      <c r="AE28" s="137"/>
-      <c r="AF28" s="137"/>
-      <c r="AG28" s="137"/>
-      <c r="AH28" s="137"/>
-      <c r="AI28" s="137"/>
-      <c r="AJ28" s="137"/>
-      <c r="AK28" s="137"/>
-      <c r="AL28" s="137"/>
-      <c r="AM28" s="138"/>
-      <c r="AN28" s="122"/>
-      <c r="AO28" s="123"/>
-      <c r="AP28" s="123"/>
-      <c r="AQ28" s="123"/>
-      <c r="AR28" s="124"/>
-      <c r="AS28" s="122"/>
-      <c r="AT28" s="123"/>
-      <c r="AU28" s="123"/>
-      <c r="AV28" s="123"/>
-      <c r="AW28" s="124"/>
+      <c r="B28" s="141"/>
+      <c r="C28" s="142"/>
+      <c r="D28" s="143"/>
+      <c r="E28" s="133"/>
+      <c r="F28" s="133"/>
+      <c r="G28" s="133"/>
+      <c r="H28" s="133"/>
+      <c r="I28" s="133"/>
+      <c r="J28" s="134"/>
+      <c r="K28" s="135"/>
+      <c r="L28" s="136"/>
+      <c r="M28" s="144"/>
+      <c r="N28" s="145"/>
+      <c r="O28" s="145"/>
+      <c r="P28" s="145"/>
+      <c r="Q28" s="145"/>
+      <c r="R28" s="146"/>
+      <c r="S28" s="131"/>
+      <c r="T28" s="131"/>
+      <c r="U28" s="131"/>
+      <c r="V28" s="147"/>
+      <c r="W28" s="148"/>
+      <c r="X28" s="148"/>
+      <c r="Y28" s="148"/>
+      <c r="Z28" s="148"/>
+      <c r="AA28" s="148"/>
+      <c r="AB28" s="148"/>
+      <c r="AC28" s="148"/>
+      <c r="AD28" s="148"/>
+      <c r="AE28" s="148"/>
+      <c r="AF28" s="148"/>
+      <c r="AG28" s="148"/>
+      <c r="AH28" s="148"/>
+      <c r="AI28" s="148"/>
+      <c r="AJ28" s="148"/>
+      <c r="AK28" s="148"/>
+      <c r="AL28" s="148"/>
+      <c r="AM28" s="149"/>
+      <c r="AN28" s="150"/>
+      <c r="AO28" s="151"/>
+      <c r="AP28" s="151"/>
+      <c r="AQ28" s="151"/>
+      <c r="AR28" s="152"/>
+      <c r="AS28" s="150"/>
+      <c r="AT28" s="151"/>
+      <c r="AU28" s="151"/>
+      <c r="AV28" s="151"/>
+      <c r="AW28" s="152"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="48"/>
-      <c r="B29" s="125"/>
-      <c r="C29" s="126"/>
-      <c r="D29" s="127"/>
-      <c r="E29" s="128"/>
-      <c r="F29" s="128"/>
-      <c r="G29" s="128"/>
-      <c r="H29" s="128"/>
-      <c r="I29" s="128"/>
-      <c r="J29" s="129"/>
-      <c r="K29" s="130"/>
-      <c r="L29" s="131"/>
-      <c r="M29" s="142"/>
-      <c r="N29" s="140"/>
-      <c r="O29" s="140"/>
-      <c r="P29" s="140"/>
-      <c r="Q29" s="140"/>
-      <c r="R29" s="141"/>
-      <c r="S29" s="135"/>
-      <c r="T29" s="135"/>
-      <c r="U29" s="135"/>
-      <c r="V29" s="136"/>
-      <c r="W29" s="137"/>
-      <c r="X29" s="137"/>
-      <c r="Y29" s="137"/>
-      <c r="Z29" s="137"/>
-      <c r="AA29" s="137"/>
-      <c r="AB29" s="137"/>
-      <c r="AC29" s="137"/>
-      <c r="AD29" s="137"/>
-      <c r="AE29" s="137"/>
-      <c r="AF29" s="137"/>
-      <c r="AG29" s="137"/>
-      <c r="AH29" s="137"/>
-      <c r="AI29" s="137"/>
-      <c r="AJ29" s="137"/>
-      <c r="AK29" s="137"/>
-      <c r="AL29" s="137"/>
-      <c r="AM29" s="138"/>
-      <c r="AN29" s="122"/>
-      <c r="AO29" s="123"/>
-      <c r="AP29" s="123"/>
-      <c r="AQ29" s="123"/>
-      <c r="AR29" s="124"/>
-      <c r="AS29" s="122"/>
-      <c r="AT29" s="123"/>
-      <c r="AU29" s="123"/>
-      <c r="AV29" s="123"/>
-      <c r="AW29" s="124"/>
+      <c r="B29" s="141"/>
+      <c r="C29" s="142"/>
+      <c r="D29" s="143"/>
+      <c r="E29" s="133"/>
+      <c r="F29" s="133"/>
+      <c r="G29" s="133"/>
+      <c r="H29" s="133"/>
+      <c r="I29" s="133"/>
+      <c r="J29" s="134"/>
+      <c r="K29" s="135"/>
+      <c r="L29" s="136"/>
+      <c r="M29" s="144"/>
+      <c r="N29" s="145"/>
+      <c r="O29" s="145"/>
+      <c r="P29" s="145"/>
+      <c r="Q29" s="145"/>
+      <c r="R29" s="146"/>
+      <c r="S29" s="131"/>
+      <c r="T29" s="131"/>
+      <c r="U29" s="131"/>
+      <c r="V29" s="147"/>
+      <c r="W29" s="148"/>
+      <c r="X29" s="148"/>
+      <c r="Y29" s="148"/>
+      <c r="Z29" s="148"/>
+      <c r="AA29" s="148"/>
+      <c r="AB29" s="148"/>
+      <c r="AC29" s="148"/>
+      <c r="AD29" s="148"/>
+      <c r="AE29" s="148"/>
+      <c r="AF29" s="148"/>
+      <c r="AG29" s="148"/>
+      <c r="AH29" s="148"/>
+      <c r="AI29" s="148"/>
+      <c r="AJ29" s="148"/>
+      <c r="AK29" s="148"/>
+      <c r="AL29" s="148"/>
+      <c r="AM29" s="149"/>
+      <c r="AN29" s="150"/>
+      <c r="AO29" s="151"/>
+      <c r="AP29" s="151"/>
+      <c r="AQ29" s="151"/>
+      <c r="AR29" s="152"/>
+      <c r="AS29" s="150"/>
+      <c r="AT29" s="151"/>
+      <c r="AU29" s="151"/>
+      <c r="AV29" s="151"/>
+      <c r="AW29" s="152"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="48"/>
-      <c r="B30" s="125"/>
-      <c r="C30" s="126"/>
-      <c r="D30" s="127"/>
-      <c r="E30" s="128"/>
-      <c r="F30" s="128"/>
-      <c r="G30" s="128"/>
-      <c r="H30" s="128"/>
-      <c r="I30" s="128"/>
-      <c r="J30" s="129"/>
-      <c r="K30" s="130"/>
-      <c r="L30" s="131"/>
-      <c r="M30" s="139"/>
-      <c r="N30" s="140"/>
-      <c r="O30" s="140"/>
-      <c r="P30" s="140"/>
-      <c r="Q30" s="140"/>
-      <c r="R30" s="141"/>
-      <c r="S30" s="135"/>
-      <c r="T30" s="135"/>
-      <c r="U30" s="135"/>
-      <c r="V30" s="136"/>
-      <c r="W30" s="137"/>
-      <c r="X30" s="137"/>
-      <c r="Y30" s="137"/>
-      <c r="Z30" s="137"/>
-      <c r="AA30" s="137"/>
-      <c r="AB30" s="137"/>
-      <c r="AC30" s="137"/>
-      <c r="AD30" s="137"/>
-      <c r="AE30" s="137"/>
-      <c r="AF30" s="137"/>
-      <c r="AG30" s="137"/>
-      <c r="AH30" s="137"/>
-      <c r="AI30" s="137"/>
-      <c r="AJ30" s="137"/>
-      <c r="AK30" s="137"/>
-      <c r="AL30" s="137"/>
-      <c r="AM30" s="138"/>
-      <c r="AN30" s="122"/>
-      <c r="AO30" s="123"/>
-      <c r="AP30" s="123"/>
-      <c r="AQ30" s="123"/>
-      <c r="AR30" s="124"/>
-      <c r="AS30" s="122"/>
-      <c r="AT30" s="123"/>
-      <c r="AU30" s="123"/>
-      <c r="AV30" s="123"/>
-      <c r="AW30" s="124"/>
+      <c r="B30" s="141"/>
+      <c r="C30" s="142"/>
+      <c r="D30" s="143"/>
+      <c r="E30" s="133"/>
+      <c r="F30" s="133"/>
+      <c r="G30" s="133"/>
+      <c r="H30" s="133"/>
+      <c r="I30" s="133"/>
+      <c r="J30" s="134"/>
+      <c r="K30" s="135"/>
+      <c r="L30" s="136"/>
+      <c r="M30" s="155"/>
+      <c r="N30" s="145"/>
+      <c r="O30" s="145"/>
+      <c r="P30" s="145"/>
+      <c r="Q30" s="145"/>
+      <c r="R30" s="146"/>
+      <c r="S30" s="131"/>
+      <c r="T30" s="131"/>
+      <c r="U30" s="131"/>
+      <c r="V30" s="147"/>
+      <c r="W30" s="148"/>
+      <c r="X30" s="148"/>
+      <c r="Y30" s="148"/>
+      <c r="Z30" s="148"/>
+      <c r="AA30" s="148"/>
+      <c r="AB30" s="148"/>
+      <c r="AC30" s="148"/>
+      <c r="AD30" s="148"/>
+      <c r="AE30" s="148"/>
+      <c r="AF30" s="148"/>
+      <c r="AG30" s="148"/>
+      <c r="AH30" s="148"/>
+      <c r="AI30" s="148"/>
+      <c r="AJ30" s="148"/>
+      <c r="AK30" s="148"/>
+      <c r="AL30" s="148"/>
+      <c r="AM30" s="149"/>
+      <c r="AN30" s="150"/>
+      <c r="AO30" s="151"/>
+      <c r="AP30" s="151"/>
+      <c r="AQ30" s="151"/>
+      <c r="AR30" s="152"/>
+      <c r="AS30" s="150"/>
+      <c r="AT30" s="151"/>
+      <c r="AU30" s="151"/>
+      <c r="AV30" s="151"/>
+      <c r="AW30" s="152"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="48"/>
-      <c r="B31" s="125"/>
-      <c r="C31" s="126"/>
-      <c r="D31" s="127"/>
-      <c r="E31" s="128"/>
-      <c r="F31" s="128"/>
-      <c r="G31" s="128"/>
-      <c r="H31" s="128"/>
-      <c r="I31" s="128"/>
-      <c r="J31" s="129"/>
-      <c r="K31" s="130"/>
-      <c r="L31" s="131"/>
-      <c r="M31" s="139"/>
-      <c r="N31" s="140"/>
-      <c r="O31" s="140"/>
-      <c r="P31" s="140"/>
-      <c r="Q31" s="140"/>
-      <c r="R31" s="141"/>
-      <c r="S31" s="135"/>
-      <c r="T31" s="135"/>
-      <c r="U31" s="135"/>
-      <c r="V31" s="136"/>
-      <c r="W31" s="137"/>
-      <c r="X31" s="137"/>
-      <c r="Y31" s="137"/>
-      <c r="Z31" s="137"/>
-      <c r="AA31" s="137"/>
-      <c r="AB31" s="137"/>
-      <c r="AC31" s="137"/>
-      <c r="AD31" s="137"/>
-      <c r="AE31" s="137"/>
-      <c r="AF31" s="137"/>
-      <c r="AG31" s="137"/>
-      <c r="AH31" s="137"/>
-      <c r="AI31" s="137"/>
-      <c r="AJ31" s="137"/>
-      <c r="AK31" s="137"/>
-      <c r="AL31" s="137"/>
-      <c r="AM31" s="138"/>
-      <c r="AN31" s="122"/>
-      <c r="AO31" s="123"/>
-      <c r="AP31" s="123"/>
-      <c r="AQ31" s="123"/>
-      <c r="AR31" s="124"/>
-      <c r="AS31" s="122"/>
-      <c r="AT31" s="123"/>
-      <c r="AU31" s="123"/>
-      <c r="AV31" s="123"/>
-      <c r="AW31" s="124"/>
+      <c r="B31" s="141"/>
+      <c r="C31" s="142"/>
+      <c r="D31" s="143"/>
+      <c r="E31" s="133"/>
+      <c r="F31" s="133"/>
+      <c r="G31" s="133"/>
+      <c r="H31" s="133"/>
+      <c r="I31" s="133"/>
+      <c r="J31" s="134"/>
+      <c r="K31" s="135"/>
+      <c r="L31" s="136"/>
+      <c r="M31" s="155"/>
+      <c r="N31" s="145"/>
+      <c r="O31" s="145"/>
+      <c r="P31" s="145"/>
+      <c r="Q31" s="145"/>
+      <c r="R31" s="146"/>
+      <c r="S31" s="131"/>
+      <c r="T31" s="131"/>
+      <c r="U31" s="131"/>
+      <c r="V31" s="147"/>
+      <c r="W31" s="148"/>
+      <c r="X31" s="148"/>
+      <c r="Y31" s="148"/>
+      <c r="Z31" s="148"/>
+      <c r="AA31" s="148"/>
+      <c r="AB31" s="148"/>
+      <c r="AC31" s="148"/>
+      <c r="AD31" s="148"/>
+      <c r="AE31" s="148"/>
+      <c r="AF31" s="148"/>
+      <c r="AG31" s="148"/>
+      <c r="AH31" s="148"/>
+      <c r="AI31" s="148"/>
+      <c r="AJ31" s="148"/>
+      <c r="AK31" s="148"/>
+      <c r="AL31" s="148"/>
+      <c r="AM31" s="149"/>
+      <c r="AN31" s="150"/>
+      <c r="AO31" s="151"/>
+      <c r="AP31" s="151"/>
+      <c r="AQ31" s="151"/>
+      <c r="AR31" s="152"/>
+      <c r="AS31" s="150"/>
+      <c r="AT31" s="151"/>
+      <c r="AU31" s="151"/>
+      <c r="AV31" s="151"/>
+      <c r="AW31" s="152"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="48"/>
-      <c r="B32" s="125"/>
-      <c r="C32" s="126"/>
-      <c r="D32" s="127"/>
-      <c r="E32" s="128"/>
-      <c r="F32" s="128"/>
-      <c r="G32" s="128"/>
-      <c r="H32" s="128"/>
-      <c r="I32" s="128"/>
-      <c r="J32" s="129"/>
-      <c r="K32" s="130"/>
-      <c r="L32" s="131"/>
-      <c r="M32" s="139"/>
-      <c r="N32" s="140"/>
-      <c r="O32" s="140"/>
-      <c r="P32" s="140"/>
-      <c r="Q32" s="140"/>
-      <c r="R32" s="141"/>
-      <c r="S32" s="135"/>
-      <c r="T32" s="135"/>
-      <c r="U32" s="135"/>
-      <c r="V32" s="136"/>
-      <c r="W32" s="137"/>
-      <c r="X32" s="137"/>
-      <c r="Y32" s="137"/>
-      <c r="Z32" s="137"/>
-      <c r="AA32" s="137"/>
-      <c r="AB32" s="137"/>
-      <c r="AC32" s="137"/>
-      <c r="AD32" s="137"/>
-      <c r="AE32" s="137"/>
-      <c r="AF32" s="137"/>
-      <c r="AG32" s="137"/>
-      <c r="AH32" s="137"/>
-      <c r="AI32" s="137"/>
-      <c r="AJ32" s="137"/>
-      <c r="AK32" s="137"/>
-      <c r="AL32" s="137"/>
-      <c r="AM32" s="138"/>
-      <c r="AN32" s="122"/>
-      <c r="AO32" s="123"/>
-      <c r="AP32" s="123"/>
-      <c r="AQ32" s="123"/>
-      <c r="AR32" s="124"/>
-      <c r="AS32" s="122"/>
-      <c r="AT32" s="123"/>
-      <c r="AU32" s="123"/>
-      <c r="AV32" s="123"/>
-      <c r="AW32" s="124"/>
+      <c r="B32" s="141"/>
+      <c r="C32" s="142"/>
+      <c r="D32" s="143"/>
+      <c r="E32" s="133"/>
+      <c r="F32" s="133"/>
+      <c r="G32" s="133"/>
+      <c r="H32" s="133"/>
+      <c r="I32" s="133"/>
+      <c r="J32" s="134"/>
+      <c r="K32" s="135"/>
+      <c r="L32" s="136"/>
+      <c r="M32" s="155"/>
+      <c r="N32" s="145"/>
+      <c r="O32" s="145"/>
+      <c r="P32" s="145"/>
+      <c r="Q32" s="145"/>
+      <c r="R32" s="146"/>
+      <c r="S32" s="131"/>
+      <c r="T32" s="131"/>
+      <c r="U32" s="131"/>
+      <c r="V32" s="147"/>
+      <c r="W32" s="148"/>
+      <c r="X32" s="148"/>
+      <c r="Y32" s="148"/>
+      <c r="Z32" s="148"/>
+      <c r="AA32" s="148"/>
+      <c r="AB32" s="148"/>
+      <c r="AC32" s="148"/>
+      <c r="AD32" s="148"/>
+      <c r="AE32" s="148"/>
+      <c r="AF32" s="148"/>
+      <c r="AG32" s="148"/>
+      <c r="AH32" s="148"/>
+      <c r="AI32" s="148"/>
+      <c r="AJ32" s="148"/>
+      <c r="AK32" s="148"/>
+      <c r="AL32" s="148"/>
+      <c r="AM32" s="149"/>
+      <c r="AN32" s="150"/>
+      <c r="AO32" s="151"/>
+      <c r="AP32" s="151"/>
+      <c r="AQ32" s="151"/>
+      <c r="AR32" s="152"/>
+      <c r="AS32" s="150"/>
+      <c r="AT32" s="151"/>
+      <c r="AU32" s="151"/>
+      <c r="AV32" s="151"/>
+      <c r="AW32" s="152"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="125"/>
-      <c r="C33" s="126"/>
-      <c r="D33" s="127"/>
-      <c r="E33" s="128"/>
-      <c r="F33" s="128"/>
-      <c r="G33" s="128"/>
-      <c r="H33" s="128"/>
-      <c r="I33" s="128"/>
-      <c r="J33" s="129"/>
-      <c r="K33" s="130"/>
-      <c r="L33" s="131"/>
-      <c r="M33" s="139"/>
-      <c r="N33" s="140"/>
-      <c r="O33" s="140"/>
-      <c r="P33" s="140"/>
-      <c r="Q33" s="140"/>
-      <c r="R33" s="141"/>
-      <c r="S33" s="135"/>
-      <c r="T33" s="135"/>
-      <c r="U33" s="135"/>
-      <c r="V33" s="136"/>
-      <c r="W33" s="137"/>
-      <c r="X33" s="137"/>
-      <c r="Y33" s="137"/>
-      <c r="Z33" s="137"/>
-      <c r="AA33" s="137"/>
-      <c r="AB33" s="137"/>
-      <c r="AC33" s="137"/>
-      <c r="AD33" s="137"/>
-      <c r="AE33" s="137"/>
-      <c r="AF33" s="137"/>
-      <c r="AG33" s="137"/>
-      <c r="AH33" s="137"/>
-      <c r="AI33" s="137"/>
-      <c r="AJ33" s="137"/>
-      <c r="AK33" s="137"/>
-      <c r="AL33" s="137"/>
-      <c r="AM33" s="138"/>
-      <c r="AN33" s="122"/>
-      <c r="AO33" s="123"/>
-      <c r="AP33" s="123"/>
-      <c r="AQ33" s="123"/>
-      <c r="AR33" s="124"/>
-      <c r="AS33" s="122"/>
-      <c r="AT33" s="123"/>
-      <c r="AU33" s="123"/>
-      <c r="AV33" s="123"/>
-      <c r="AW33" s="124"/>
+      <c r="B33" s="141"/>
+      <c r="C33" s="142"/>
+      <c r="D33" s="143"/>
+      <c r="E33" s="133"/>
+      <c r="F33" s="133"/>
+      <c r="G33" s="133"/>
+      <c r="H33" s="133"/>
+      <c r="I33" s="133"/>
+      <c r="J33" s="134"/>
+      <c r="K33" s="135"/>
+      <c r="L33" s="136"/>
+      <c r="M33" s="155"/>
+      <c r="N33" s="145"/>
+      <c r="O33" s="145"/>
+      <c r="P33" s="145"/>
+      <c r="Q33" s="145"/>
+      <c r="R33" s="146"/>
+      <c r="S33" s="131"/>
+      <c r="T33" s="131"/>
+      <c r="U33" s="131"/>
+      <c r="V33" s="147"/>
+      <c r="W33" s="148"/>
+      <c r="X33" s="148"/>
+      <c r="Y33" s="148"/>
+      <c r="Z33" s="148"/>
+      <c r="AA33" s="148"/>
+      <c r="AB33" s="148"/>
+      <c r="AC33" s="148"/>
+      <c r="AD33" s="148"/>
+      <c r="AE33" s="148"/>
+      <c r="AF33" s="148"/>
+      <c r="AG33" s="148"/>
+      <c r="AH33" s="148"/>
+      <c r="AI33" s="148"/>
+      <c r="AJ33" s="148"/>
+      <c r="AK33" s="148"/>
+      <c r="AL33" s="148"/>
+      <c r="AM33" s="149"/>
+      <c r="AN33" s="150"/>
+      <c r="AO33" s="151"/>
+      <c r="AP33" s="151"/>
+      <c r="AQ33" s="151"/>
+      <c r="AR33" s="152"/>
+      <c r="AS33" s="150"/>
+      <c r="AT33" s="151"/>
+      <c r="AU33" s="151"/>
+      <c r="AV33" s="151"/>
+      <c r="AW33" s="152"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="125"/>
-      <c r="C34" s="126"/>
-      <c r="D34" s="127"/>
-      <c r="E34" s="128"/>
-      <c r="F34" s="128"/>
-      <c r="G34" s="128"/>
-      <c r="H34" s="128"/>
-      <c r="I34" s="128"/>
-      <c r="J34" s="129"/>
-      <c r="K34" s="130"/>
-      <c r="L34" s="131"/>
-      <c r="M34" s="132"/>
-      <c r="N34" s="133"/>
-      <c r="O34" s="133"/>
-      <c r="P34" s="133"/>
-      <c r="Q34" s="133"/>
-      <c r="R34" s="134"/>
-      <c r="S34" s="135"/>
-      <c r="T34" s="135"/>
-      <c r="U34" s="135"/>
-      <c r="V34" s="136"/>
-      <c r="W34" s="137"/>
-      <c r="X34" s="137"/>
-      <c r="Y34" s="137"/>
-      <c r="Z34" s="137"/>
-      <c r="AA34" s="137"/>
-      <c r="AB34" s="137"/>
-      <c r="AC34" s="137"/>
-      <c r="AD34" s="137"/>
-      <c r="AE34" s="137"/>
-      <c r="AF34" s="137"/>
-      <c r="AG34" s="137"/>
-      <c r="AH34" s="137"/>
-      <c r="AI34" s="137"/>
-      <c r="AJ34" s="137"/>
-      <c r="AK34" s="137"/>
-      <c r="AL34" s="137"/>
-      <c r="AM34" s="138"/>
-      <c r="AN34" s="122"/>
-      <c r="AO34" s="123"/>
-      <c r="AP34" s="123"/>
-      <c r="AQ34" s="123"/>
-      <c r="AR34" s="124"/>
-      <c r="AS34" s="122"/>
-      <c r="AT34" s="123"/>
-      <c r="AU34" s="123"/>
-      <c r="AV34" s="123"/>
-      <c r="AW34" s="124"/>
+      <c r="B34" s="141"/>
+      <c r="C34" s="142"/>
+      <c r="D34" s="143"/>
+      <c r="E34" s="133"/>
+      <c r="F34" s="133"/>
+      <c r="G34" s="133"/>
+      <c r="H34" s="133"/>
+      <c r="I34" s="133"/>
+      <c r="J34" s="134"/>
+      <c r="K34" s="135"/>
+      <c r="L34" s="136"/>
+      <c r="M34" s="159"/>
+      <c r="N34" s="160"/>
+      <c r="O34" s="160"/>
+      <c r="P34" s="160"/>
+      <c r="Q34" s="160"/>
+      <c r="R34" s="161"/>
+      <c r="S34" s="131"/>
+      <c r="T34" s="131"/>
+      <c r="U34" s="131"/>
+      <c r="V34" s="147"/>
+      <c r="W34" s="148"/>
+      <c r="X34" s="148"/>
+      <c r="Y34" s="148"/>
+      <c r="Z34" s="148"/>
+      <c r="AA34" s="148"/>
+      <c r="AB34" s="148"/>
+      <c r="AC34" s="148"/>
+      <c r="AD34" s="148"/>
+      <c r="AE34" s="148"/>
+      <c r="AF34" s="148"/>
+      <c r="AG34" s="148"/>
+      <c r="AH34" s="148"/>
+      <c r="AI34" s="148"/>
+      <c r="AJ34" s="148"/>
+      <c r="AK34" s="148"/>
+      <c r="AL34" s="148"/>
+      <c r="AM34" s="149"/>
+      <c r="AN34" s="150"/>
+      <c r="AO34" s="151"/>
+      <c r="AP34" s="151"/>
+      <c r="AQ34" s="151"/>
+      <c r="AR34" s="152"/>
+      <c r="AS34" s="150"/>
+      <c r="AT34" s="151"/>
+      <c r="AU34" s="151"/>
+      <c r="AV34" s="151"/>
+      <c r="AW34" s="152"/>
     </row>
   </sheetData>
   <mergeCells count="249">
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN33:AR33"/>
+    <mergeCell ref="AS33:AW33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M34:R34"/>
+    <mergeCell ref="S34:U34"/>
+    <mergeCell ref="V34:AM34"/>
+    <mergeCell ref="AN34:AR34"/>
+    <mergeCell ref="AS34:AW34"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="M33:R33"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="V33:AM33"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
     <mergeCell ref="AN5:AR5"/>
     <mergeCell ref="AS5:AW5"/>
     <mergeCell ref="B6:D6"/>
@@ -6733,230 +6933,15 @@
     <mergeCell ref="M5:R5"/>
     <mergeCell ref="S5:U5"/>
     <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN33:AR33"/>
-    <mergeCell ref="AS33:AW33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M34:R34"/>
-    <mergeCell ref="S34:U34"/>
-    <mergeCell ref="V34:AM34"/>
-    <mergeCell ref="AN34:AR34"/>
-    <mergeCell ref="AS34:AW34"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="M33:R33"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="V33:AM33"/>
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7116,11 +7101,11 @@
       <c r="AL2" s="33"/>
       <c r="AM2" s="33"/>
       <c r="AN2" s="34"/>
-      <c r="AO2" s="162"/>
-      <c r="AP2" s="163"/>
-      <c r="AQ2" s="163"/>
-      <c r="AR2" s="163"/>
-      <c r="AS2" s="164"/>
+      <c r="AO2" s="166"/>
+      <c r="AP2" s="167"/>
+      <c r="AQ2" s="167"/>
+      <c r="AR2" s="167"/>
+      <c r="AS2" s="168"/>
       <c r="AT2" s="32" t="s">
         <v>26</v>
       </c>
@@ -7129,14 +7114,14 @@
       <c r="AW2" s="33"/>
       <c r="AX2" s="33"/>
       <c r="AY2" s="34"/>
-      <c r="AZ2" s="165"/>
-      <c r="BA2" s="166"/>
-      <c r="BB2" s="166"/>
-      <c r="BC2" s="166"/>
-      <c r="BD2" s="166"/>
-      <c r="BE2" s="166"/>
-      <c r="BF2" s="166"/>
-      <c r="BG2" s="167"/>
+      <c r="AZ2" s="169"/>
+      <c r="BA2" s="170"/>
+      <c r="BB2" s="170"/>
+      <c r="BC2" s="170"/>
+      <c r="BD2" s="170"/>
+      <c r="BE2" s="170"/>
+      <c r="BF2" s="170"/>
+      <c r="BG2" s="171"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A3" s="31"/>
@@ -8248,7 +8233,7 @@
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
       <c r="M34" s="9" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="N34" s="9"/>
       <c r="O34" s="9"/>
@@ -8579,10 +8564,10 @@
     </row>
     <row r="41" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A41" s="27"/>
-      <c r="B41" s="170" t="s">
+      <c r="B41" s="172" t="s">
         <v>81</v>
       </c>
-      <c r="C41" s="171"/>
+      <c r="C41" s="173"/>
       <c r="D41" s="75" t="s">
         <v>80</v>
       </c>
@@ -8665,10 +8650,10 @@
     </row>
     <row r="42" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A42" s="27"/>
-      <c r="B42" s="172">
+      <c r="B42" s="162">
         <v>1</v>
       </c>
-      <c r="C42" s="173"/>
+      <c r="C42" s="163"/>
       <c r="D42" s="69" t="s">
         <v>135</v>
       </c>
@@ -8700,16 +8685,16 @@
       <c r="AB42" s="73"/>
       <c r="AC42" s="73"/>
       <c r="AD42" s="74"/>
-      <c r="AE42" s="168" t="s">
+      <c r="AE42" s="164" t="s">
         <v>89</v>
       </c>
-      <c r="AF42" s="169"/>
-      <c r="AG42" s="168"/>
-      <c r="AH42" s="169"/>
-      <c r="AI42" s="168"/>
-      <c r="AJ42" s="169"/>
-      <c r="AK42" s="168"/>
-      <c r="AL42" s="169"/>
+      <c r="AF42" s="165"/>
+      <c r="AG42" s="164"/>
+      <c r="AH42" s="165"/>
+      <c r="AI42" s="164"/>
+      <c r="AJ42" s="165"/>
+      <c r="AK42" s="164"/>
+      <c r="AL42" s="165"/>
       <c r="AM42" s="70" t="s">
         <v>138</v>
       </c>
@@ -8743,10 +8728,10 @@
     </row>
     <row r="43" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A43" s="27"/>
-      <c r="B43" s="172">
+      <c r="B43" s="162">
         <v>2</v>
       </c>
-      <c r="C43" s="173"/>
+      <c r="C43" s="163"/>
       <c r="D43" s="101" t="s">
         <v>135</v>
       </c>
@@ -8757,7 +8742,7 @@
       <c r="I43" s="73"/>
       <c r="J43" s="102"/>
       <c r="K43" s="101" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="L43" s="73"/>
       <c r="M43" s="73"/>
@@ -8778,16 +8763,16 @@
       <c r="AB43" s="73"/>
       <c r="AC43" s="73"/>
       <c r="AD43" s="102"/>
-      <c r="AE43" s="168" t="s">
+      <c r="AE43" s="164" t="s">
         <v>89</v>
       </c>
-      <c r="AF43" s="169"/>
-      <c r="AG43" s="168"/>
-      <c r="AH43" s="169"/>
-      <c r="AI43" s="168"/>
-      <c r="AJ43" s="169"/>
-      <c r="AK43" s="168"/>
-      <c r="AL43" s="169"/>
+      <c r="AF43" s="165"/>
+      <c r="AG43" s="164"/>
+      <c r="AH43" s="165"/>
+      <c r="AI43" s="164"/>
+      <c r="AJ43" s="165"/>
+      <c r="AK43" s="164"/>
+      <c r="AL43" s="165"/>
       <c r="AM43" s="70" t="s">
         <v>139</v>
       </c>
@@ -8821,10 +8806,10 @@
     </row>
     <row r="44" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A44" s="27"/>
-      <c r="B44" s="172">
+      <c r="B44" s="162">
         <v>3</v>
       </c>
-      <c r="C44" s="173"/>
+      <c r="C44" s="163"/>
       <c r="D44" s="101" t="s">
         <v>135</v>
       </c>
@@ -8856,16 +8841,16 @@
       <c r="AB44" s="73"/>
       <c r="AC44" s="73"/>
       <c r="AD44" s="102"/>
-      <c r="AE44" s="168" t="s">
+      <c r="AE44" s="164" t="s">
         <v>89</v>
       </c>
-      <c r="AF44" s="169"/>
-      <c r="AG44" s="168"/>
-      <c r="AH44" s="169"/>
-      <c r="AI44" s="168"/>
-      <c r="AJ44" s="169"/>
-      <c r="AK44" s="168"/>
-      <c r="AL44" s="169"/>
+      <c r="AF44" s="165"/>
+      <c r="AG44" s="164"/>
+      <c r="AH44" s="165"/>
+      <c r="AI44" s="164"/>
+      <c r="AJ44" s="165"/>
+      <c r="AK44" s="164"/>
+      <c r="AL44" s="165"/>
       <c r="AM44" s="70" t="s">
         <v>146</v>
       </c>
@@ -8899,10 +8884,10 @@
     </row>
     <row r="45" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A45" s="27"/>
-      <c r="B45" s="172">
+      <c r="B45" s="162">
         <v>4</v>
       </c>
-      <c r="C45" s="173"/>
+      <c r="C45" s="163"/>
       <c r="D45" s="105" t="s">
         <v>147</v>
       </c>
@@ -8934,16 +8919,16 @@
       <c r="AB45" s="73"/>
       <c r="AC45" s="73"/>
       <c r="AD45" s="106"/>
-      <c r="AE45" s="168"/>
-      <c r="AF45" s="169"/>
-      <c r="AG45" s="168"/>
-      <c r="AH45" s="169"/>
-      <c r="AI45" s="168" t="s">
+      <c r="AE45" s="164"/>
+      <c r="AF45" s="165"/>
+      <c r="AG45" s="164"/>
+      <c r="AH45" s="165"/>
+      <c r="AI45" s="164" t="s">
         <v>89</v>
       </c>
-      <c r="AJ45" s="169"/>
-      <c r="AK45" s="168"/>
-      <c r="AL45" s="169"/>
+      <c r="AJ45" s="165"/>
+      <c r="AK45" s="164"/>
+      <c r="AL45" s="165"/>
       <c r="AM45" s="70" t="s">
         <v>151</v>
       </c>
@@ -8977,10 +8962,10 @@
     </row>
     <row r="46" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A46" s="27"/>
-      <c r="B46" s="172">
+      <c r="B46" s="162">
         <v>5</v>
       </c>
-      <c r="C46" s="173"/>
+      <c r="C46" s="163"/>
       <c r="D46" s="101" t="s">
         <v>147</v>
       </c>
@@ -9012,16 +8997,16 @@
       <c r="AB46" s="73"/>
       <c r="AC46" s="73"/>
       <c r="AD46" s="102"/>
-      <c r="AE46" s="168" t="s">
+      <c r="AE46" s="164" t="s">
         <v>89</v>
       </c>
-      <c r="AF46" s="169"/>
-      <c r="AG46" s="168"/>
-      <c r="AH46" s="169"/>
-      <c r="AI46" s="168"/>
-      <c r="AJ46" s="169"/>
-      <c r="AK46" s="168"/>
-      <c r="AL46" s="169"/>
+      <c r="AF46" s="165"/>
+      <c r="AG46" s="164"/>
+      <c r="AH46" s="165"/>
+      <c r="AI46" s="164"/>
+      <c r="AJ46" s="165"/>
+      <c r="AK46" s="164"/>
+      <c r="AL46" s="165"/>
       <c r="AM46" s="70" t="s">
         <v>152</v>
       </c>
@@ -9055,10 +9040,10 @@
     </row>
     <row r="47" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A47" s="27"/>
-      <c r="B47" s="172">
+      <c r="B47" s="162">
         <v>6</v>
       </c>
-      <c r="C47" s="173"/>
+      <c r="C47" s="163"/>
       <c r="D47" s="101" t="s">
         <v>147</v>
       </c>
@@ -9090,16 +9075,16 @@
       <c r="AB47" s="73"/>
       <c r="AC47" s="73"/>
       <c r="AD47" s="102"/>
-      <c r="AE47" s="168"/>
-      <c r="AF47" s="169"/>
-      <c r="AG47" s="168" t="s">
+      <c r="AE47" s="164"/>
+      <c r="AF47" s="165"/>
+      <c r="AG47" s="164" t="s">
         <v>89</v>
       </c>
-      <c r="AH47" s="169"/>
-      <c r="AI47" s="168"/>
-      <c r="AJ47" s="169"/>
-      <c r="AK47" s="168"/>
-      <c r="AL47" s="169"/>
+      <c r="AH47" s="165"/>
+      <c r="AI47" s="164"/>
+      <c r="AJ47" s="165"/>
+      <c r="AK47" s="164"/>
+      <c r="AL47" s="165"/>
       <c r="AM47" s="70" t="s">
         <v>140</v>
       </c>
@@ -9138,31 +9123,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="AE43:AF43"/>
-    <mergeCell ref="AG43:AH43"/>
-    <mergeCell ref="AI43:AJ43"/>
-    <mergeCell ref="AK43:AL43"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="AE44:AF44"/>
-    <mergeCell ref="AG44:AH44"/>
-    <mergeCell ref="AI44:AJ44"/>
-    <mergeCell ref="AK44:AL44"/>
-    <mergeCell ref="AE45:AF45"/>
-    <mergeCell ref="AG45:AH45"/>
-    <mergeCell ref="AI45:AJ45"/>
-    <mergeCell ref="AK45:AL45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="AE46:AF46"/>
-    <mergeCell ref="AI46:AJ46"/>
-    <mergeCell ref="AG46:AH46"/>
-    <mergeCell ref="AK46:AL46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="AE47:AF47"/>
-    <mergeCell ref="AI47:AJ47"/>
-    <mergeCell ref="AG47:AH47"/>
-    <mergeCell ref="AK47:AL47"/>
     <mergeCell ref="AO2:AS2"/>
     <mergeCell ref="AZ2:BG2"/>
     <mergeCell ref="AK42:AL42"/>
@@ -9171,6 +9131,31 @@
     <mergeCell ref="AI42:AJ42"/>
     <mergeCell ref="AE42:AF42"/>
     <mergeCell ref="AG42:AH42"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="AE47:AF47"/>
+    <mergeCell ref="AI47:AJ47"/>
+    <mergeCell ref="AG47:AH47"/>
+    <mergeCell ref="AK47:AL47"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="AE46:AF46"/>
+    <mergeCell ref="AI46:AJ46"/>
+    <mergeCell ref="AG46:AH46"/>
+    <mergeCell ref="AK46:AL46"/>
+    <mergeCell ref="AK44:AL44"/>
+    <mergeCell ref="AE45:AF45"/>
+    <mergeCell ref="AG45:AH45"/>
+    <mergeCell ref="AI45:AJ45"/>
+    <mergeCell ref="AK45:AL45"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="AE44:AF44"/>
+    <mergeCell ref="AG44:AH44"/>
+    <mergeCell ref="AI44:AJ44"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="AE43:AF43"/>
+    <mergeCell ref="AG43:AH43"/>
+    <mergeCell ref="AI43:AJ43"/>
+    <mergeCell ref="AK43:AL43"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -9316,7 +9301,7 @@
       <c r="CR1" s="33"/>
       <c r="CS1" s="33"/>
       <c r="CT1" s="34"/>
-      <c r="CU1" s="165" t="str">
+      <c r="CU1" s="169" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -9447,7 +9432,7 @@
       <c r="CR2" s="33"/>
       <c r="CS2" s="33"/>
       <c r="CT2" s="34"/>
-      <c r="CU2" s="165"/>
+      <c r="CU2" s="169"/>
       <c r="CV2" s="174"/>
       <c r="CW2" s="174"/>
       <c r="CX2" s="174"/>
@@ -9663,22 +9648,22 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
-      <c r="C6" s="155" t="s">
+      <c r="C6" s="124" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="155" t="s">
+      <c r="D6" s="124" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="155" t="s">
+      <c r="E6" s="124" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="155" t="s">
+      <c r="F6" s="124" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="155" t="s">
+      <c r="G6" s="124" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="155" t="s">
+      <c r="H6" s="124" t="s">
         <v>29</v>
       </c>
       <c r="I6" s="183" t="s">
@@ -9687,13 +9672,13 @@
       <c r="J6" s="183" t="s">
         <v>41</v>
       </c>
-      <c r="K6" s="155" t="s">
+      <c r="K6" s="124" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="155" t="s">
+      <c r="L6" s="124" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="155" t="s">
+      <c r="M6" s="124" t="s">
         <v>33</v>
       </c>
       <c r="N6" s="58" t="s">
@@ -9708,17 +9693,17 @@
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
-      <c r="C7" s="155"/>
-      <c r="D7" s="155"/>
-      <c r="E7" s="155"/>
-      <c r="F7" s="155"/>
-      <c r="G7" s="155"/>
-      <c r="H7" s="155"/>
+      <c r="C7" s="124"/>
+      <c r="D7" s="124"/>
+      <c r="E7" s="124"/>
+      <c r="F7" s="124"/>
+      <c r="G7" s="124"/>
+      <c r="H7" s="124"/>
       <c r="I7" s="183"/>
       <c r="J7" s="183"/>
-      <c r="K7" s="155"/>
-      <c r="L7" s="155"/>
-      <c r="M7" s="155"/>
+      <c r="K7" s="124"/>
+      <c r="L7" s="124"/>
+      <c r="M7" s="124"/>
       <c r="N7" s="41" t="s">
         <v>62</v>
       </c>
@@ -9937,22 +9922,22 @@
     <row r="14" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
-      <c r="C14" s="155" t="s">
+      <c r="C14" s="124" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="155" t="s">
+      <c r="D14" s="124" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="155" t="s">
+      <c r="E14" s="124" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="155" t="s">
+      <c r="F14" s="124" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="155" t="s">
+      <c r="G14" s="124" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="155" t="s">
+      <c r="H14" s="124" t="s">
         <v>29</v>
       </c>
       <c r="I14" s="184" t="s">
@@ -9961,13 +9946,13 @@
       <c r="J14" s="183" t="s">
         <v>41</v>
       </c>
-      <c r="K14" s="155" t="s">
+      <c r="K14" s="124" t="s">
         <v>31</v>
       </c>
-      <c r="L14" s="155" t="s">
+      <c r="L14" s="124" t="s">
         <v>30</v>
       </c>
-      <c r="M14" s="155" t="s">
+      <c r="M14" s="124" t="s">
         <v>33</v>
       </c>
       <c r="N14" s="58" t="s">
@@ -9982,17 +9967,17 @@
     <row r="15" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
-      <c r="C15" s="155"/>
-      <c r="D15" s="155"/>
-      <c r="E15" s="155"/>
-      <c r="F15" s="155"/>
-      <c r="G15" s="155"/>
-      <c r="H15" s="155"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
+      <c r="F15" s="124"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="124"/>
       <c r="I15" s="185"/>
       <c r="J15" s="183"/>
-      <c r="K15" s="155"/>
-      <c r="L15" s="155"/>
-      <c r="M15" s="155"/>
+      <c r="K15" s="124"/>
+      <c r="L15" s="124"/>
+      <c r="M15" s="124"/>
       <c r="N15" s="41" t="s">
         <v>62</v>
       </c>
@@ -10096,7 +10081,7 @@
         <v>34</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>192</v>
@@ -10145,7 +10130,7 @@
         <v>34</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>34</v>
@@ -10179,22 +10164,22 @@
     <row r="21" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="13"/>
       <c r="B21" s="52"/>
-      <c r="C21" s="155" t="s">
+      <c r="C21" s="124" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="155" t="s">
+      <c r="D21" s="124" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="155" t="s">
+      <c r="E21" s="124" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="155" t="s">
+      <c r="F21" s="124" t="s">
         <v>38</v>
       </c>
-      <c r="G21" s="155" t="s">
+      <c r="G21" s="124" t="s">
         <v>28</v>
       </c>
-      <c r="H21" s="155" t="s">
+      <c r="H21" s="124" t="s">
         <v>29</v>
       </c>
       <c r="I21" s="183" t="s">
@@ -10203,13 +10188,13 @@
       <c r="J21" s="183" t="s">
         <v>41</v>
       </c>
-      <c r="K21" s="155" t="s">
+      <c r="K21" s="124" t="s">
         <v>31</v>
       </c>
-      <c r="L21" s="155" t="s">
+      <c r="L21" s="124" t="s">
         <v>30</v>
       </c>
-      <c r="M21" s="155" t="s">
+      <c r="M21" s="124" t="s">
         <v>33</v>
       </c>
       <c r="N21" s="58" t="s">
@@ -10224,17 +10209,17 @@
     <row r="22" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="13"/>
       <c r="B22" s="52"/>
-      <c r="C22" s="155"/>
-      <c r="D22" s="155"/>
-      <c r="E22" s="155"/>
-      <c r="F22" s="155"/>
-      <c r="G22" s="155"/>
-      <c r="H22" s="155"/>
+      <c r="C22" s="124"/>
+      <c r="D22" s="124"/>
+      <c r="E22" s="124"/>
+      <c r="F22" s="124"/>
+      <c r="G22" s="124"/>
+      <c r="H22" s="124"/>
       <c r="I22" s="183"/>
       <c r="J22" s="183"/>
-      <c r="K22" s="155"/>
-      <c r="L22" s="155"/>
-      <c r="M22" s="155"/>
+      <c r="K22" s="124"/>
+      <c r="L22" s="124"/>
+      <c r="M22" s="124"/>
       <c r="N22" s="80" t="s">
         <v>62</v>
       </c>
@@ -10253,7 +10238,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E23" s="14" t="s">
         <v>113</v>
@@ -10289,10 +10274,10 @@
         <v>35</v>
       </c>
       <c r="P23" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Q23" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
@@ -10302,7 +10287,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E24" s="14" t="s">
         <v>155</v>
@@ -10311,7 +10296,7 @@
         <v>193</v>
       </c>
       <c r="G24" s="42" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>94</v>
@@ -10341,7 +10326,7 @@
         <v>165</v>
       </c>
       <c r="Q24" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="28.5" x14ac:dyDescent="0.15">
@@ -10351,13 +10336,13 @@
         <v>3</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>142</v>
+        <v>276</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>195</v>
+        <v>275</v>
       </c>
       <c r="G25" s="14" t="s">
         <v>92</v>
@@ -10386,11 +10371,11 @@
       <c r="O25" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="P25" s="8" t="s">
-        <v>260</v>
+      <c r="P25" s="194" t="s">
+        <v>278</v>
       </c>
       <c r="Q25" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="28.5" x14ac:dyDescent="0.15">
@@ -10400,19 +10385,19 @@
         <v>4</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E26" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="G26" s="42" t="s">
         <v>93</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="I26" s="103">
         <v>1</v>
@@ -10439,7 +10424,7 @@
         <v>35</v>
       </c>
       <c r="Q26" s="8" t="s">
-        <v>213</v>
+        <v>277</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
@@ -10449,13 +10434,13 @@
         <v>5</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E27" s="14" t="s">
         <v>114</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G27" s="14" t="s">
         <v>92</v>
@@ -10488,7 +10473,7 @@
         <v>163</v>
       </c>
       <c r="Q27" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
@@ -10498,7 +10483,7 @@
         <v>6</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E28" s="14" t="s">
         <v>32</v>
@@ -10542,6 +10527,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="L14:L15"/>
     <mergeCell ref="Q21:Q22"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="D21:D22"/>
@@ -10554,30 +10563,6 @@
     <mergeCell ref="K21:K22"/>
     <mergeCell ref="L21:L22"/>
     <mergeCell ref="M21:M22"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="D14:D15"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -10651,7 +10636,7 @@
       <c r="AF1" s="33"/>
       <c r="AG1" s="33"/>
       <c r="AH1" s="34"/>
-      <c r="AI1" s="162">
+      <c r="AI1" s="166">
         <f>変更履歴!E5</f>
         <v>43714</v>
       </c>
@@ -10667,7 +10652,7 @@
       <c r="AQ1" s="33"/>
       <c r="AR1" s="33"/>
       <c r="AS1" s="34"/>
-      <c r="AT1" s="165" t="str">
+      <c r="AT1" s="169" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -10738,7 +10723,7 @@
       <c r="AQ2" s="33"/>
       <c r="AR2" s="33"/>
       <c r="AS2" s="34"/>
-      <c r="AT2" s="165"/>
+      <c r="AT2" s="169"/>
       <c r="AU2" s="174"/>
       <c r="AV2" s="174"/>
       <c r="AW2" s="174"/>
@@ -11080,20 +11065,20 @@
         <v>2</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
       <c r="F11" s="21"/>
       <c r="G11" s="19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H11" s="20"/>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
       <c r="K11" s="20"/>
       <c r="L11" s="19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M11" s="20"/>
       <c r="N11" s="20"/>
@@ -11140,7 +11125,7 @@
         <v>78</v>
       </c>
       <c r="L12" s="60" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AV12" s="61"/>
     </row>
@@ -11150,7 +11135,7 @@
       <c r="F13" s="61"/>
       <c r="G13" s="60"/>
       <c r="L13" s="60" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AV13" s="61"/>
     </row>
@@ -11169,7 +11154,7 @@
       <c r="G15" s="60"/>
       <c r="L15" s="60"/>
       <c r="M15" s="112" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N15" s="112"/>
       <c r="O15" s="112"/>
@@ -11190,7 +11175,7 @@
       <c r="G16" s="60"/>
       <c r="L16" s="60"/>
       <c r="N16" s="112" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="O16" s="112"/>
       <c r="P16" s="112"/>
@@ -11210,7 +11195,7 @@
       <c r="G17" s="60"/>
       <c r="L17" s="60"/>
       <c r="N17" s="112" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="O17" s="112"/>
       <c r="P17" s="112"/>
@@ -11230,7 +11215,7 @@
       <c r="G18" s="60"/>
       <c r="L18" s="60"/>
       <c r="N18" s="112" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="O18" s="112"/>
       <c r="P18" s="112"/>
@@ -11250,7 +11235,7 @@
       <c r="G19" s="60"/>
       <c r="L19" s="60"/>
       <c r="N19" s="112" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="O19" s="112"/>
       <c r="P19" s="112"/>
@@ -11270,7 +11255,7 @@
       <c r="G20" s="60"/>
       <c r="L20" s="60"/>
       <c r="N20" s="112" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="O20" s="112"/>
       <c r="P20" s="112"/>
@@ -11290,7 +11275,7 @@
       <c r="G21" s="60"/>
       <c r="L21" s="60"/>
       <c r="N21" s="112" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O21" s="112"/>
       <c r="P21" s="112"/>
@@ -11329,7 +11314,7 @@
       <c r="G23" s="60"/>
       <c r="L23" s="60"/>
       <c r="M23" s="112" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N23" s="112"/>
       <c r="O23" s="112"/>
@@ -11350,7 +11335,7 @@
       <c r="G24" s="60"/>
       <c r="L24" s="60"/>
       <c r="N24" s="112" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="O24" s="112"/>
       <c r="P24" s="112"/>
@@ -11370,7 +11355,7 @@
       <c r="G25" s="60"/>
       <c r="L25" s="60"/>
       <c r="N25" s="112" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O25" s="112"/>
       <c r="P25" s="112"/>
@@ -11391,7 +11376,7 @@
       <c r="L26" s="60"/>
       <c r="N26" s="112"/>
       <c r="O26" s="112" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="P26" s="112"/>
       <c r="Q26" s="112"/>
@@ -11411,7 +11396,7 @@
       <c r="L27" s="60"/>
       <c r="N27" s="112"/>
       <c r="O27" s="112" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="P27" s="112"/>
       <c r="Q27" s="112"/>
@@ -11431,7 +11416,7 @@
       <c r="L28" s="60"/>
       <c r="N28" s="112"/>
       <c r="O28" s="112" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="P28" s="112"/>
       <c r="Q28" s="112"/>
@@ -11451,7 +11436,7 @@
       <c r="L29" s="60"/>
       <c r="N29" s="112"/>
       <c r="O29" s="112" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="P29" s="112"/>
       <c r="Q29" s="112"/>
@@ -11471,7 +11456,7 @@
       <c r="L30" s="60"/>
       <c r="N30" s="112"/>
       <c r="O30" s="112" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="P30" s="112"/>
       <c r="Q30" s="112"/>
@@ -11508,7 +11493,7 @@
       <c r="G32" s="60"/>
       <c r="L32" s="60"/>
       <c r="M32" s="112" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="N32" s="112"/>
       <c r="O32" s="112"/>
@@ -11529,7 +11514,7 @@
       <c r="G33" s="60"/>
       <c r="L33" s="60"/>
       <c r="N33" s="112" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="O33" s="112"/>
       <c r="P33" s="112"/>
@@ -11540,10 +11525,10 @@
       <c r="U33" s="112"/>
       <c r="V33" s="112"/>
       <c r="W33" s="112" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="X33" s="117" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="Y33" s="112"/>
       <c r="Z33" s="112"/>
@@ -11556,7 +11541,7 @@
       <c r="G34" s="60"/>
       <c r="L34" s="60"/>
       <c r="N34" s="112" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="O34" s="112"/>
       <c r="P34" s="112"/>
@@ -11567,15 +11552,15 @@
       <c r="U34" s="112"/>
       <c r="V34" s="112"/>
       <c r="W34" s="112" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="X34" s="117" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Y34" s="112"/>
       <c r="Z34" s="112"/>
       <c r="AJ34" s="112" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AV34" s="61"/>
     </row>
@@ -11586,7 +11571,7 @@
       <c r="G35" s="60"/>
       <c r="L35" s="60"/>
       <c r="N35" s="112" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="O35" s="112"/>
       <c r="P35" s="112"/>
@@ -11596,15 +11581,15 @@
       <c r="T35" s="112"/>
       <c r="U35" s="112"/>
       <c r="W35" s="112" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="X35" s="117" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="Y35" s="112"/>
       <c r="Z35" s="112"/>
       <c r="AJ35" s="112" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AV35" s="61"/>
     </row>
@@ -11615,7 +11600,7 @@
       <c r="G36" s="60"/>
       <c r="L36" s="60"/>
       <c r="N36" s="112" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="O36" s="112"/>
       <c r="P36" s="112"/>
@@ -11626,14 +11611,14 @@
       <c r="U36" s="112"/>
       <c r="V36" s="112"/>
       <c r="W36" s="112" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="X36" s="117" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="Y36" s="112"/>
       <c r="AJ36" s="112" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AV36" s="61"/>
     </row>
@@ -11664,7 +11649,7 @@
       <c r="F38" s="61"/>
       <c r="G38" s="60"/>
       <c r="L38" s="60" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="M38" s="112"/>
       <c r="N38" s="112"/>
@@ -11704,7 +11689,7 @@
       <c r="F39" s="61"/>
       <c r="G39" s="60"/>
       <c r="L39" s="60" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="M39" s="112"/>
       <c r="N39" s="112"/>
@@ -11792,7 +11777,7 @@
       <c r="J41" s="20"/>
       <c r="K41" s="21"/>
       <c r="L41" s="19" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M41" s="20"/>
       <c r="N41" s="20"/>
@@ -11840,7 +11825,7 @@
       </c>
       <c r="K42" s="61"/>
       <c r="L42" s="60" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
@@ -11930,7 +11915,7 @@
       <c r="G44" s="60"/>
       <c r="K44" s="61"/>
       <c r="L44" s="113" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M44" s="100"/>
       <c r="N44" s="100"/>
@@ -12161,7 +12146,7 @@
       <c r="R49" s="100"/>
       <c r="S49" s="100"/>
       <c r="T49" s="117" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="U49" s="100"/>
       <c r="V49" s="114"/>
@@ -12207,7 +12192,7 @@
       <c r="R50" s="100"/>
       <c r="S50" s="100"/>
       <c r="T50" s="100" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="U50" s="100"/>
       <c r="V50" s="100"/>
@@ -12252,7 +12237,7 @@
       <c r="R51" s="100"/>
       <c r="S51" s="100"/>
       <c r="T51" s="100" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="U51" s="100"/>
       <c r="V51" s="114"/>
@@ -12289,7 +12274,7 @@
       <c r="L52" s="111"/>
       <c r="M52" s="22"/>
       <c r="N52" s="100" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="O52" s="100"/>
       <c r="P52" s="100"/>
@@ -12297,7 +12282,7 @@
       <c r="R52" s="100"/>
       <c r="S52" s="100"/>
       <c r="T52" s="100" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="U52" s="100"/>
       <c r="V52" s="114"/>
@@ -12334,7 +12319,7 @@
       <c r="L53" s="111"/>
       <c r="M53" s="22"/>
       <c r="N53" s="100" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O53" s="100"/>
       <c r="P53" s="100"/>
@@ -12342,7 +12327,7 @@
       <c r="R53" s="100"/>
       <c r="S53" s="100"/>
       <c r="T53" s="100" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="U53" s="100"/>
       <c r="V53" s="114"/>
@@ -12379,7 +12364,7 @@
       <c r="L54" s="111"/>
       <c r="M54" s="22"/>
       <c r="N54" s="100" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="O54" s="100"/>
       <c r="P54" s="100"/>
@@ -12387,7 +12372,7 @@
       <c r="R54" s="100"/>
       <c r="S54" s="100"/>
       <c r="T54" s="100" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="U54" s="100"/>
       <c r="V54" s="114"/>
@@ -12424,7 +12409,7 @@
       <c r="L55" s="111"/>
       <c r="M55" s="22"/>
       <c r="N55" s="100" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O55" s="100"/>
       <c r="P55" s="100"/>
@@ -12432,7 +12417,7 @@
       <c r="R55" s="100"/>
       <c r="S55" s="100"/>
       <c r="T55" s="100" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="U55" s="100"/>
       <c r="V55" s="114"/>
@@ -12477,7 +12462,7 @@
       <c r="R56" s="100"/>
       <c r="S56" s="100"/>
       <c r="T56" s="100" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="U56" s="100"/>
       <c r="V56" s="100"/>
@@ -12515,7 +12500,7 @@
       <c r="L57" s="113"/>
       <c r="M57" s="100"/>
       <c r="N57" s="100" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="O57" s="100"/>
       <c r="P57" s="100"/>
@@ -12569,7 +12554,7 @@
       <c r="R58" s="100"/>
       <c r="S58" s="100"/>
       <c r="T58" s="100" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="U58" s="100"/>
       <c r="V58" s="100"/>
@@ -12615,7 +12600,7 @@
       <c r="R59" s="100"/>
       <c r="S59" s="100"/>
       <c r="T59" s="118" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="U59" s="100"/>
       <c r="V59" s="100"/>
@@ -12653,7 +12638,7 @@
       <c r="L60" s="113"/>
       <c r="M60" s="100"/>
       <c r="N60" s="100" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="O60" s="100"/>
       <c r="P60" s="100"/>
@@ -12661,7 +12646,7 @@
       <c r="R60" s="100"/>
       <c r="S60" s="100"/>
       <c r="T60" s="100" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="U60" s="100"/>
       <c r="V60" s="100"/>
@@ -12707,7 +12692,7 @@
       <c r="R61" s="100"/>
       <c r="S61" s="100"/>
       <c r="T61" s="100" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="U61" s="100"/>
       <c r="V61" s="100"/>
@@ -12753,7 +12738,7 @@
       <c r="R62" s="100"/>
       <c r="S62" s="100"/>
       <c r="T62" s="100" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="U62" s="100"/>
       <c r="V62" s="100"/>
@@ -13107,7 +13092,7 @@
       <c r="L70" s="113"/>
       <c r="M70" s="100"/>
       <c r="N70" s="22" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="O70" s="22"/>
       <c r="P70" s="22"/>
@@ -13118,7 +13103,7 @@
       </c>
       <c r="T70" s="22"/>
       <c r="U70" s="22" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="V70" s="22"/>
       <c r="W70" s="22"/>
@@ -13168,7 +13153,7 @@
       </c>
       <c r="T71" s="22"/>
       <c r="U71" s="22" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="V71" s="22"/>
       <c r="W71" s="22"/>
@@ -13218,7 +13203,7 @@
       </c>
       <c r="T72" s="22"/>
       <c r="U72" s="22" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="V72" s="22"/>
       <c r="W72" s="22"/>
@@ -13314,7 +13299,7 @@
       </c>
       <c r="T74" s="100"/>
       <c r="U74" s="100" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="V74" s="100"/>
       <c r="W74" s="100"/>
@@ -13353,7 +13338,7 @@
       <c r="L75" s="113"/>
       <c r="M75" s="100"/>
       <c r="N75" s="100" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="O75" s="100"/>
       <c r="P75" s="100"/>
@@ -13364,7 +13349,7 @@
       </c>
       <c r="T75" s="100"/>
       <c r="U75" s="100" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="V75" s="100"/>
       <c r="W75" s="100"/>
@@ -13403,7 +13388,7 @@
       <c r="L76" s="113"/>
       <c r="M76" s="100"/>
       <c r="N76" s="100" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O76" s="100"/>
       <c r="P76" s="100"/>
@@ -13414,7 +13399,7 @@
       </c>
       <c r="T76" s="100"/>
       <c r="U76" s="100" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="V76" s="100"/>
       <c r="W76" s="100"/>
@@ -13453,7 +13438,7 @@
       <c r="L77" s="113"/>
       <c r="M77" s="100"/>
       <c r="N77" s="100" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="O77" s="100"/>
       <c r="P77" s="100"/>
@@ -13464,7 +13449,7 @@
       </c>
       <c r="T77" s="100"/>
       <c r="U77" s="100" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="V77" s="100"/>
       <c r="W77" s="100"/>
@@ -13503,7 +13488,7 @@
       <c r="L78" s="113"/>
       <c r="M78" s="100"/>
       <c r="N78" s="100" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O78" s="100"/>
       <c r="P78" s="100"/>
@@ -13514,7 +13499,7 @@
       </c>
       <c r="T78" s="100"/>
       <c r="U78" s="100" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="V78" s="100"/>
       <c r="W78" s="100"/>
@@ -13564,7 +13549,7 @@
       </c>
       <c r="T79" s="100"/>
       <c r="U79" s="100" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="V79" s="100"/>
       <c r="W79" s="100"/>
@@ -13603,7 +13588,7 @@
       <c r="L80" s="113"/>
       <c r="M80" s="100"/>
       <c r="N80" s="100" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="O80" s="100"/>
       <c r="P80" s="100"/>
@@ -13924,20 +13909,20 @@
         <v>4</v>
       </c>
       <c r="C87" s="19" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D87" s="20"/>
       <c r="E87" s="20"/>
       <c r="F87" s="21"/>
       <c r="G87" s="19" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="H87" s="20"/>
       <c r="I87" s="20"/>
       <c r="J87" s="20"/>
       <c r="K87" s="21"/>
       <c r="L87" s="20" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="M87" s="20"/>
       <c r="N87" s="20"/>
@@ -14275,7 +14260,7 @@
       <c r="AF1" s="33"/>
       <c r="AG1" s="33"/>
       <c r="AH1" s="34"/>
-      <c r="AI1" s="162">
+      <c r="AI1" s="166">
         <f>変更履歴!E5</f>
         <v>43714</v>
       </c>
@@ -14291,7 +14276,7 @@
       <c r="AQ1" s="33"/>
       <c r="AR1" s="33"/>
       <c r="AS1" s="34"/>
-      <c r="AT1" s="165" t="str">
+      <c r="AT1" s="169" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -14362,7 +14347,7 @@
       <c r="AQ2" s="33"/>
       <c r="AR2" s="33"/>
       <c r="AS2" s="34"/>
-      <c r="AT2" s="165"/>
+      <c r="AT2" s="169"/>
       <c r="AU2" s="174"/>
       <c r="AV2" s="174"/>
       <c r="AW2" s="174"/>
@@ -14934,7 +14919,7 @@
       <c r="H13" s="22"/>
       <c r="I13" s="61"/>
       <c r="J13" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K13" s="20"/>
       <c r="L13" s="20"/>
@@ -14948,7 +14933,7 @@
       <c r="R13" s="20"/>
       <c r="S13" s="21"/>
       <c r="T13" s="188" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="U13" s="189"/>
       <c r="V13" s="189"/>
@@ -14960,7 +14945,7 @@
       <c r="AB13" s="189"/>
       <c r="AC13" s="190"/>
       <c r="AD13" s="94" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="AE13" s="95"/>
       <c r="AF13" s="95"/>
@@ -19252,6 +19237,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="T17:AC18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="T15:AC16"/>
     <mergeCell ref="AT1:AZ1"/>
     <mergeCell ref="S2:AD2"/>
     <mergeCell ref="AI2:AM2"/>
@@ -19262,11 +19252,6 @@
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="AI1:AM1"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="T17:AC18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="T15:AC16"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.78740157480314965" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.19685039370078741"/>
@@ -19340,7 +19325,7 @@
       <c r="AF1" s="33"/>
       <c r="AG1" s="33"/>
       <c r="AH1" s="34"/>
-      <c r="AI1" s="162">
+      <c r="AI1" s="166">
         <f>変更履歴!E5</f>
         <v>43714</v>
       </c>
@@ -19356,7 +19341,7 @@
       <c r="AQ1" s="33"/>
       <c r="AR1" s="33"/>
       <c r="AS1" s="34"/>
-      <c r="AT1" s="165" t="str">
+      <c r="AT1" s="169" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -19427,7 +19412,7 @@
       <c r="AQ2" s="33"/>
       <c r="AR2" s="33"/>
       <c r="AS2" s="34"/>
-      <c r="AT2" s="165"/>
+      <c r="AT2" s="169"/>
       <c r="AU2" s="174"/>
       <c r="AV2" s="174"/>
       <c r="AW2" s="174"/>
@@ -19713,7 +19698,7 @@
       <c r="A8" s="47"/>
       <c r="B8" s="47"/>
       <c r="C8" s="47" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D8" s="47"/>
       <c r="E8" s="47"/>
@@ -30592,6 +30577,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005B3AFDF1A27EF4448B30400A700269C9" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="af1e50296a73b747a155d4c5a148cd8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72c70d25-b9e8-475b-ae7b-39931ca24b85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7c374c4e1cfeff0cf58497e8c642c22" ns2:_="">
     <xsd:import namespace="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
@@ -30749,12 +30740,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
   <ds:schemaRefs>
@@ -30764,6 +30749,15 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F39FE47-ED8B-411A-AD54-8C8E5636C88B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -30779,13 +30773,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/01_基本設計書/20200220リリース/SC-K20_全工程で試作の在庫払出可能化.xlsx
+++ b/01_基本設計書/20200220リリース/SC-K20_全工程で試作の在庫払出可能化.xlsx
@@ -6,10 +6,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201911\仕様書\K-20\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zhang\Documents\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6366EE63-E120-4CE9-9DA4-9FE928EDC3C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD4E172-5C75-4D70-A599-CA93DC30488C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2977,6 +2977,39 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="7" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="12">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="13" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="58" fontId="11" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2986,6 +3019,91 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3013,101 +3131,16 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="27" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3128,10 +3161,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3193,51 +3238,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="12">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="13" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="16">
@@ -4048,16 +4048,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>102</xdr:col>
-      <xdr:colOff>93706</xdr:colOff>
+      <xdr:colOff>122277</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>8849</xdr:rowOff>
+      <xdr:rowOff>37420</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
+        <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60667808-1E9D-4CAA-BF9E-1C336FBB8FA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31CCE6E4-213F-45C3-9D02-0116375E21E3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4074,7 +4074,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="371475" y="1095375"/>
-          <a:ext cx="12352381" cy="5409524"/>
+          <a:ext cx="12380952" cy="5438095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4772,108 +4772,108 @@
       <c r="AG31" s="3"/>
     </row>
     <row r="32" spans="1:49" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="118" t="s">
+      <c r="A32" s="129" t="s">
         <v>103</v>
       </c>
-      <c r="B32" s="118"/>
-      <c r="C32" s="118"/>
-      <c r="D32" s="118"/>
-      <c r="E32" s="118"/>
-      <c r="F32" s="118"/>
-      <c r="G32" s="118"/>
-      <c r="H32" s="118"/>
-      <c r="I32" s="118"/>
-      <c r="J32" s="118"/>
-      <c r="K32" s="118"/>
-      <c r="L32" s="118"/>
-      <c r="M32" s="118"/>
-      <c r="N32" s="118"/>
-      <c r="O32" s="118"/>
-      <c r="P32" s="118"/>
-      <c r="Q32" s="118"/>
-      <c r="R32" s="118"/>
-      <c r="S32" s="118"/>
-      <c r="T32" s="118"/>
-      <c r="U32" s="118"/>
-      <c r="V32" s="118"/>
-      <c r="W32" s="118"/>
-      <c r="X32" s="118"/>
-      <c r="Y32" s="118"/>
-      <c r="Z32" s="118"/>
-      <c r="AA32" s="118"/>
-      <c r="AB32" s="118"/>
-      <c r="AC32" s="118"/>
-      <c r="AD32" s="118"/>
-      <c r="AE32" s="118"/>
-      <c r="AF32" s="118"/>
-      <c r="AG32" s="118"/>
-      <c r="AH32" s="118"/>
-      <c r="AI32" s="118"/>
-      <c r="AJ32" s="118"/>
-      <c r="AK32" s="118"/>
-      <c r="AL32" s="118"/>
-      <c r="AM32" s="118"/>
-      <c r="AN32" s="118"/>
-      <c r="AO32" s="118"/>
-      <c r="AP32" s="118"/>
-      <c r="AQ32" s="118"/>
-      <c r="AR32" s="118"/>
-      <c r="AS32" s="118"/>
-      <c r="AT32" s="118"/>
-      <c r="AU32" s="118"/>
-      <c r="AV32" s="118"/>
-      <c r="AW32" s="118"/>
+      <c r="B32" s="129"/>
+      <c r="C32" s="129"/>
+      <c r="D32" s="129"/>
+      <c r="E32" s="129"/>
+      <c r="F32" s="129"/>
+      <c r="G32" s="129"/>
+      <c r="H32" s="129"/>
+      <c r="I32" s="129"/>
+      <c r="J32" s="129"/>
+      <c r="K32" s="129"/>
+      <c r="L32" s="129"/>
+      <c r="M32" s="129"/>
+      <c r="N32" s="129"/>
+      <c r="O32" s="129"/>
+      <c r="P32" s="129"/>
+      <c r="Q32" s="129"/>
+      <c r="R32" s="129"/>
+      <c r="S32" s="129"/>
+      <c r="T32" s="129"/>
+      <c r="U32" s="129"/>
+      <c r="V32" s="129"/>
+      <c r="W32" s="129"/>
+      <c r="X32" s="129"/>
+      <c r="Y32" s="129"/>
+      <c r="Z32" s="129"/>
+      <c r="AA32" s="129"/>
+      <c r="AB32" s="129"/>
+      <c r="AC32" s="129"/>
+      <c r="AD32" s="129"/>
+      <c r="AE32" s="129"/>
+      <c r="AF32" s="129"/>
+      <c r="AG32" s="129"/>
+      <c r="AH32" s="129"/>
+      <c r="AI32" s="129"/>
+      <c r="AJ32" s="129"/>
+      <c r="AK32" s="129"/>
+      <c r="AL32" s="129"/>
+      <c r="AM32" s="129"/>
+      <c r="AN32" s="129"/>
+      <c r="AO32" s="129"/>
+      <c r="AP32" s="129"/>
+      <c r="AQ32" s="129"/>
+      <c r="AR32" s="129"/>
+      <c r="AS32" s="129"/>
+      <c r="AT32" s="129"/>
+      <c r="AU32" s="129"/>
+      <c r="AV32" s="129"/>
+      <c r="AW32" s="129"/>
     </row>
     <row r="33" spans="1:49" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A33" s="119"/>
-      <c r="B33" s="119"/>
-      <c r="C33" s="119"/>
-      <c r="D33" s="119"/>
-      <c r="E33" s="119"/>
-      <c r="F33" s="119"/>
-      <c r="G33" s="119"/>
-      <c r="H33" s="119"/>
-      <c r="I33" s="119"/>
-      <c r="J33" s="119"/>
-      <c r="K33" s="119"/>
-      <c r="L33" s="119"/>
-      <c r="M33" s="119"/>
-      <c r="N33" s="119"/>
-      <c r="O33" s="119"/>
-      <c r="P33" s="119"/>
-      <c r="Q33" s="119"/>
-      <c r="R33" s="119"/>
-      <c r="S33" s="119"/>
-      <c r="T33" s="119"/>
-      <c r="U33" s="119"/>
-      <c r="V33" s="119"/>
-      <c r="W33" s="119"/>
-      <c r="X33" s="119"/>
-      <c r="Y33" s="119"/>
-      <c r="Z33" s="119"/>
-      <c r="AA33" s="119"/>
-      <c r="AB33" s="119"/>
-      <c r="AC33" s="119"/>
-      <c r="AD33" s="119"/>
-      <c r="AE33" s="119"/>
-      <c r="AF33" s="119"/>
-      <c r="AG33" s="119"/>
-      <c r="AH33" s="119"/>
-      <c r="AI33" s="119"/>
-      <c r="AJ33" s="119"/>
-      <c r="AK33" s="119"/>
-      <c r="AL33" s="119"/>
-      <c r="AM33" s="119"/>
-      <c r="AN33" s="119"/>
-      <c r="AO33" s="119"/>
-      <c r="AP33" s="119"/>
-      <c r="AQ33" s="119"/>
-      <c r="AR33" s="119"/>
-      <c r="AS33" s="119"/>
-      <c r="AT33" s="119"/>
-      <c r="AU33" s="119"/>
-      <c r="AV33" s="119"/>
-      <c r="AW33" s="119"/>
+      <c r="A33" s="130"/>
+      <c r="B33" s="130"/>
+      <c r="C33" s="130"/>
+      <c r="D33" s="130"/>
+      <c r="E33" s="130"/>
+      <c r="F33" s="130"/>
+      <c r="G33" s="130"/>
+      <c r="H33" s="130"/>
+      <c r="I33" s="130"/>
+      <c r="J33" s="130"/>
+      <c r="K33" s="130"/>
+      <c r="L33" s="130"/>
+      <c r="M33" s="130"/>
+      <c r="N33" s="130"/>
+      <c r="O33" s="130"/>
+      <c r="P33" s="130"/>
+      <c r="Q33" s="130"/>
+      <c r="R33" s="130"/>
+      <c r="S33" s="130"/>
+      <c r="T33" s="130"/>
+      <c r="U33" s="130"/>
+      <c r="V33" s="130"/>
+      <c r="W33" s="130"/>
+      <c r="X33" s="130"/>
+      <c r="Y33" s="130"/>
+      <c r="Z33" s="130"/>
+      <c r="AA33" s="130"/>
+      <c r="AB33" s="130"/>
+      <c r="AC33" s="130"/>
+      <c r="AD33" s="130"/>
+      <c r="AE33" s="130"/>
+      <c r="AF33" s="130"/>
+      <c r="AG33" s="130"/>
+      <c r="AH33" s="130"/>
+      <c r="AI33" s="130"/>
+      <c r="AJ33" s="130"/>
+      <c r="AK33" s="130"/>
+      <c r="AL33" s="130"/>
+      <c r="AM33" s="130"/>
+      <c r="AN33" s="130"/>
+      <c r="AO33" s="130"/>
+      <c r="AP33" s="130"/>
+      <c r="AQ33" s="130"/>
+      <c r="AR33" s="130"/>
+      <c r="AS33" s="130"/>
+      <c r="AT33" s="130"/>
+      <c r="AU33" s="130"/>
+      <c r="AV33" s="130"/>
+      <c r="AW33" s="130"/>
     </row>
     <row r="34" spans="1:49" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
@@ -4911,55 +4911,55 @@
       <c r="AG34" s="4"/>
     </row>
     <row r="35" spans="1:49" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="120"/>
-      <c r="B35" s="120"/>
-      <c r="C35" s="120"/>
-      <c r="D35" s="120"/>
-      <c r="E35" s="120"/>
-      <c r="F35" s="120"/>
-      <c r="G35" s="120"/>
-      <c r="H35" s="120"/>
-      <c r="I35" s="120"/>
-      <c r="J35" s="120"/>
-      <c r="K35" s="120"/>
-      <c r="L35" s="120"/>
-      <c r="M35" s="120"/>
-      <c r="N35" s="120"/>
-      <c r="O35" s="120"/>
-      <c r="P35" s="120"/>
-      <c r="Q35" s="120"/>
-      <c r="R35" s="120"/>
-      <c r="S35" s="120"/>
-      <c r="T35" s="120"/>
-      <c r="U35" s="120"/>
-      <c r="V35" s="120"/>
-      <c r="W35" s="120"/>
-      <c r="X35" s="120"/>
-      <c r="Y35" s="120"/>
-      <c r="Z35" s="120"/>
-      <c r="AA35" s="120"/>
-      <c r="AB35" s="120"/>
-      <c r="AC35" s="120"/>
-      <c r="AD35" s="120"/>
-      <c r="AE35" s="120"/>
-      <c r="AF35" s="120"/>
-      <c r="AG35" s="120"/>
-      <c r="AH35" s="120"/>
-      <c r="AI35" s="120"/>
-      <c r="AJ35" s="120"/>
-      <c r="AK35" s="120"/>
-      <c r="AL35" s="120"/>
-      <c r="AM35" s="120"/>
-      <c r="AN35" s="120"/>
-      <c r="AO35" s="120"/>
-      <c r="AP35" s="120"/>
-      <c r="AQ35" s="120"/>
-      <c r="AR35" s="120"/>
-      <c r="AS35" s="120"/>
-      <c r="AT35" s="120"/>
-      <c r="AU35" s="120"/>
-      <c r="AV35" s="120"/>
-      <c r="AW35" s="120"/>
+      <c r="A35" s="131"/>
+      <c r="B35" s="131"/>
+      <c r="C35" s="131"/>
+      <c r="D35" s="131"/>
+      <c r="E35" s="131"/>
+      <c r="F35" s="131"/>
+      <c r="G35" s="131"/>
+      <c r="H35" s="131"/>
+      <c r="I35" s="131"/>
+      <c r="J35" s="131"/>
+      <c r="K35" s="131"/>
+      <c r="L35" s="131"/>
+      <c r="M35" s="131"/>
+      <c r="N35" s="131"/>
+      <c r="O35" s="131"/>
+      <c r="P35" s="131"/>
+      <c r="Q35" s="131"/>
+      <c r="R35" s="131"/>
+      <c r="S35" s="131"/>
+      <c r="T35" s="131"/>
+      <c r="U35" s="131"/>
+      <c r="V35" s="131"/>
+      <c r="W35" s="131"/>
+      <c r="X35" s="131"/>
+      <c r="Y35" s="131"/>
+      <c r="Z35" s="131"/>
+      <c r="AA35" s="131"/>
+      <c r="AB35" s="131"/>
+      <c r="AC35" s="131"/>
+      <c r="AD35" s="131"/>
+      <c r="AE35" s="131"/>
+      <c r="AF35" s="131"/>
+      <c r="AG35" s="131"/>
+      <c r="AH35" s="131"/>
+      <c r="AI35" s="131"/>
+      <c r="AJ35" s="131"/>
+      <c r="AK35" s="131"/>
+      <c r="AL35" s="131"/>
+      <c r="AM35" s="131"/>
+      <c r="AN35" s="131"/>
+      <c r="AO35" s="131"/>
+      <c r="AP35" s="131"/>
+      <c r="AQ35" s="131"/>
+      <c r="AR35" s="131"/>
+      <c r="AS35" s="131"/>
+      <c r="AT35" s="131"/>
+      <c r="AU35" s="131"/>
+      <c r="AV35" s="131"/>
+      <c r="AW35" s="131"/>
     </row>
     <row r="42" spans="1:49" x14ac:dyDescent="0.15">
       <c r="P42" s="3" t="s">
@@ -4994,619 +4994,619 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="48"/>
-      <c r="B1" s="121" t="s">
+      <c r="B1" s="163" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121"/>
-      <c r="J1" s="121"/>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="121"/>
-      <c r="N1" s="121"/>
-      <c r="O1" s="121"/>
-      <c r="P1" s="121"/>
-      <c r="Q1" s="121"/>
-      <c r="R1" s="121"/>
-      <c r="S1" s="121"/>
-      <c r="T1" s="121"/>
-      <c r="U1" s="121"/>
-      <c r="V1" s="121"/>
-      <c r="W1" s="121"/>
-      <c r="X1" s="121"/>
-      <c r="Y1" s="121"/>
-      <c r="Z1" s="121"/>
-      <c r="AA1" s="121"/>
-      <c r="AB1" s="121"/>
-      <c r="AC1" s="121"/>
-      <c r="AD1" s="121"/>
-      <c r="AE1" s="121"/>
-      <c r="AF1" s="121"/>
-      <c r="AG1" s="121"/>
-      <c r="AH1" s="121"/>
-      <c r="AI1" s="121"/>
-      <c r="AJ1" s="121"/>
-      <c r="AK1" s="121"/>
-      <c r="AL1" s="121"/>
-      <c r="AM1" s="121"/>
-      <c r="AN1" s="121"/>
-      <c r="AO1" s="121"/>
-      <c r="AP1" s="121"/>
-      <c r="AQ1" s="121"/>
-      <c r="AR1" s="121"/>
-      <c r="AS1" s="121"/>
-      <c r="AT1" s="121"/>
-      <c r="AU1" s="121"/>
-      <c r="AV1" s="121"/>
-      <c r="AW1" s="121"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="163"/>
+      <c r="I1" s="163"/>
+      <c r="J1" s="163"/>
+      <c r="K1" s="163"/>
+      <c r="L1" s="163"/>
+      <c r="M1" s="163"/>
+      <c r="N1" s="163"/>
+      <c r="O1" s="163"/>
+      <c r="P1" s="163"/>
+      <c r="Q1" s="163"/>
+      <c r="R1" s="163"/>
+      <c r="S1" s="163"/>
+      <c r="T1" s="163"/>
+      <c r="U1" s="163"/>
+      <c r="V1" s="163"/>
+      <c r="W1" s="163"/>
+      <c r="X1" s="163"/>
+      <c r="Y1" s="163"/>
+      <c r="Z1" s="163"/>
+      <c r="AA1" s="163"/>
+      <c r="AB1" s="163"/>
+      <c r="AC1" s="163"/>
+      <c r="AD1" s="163"/>
+      <c r="AE1" s="163"/>
+      <c r="AF1" s="163"/>
+      <c r="AG1" s="163"/>
+      <c r="AH1" s="163"/>
+      <c r="AI1" s="163"/>
+      <c r="AJ1" s="163"/>
+      <c r="AK1" s="163"/>
+      <c r="AL1" s="163"/>
+      <c r="AM1" s="163"/>
+      <c r="AN1" s="163"/>
+      <c r="AO1" s="163"/>
+      <c r="AP1" s="163"/>
+      <c r="AQ1" s="163"/>
+      <c r="AR1" s="163"/>
+      <c r="AS1" s="163"/>
+      <c r="AT1" s="163"/>
+      <c r="AU1" s="163"/>
+      <c r="AV1" s="163"/>
+      <c r="AW1" s="163"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="48"/>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
-      <c r="M2" s="122"/>
-      <c r="N2" s="122"/>
-      <c r="O2" s="122"/>
-      <c r="P2" s="122"/>
-      <c r="Q2" s="122"/>
-      <c r="R2" s="122"/>
-      <c r="S2" s="122"/>
-      <c r="T2" s="122"/>
-      <c r="U2" s="122"/>
-      <c r="V2" s="122"/>
-      <c r="W2" s="122"/>
-      <c r="X2" s="122"/>
-      <c r="Y2" s="122"/>
-      <c r="Z2" s="122"/>
-      <c r="AA2" s="122"/>
-      <c r="AB2" s="122"/>
-      <c r="AC2" s="122"/>
-      <c r="AD2" s="122"/>
-      <c r="AE2" s="122"/>
-      <c r="AF2" s="122"/>
-      <c r="AG2" s="122"/>
-      <c r="AH2" s="122"/>
-      <c r="AI2" s="122"/>
-      <c r="AJ2" s="122"/>
-      <c r="AK2" s="122"/>
-      <c r="AL2" s="122"/>
-      <c r="AM2" s="122"/>
-      <c r="AN2" s="122"/>
-      <c r="AO2" s="122"/>
-      <c r="AP2" s="122"/>
-      <c r="AQ2" s="122"/>
-      <c r="AR2" s="122"/>
-      <c r="AS2" s="122"/>
-      <c r="AT2" s="122"/>
-      <c r="AU2" s="122"/>
-      <c r="AV2" s="122"/>
-      <c r="AW2" s="122"/>
+      <c r="B2" s="164"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="164"/>
+      <c r="H2" s="164"/>
+      <c r="I2" s="164"/>
+      <c r="J2" s="164"/>
+      <c r="K2" s="164"/>
+      <c r="L2" s="164"/>
+      <c r="M2" s="164"/>
+      <c r="N2" s="164"/>
+      <c r="O2" s="164"/>
+      <c r="P2" s="164"/>
+      <c r="Q2" s="164"/>
+      <c r="R2" s="164"/>
+      <c r="S2" s="164"/>
+      <c r="T2" s="164"/>
+      <c r="U2" s="164"/>
+      <c r="V2" s="164"/>
+      <c r="W2" s="164"/>
+      <c r="X2" s="164"/>
+      <c r="Y2" s="164"/>
+      <c r="Z2" s="164"/>
+      <c r="AA2" s="164"/>
+      <c r="AB2" s="164"/>
+      <c r="AC2" s="164"/>
+      <c r="AD2" s="164"/>
+      <c r="AE2" s="164"/>
+      <c r="AF2" s="164"/>
+      <c r="AG2" s="164"/>
+      <c r="AH2" s="164"/>
+      <c r="AI2" s="164"/>
+      <c r="AJ2" s="164"/>
+      <c r="AK2" s="164"/>
+      <c r="AL2" s="164"/>
+      <c r="AM2" s="164"/>
+      <c r="AN2" s="164"/>
+      <c r="AO2" s="164"/>
+      <c r="AP2" s="164"/>
+      <c r="AQ2" s="164"/>
+      <c r="AR2" s="164"/>
+      <c r="AS2" s="164"/>
+      <c r="AT2" s="164"/>
+      <c r="AU2" s="164"/>
+      <c r="AV2" s="164"/>
+      <c r="AW2" s="164"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="48"/>
-      <c r="B3" s="123" t="s">
+      <c r="B3" s="165" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123" t="s">
+      <c r="C3" s="165"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="124" t="s">
+      <c r="F3" s="165"/>
+      <c r="G3" s="165"/>
+      <c r="H3" s="165"/>
+      <c r="I3" s="165"/>
+      <c r="J3" s="166" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="125"/>
-      <c r="L3" s="126"/>
-      <c r="M3" s="124" t="s">
+      <c r="K3" s="167"/>
+      <c r="L3" s="168"/>
+      <c r="M3" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="125"/>
-      <c r="O3" s="125"/>
-      <c r="P3" s="125"/>
-      <c r="Q3" s="125"/>
-      <c r="R3" s="126"/>
-      <c r="S3" s="123" t="s">
+      <c r="N3" s="167"/>
+      <c r="O3" s="167"/>
+      <c r="P3" s="167"/>
+      <c r="Q3" s="167"/>
+      <c r="R3" s="168"/>
+      <c r="S3" s="165" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="123"/>
-      <c r="U3" s="123"/>
-      <c r="V3" s="123" t="s">
+      <c r="T3" s="165"/>
+      <c r="U3" s="165"/>
+      <c r="V3" s="165" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="123"/>
-      <c r="X3" s="123"/>
-      <c r="Y3" s="123"/>
-      <c r="Z3" s="123"/>
-      <c r="AA3" s="123"/>
-      <c r="AB3" s="123"/>
-      <c r="AC3" s="123"/>
-      <c r="AD3" s="123"/>
-      <c r="AE3" s="123"/>
-      <c r="AF3" s="123"/>
-      <c r="AG3" s="123"/>
-      <c r="AH3" s="123"/>
-      <c r="AI3" s="123"/>
-      <c r="AJ3" s="123"/>
-      <c r="AK3" s="123"/>
-      <c r="AL3" s="123"/>
-      <c r="AM3" s="123"/>
-      <c r="AN3" s="123" t="s">
+      <c r="W3" s="165"/>
+      <c r="X3" s="165"/>
+      <c r="Y3" s="165"/>
+      <c r="Z3" s="165"/>
+      <c r="AA3" s="165"/>
+      <c r="AB3" s="165"/>
+      <c r="AC3" s="165"/>
+      <c r="AD3" s="165"/>
+      <c r="AE3" s="165"/>
+      <c r="AF3" s="165"/>
+      <c r="AG3" s="165"/>
+      <c r="AH3" s="165"/>
+      <c r="AI3" s="165"/>
+      <c r="AJ3" s="165"/>
+      <c r="AK3" s="165"/>
+      <c r="AL3" s="165"/>
+      <c r="AM3" s="165"/>
+      <c r="AN3" s="165" t="s">
         <v>13</v>
       </c>
-      <c r="AO3" s="123"/>
-      <c r="AP3" s="123"/>
-      <c r="AQ3" s="123"/>
-      <c r="AR3" s="123"/>
-      <c r="AS3" s="123" t="s">
+      <c r="AO3" s="165"/>
+      <c r="AP3" s="165"/>
+      <c r="AQ3" s="165"/>
+      <c r="AR3" s="165"/>
+      <c r="AS3" s="165" t="s">
         <v>14</v>
       </c>
-      <c r="AT3" s="123"/>
-      <c r="AU3" s="123"/>
-      <c r="AV3" s="123"/>
-      <c r="AW3" s="123"/>
+      <c r="AT3" s="165"/>
+      <c r="AU3" s="165"/>
+      <c r="AV3" s="165"/>
+      <c r="AW3" s="165"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="48"/>
-      <c r="B4" s="123"/>
-      <c r="C4" s="123"/>
-      <c r="D4" s="123"/>
-      <c r="E4" s="123"/>
-      <c r="F4" s="123"/>
-      <c r="G4" s="123"/>
-      <c r="H4" s="123"/>
-      <c r="I4" s="123"/>
-      <c r="J4" s="127"/>
-      <c r="K4" s="128"/>
-      <c r="L4" s="129"/>
-      <c r="M4" s="127"/>
-      <c r="N4" s="128"/>
-      <c r="O4" s="128"/>
-      <c r="P4" s="128"/>
-      <c r="Q4" s="128"/>
-      <c r="R4" s="129"/>
-      <c r="S4" s="123"/>
-      <c r="T4" s="123"/>
-      <c r="U4" s="123"/>
-      <c r="V4" s="123"/>
-      <c r="W4" s="123"/>
-      <c r="X4" s="123"/>
-      <c r="Y4" s="123"/>
-      <c r="Z4" s="123"/>
-      <c r="AA4" s="123"/>
-      <c r="AB4" s="123"/>
-      <c r="AC4" s="123"/>
-      <c r="AD4" s="123"/>
-      <c r="AE4" s="123"/>
-      <c r="AF4" s="123"/>
-      <c r="AG4" s="123"/>
-      <c r="AH4" s="123"/>
-      <c r="AI4" s="123"/>
-      <c r="AJ4" s="123"/>
-      <c r="AK4" s="123"/>
-      <c r="AL4" s="123"/>
-      <c r="AM4" s="123"/>
-      <c r="AN4" s="123"/>
-      <c r="AO4" s="123"/>
-      <c r="AP4" s="123"/>
-      <c r="AQ4" s="123"/>
-      <c r="AR4" s="123"/>
-      <c r="AS4" s="123"/>
-      <c r="AT4" s="123"/>
-      <c r="AU4" s="123"/>
-      <c r="AV4" s="123"/>
-      <c r="AW4" s="123"/>
+      <c r="B4" s="165"/>
+      <c r="C4" s="165"/>
+      <c r="D4" s="165"/>
+      <c r="E4" s="165"/>
+      <c r="F4" s="165"/>
+      <c r="G4" s="165"/>
+      <c r="H4" s="165"/>
+      <c r="I4" s="165"/>
+      <c r="J4" s="169"/>
+      <c r="K4" s="170"/>
+      <c r="L4" s="171"/>
+      <c r="M4" s="169"/>
+      <c r="N4" s="170"/>
+      <c r="O4" s="170"/>
+      <c r="P4" s="170"/>
+      <c r="Q4" s="170"/>
+      <c r="R4" s="171"/>
+      <c r="S4" s="165"/>
+      <c r="T4" s="165"/>
+      <c r="U4" s="165"/>
+      <c r="V4" s="165"/>
+      <c r="W4" s="165"/>
+      <c r="X4" s="165"/>
+      <c r="Y4" s="165"/>
+      <c r="Z4" s="165"/>
+      <c r="AA4" s="165"/>
+      <c r="AB4" s="165"/>
+      <c r="AC4" s="165"/>
+      <c r="AD4" s="165"/>
+      <c r="AE4" s="165"/>
+      <c r="AF4" s="165"/>
+      <c r="AG4" s="165"/>
+      <c r="AH4" s="165"/>
+      <c r="AI4" s="165"/>
+      <c r="AJ4" s="165"/>
+      <c r="AK4" s="165"/>
+      <c r="AL4" s="165"/>
+      <c r="AM4" s="165"/>
+      <c r="AN4" s="165"/>
+      <c r="AO4" s="165"/>
+      <c r="AP4" s="165"/>
+      <c r="AQ4" s="165"/>
+      <c r="AR4" s="165"/>
+      <c r="AS4" s="165"/>
+      <c r="AT4" s="165"/>
+      <c r="AU4" s="165"/>
+      <c r="AV4" s="165"/>
+      <c r="AW4" s="165"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="50"/>
-      <c r="B5" s="131">
+      <c r="B5" s="157">
         <v>1</v>
       </c>
-      <c r="C5" s="131"/>
-      <c r="D5" s="131"/>
-      <c r="E5" s="132">
+      <c r="C5" s="157"/>
+      <c r="D5" s="157"/>
+      <c r="E5" s="138">
         <v>43714</v>
       </c>
-      <c r="F5" s="132"/>
-      <c r="G5" s="132"/>
-      <c r="H5" s="132"/>
-      <c r="I5" s="132"/>
-      <c r="J5" s="133" t="s">
+      <c r="F5" s="138"/>
+      <c r="G5" s="138"/>
+      <c r="H5" s="138"/>
+      <c r="I5" s="138"/>
+      <c r="J5" s="139" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="134"/>
-      <c r="L5" s="135"/>
-      <c r="M5" s="133" t="s">
+      <c r="K5" s="140"/>
+      <c r="L5" s="141"/>
+      <c r="M5" s="139" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="134"/>
-      <c r="O5" s="134"/>
-      <c r="P5" s="134"/>
-      <c r="Q5" s="134"/>
-      <c r="R5" s="135"/>
-      <c r="S5" s="130" t="s">
+      <c r="N5" s="140"/>
+      <c r="O5" s="140"/>
+      <c r="P5" s="140"/>
+      <c r="Q5" s="140"/>
+      <c r="R5" s="141"/>
+      <c r="S5" s="145" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="130"/>
-      <c r="U5" s="130"/>
-      <c r="V5" s="139" t="s">
+      <c r="T5" s="145"/>
+      <c r="U5" s="145"/>
+      <c r="V5" s="156" t="s">
         <v>18</v>
       </c>
-      <c r="W5" s="139"/>
-      <c r="X5" s="139"/>
-      <c r="Y5" s="139"/>
-      <c r="Z5" s="139"/>
-      <c r="AA5" s="139"/>
-      <c r="AB5" s="139"/>
-      <c r="AC5" s="139"/>
-      <c r="AD5" s="139"/>
-      <c r="AE5" s="139"/>
-      <c r="AF5" s="139"/>
-      <c r="AG5" s="139"/>
-      <c r="AH5" s="139"/>
-      <c r="AI5" s="139"/>
-      <c r="AJ5" s="139"/>
-      <c r="AK5" s="139"/>
-      <c r="AL5" s="139"/>
-      <c r="AM5" s="139"/>
-      <c r="AN5" s="130" t="s">
+      <c r="W5" s="156"/>
+      <c r="X5" s="156"/>
+      <c r="Y5" s="156"/>
+      <c r="Z5" s="156"/>
+      <c r="AA5" s="156"/>
+      <c r="AB5" s="156"/>
+      <c r="AC5" s="156"/>
+      <c r="AD5" s="156"/>
+      <c r="AE5" s="156"/>
+      <c r="AF5" s="156"/>
+      <c r="AG5" s="156"/>
+      <c r="AH5" s="156"/>
+      <c r="AI5" s="156"/>
+      <c r="AJ5" s="156"/>
+      <c r="AK5" s="156"/>
+      <c r="AL5" s="156"/>
+      <c r="AM5" s="156"/>
+      <c r="AN5" s="145" t="s">
         <v>106</v>
       </c>
-      <c r="AO5" s="130"/>
-      <c r="AP5" s="130"/>
-      <c r="AQ5" s="130"/>
-      <c r="AR5" s="130"/>
-      <c r="AS5" s="130"/>
-      <c r="AT5" s="130"/>
-      <c r="AU5" s="130"/>
-      <c r="AV5" s="130"/>
-      <c r="AW5" s="130"/>
+      <c r="AO5" s="145"/>
+      <c r="AP5" s="145"/>
+      <c r="AQ5" s="145"/>
+      <c r="AR5" s="145"/>
+      <c r="AS5" s="145"/>
+      <c r="AT5" s="145"/>
+      <c r="AU5" s="145"/>
+      <c r="AV5" s="145"/>
+      <c r="AW5" s="145"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="50"/>
-      <c r="B6" s="131"/>
-      <c r="C6" s="131"/>
-      <c r="D6" s="131"/>
-      <c r="E6" s="132"/>
-      <c r="F6" s="132"/>
-      <c r="G6" s="132"/>
-      <c r="H6" s="132"/>
-      <c r="I6" s="132"/>
-      <c r="J6" s="133"/>
-      <c r="K6" s="134"/>
-      <c r="L6" s="135"/>
-      <c r="M6" s="136"/>
-      <c r="N6" s="137"/>
-      <c r="O6" s="137"/>
-      <c r="P6" s="137"/>
-      <c r="Q6" s="137"/>
-      <c r="R6" s="138"/>
-      <c r="S6" s="130"/>
-      <c r="T6" s="130"/>
-      <c r="U6" s="130"/>
-      <c r="V6" s="139"/>
-      <c r="W6" s="139"/>
-      <c r="X6" s="139"/>
-      <c r="Y6" s="139"/>
-      <c r="Z6" s="139"/>
-      <c r="AA6" s="139"/>
-      <c r="AB6" s="139"/>
-      <c r="AC6" s="139"/>
-      <c r="AD6" s="139"/>
-      <c r="AE6" s="139"/>
-      <c r="AF6" s="139"/>
-      <c r="AG6" s="139"/>
-      <c r="AH6" s="139"/>
-      <c r="AI6" s="139"/>
-      <c r="AJ6" s="139"/>
-      <c r="AK6" s="139"/>
-      <c r="AL6" s="139"/>
-      <c r="AM6" s="139"/>
-      <c r="AN6" s="130"/>
-      <c r="AO6" s="130"/>
-      <c r="AP6" s="130"/>
-      <c r="AQ6" s="130"/>
-      <c r="AR6" s="130"/>
-      <c r="AS6" s="130"/>
-      <c r="AT6" s="130"/>
-      <c r="AU6" s="130"/>
-      <c r="AV6" s="130"/>
-      <c r="AW6" s="130"/>
+      <c r="B6" s="157"/>
+      <c r="C6" s="157"/>
+      <c r="D6" s="157"/>
+      <c r="E6" s="138"/>
+      <c r="F6" s="138"/>
+      <c r="G6" s="138"/>
+      <c r="H6" s="138"/>
+      <c r="I6" s="138"/>
+      <c r="J6" s="139"/>
+      <c r="K6" s="140"/>
+      <c r="L6" s="141"/>
+      <c r="M6" s="160"/>
+      <c r="N6" s="161"/>
+      <c r="O6" s="161"/>
+      <c r="P6" s="161"/>
+      <c r="Q6" s="161"/>
+      <c r="R6" s="162"/>
+      <c r="S6" s="145"/>
+      <c r="T6" s="145"/>
+      <c r="U6" s="145"/>
+      <c r="V6" s="156"/>
+      <c r="W6" s="156"/>
+      <c r="X6" s="156"/>
+      <c r="Y6" s="156"/>
+      <c r="Z6" s="156"/>
+      <c r="AA6" s="156"/>
+      <c r="AB6" s="156"/>
+      <c r="AC6" s="156"/>
+      <c r="AD6" s="156"/>
+      <c r="AE6" s="156"/>
+      <c r="AF6" s="156"/>
+      <c r="AG6" s="156"/>
+      <c r="AH6" s="156"/>
+      <c r="AI6" s="156"/>
+      <c r="AJ6" s="156"/>
+      <c r="AK6" s="156"/>
+      <c r="AL6" s="156"/>
+      <c r="AM6" s="156"/>
+      <c r="AN6" s="145"/>
+      <c r="AO6" s="145"/>
+      <c r="AP6" s="145"/>
+      <c r="AQ6" s="145"/>
+      <c r="AR6" s="145"/>
+      <c r="AS6" s="145"/>
+      <c r="AT6" s="145"/>
+      <c r="AU6" s="145"/>
+      <c r="AV6" s="145"/>
+      <c r="AW6" s="145"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="50"/>
-      <c r="B7" s="131"/>
-      <c r="C7" s="131"/>
-      <c r="D7" s="131"/>
-      <c r="E7" s="132"/>
-      <c r="F7" s="132"/>
-      <c r="G7" s="132"/>
-      <c r="H7" s="132"/>
-      <c r="I7" s="132"/>
-      <c r="J7" s="133"/>
-      <c r="K7" s="134"/>
-      <c r="L7" s="135"/>
-      <c r="M7" s="136"/>
-      <c r="N7" s="137"/>
-      <c r="O7" s="137"/>
-      <c r="P7" s="137"/>
-      <c r="Q7" s="137"/>
-      <c r="R7" s="138"/>
-      <c r="S7" s="130"/>
-      <c r="T7" s="130"/>
-      <c r="U7" s="130"/>
-      <c r="V7" s="139"/>
-      <c r="W7" s="139"/>
-      <c r="X7" s="139"/>
-      <c r="Y7" s="139"/>
-      <c r="Z7" s="139"/>
-      <c r="AA7" s="139"/>
-      <c r="AB7" s="139"/>
-      <c r="AC7" s="139"/>
-      <c r="AD7" s="139"/>
-      <c r="AE7" s="139"/>
-      <c r="AF7" s="139"/>
-      <c r="AG7" s="139"/>
-      <c r="AH7" s="139"/>
-      <c r="AI7" s="139"/>
-      <c r="AJ7" s="139"/>
-      <c r="AK7" s="139"/>
-      <c r="AL7" s="139"/>
-      <c r="AM7" s="139"/>
-      <c r="AN7" s="130"/>
-      <c r="AO7" s="130"/>
-      <c r="AP7" s="130"/>
-      <c r="AQ7" s="130"/>
-      <c r="AR7" s="130"/>
-      <c r="AS7" s="130"/>
-      <c r="AT7" s="130"/>
-      <c r="AU7" s="130"/>
-      <c r="AV7" s="130"/>
-      <c r="AW7" s="130"/>
+      <c r="B7" s="157"/>
+      <c r="C7" s="157"/>
+      <c r="D7" s="157"/>
+      <c r="E7" s="138"/>
+      <c r="F7" s="138"/>
+      <c r="G7" s="138"/>
+      <c r="H7" s="138"/>
+      <c r="I7" s="138"/>
+      <c r="J7" s="139"/>
+      <c r="K7" s="140"/>
+      <c r="L7" s="141"/>
+      <c r="M7" s="160"/>
+      <c r="N7" s="161"/>
+      <c r="O7" s="161"/>
+      <c r="P7" s="161"/>
+      <c r="Q7" s="161"/>
+      <c r="R7" s="162"/>
+      <c r="S7" s="145"/>
+      <c r="T7" s="145"/>
+      <c r="U7" s="145"/>
+      <c r="V7" s="156"/>
+      <c r="W7" s="156"/>
+      <c r="X7" s="156"/>
+      <c r="Y7" s="156"/>
+      <c r="Z7" s="156"/>
+      <c r="AA7" s="156"/>
+      <c r="AB7" s="156"/>
+      <c r="AC7" s="156"/>
+      <c r="AD7" s="156"/>
+      <c r="AE7" s="156"/>
+      <c r="AF7" s="156"/>
+      <c r="AG7" s="156"/>
+      <c r="AH7" s="156"/>
+      <c r="AI7" s="156"/>
+      <c r="AJ7" s="156"/>
+      <c r="AK7" s="156"/>
+      <c r="AL7" s="156"/>
+      <c r="AM7" s="156"/>
+      <c r="AN7" s="145"/>
+      <c r="AO7" s="145"/>
+      <c r="AP7" s="145"/>
+      <c r="AQ7" s="145"/>
+      <c r="AR7" s="145"/>
+      <c r="AS7" s="145"/>
+      <c r="AT7" s="145"/>
+      <c r="AU7" s="145"/>
+      <c r="AV7" s="145"/>
+      <c r="AW7" s="145"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="50"/>
-      <c r="B8" s="131"/>
-      <c r="C8" s="131"/>
-      <c r="D8" s="131"/>
-      <c r="E8" s="132"/>
-      <c r="F8" s="132"/>
-      <c r="G8" s="132"/>
-      <c r="H8" s="132"/>
-      <c r="I8" s="132"/>
-      <c r="J8" s="133"/>
-      <c r="K8" s="134"/>
-      <c r="L8" s="135"/>
-      <c r="M8" s="136"/>
-      <c r="N8" s="137"/>
-      <c r="O8" s="137"/>
-      <c r="P8" s="137"/>
-      <c r="Q8" s="137"/>
-      <c r="R8" s="138"/>
-      <c r="S8" s="130"/>
-      <c r="T8" s="130"/>
-      <c r="U8" s="130"/>
-      <c r="V8" s="139"/>
-      <c r="W8" s="139"/>
-      <c r="X8" s="139"/>
-      <c r="Y8" s="139"/>
-      <c r="Z8" s="139"/>
-      <c r="AA8" s="139"/>
-      <c r="AB8" s="139"/>
-      <c r="AC8" s="139"/>
-      <c r="AD8" s="139"/>
-      <c r="AE8" s="139"/>
-      <c r="AF8" s="139"/>
-      <c r="AG8" s="139"/>
-      <c r="AH8" s="139"/>
-      <c r="AI8" s="139"/>
-      <c r="AJ8" s="139"/>
-      <c r="AK8" s="139"/>
-      <c r="AL8" s="139"/>
-      <c r="AM8" s="139"/>
-      <c r="AN8" s="130"/>
-      <c r="AO8" s="130"/>
-      <c r="AP8" s="130"/>
-      <c r="AQ8" s="130"/>
-      <c r="AR8" s="130"/>
-      <c r="AS8" s="130"/>
-      <c r="AT8" s="130"/>
-      <c r="AU8" s="130"/>
-      <c r="AV8" s="130"/>
-      <c r="AW8" s="130"/>
+      <c r="B8" s="157"/>
+      <c r="C8" s="157"/>
+      <c r="D8" s="157"/>
+      <c r="E8" s="138"/>
+      <c r="F8" s="138"/>
+      <c r="G8" s="138"/>
+      <c r="H8" s="138"/>
+      <c r="I8" s="138"/>
+      <c r="J8" s="139"/>
+      <c r="K8" s="140"/>
+      <c r="L8" s="141"/>
+      <c r="M8" s="160"/>
+      <c r="N8" s="161"/>
+      <c r="O8" s="161"/>
+      <c r="P8" s="161"/>
+      <c r="Q8" s="161"/>
+      <c r="R8" s="162"/>
+      <c r="S8" s="145"/>
+      <c r="T8" s="145"/>
+      <c r="U8" s="145"/>
+      <c r="V8" s="156"/>
+      <c r="W8" s="156"/>
+      <c r="X8" s="156"/>
+      <c r="Y8" s="156"/>
+      <c r="Z8" s="156"/>
+      <c r="AA8" s="156"/>
+      <c r="AB8" s="156"/>
+      <c r="AC8" s="156"/>
+      <c r="AD8" s="156"/>
+      <c r="AE8" s="156"/>
+      <c r="AF8" s="156"/>
+      <c r="AG8" s="156"/>
+      <c r="AH8" s="156"/>
+      <c r="AI8" s="156"/>
+      <c r="AJ8" s="156"/>
+      <c r="AK8" s="156"/>
+      <c r="AL8" s="156"/>
+      <c r="AM8" s="156"/>
+      <c r="AN8" s="145"/>
+      <c r="AO8" s="145"/>
+      <c r="AP8" s="145"/>
+      <c r="AQ8" s="145"/>
+      <c r="AR8" s="145"/>
+      <c r="AS8" s="145"/>
+      <c r="AT8" s="145"/>
+      <c r="AU8" s="145"/>
+      <c r="AV8" s="145"/>
+      <c r="AW8" s="145"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="50"/>
-      <c r="B9" s="131"/>
-      <c r="C9" s="131"/>
-      <c r="D9" s="131"/>
-      <c r="E9" s="132"/>
-      <c r="F9" s="132"/>
-      <c r="G9" s="132"/>
-      <c r="H9" s="132"/>
-      <c r="I9" s="132"/>
-      <c r="J9" s="133"/>
-      <c r="K9" s="134"/>
-      <c r="L9" s="135"/>
-      <c r="M9" s="136"/>
-      <c r="N9" s="137"/>
-      <c r="O9" s="137"/>
-      <c r="P9" s="137"/>
-      <c r="Q9" s="137"/>
-      <c r="R9" s="138"/>
-      <c r="S9" s="130"/>
-      <c r="T9" s="130"/>
-      <c r="U9" s="130"/>
-      <c r="V9" s="139"/>
-      <c r="W9" s="139"/>
-      <c r="X9" s="139"/>
-      <c r="Y9" s="139"/>
-      <c r="Z9" s="139"/>
-      <c r="AA9" s="139"/>
-      <c r="AB9" s="139"/>
-      <c r="AC9" s="139"/>
-      <c r="AD9" s="139"/>
-      <c r="AE9" s="139"/>
-      <c r="AF9" s="139"/>
-      <c r="AG9" s="139"/>
-      <c r="AH9" s="139"/>
-      <c r="AI9" s="139"/>
-      <c r="AJ9" s="139"/>
-      <c r="AK9" s="139"/>
-      <c r="AL9" s="139"/>
-      <c r="AM9" s="139"/>
-      <c r="AN9" s="130"/>
-      <c r="AO9" s="130"/>
-      <c r="AP9" s="130"/>
-      <c r="AQ9" s="130"/>
-      <c r="AR9" s="130"/>
-      <c r="AS9" s="130"/>
-      <c r="AT9" s="130"/>
-      <c r="AU9" s="130"/>
-      <c r="AV9" s="130"/>
-      <c r="AW9" s="130"/>
+      <c r="B9" s="157"/>
+      <c r="C9" s="157"/>
+      <c r="D9" s="157"/>
+      <c r="E9" s="138"/>
+      <c r="F9" s="138"/>
+      <c r="G9" s="138"/>
+      <c r="H9" s="138"/>
+      <c r="I9" s="138"/>
+      <c r="J9" s="139"/>
+      <c r="K9" s="140"/>
+      <c r="L9" s="141"/>
+      <c r="M9" s="160"/>
+      <c r="N9" s="161"/>
+      <c r="O9" s="161"/>
+      <c r="P9" s="161"/>
+      <c r="Q9" s="161"/>
+      <c r="R9" s="162"/>
+      <c r="S9" s="145"/>
+      <c r="T9" s="145"/>
+      <c r="U9" s="145"/>
+      <c r="V9" s="156"/>
+      <c r="W9" s="156"/>
+      <c r="X9" s="156"/>
+      <c r="Y9" s="156"/>
+      <c r="Z9" s="156"/>
+      <c r="AA9" s="156"/>
+      <c r="AB9" s="156"/>
+      <c r="AC9" s="156"/>
+      <c r="AD9" s="156"/>
+      <c r="AE9" s="156"/>
+      <c r="AF9" s="156"/>
+      <c r="AG9" s="156"/>
+      <c r="AH9" s="156"/>
+      <c r="AI9" s="156"/>
+      <c r="AJ9" s="156"/>
+      <c r="AK9" s="156"/>
+      <c r="AL9" s="156"/>
+      <c r="AM9" s="156"/>
+      <c r="AN9" s="145"/>
+      <c r="AO9" s="145"/>
+      <c r="AP9" s="145"/>
+      <c r="AQ9" s="145"/>
+      <c r="AR9" s="145"/>
+      <c r="AS9" s="145"/>
+      <c r="AT9" s="145"/>
+      <c r="AU9" s="145"/>
+      <c r="AV9" s="145"/>
+      <c r="AW9" s="145"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="50"/>
-      <c r="B10" s="131"/>
-      <c r="C10" s="131"/>
-      <c r="D10" s="131"/>
-      <c r="E10" s="132"/>
-      <c r="F10" s="132"/>
-      <c r="G10" s="132"/>
-      <c r="H10" s="132"/>
-      <c r="I10" s="132"/>
-      <c r="J10" s="133"/>
-      <c r="K10" s="134"/>
-      <c r="L10" s="135"/>
-      <c r="M10" s="136"/>
-      <c r="N10" s="137"/>
-      <c r="O10" s="137"/>
-      <c r="P10" s="137"/>
-      <c r="Q10" s="137"/>
-      <c r="R10" s="138"/>
-      <c r="S10" s="130"/>
-      <c r="T10" s="130"/>
-      <c r="U10" s="130"/>
-      <c r="V10" s="139"/>
-      <c r="W10" s="139"/>
-      <c r="X10" s="139"/>
-      <c r="Y10" s="139"/>
-      <c r="Z10" s="139"/>
-      <c r="AA10" s="139"/>
-      <c r="AB10" s="139"/>
-      <c r="AC10" s="139"/>
-      <c r="AD10" s="139"/>
-      <c r="AE10" s="139"/>
-      <c r="AF10" s="139"/>
-      <c r="AG10" s="139"/>
-      <c r="AH10" s="139"/>
-      <c r="AI10" s="139"/>
-      <c r="AJ10" s="139"/>
-      <c r="AK10" s="139"/>
-      <c r="AL10" s="139"/>
-      <c r="AM10" s="139"/>
-      <c r="AN10" s="130"/>
-      <c r="AO10" s="130"/>
-      <c r="AP10" s="130"/>
-      <c r="AQ10" s="130"/>
-      <c r="AR10" s="130"/>
-      <c r="AS10" s="130"/>
-      <c r="AT10" s="130"/>
-      <c r="AU10" s="130"/>
-      <c r="AV10" s="130"/>
-      <c r="AW10" s="130"/>
+      <c r="B10" s="157"/>
+      <c r="C10" s="157"/>
+      <c r="D10" s="157"/>
+      <c r="E10" s="138"/>
+      <c r="F10" s="138"/>
+      <c r="G10" s="138"/>
+      <c r="H10" s="138"/>
+      <c r="I10" s="138"/>
+      <c r="J10" s="139"/>
+      <c r="K10" s="140"/>
+      <c r="L10" s="141"/>
+      <c r="M10" s="160"/>
+      <c r="N10" s="161"/>
+      <c r="O10" s="161"/>
+      <c r="P10" s="161"/>
+      <c r="Q10" s="161"/>
+      <c r="R10" s="162"/>
+      <c r="S10" s="145"/>
+      <c r="T10" s="145"/>
+      <c r="U10" s="145"/>
+      <c r="V10" s="156"/>
+      <c r="W10" s="156"/>
+      <c r="X10" s="156"/>
+      <c r="Y10" s="156"/>
+      <c r="Z10" s="156"/>
+      <c r="AA10" s="156"/>
+      <c r="AB10" s="156"/>
+      <c r="AC10" s="156"/>
+      <c r="AD10" s="156"/>
+      <c r="AE10" s="156"/>
+      <c r="AF10" s="156"/>
+      <c r="AG10" s="156"/>
+      <c r="AH10" s="156"/>
+      <c r="AI10" s="156"/>
+      <c r="AJ10" s="156"/>
+      <c r="AK10" s="156"/>
+      <c r="AL10" s="156"/>
+      <c r="AM10" s="156"/>
+      <c r="AN10" s="145"/>
+      <c r="AO10" s="145"/>
+      <c r="AP10" s="145"/>
+      <c r="AQ10" s="145"/>
+      <c r="AR10" s="145"/>
+      <c r="AS10" s="145"/>
+      <c r="AT10" s="145"/>
+      <c r="AU10" s="145"/>
+      <c r="AV10" s="145"/>
+      <c r="AW10" s="145"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="50"/>
-      <c r="B11" s="131"/>
-      <c r="C11" s="131"/>
-      <c r="D11" s="131"/>
-      <c r="E11" s="132"/>
-      <c r="F11" s="132"/>
-      <c r="G11" s="132"/>
-      <c r="H11" s="132"/>
-      <c r="I11" s="132"/>
-      <c r="J11" s="133"/>
-      <c r="K11" s="134"/>
-      <c r="L11" s="135"/>
-      <c r="M11" s="143"/>
-      <c r="N11" s="144"/>
-      <c r="O11" s="144"/>
-      <c r="P11" s="144"/>
-      <c r="Q11" s="144"/>
-      <c r="R11" s="145"/>
-      <c r="S11" s="130"/>
-      <c r="T11" s="130"/>
-      <c r="U11" s="130"/>
+      <c r="B11" s="157"/>
+      <c r="C11" s="157"/>
+      <c r="D11" s="157"/>
+      <c r="E11" s="138"/>
+      <c r="F11" s="138"/>
+      <c r="G11" s="138"/>
+      <c r="H11" s="138"/>
+      <c r="I11" s="138"/>
+      <c r="J11" s="139"/>
+      <c r="K11" s="140"/>
+      <c r="L11" s="141"/>
+      <c r="M11" s="152"/>
+      <c r="N11" s="150"/>
+      <c r="O11" s="150"/>
+      <c r="P11" s="150"/>
+      <c r="Q11" s="150"/>
+      <c r="R11" s="151"/>
+      <c r="S11" s="145"/>
+      <c r="T11" s="145"/>
+      <c r="U11" s="145"/>
       <c r="V11" s="146"/>
-      <c r="W11" s="152"/>
-      <c r="X11" s="152"/>
-      <c r="Y11" s="152"/>
-      <c r="Z11" s="152"/>
-      <c r="AA11" s="152"/>
-      <c r="AB11" s="152"/>
-      <c r="AC11" s="152"/>
-      <c r="AD11" s="152"/>
-      <c r="AE11" s="152"/>
-      <c r="AF11" s="152"/>
-      <c r="AG11" s="152"/>
-      <c r="AH11" s="152"/>
-      <c r="AI11" s="152"/>
-      <c r="AJ11" s="152"/>
-      <c r="AK11" s="152"/>
-      <c r="AL11" s="152"/>
-      <c r="AM11" s="153"/>
-      <c r="AN11" s="130"/>
-      <c r="AO11" s="130"/>
-      <c r="AP11" s="130"/>
-      <c r="AQ11" s="130"/>
-      <c r="AR11" s="130"/>
-      <c r="AS11" s="130"/>
-      <c r="AT11" s="130"/>
-      <c r="AU11" s="130"/>
-      <c r="AV11" s="130"/>
-      <c r="AW11" s="130"/>
+      <c r="W11" s="158"/>
+      <c r="X11" s="158"/>
+      <c r="Y11" s="158"/>
+      <c r="Z11" s="158"/>
+      <c r="AA11" s="158"/>
+      <c r="AB11" s="158"/>
+      <c r="AC11" s="158"/>
+      <c r="AD11" s="158"/>
+      <c r="AE11" s="158"/>
+      <c r="AF11" s="158"/>
+      <c r="AG11" s="158"/>
+      <c r="AH11" s="158"/>
+      <c r="AI11" s="158"/>
+      <c r="AJ11" s="158"/>
+      <c r="AK11" s="158"/>
+      <c r="AL11" s="158"/>
+      <c r="AM11" s="159"/>
+      <c r="AN11" s="145"/>
+      <c r="AO11" s="145"/>
+      <c r="AP11" s="145"/>
+      <c r="AQ11" s="145"/>
+      <c r="AR11" s="145"/>
+      <c r="AS11" s="145"/>
+      <c r="AT11" s="145"/>
+      <c r="AU11" s="145"/>
+      <c r="AV11" s="145"/>
+      <c r="AW11" s="145"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="50"/>
-      <c r="B12" s="140"/>
-      <c r="C12" s="141"/>
-      <c r="D12" s="142"/>
-      <c r="E12" s="132"/>
-      <c r="F12" s="132"/>
-      <c r="G12" s="132"/>
-      <c r="H12" s="132"/>
-      <c r="I12" s="132"/>
-      <c r="J12" s="133"/>
-      <c r="K12" s="134"/>
-      <c r="L12" s="135"/>
-      <c r="M12" s="143"/>
-      <c r="N12" s="144"/>
-      <c r="O12" s="144"/>
-      <c r="P12" s="144"/>
-      <c r="Q12" s="144"/>
-      <c r="R12" s="145"/>
-      <c r="S12" s="130"/>
-      <c r="T12" s="130"/>
-      <c r="U12" s="130"/>
+      <c r="B12" s="135"/>
+      <c r="C12" s="136"/>
+      <c r="D12" s="137"/>
+      <c r="E12" s="138"/>
+      <c r="F12" s="138"/>
+      <c r="G12" s="138"/>
+      <c r="H12" s="138"/>
+      <c r="I12" s="138"/>
+      <c r="J12" s="139"/>
+      <c r="K12" s="140"/>
+      <c r="L12" s="141"/>
+      <c r="M12" s="152"/>
+      <c r="N12" s="150"/>
+      <c r="O12" s="150"/>
+      <c r="P12" s="150"/>
+      <c r="Q12" s="150"/>
+      <c r="R12" s="151"/>
+      <c r="S12" s="145"/>
+      <c r="T12" s="145"/>
+      <c r="U12" s="145"/>
       <c r="V12" s="146"/>
       <c r="W12" s="147"/>
       <c r="X12" s="147"/>
@@ -5625,39 +5625,39 @@
       <c r="AK12" s="147"/>
       <c r="AL12" s="147"/>
       <c r="AM12" s="148"/>
-      <c r="AN12" s="149"/>
-      <c r="AO12" s="150"/>
-      <c r="AP12" s="150"/>
-      <c r="AQ12" s="150"/>
-      <c r="AR12" s="151"/>
-      <c r="AS12" s="149"/>
-      <c r="AT12" s="150"/>
-      <c r="AU12" s="150"/>
-      <c r="AV12" s="150"/>
-      <c r="AW12" s="151"/>
+      <c r="AN12" s="132"/>
+      <c r="AO12" s="133"/>
+      <c r="AP12" s="133"/>
+      <c r="AQ12" s="133"/>
+      <c r="AR12" s="134"/>
+      <c r="AS12" s="132"/>
+      <c r="AT12" s="133"/>
+      <c r="AU12" s="133"/>
+      <c r="AV12" s="133"/>
+      <c r="AW12" s="134"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="50"/>
-      <c r="B13" s="140"/>
-      <c r="C13" s="141"/>
-      <c r="D13" s="142"/>
-      <c r="E13" s="132"/>
-      <c r="F13" s="132"/>
-      <c r="G13" s="132"/>
-      <c r="H13" s="132"/>
-      <c r="I13" s="132"/>
-      <c r="J13" s="133"/>
-      <c r="K13" s="134"/>
-      <c r="L13" s="135"/>
-      <c r="M13" s="154"/>
-      <c r="N13" s="144"/>
-      <c r="O13" s="144"/>
-      <c r="P13" s="144"/>
-      <c r="Q13" s="144"/>
-      <c r="R13" s="145"/>
-      <c r="S13" s="130"/>
-      <c r="T13" s="130"/>
-      <c r="U13" s="130"/>
+      <c r="B13" s="135"/>
+      <c r="C13" s="136"/>
+      <c r="D13" s="137"/>
+      <c r="E13" s="138"/>
+      <c r="F13" s="138"/>
+      <c r="G13" s="138"/>
+      <c r="H13" s="138"/>
+      <c r="I13" s="138"/>
+      <c r="J13" s="139"/>
+      <c r="K13" s="140"/>
+      <c r="L13" s="141"/>
+      <c r="M13" s="149"/>
+      <c r="N13" s="150"/>
+      <c r="O13" s="150"/>
+      <c r="P13" s="150"/>
+      <c r="Q13" s="150"/>
+      <c r="R13" s="151"/>
+      <c r="S13" s="145"/>
+      <c r="T13" s="145"/>
+      <c r="U13" s="145"/>
       <c r="V13" s="146"/>
       <c r="W13" s="147"/>
       <c r="X13" s="147"/>
@@ -5676,90 +5676,90 @@
       <c r="AK13" s="147"/>
       <c r="AL13" s="147"/>
       <c r="AM13" s="148"/>
-      <c r="AN13" s="149"/>
-      <c r="AO13" s="150"/>
-      <c r="AP13" s="150"/>
-      <c r="AQ13" s="150"/>
-      <c r="AR13" s="151"/>
-      <c r="AS13" s="149"/>
-      <c r="AT13" s="150"/>
-      <c r="AU13" s="150"/>
-      <c r="AV13" s="150"/>
-      <c r="AW13" s="151"/>
+      <c r="AN13" s="132"/>
+      <c r="AO13" s="133"/>
+      <c r="AP13" s="133"/>
+      <c r="AQ13" s="133"/>
+      <c r="AR13" s="134"/>
+      <c r="AS13" s="132"/>
+      <c r="AT13" s="133"/>
+      <c r="AU13" s="133"/>
+      <c r="AV13" s="133"/>
+      <c r="AW13" s="134"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="50"/>
-      <c r="B14" s="140"/>
-      <c r="C14" s="141"/>
-      <c r="D14" s="142"/>
-      <c r="E14" s="132"/>
-      <c r="F14" s="132"/>
-      <c r="G14" s="132"/>
-      <c r="H14" s="132"/>
-      <c r="I14" s="132"/>
-      <c r="J14" s="133"/>
-      <c r="K14" s="134"/>
-      <c r="L14" s="135"/>
-      <c r="M14" s="154"/>
-      <c r="N14" s="144"/>
-      <c r="O14" s="144"/>
-      <c r="P14" s="144"/>
-      <c r="Q14" s="144"/>
-      <c r="R14" s="145"/>
-      <c r="S14" s="130"/>
-      <c r="T14" s="130"/>
-      <c r="U14" s="130"/>
+      <c r="B14" s="135"/>
+      <c r="C14" s="136"/>
+      <c r="D14" s="137"/>
+      <c r="E14" s="138"/>
+      <c r="F14" s="138"/>
+      <c r="G14" s="138"/>
+      <c r="H14" s="138"/>
+      <c r="I14" s="138"/>
+      <c r="J14" s="139"/>
+      <c r="K14" s="140"/>
+      <c r="L14" s="141"/>
+      <c r="M14" s="149"/>
+      <c r="N14" s="150"/>
+      <c r="O14" s="150"/>
+      <c r="P14" s="150"/>
+      <c r="Q14" s="150"/>
+      <c r="R14" s="151"/>
+      <c r="S14" s="145"/>
+      <c r="T14" s="145"/>
+      <c r="U14" s="145"/>
       <c r="V14" s="155"/>
-      <c r="W14" s="139"/>
-      <c r="X14" s="139"/>
-      <c r="Y14" s="139"/>
-      <c r="Z14" s="139"/>
-      <c r="AA14" s="139"/>
-      <c r="AB14" s="139"/>
-      <c r="AC14" s="139"/>
-      <c r="AD14" s="139"/>
-      <c r="AE14" s="139"/>
-      <c r="AF14" s="139"/>
-      <c r="AG14" s="139"/>
-      <c r="AH14" s="139"/>
-      <c r="AI14" s="139"/>
-      <c r="AJ14" s="139"/>
-      <c r="AK14" s="139"/>
-      <c r="AL14" s="139"/>
-      <c r="AM14" s="139"/>
-      <c r="AN14" s="130"/>
-      <c r="AO14" s="130"/>
-      <c r="AP14" s="130"/>
-      <c r="AQ14" s="130"/>
-      <c r="AR14" s="130"/>
-      <c r="AS14" s="149"/>
-      <c r="AT14" s="150"/>
-      <c r="AU14" s="150"/>
-      <c r="AV14" s="150"/>
-      <c r="AW14" s="151"/>
+      <c r="W14" s="156"/>
+      <c r="X14" s="156"/>
+      <c r="Y14" s="156"/>
+      <c r="Z14" s="156"/>
+      <c r="AA14" s="156"/>
+      <c r="AB14" s="156"/>
+      <c r="AC14" s="156"/>
+      <c r="AD14" s="156"/>
+      <c r="AE14" s="156"/>
+      <c r="AF14" s="156"/>
+      <c r="AG14" s="156"/>
+      <c r="AH14" s="156"/>
+      <c r="AI14" s="156"/>
+      <c r="AJ14" s="156"/>
+      <c r="AK14" s="156"/>
+      <c r="AL14" s="156"/>
+      <c r="AM14" s="156"/>
+      <c r="AN14" s="145"/>
+      <c r="AO14" s="145"/>
+      <c r="AP14" s="145"/>
+      <c r="AQ14" s="145"/>
+      <c r="AR14" s="145"/>
+      <c r="AS14" s="132"/>
+      <c r="AT14" s="133"/>
+      <c r="AU14" s="133"/>
+      <c r="AV14" s="133"/>
+      <c r="AW14" s="134"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="50"/>
-      <c r="B15" s="140"/>
-      <c r="C15" s="141"/>
-      <c r="D15" s="142"/>
-      <c r="E15" s="132"/>
-      <c r="F15" s="132"/>
-      <c r="G15" s="132"/>
-      <c r="H15" s="132"/>
-      <c r="I15" s="132"/>
-      <c r="J15" s="133"/>
-      <c r="K15" s="134"/>
-      <c r="L15" s="135"/>
-      <c r="M15" s="143"/>
-      <c r="N15" s="144"/>
-      <c r="O15" s="144"/>
-      <c r="P15" s="144"/>
-      <c r="Q15" s="144"/>
-      <c r="R15" s="145"/>
-      <c r="S15" s="130"/>
-      <c r="T15" s="130"/>
-      <c r="U15" s="130"/>
+      <c r="B15" s="135"/>
+      <c r="C15" s="136"/>
+      <c r="D15" s="137"/>
+      <c r="E15" s="138"/>
+      <c r="F15" s="138"/>
+      <c r="G15" s="138"/>
+      <c r="H15" s="138"/>
+      <c r="I15" s="138"/>
+      <c r="J15" s="139"/>
+      <c r="K15" s="140"/>
+      <c r="L15" s="141"/>
+      <c r="M15" s="152"/>
+      <c r="N15" s="150"/>
+      <c r="O15" s="150"/>
+      <c r="P15" s="150"/>
+      <c r="Q15" s="150"/>
+      <c r="R15" s="151"/>
+      <c r="S15" s="145"/>
+      <c r="T15" s="145"/>
+      <c r="U15" s="145"/>
       <c r="V15" s="146"/>
       <c r="W15" s="147"/>
       <c r="X15" s="147"/>
@@ -5778,39 +5778,39 @@
       <c r="AK15" s="147"/>
       <c r="AL15" s="147"/>
       <c r="AM15" s="148"/>
-      <c r="AN15" s="149"/>
-      <c r="AO15" s="150"/>
-      <c r="AP15" s="150"/>
-      <c r="AQ15" s="150"/>
-      <c r="AR15" s="151"/>
-      <c r="AS15" s="149"/>
-      <c r="AT15" s="150"/>
-      <c r="AU15" s="150"/>
-      <c r="AV15" s="150"/>
-      <c r="AW15" s="151"/>
+      <c r="AN15" s="132"/>
+      <c r="AO15" s="133"/>
+      <c r="AP15" s="133"/>
+      <c r="AQ15" s="133"/>
+      <c r="AR15" s="134"/>
+      <c r="AS15" s="132"/>
+      <c r="AT15" s="133"/>
+      <c r="AU15" s="133"/>
+      <c r="AV15" s="133"/>
+      <c r="AW15" s="134"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="50"/>
-      <c r="B16" s="140"/>
-      <c r="C16" s="141"/>
-      <c r="D16" s="142"/>
-      <c r="E16" s="132"/>
-      <c r="F16" s="132"/>
-      <c r="G16" s="132"/>
-      <c r="H16" s="132"/>
-      <c r="I16" s="132"/>
-      <c r="J16" s="133"/>
-      <c r="K16" s="134"/>
-      <c r="L16" s="135"/>
-      <c r="M16" s="143"/>
-      <c r="N16" s="144"/>
-      <c r="O16" s="144"/>
-      <c r="P16" s="144"/>
-      <c r="Q16" s="144"/>
-      <c r="R16" s="145"/>
-      <c r="S16" s="130"/>
-      <c r="T16" s="130"/>
-      <c r="U16" s="130"/>
+      <c r="B16" s="135"/>
+      <c r="C16" s="136"/>
+      <c r="D16" s="137"/>
+      <c r="E16" s="138"/>
+      <c r="F16" s="138"/>
+      <c r="G16" s="138"/>
+      <c r="H16" s="138"/>
+      <c r="I16" s="138"/>
+      <c r="J16" s="139"/>
+      <c r="K16" s="140"/>
+      <c r="L16" s="141"/>
+      <c r="M16" s="152"/>
+      <c r="N16" s="150"/>
+      <c r="O16" s="150"/>
+      <c r="P16" s="150"/>
+      <c r="Q16" s="150"/>
+      <c r="R16" s="151"/>
+      <c r="S16" s="145"/>
+      <c r="T16" s="145"/>
+      <c r="U16" s="145"/>
       <c r="V16" s="146"/>
       <c r="W16" s="147"/>
       <c r="X16" s="147"/>
@@ -5829,39 +5829,39 @@
       <c r="AK16" s="147"/>
       <c r="AL16" s="147"/>
       <c r="AM16" s="148"/>
-      <c r="AN16" s="149"/>
-      <c r="AO16" s="150"/>
-      <c r="AP16" s="150"/>
-      <c r="AQ16" s="150"/>
-      <c r="AR16" s="151"/>
-      <c r="AS16" s="149"/>
-      <c r="AT16" s="150"/>
-      <c r="AU16" s="150"/>
-      <c r="AV16" s="150"/>
-      <c r="AW16" s="151"/>
+      <c r="AN16" s="132"/>
+      <c r="AO16" s="133"/>
+      <c r="AP16" s="133"/>
+      <c r="AQ16" s="133"/>
+      <c r="AR16" s="134"/>
+      <c r="AS16" s="132"/>
+      <c r="AT16" s="133"/>
+      <c r="AU16" s="133"/>
+      <c r="AV16" s="133"/>
+      <c r="AW16" s="134"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="50"/>
-      <c r="B17" s="140"/>
-      <c r="C17" s="141"/>
-      <c r="D17" s="142"/>
-      <c r="E17" s="132"/>
-      <c r="F17" s="132"/>
-      <c r="G17" s="132"/>
-      <c r="H17" s="132"/>
-      <c r="I17" s="132"/>
-      <c r="J17" s="133"/>
-      <c r="K17" s="134"/>
-      <c r="L17" s="135"/>
-      <c r="M17" s="143"/>
-      <c r="N17" s="144"/>
-      <c r="O17" s="144"/>
-      <c r="P17" s="144"/>
-      <c r="Q17" s="144"/>
-      <c r="R17" s="156"/>
-      <c r="S17" s="157"/>
-      <c r="T17" s="157"/>
-      <c r="U17" s="157"/>
+      <c r="B17" s="135"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="137"/>
+      <c r="E17" s="138"/>
+      <c r="F17" s="138"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="138"/>
+      <c r="J17" s="139"/>
+      <c r="K17" s="140"/>
+      <c r="L17" s="141"/>
+      <c r="M17" s="152"/>
+      <c r="N17" s="150"/>
+      <c r="O17" s="150"/>
+      <c r="P17" s="150"/>
+      <c r="Q17" s="150"/>
+      <c r="R17" s="153"/>
+      <c r="S17" s="154"/>
+      <c r="T17" s="154"/>
+      <c r="U17" s="154"/>
       <c r="V17" s="146"/>
       <c r="W17" s="147"/>
       <c r="X17" s="147"/>
@@ -5880,39 +5880,39 @@
       <c r="AK17" s="147"/>
       <c r="AL17" s="147"/>
       <c r="AM17" s="148"/>
-      <c r="AN17" s="149"/>
-      <c r="AO17" s="150"/>
-      <c r="AP17" s="150"/>
-      <c r="AQ17" s="150"/>
-      <c r="AR17" s="151"/>
-      <c r="AS17" s="149"/>
-      <c r="AT17" s="150"/>
-      <c r="AU17" s="150"/>
-      <c r="AV17" s="150"/>
-      <c r="AW17" s="151"/>
+      <c r="AN17" s="132"/>
+      <c r="AO17" s="133"/>
+      <c r="AP17" s="133"/>
+      <c r="AQ17" s="133"/>
+      <c r="AR17" s="134"/>
+      <c r="AS17" s="132"/>
+      <c r="AT17" s="133"/>
+      <c r="AU17" s="133"/>
+      <c r="AV17" s="133"/>
+      <c r="AW17" s="134"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="50"/>
-      <c r="B18" s="140"/>
-      <c r="C18" s="141"/>
-      <c r="D18" s="142"/>
-      <c r="E18" s="132"/>
-      <c r="F18" s="132"/>
-      <c r="G18" s="132"/>
-      <c r="H18" s="132"/>
-      <c r="I18" s="132"/>
-      <c r="J18" s="133"/>
-      <c r="K18" s="134"/>
-      <c r="L18" s="135"/>
-      <c r="M18" s="154"/>
-      <c r="N18" s="144"/>
-      <c r="O18" s="144"/>
-      <c r="P18" s="144"/>
-      <c r="Q18" s="144"/>
-      <c r="R18" s="145"/>
-      <c r="S18" s="130"/>
-      <c r="T18" s="130"/>
-      <c r="U18" s="130"/>
+      <c r="B18" s="135"/>
+      <c r="C18" s="136"/>
+      <c r="D18" s="137"/>
+      <c r="E18" s="138"/>
+      <c r="F18" s="138"/>
+      <c r="G18" s="138"/>
+      <c r="H18" s="138"/>
+      <c r="I18" s="138"/>
+      <c r="J18" s="139"/>
+      <c r="K18" s="140"/>
+      <c r="L18" s="141"/>
+      <c r="M18" s="149"/>
+      <c r="N18" s="150"/>
+      <c r="O18" s="150"/>
+      <c r="P18" s="150"/>
+      <c r="Q18" s="150"/>
+      <c r="R18" s="151"/>
+      <c r="S18" s="145"/>
+      <c r="T18" s="145"/>
+      <c r="U18" s="145"/>
       <c r="V18" s="146"/>
       <c r="W18" s="147"/>
       <c r="X18" s="147"/>
@@ -5931,39 +5931,39 @@
       <c r="AK18" s="147"/>
       <c r="AL18" s="147"/>
       <c r="AM18" s="148"/>
-      <c r="AN18" s="149"/>
-      <c r="AO18" s="150"/>
-      <c r="AP18" s="150"/>
-      <c r="AQ18" s="150"/>
-      <c r="AR18" s="151"/>
-      <c r="AS18" s="149"/>
-      <c r="AT18" s="150"/>
-      <c r="AU18" s="150"/>
-      <c r="AV18" s="150"/>
-      <c r="AW18" s="151"/>
+      <c r="AN18" s="132"/>
+      <c r="AO18" s="133"/>
+      <c r="AP18" s="133"/>
+      <c r="AQ18" s="133"/>
+      <c r="AR18" s="134"/>
+      <c r="AS18" s="132"/>
+      <c r="AT18" s="133"/>
+      <c r="AU18" s="133"/>
+      <c r="AV18" s="133"/>
+      <c r="AW18" s="134"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="50"/>
-      <c r="B19" s="140"/>
-      <c r="C19" s="141"/>
-      <c r="D19" s="142"/>
-      <c r="E19" s="132"/>
-      <c r="F19" s="132"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="132"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="133"/>
-      <c r="K19" s="134"/>
-      <c r="L19" s="135"/>
-      <c r="M19" s="143"/>
-      <c r="N19" s="144"/>
-      <c r="O19" s="144"/>
-      <c r="P19" s="144"/>
-      <c r="Q19" s="144"/>
-      <c r="R19" s="145"/>
-      <c r="S19" s="130"/>
-      <c r="T19" s="130"/>
-      <c r="U19" s="130"/>
+      <c r="B19" s="135"/>
+      <c r="C19" s="136"/>
+      <c r="D19" s="137"/>
+      <c r="E19" s="138"/>
+      <c r="F19" s="138"/>
+      <c r="G19" s="138"/>
+      <c r="H19" s="138"/>
+      <c r="I19" s="138"/>
+      <c r="J19" s="139"/>
+      <c r="K19" s="140"/>
+      <c r="L19" s="141"/>
+      <c r="M19" s="152"/>
+      <c r="N19" s="150"/>
+      <c r="O19" s="150"/>
+      <c r="P19" s="150"/>
+      <c r="Q19" s="150"/>
+      <c r="R19" s="151"/>
+      <c r="S19" s="145"/>
+      <c r="T19" s="145"/>
+      <c r="U19" s="145"/>
       <c r="V19" s="146"/>
       <c r="W19" s="147"/>
       <c r="X19" s="147"/>
@@ -5982,39 +5982,39 @@
       <c r="AK19" s="147"/>
       <c r="AL19" s="147"/>
       <c r="AM19" s="148"/>
-      <c r="AN19" s="130"/>
-      <c r="AO19" s="130"/>
-      <c r="AP19" s="130"/>
-      <c r="AQ19" s="130"/>
-      <c r="AR19" s="130"/>
-      <c r="AS19" s="149"/>
-      <c r="AT19" s="150"/>
-      <c r="AU19" s="150"/>
-      <c r="AV19" s="150"/>
-      <c r="AW19" s="151"/>
+      <c r="AN19" s="145"/>
+      <c r="AO19" s="145"/>
+      <c r="AP19" s="145"/>
+      <c r="AQ19" s="145"/>
+      <c r="AR19" s="145"/>
+      <c r="AS19" s="132"/>
+      <c r="AT19" s="133"/>
+      <c r="AU19" s="133"/>
+      <c r="AV19" s="133"/>
+      <c r="AW19" s="134"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="50"/>
-      <c r="B20" s="140"/>
-      <c r="C20" s="141"/>
-      <c r="D20" s="142"/>
-      <c r="E20" s="132"/>
-      <c r="F20" s="132"/>
-      <c r="G20" s="132"/>
-      <c r="H20" s="132"/>
-      <c r="I20" s="132"/>
-      <c r="J20" s="133"/>
-      <c r="K20" s="134"/>
-      <c r="L20" s="135"/>
-      <c r="M20" s="143"/>
-      <c r="N20" s="144"/>
-      <c r="O20" s="144"/>
-      <c r="P20" s="144"/>
-      <c r="Q20" s="144"/>
-      <c r="R20" s="145"/>
-      <c r="S20" s="149"/>
-      <c r="T20" s="150"/>
-      <c r="U20" s="151"/>
+      <c r="B20" s="135"/>
+      <c r="C20" s="136"/>
+      <c r="D20" s="137"/>
+      <c r="E20" s="138"/>
+      <c r="F20" s="138"/>
+      <c r="G20" s="138"/>
+      <c r="H20" s="138"/>
+      <c r="I20" s="138"/>
+      <c r="J20" s="139"/>
+      <c r="K20" s="140"/>
+      <c r="L20" s="141"/>
+      <c r="M20" s="152"/>
+      <c r="N20" s="150"/>
+      <c r="O20" s="150"/>
+      <c r="P20" s="150"/>
+      <c r="Q20" s="150"/>
+      <c r="R20" s="151"/>
+      <c r="S20" s="132"/>
+      <c r="T20" s="133"/>
+      <c r="U20" s="134"/>
       <c r="V20" s="146"/>
       <c r="W20" s="147"/>
       <c r="X20" s="147"/>
@@ -6033,39 +6033,39 @@
       <c r="AK20" s="147"/>
       <c r="AL20" s="147"/>
       <c r="AM20" s="148"/>
-      <c r="AN20" s="149"/>
-      <c r="AO20" s="150"/>
-      <c r="AP20" s="150"/>
-      <c r="AQ20" s="150"/>
-      <c r="AR20" s="151"/>
-      <c r="AS20" s="149"/>
-      <c r="AT20" s="150"/>
-      <c r="AU20" s="150"/>
-      <c r="AV20" s="150"/>
-      <c r="AW20" s="151"/>
+      <c r="AN20" s="132"/>
+      <c r="AO20" s="133"/>
+      <c r="AP20" s="133"/>
+      <c r="AQ20" s="133"/>
+      <c r="AR20" s="134"/>
+      <c r="AS20" s="132"/>
+      <c r="AT20" s="133"/>
+      <c r="AU20" s="133"/>
+      <c r="AV20" s="133"/>
+      <c r="AW20" s="134"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="50"/>
-      <c r="B21" s="140"/>
-      <c r="C21" s="141"/>
-      <c r="D21" s="142"/>
-      <c r="E21" s="132"/>
-      <c r="F21" s="132"/>
-      <c r="G21" s="132"/>
-      <c r="H21" s="132"/>
-      <c r="I21" s="132"/>
-      <c r="J21" s="133"/>
-      <c r="K21" s="134"/>
-      <c r="L21" s="135"/>
-      <c r="M21" s="143"/>
-      <c r="N21" s="144"/>
-      <c r="O21" s="144"/>
-      <c r="P21" s="144"/>
-      <c r="Q21" s="144"/>
-      <c r="R21" s="145"/>
-      <c r="S21" s="130"/>
-      <c r="T21" s="130"/>
-      <c r="U21" s="130"/>
+      <c r="B21" s="135"/>
+      <c r="C21" s="136"/>
+      <c r="D21" s="137"/>
+      <c r="E21" s="138"/>
+      <c r="F21" s="138"/>
+      <c r="G21" s="138"/>
+      <c r="H21" s="138"/>
+      <c r="I21" s="138"/>
+      <c r="J21" s="139"/>
+      <c r="K21" s="140"/>
+      <c r="L21" s="141"/>
+      <c r="M21" s="152"/>
+      <c r="N21" s="150"/>
+      <c r="O21" s="150"/>
+      <c r="P21" s="150"/>
+      <c r="Q21" s="150"/>
+      <c r="R21" s="151"/>
+      <c r="S21" s="145"/>
+      <c r="T21" s="145"/>
+      <c r="U21" s="145"/>
       <c r="V21" s="146"/>
       <c r="W21" s="147"/>
       <c r="X21" s="147"/>
@@ -6084,39 +6084,39 @@
       <c r="AK21" s="147"/>
       <c r="AL21" s="147"/>
       <c r="AM21" s="148"/>
-      <c r="AN21" s="149"/>
-      <c r="AO21" s="150"/>
-      <c r="AP21" s="150"/>
-      <c r="AQ21" s="150"/>
-      <c r="AR21" s="151"/>
-      <c r="AS21" s="149"/>
-      <c r="AT21" s="150"/>
-      <c r="AU21" s="150"/>
-      <c r="AV21" s="150"/>
-      <c r="AW21" s="151"/>
+      <c r="AN21" s="132"/>
+      <c r="AO21" s="133"/>
+      <c r="AP21" s="133"/>
+      <c r="AQ21" s="133"/>
+      <c r="AR21" s="134"/>
+      <c r="AS21" s="132"/>
+      <c r="AT21" s="133"/>
+      <c r="AU21" s="133"/>
+      <c r="AV21" s="133"/>
+      <c r="AW21" s="134"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="50"/>
-      <c r="B22" s="140"/>
-      <c r="C22" s="141"/>
-      <c r="D22" s="142"/>
-      <c r="E22" s="132"/>
-      <c r="F22" s="132"/>
-      <c r="G22" s="132"/>
-      <c r="H22" s="132"/>
-      <c r="I22" s="132"/>
-      <c r="J22" s="133"/>
-      <c r="K22" s="134"/>
-      <c r="L22" s="135"/>
-      <c r="M22" s="143"/>
-      <c r="N22" s="144"/>
-      <c r="O22" s="144"/>
-      <c r="P22" s="144"/>
-      <c r="Q22" s="144"/>
-      <c r="R22" s="145"/>
-      <c r="S22" s="130"/>
-      <c r="T22" s="130"/>
-      <c r="U22" s="130"/>
+      <c r="B22" s="135"/>
+      <c r="C22" s="136"/>
+      <c r="D22" s="137"/>
+      <c r="E22" s="138"/>
+      <c r="F22" s="138"/>
+      <c r="G22" s="138"/>
+      <c r="H22" s="138"/>
+      <c r="I22" s="138"/>
+      <c r="J22" s="139"/>
+      <c r="K22" s="140"/>
+      <c r="L22" s="141"/>
+      <c r="M22" s="152"/>
+      <c r="N22" s="150"/>
+      <c r="O22" s="150"/>
+      <c r="P22" s="150"/>
+      <c r="Q22" s="150"/>
+      <c r="R22" s="151"/>
+      <c r="S22" s="145"/>
+      <c r="T22" s="145"/>
+      <c r="U22" s="145"/>
       <c r="V22" s="146"/>
       <c r="W22" s="147"/>
       <c r="X22" s="147"/>
@@ -6135,39 +6135,39 @@
       <c r="AK22" s="147"/>
       <c r="AL22" s="147"/>
       <c r="AM22" s="148"/>
-      <c r="AN22" s="149"/>
-      <c r="AO22" s="150"/>
-      <c r="AP22" s="150"/>
-      <c r="AQ22" s="150"/>
-      <c r="AR22" s="151"/>
-      <c r="AS22" s="149"/>
-      <c r="AT22" s="150"/>
-      <c r="AU22" s="150"/>
-      <c r="AV22" s="150"/>
-      <c r="AW22" s="151"/>
+      <c r="AN22" s="132"/>
+      <c r="AO22" s="133"/>
+      <c r="AP22" s="133"/>
+      <c r="AQ22" s="133"/>
+      <c r="AR22" s="134"/>
+      <c r="AS22" s="132"/>
+      <c r="AT22" s="133"/>
+      <c r="AU22" s="133"/>
+      <c r="AV22" s="133"/>
+      <c r="AW22" s="134"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="48"/>
-      <c r="B23" s="140"/>
-      <c r="C23" s="141"/>
-      <c r="D23" s="142"/>
-      <c r="E23" s="132"/>
-      <c r="F23" s="132"/>
-      <c r="G23" s="132"/>
-      <c r="H23" s="132"/>
-      <c r="I23" s="132"/>
-      <c r="J23" s="133"/>
-      <c r="K23" s="134"/>
-      <c r="L23" s="135"/>
-      <c r="M23" s="143"/>
-      <c r="N23" s="144"/>
-      <c r="O23" s="144"/>
-      <c r="P23" s="144"/>
-      <c r="Q23" s="144"/>
-      <c r="R23" s="145"/>
-      <c r="S23" s="130"/>
-      <c r="T23" s="130"/>
-      <c r="U23" s="130"/>
+      <c r="B23" s="135"/>
+      <c r="C23" s="136"/>
+      <c r="D23" s="137"/>
+      <c r="E23" s="138"/>
+      <c r="F23" s="138"/>
+      <c r="G23" s="138"/>
+      <c r="H23" s="138"/>
+      <c r="I23" s="138"/>
+      <c r="J23" s="139"/>
+      <c r="K23" s="140"/>
+      <c r="L23" s="141"/>
+      <c r="M23" s="152"/>
+      <c r="N23" s="150"/>
+      <c r="O23" s="150"/>
+      <c r="P23" s="150"/>
+      <c r="Q23" s="150"/>
+      <c r="R23" s="151"/>
+      <c r="S23" s="145"/>
+      <c r="T23" s="145"/>
+      <c r="U23" s="145"/>
       <c r="V23" s="146"/>
       <c r="W23" s="147"/>
       <c r="X23" s="147"/>
@@ -6186,39 +6186,39 @@
       <c r="AK23" s="147"/>
       <c r="AL23" s="147"/>
       <c r="AM23" s="148"/>
-      <c r="AN23" s="149"/>
-      <c r="AO23" s="150"/>
-      <c r="AP23" s="150"/>
-      <c r="AQ23" s="150"/>
-      <c r="AR23" s="151"/>
-      <c r="AS23" s="149"/>
-      <c r="AT23" s="150"/>
-      <c r="AU23" s="150"/>
-      <c r="AV23" s="150"/>
-      <c r="AW23" s="151"/>
+      <c r="AN23" s="132"/>
+      <c r="AO23" s="133"/>
+      <c r="AP23" s="133"/>
+      <c r="AQ23" s="133"/>
+      <c r="AR23" s="134"/>
+      <c r="AS23" s="132"/>
+      <c r="AT23" s="133"/>
+      <c r="AU23" s="133"/>
+      <c r="AV23" s="133"/>
+      <c r="AW23" s="134"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="48"/>
-      <c r="B24" s="140"/>
-      <c r="C24" s="141"/>
-      <c r="D24" s="142"/>
-      <c r="E24" s="132"/>
-      <c r="F24" s="132"/>
-      <c r="G24" s="132"/>
-      <c r="H24" s="132"/>
-      <c r="I24" s="132"/>
-      <c r="J24" s="133"/>
-      <c r="K24" s="134"/>
-      <c r="L24" s="135"/>
-      <c r="M24" s="143"/>
-      <c r="N24" s="144"/>
-      <c r="O24" s="144"/>
-      <c r="P24" s="144"/>
-      <c r="Q24" s="144"/>
-      <c r="R24" s="145"/>
-      <c r="S24" s="130"/>
-      <c r="T24" s="130"/>
-      <c r="U24" s="130"/>
+      <c r="B24" s="135"/>
+      <c r="C24" s="136"/>
+      <c r="D24" s="137"/>
+      <c r="E24" s="138"/>
+      <c r="F24" s="138"/>
+      <c r="G24" s="138"/>
+      <c r="H24" s="138"/>
+      <c r="I24" s="138"/>
+      <c r="J24" s="139"/>
+      <c r="K24" s="140"/>
+      <c r="L24" s="141"/>
+      <c r="M24" s="152"/>
+      <c r="N24" s="150"/>
+      <c r="O24" s="150"/>
+      <c r="P24" s="150"/>
+      <c r="Q24" s="150"/>
+      <c r="R24" s="151"/>
+      <c r="S24" s="145"/>
+      <c r="T24" s="145"/>
+      <c r="U24" s="145"/>
       <c r="V24" s="146"/>
       <c r="W24" s="147"/>
       <c r="X24" s="147"/>
@@ -6237,39 +6237,39 @@
       <c r="AK24" s="147"/>
       <c r="AL24" s="147"/>
       <c r="AM24" s="148"/>
-      <c r="AN24" s="149"/>
-      <c r="AO24" s="150"/>
-      <c r="AP24" s="150"/>
-      <c r="AQ24" s="150"/>
-      <c r="AR24" s="151"/>
-      <c r="AS24" s="149"/>
-      <c r="AT24" s="150"/>
-      <c r="AU24" s="150"/>
-      <c r="AV24" s="150"/>
-      <c r="AW24" s="151"/>
+      <c r="AN24" s="132"/>
+      <c r="AO24" s="133"/>
+      <c r="AP24" s="133"/>
+      <c r="AQ24" s="133"/>
+      <c r="AR24" s="134"/>
+      <c r="AS24" s="132"/>
+      <c r="AT24" s="133"/>
+      <c r="AU24" s="133"/>
+      <c r="AV24" s="133"/>
+      <c r="AW24" s="134"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="48"/>
-      <c r="B25" s="140"/>
-      <c r="C25" s="141"/>
-      <c r="D25" s="142"/>
-      <c r="E25" s="132"/>
-      <c r="F25" s="132"/>
-      <c r="G25" s="132"/>
-      <c r="H25" s="132"/>
-      <c r="I25" s="132"/>
-      <c r="J25" s="133"/>
-      <c r="K25" s="134"/>
-      <c r="L25" s="135"/>
-      <c r="M25" s="154"/>
-      <c r="N25" s="144"/>
-      <c r="O25" s="144"/>
-      <c r="P25" s="144"/>
-      <c r="Q25" s="144"/>
-      <c r="R25" s="145"/>
-      <c r="S25" s="130"/>
-      <c r="T25" s="130"/>
-      <c r="U25" s="130"/>
+      <c r="B25" s="135"/>
+      <c r="C25" s="136"/>
+      <c r="D25" s="137"/>
+      <c r="E25" s="138"/>
+      <c r="F25" s="138"/>
+      <c r="G25" s="138"/>
+      <c r="H25" s="138"/>
+      <c r="I25" s="138"/>
+      <c r="J25" s="139"/>
+      <c r="K25" s="140"/>
+      <c r="L25" s="141"/>
+      <c r="M25" s="149"/>
+      <c r="N25" s="150"/>
+      <c r="O25" s="150"/>
+      <c r="P25" s="150"/>
+      <c r="Q25" s="150"/>
+      <c r="R25" s="151"/>
+      <c r="S25" s="145"/>
+      <c r="T25" s="145"/>
+      <c r="U25" s="145"/>
       <c r="V25" s="146"/>
       <c r="W25" s="147"/>
       <c r="X25" s="147"/>
@@ -6288,39 +6288,39 @@
       <c r="AK25" s="147"/>
       <c r="AL25" s="147"/>
       <c r="AM25" s="148"/>
-      <c r="AN25" s="149"/>
-      <c r="AO25" s="150"/>
-      <c r="AP25" s="150"/>
-      <c r="AQ25" s="150"/>
-      <c r="AR25" s="151"/>
-      <c r="AS25" s="149"/>
-      <c r="AT25" s="150"/>
-      <c r="AU25" s="150"/>
-      <c r="AV25" s="150"/>
-      <c r="AW25" s="151"/>
+      <c r="AN25" s="132"/>
+      <c r="AO25" s="133"/>
+      <c r="AP25" s="133"/>
+      <c r="AQ25" s="133"/>
+      <c r="AR25" s="134"/>
+      <c r="AS25" s="132"/>
+      <c r="AT25" s="133"/>
+      <c r="AU25" s="133"/>
+      <c r="AV25" s="133"/>
+      <c r="AW25" s="134"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="48"/>
-      <c r="B26" s="140"/>
-      <c r="C26" s="141"/>
-      <c r="D26" s="142"/>
-      <c r="E26" s="132"/>
-      <c r="F26" s="132"/>
-      <c r="G26" s="132"/>
-      <c r="H26" s="132"/>
-      <c r="I26" s="132"/>
-      <c r="J26" s="133"/>
-      <c r="K26" s="134"/>
-      <c r="L26" s="135"/>
-      <c r="M26" s="154"/>
-      <c r="N26" s="144"/>
-      <c r="O26" s="144"/>
-      <c r="P26" s="144"/>
-      <c r="Q26" s="144"/>
-      <c r="R26" s="145"/>
-      <c r="S26" s="130"/>
-      <c r="T26" s="130"/>
-      <c r="U26" s="130"/>
+      <c r="B26" s="135"/>
+      <c r="C26" s="136"/>
+      <c r="D26" s="137"/>
+      <c r="E26" s="138"/>
+      <c r="F26" s="138"/>
+      <c r="G26" s="138"/>
+      <c r="H26" s="138"/>
+      <c r="I26" s="138"/>
+      <c r="J26" s="139"/>
+      <c r="K26" s="140"/>
+      <c r="L26" s="141"/>
+      <c r="M26" s="149"/>
+      <c r="N26" s="150"/>
+      <c r="O26" s="150"/>
+      <c r="P26" s="150"/>
+      <c r="Q26" s="150"/>
+      <c r="R26" s="151"/>
+      <c r="S26" s="145"/>
+      <c r="T26" s="145"/>
+      <c r="U26" s="145"/>
       <c r="V26" s="146"/>
       <c r="W26" s="147"/>
       <c r="X26" s="147"/>
@@ -6339,39 +6339,39 @@
       <c r="AK26" s="147"/>
       <c r="AL26" s="147"/>
       <c r="AM26" s="148"/>
-      <c r="AN26" s="149"/>
-      <c r="AO26" s="150"/>
-      <c r="AP26" s="150"/>
-      <c r="AQ26" s="150"/>
-      <c r="AR26" s="151"/>
-      <c r="AS26" s="149"/>
-      <c r="AT26" s="150"/>
-      <c r="AU26" s="150"/>
-      <c r="AV26" s="150"/>
-      <c r="AW26" s="151"/>
+      <c r="AN26" s="132"/>
+      <c r="AO26" s="133"/>
+      <c r="AP26" s="133"/>
+      <c r="AQ26" s="133"/>
+      <c r="AR26" s="134"/>
+      <c r="AS26" s="132"/>
+      <c r="AT26" s="133"/>
+      <c r="AU26" s="133"/>
+      <c r="AV26" s="133"/>
+      <c r="AW26" s="134"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="48"/>
-      <c r="B27" s="140"/>
-      <c r="C27" s="141"/>
-      <c r="D27" s="142"/>
-      <c r="E27" s="132"/>
-      <c r="F27" s="132"/>
-      <c r="G27" s="132"/>
-      <c r="H27" s="132"/>
-      <c r="I27" s="132"/>
-      <c r="J27" s="133"/>
-      <c r="K27" s="134"/>
-      <c r="L27" s="135"/>
-      <c r="M27" s="154"/>
-      <c r="N27" s="144"/>
-      <c r="O27" s="144"/>
-      <c r="P27" s="144"/>
-      <c r="Q27" s="144"/>
-      <c r="R27" s="145"/>
-      <c r="S27" s="130"/>
-      <c r="T27" s="130"/>
-      <c r="U27" s="130"/>
+      <c r="B27" s="135"/>
+      <c r="C27" s="136"/>
+      <c r="D27" s="137"/>
+      <c r="E27" s="138"/>
+      <c r="F27" s="138"/>
+      <c r="G27" s="138"/>
+      <c r="H27" s="138"/>
+      <c r="I27" s="138"/>
+      <c r="J27" s="139"/>
+      <c r="K27" s="140"/>
+      <c r="L27" s="141"/>
+      <c r="M27" s="149"/>
+      <c r="N27" s="150"/>
+      <c r="O27" s="150"/>
+      <c r="P27" s="150"/>
+      <c r="Q27" s="150"/>
+      <c r="R27" s="151"/>
+      <c r="S27" s="145"/>
+      <c r="T27" s="145"/>
+      <c r="U27" s="145"/>
       <c r="V27" s="146"/>
       <c r="W27" s="147"/>
       <c r="X27" s="147"/>
@@ -6390,39 +6390,39 @@
       <c r="AK27" s="147"/>
       <c r="AL27" s="147"/>
       <c r="AM27" s="148"/>
-      <c r="AN27" s="149"/>
-      <c r="AO27" s="150"/>
-      <c r="AP27" s="150"/>
-      <c r="AQ27" s="150"/>
-      <c r="AR27" s="151"/>
-      <c r="AS27" s="149"/>
-      <c r="AT27" s="150"/>
-      <c r="AU27" s="150"/>
-      <c r="AV27" s="150"/>
-      <c r="AW27" s="151"/>
+      <c r="AN27" s="132"/>
+      <c r="AO27" s="133"/>
+      <c r="AP27" s="133"/>
+      <c r="AQ27" s="133"/>
+      <c r="AR27" s="134"/>
+      <c r="AS27" s="132"/>
+      <c r="AT27" s="133"/>
+      <c r="AU27" s="133"/>
+      <c r="AV27" s="133"/>
+      <c r="AW27" s="134"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="48"/>
-      <c r="B28" s="140"/>
-      <c r="C28" s="141"/>
-      <c r="D28" s="142"/>
-      <c r="E28" s="132"/>
-      <c r="F28" s="132"/>
-      <c r="G28" s="132"/>
-      <c r="H28" s="132"/>
-      <c r="I28" s="132"/>
-      <c r="J28" s="133"/>
-      <c r="K28" s="134"/>
-      <c r="L28" s="135"/>
-      <c r="M28" s="143"/>
-      <c r="N28" s="144"/>
-      <c r="O28" s="144"/>
-      <c r="P28" s="144"/>
-      <c r="Q28" s="144"/>
-      <c r="R28" s="145"/>
-      <c r="S28" s="130"/>
-      <c r="T28" s="130"/>
-      <c r="U28" s="130"/>
+      <c r="B28" s="135"/>
+      <c r="C28" s="136"/>
+      <c r="D28" s="137"/>
+      <c r="E28" s="138"/>
+      <c r="F28" s="138"/>
+      <c r="G28" s="138"/>
+      <c r="H28" s="138"/>
+      <c r="I28" s="138"/>
+      <c r="J28" s="139"/>
+      <c r="K28" s="140"/>
+      <c r="L28" s="141"/>
+      <c r="M28" s="152"/>
+      <c r="N28" s="150"/>
+      <c r="O28" s="150"/>
+      <c r="P28" s="150"/>
+      <c r="Q28" s="150"/>
+      <c r="R28" s="151"/>
+      <c r="S28" s="145"/>
+      <c r="T28" s="145"/>
+      <c r="U28" s="145"/>
       <c r="V28" s="146"/>
       <c r="W28" s="147"/>
       <c r="X28" s="147"/>
@@ -6441,39 +6441,39 @@
       <c r="AK28" s="147"/>
       <c r="AL28" s="147"/>
       <c r="AM28" s="148"/>
-      <c r="AN28" s="149"/>
-      <c r="AO28" s="150"/>
-      <c r="AP28" s="150"/>
-      <c r="AQ28" s="150"/>
-      <c r="AR28" s="151"/>
-      <c r="AS28" s="149"/>
-      <c r="AT28" s="150"/>
-      <c r="AU28" s="150"/>
-      <c r="AV28" s="150"/>
-      <c r="AW28" s="151"/>
+      <c r="AN28" s="132"/>
+      <c r="AO28" s="133"/>
+      <c r="AP28" s="133"/>
+      <c r="AQ28" s="133"/>
+      <c r="AR28" s="134"/>
+      <c r="AS28" s="132"/>
+      <c r="AT28" s="133"/>
+      <c r="AU28" s="133"/>
+      <c r="AV28" s="133"/>
+      <c r="AW28" s="134"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="48"/>
-      <c r="B29" s="140"/>
-      <c r="C29" s="141"/>
-      <c r="D29" s="142"/>
-      <c r="E29" s="132"/>
-      <c r="F29" s="132"/>
-      <c r="G29" s="132"/>
-      <c r="H29" s="132"/>
-      <c r="I29" s="132"/>
-      <c r="J29" s="133"/>
-      <c r="K29" s="134"/>
-      <c r="L29" s="135"/>
-      <c r="M29" s="143"/>
-      <c r="N29" s="144"/>
-      <c r="O29" s="144"/>
-      <c r="P29" s="144"/>
-      <c r="Q29" s="144"/>
-      <c r="R29" s="145"/>
-      <c r="S29" s="130"/>
-      <c r="T29" s="130"/>
-      <c r="U29" s="130"/>
+      <c r="B29" s="135"/>
+      <c r="C29" s="136"/>
+      <c r="D29" s="137"/>
+      <c r="E29" s="138"/>
+      <c r="F29" s="138"/>
+      <c r="G29" s="138"/>
+      <c r="H29" s="138"/>
+      <c r="I29" s="138"/>
+      <c r="J29" s="139"/>
+      <c r="K29" s="140"/>
+      <c r="L29" s="141"/>
+      <c r="M29" s="152"/>
+      <c r="N29" s="150"/>
+      <c r="O29" s="150"/>
+      <c r="P29" s="150"/>
+      <c r="Q29" s="150"/>
+      <c r="R29" s="151"/>
+      <c r="S29" s="145"/>
+      <c r="T29" s="145"/>
+      <c r="U29" s="145"/>
       <c r="V29" s="146"/>
       <c r="W29" s="147"/>
       <c r="X29" s="147"/>
@@ -6492,39 +6492,39 @@
       <c r="AK29" s="147"/>
       <c r="AL29" s="147"/>
       <c r="AM29" s="148"/>
-      <c r="AN29" s="149"/>
-      <c r="AO29" s="150"/>
-      <c r="AP29" s="150"/>
-      <c r="AQ29" s="150"/>
-      <c r="AR29" s="151"/>
-      <c r="AS29" s="149"/>
-      <c r="AT29" s="150"/>
-      <c r="AU29" s="150"/>
-      <c r="AV29" s="150"/>
-      <c r="AW29" s="151"/>
+      <c r="AN29" s="132"/>
+      <c r="AO29" s="133"/>
+      <c r="AP29" s="133"/>
+      <c r="AQ29" s="133"/>
+      <c r="AR29" s="134"/>
+      <c r="AS29" s="132"/>
+      <c r="AT29" s="133"/>
+      <c r="AU29" s="133"/>
+      <c r="AV29" s="133"/>
+      <c r="AW29" s="134"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="48"/>
-      <c r="B30" s="140"/>
-      <c r="C30" s="141"/>
-      <c r="D30" s="142"/>
-      <c r="E30" s="132"/>
-      <c r="F30" s="132"/>
-      <c r="G30" s="132"/>
-      <c r="H30" s="132"/>
-      <c r="I30" s="132"/>
-      <c r="J30" s="133"/>
-      <c r="K30" s="134"/>
-      <c r="L30" s="135"/>
-      <c r="M30" s="154"/>
-      <c r="N30" s="144"/>
-      <c r="O30" s="144"/>
-      <c r="P30" s="144"/>
-      <c r="Q30" s="144"/>
-      <c r="R30" s="145"/>
-      <c r="S30" s="130"/>
-      <c r="T30" s="130"/>
-      <c r="U30" s="130"/>
+      <c r="B30" s="135"/>
+      <c r="C30" s="136"/>
+      <c r="D30" s="137"/>
+      <c r="E30" s="138"/>
+      <c r="F30" s="138"/>
+      <c r="G30" s="138"/>
+      <c r="H30" s="138"/>
+      <c r="I30" s="138"/>
+      <c r="J30" s="139"/>
+      <c r="K30" s="140"/>
+      <c r="L30" s="141"/>
+      <c r="M30" s="149"/>
+      <c r="N30" s="150"/>
+      <c r="O30" s="150"/>
+      <c r="P30" s="150"/>
+      <c r="Q30" s="150"/>
+      <c r="R30" s="151"/>
+      <c r="S30" s="145"/>
+      <c r="T30" s="145"/>
+      <c r="U30" s="145"/>
       <c r="V30" s="146"/>
       <c r="W30" s="147"/>
       <c r="X30" s="147"/>
@@ -6543,39 +6543,39 @@
       <c r="AK30" s="147"/>
       <c r="AL30" s="147"/>
       <c r="AM30" s="148"/>
-      <c r="AN30" s="149"/>
-      <c r="AO30" s="150"/>
-      <c r="AP30" s="150"/>
-      <c r="AQ30" s="150"/>
-      <c r="AR30" s="151"/>
-      <c r="AS30" s="149"/>
-      <c r="AT30" s="150"/>
-      <c r="AU30" s="150"/>
-      <c r="AV30" s="150"/>
-      <c r="AW30" s="151"/>
+      <c r="AN30" s="132"/>
+      <c r="AO30" s="133"/>
+      <c r="AP30" s="133"/>
+      <c r="AQ30" s="133"/>
+      <c r="AR30" s="134"/>
+      <c r="AS30" s="132"/>
+      <c r="AT30" s="133"/>
+      <c r="AU30" s="133"/>
+      <c r="AV30" s="133"/>
+      <c r="AW30" s="134"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="48"/>
-      <c r="B31" s="140"/>
-      <c r="C31" s="141"/>
-      <c r="D31" s="142"/>
-      <c r="E31" s="132"/>
-      <c r="F31" s="132"/>
-      <c r="G31" s="132"/>
-      <c r="H31" s="132"/>
-      <c r="I31" s="132"/>
-      <c r="J31" s="133"/>
-      <c r="K31" s="134"/>
-      <c r="L31" s="135"/>
-      <c r="M31" s="154"/>
-      <c r="N31" s="144"/>
-      <c r="O31" s="144"/>
-      <c r="P31" s="144"/>
-      <c r="Q31" s="144"/>
-      <c r="R31" s="145"/>
-      <c r="S31" s="130"/>
-      <c r="T31" s="130"/>
-      <c r="U31" s="130"/>
+      <c r="B31" s="135"/>
+      <c r="C31" s="136"/>
+      <c r="D31" s="137"/>
+      <c r="E31" s="138"/>
+      <c r="F31" s="138"/>
+      <c r="G31" s="138"/>
+      <c r="H31" s="138"/>
+      <c r="I31" s="138"/>
+      <c r="J31" s="139"/>
+      <c r="K31" s="140"/>
+      <c r="L31" s="141"/>
+      <c r="M31" s="149"/>
+      <c r="N31" s="150"/>
+      <c r="O31" s="150"/>
+      <c r="P31" s="150"/>
+      <c r="Q31" s="150"/>
+      <c r="R31" s="151"/>
+      <c r="S31" s="145"/>
+      <c r="T31" s="145"/>
+      <c r="U31" s="145"/>
       <c r="V31" s="146"/>
       <c r="W31" s="147"/>
       <c r="X31" s="147"/>
@@ -6594,39 +6594,39 @@
       <c r="AK31" s="147"/>
       <c r="AL31" s="147"/>
       <c r="AM31" s="148"/>
-      <c r="AN31" s="149"/>
-      <c r="AO31" s="150"/>
-      <c r="AP31" s="150"/>
-      <c r="AQ31" s="150"/>
-      <c r="AR31" s="151"/>
-      <c r="AS31" s="149"/>
-      <c r="AT31" s="150"/>
-      <c r="AU31" s="150"/>
-      <c r="AV31" s="150"/>
-      <c r="AW31" s="151"/>
+      <c r="AN31" s="132"/>
+      <c r="AO31" s="133"/>
+      <c r="AP31" s="133"/>
+      <c r="AQ31" s="133"/>
+      <c r="AR31" s="134"/>
+      <c r="AS31" s="132"/>
+      <c r="AT31" s="133"/>
+      <c r="AU31" s="133"/>
+      <c r="AV31" s="133"/>
+      <c r="AW31" s="134"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="48"/>
-      <c r="B32" s="140"/>
-      <c r="C32" s="141"/>
-      <c r="D32" s="142"/>
-      <c r="E32" s="132"/>
-      <c r="F32" s="132"/>
-      <c r="G32" s="132"/>
-      <c r="H32" s="132"/>
-      <c r="I32" s="132"/>
-      <c r="J32" s="133"/>
-      <c r="K32" s="134"/>
-      <c r="L32" s="135"/>
-      <c r="M32" s="154"/>
-      <c r="N32" s="144"/>
-      <c r="O32" s="144"/>
-      <c r="P32" s="144"/>
-      <c r="Q32" s="144"/>
-      <c r="R32" s="145"/>
-      <c r="S32" s="130"/>
-      <c r="T32" s="130"/>
-      <c r="U32" s="130"/>
+      <c r="B32" s="135"/>
+      <c r="C32" s="136"/>
+      <c r="D32" s="137"/>
+      <c r="E32" s="138"/>
+      <c r="F32" s="138"/>
+      <c r="G32" s="138"/>
+      <c r="H32" s="138"/>
+      <c r="I32" s="138"/>
+      <c r="J32" s="139"/>
+      <c r="K32" s="140"/>
+      <c r="L32" s="141"/>
+      <c r="M32" s="149"/>
+      <c r="N32" s="150"/>
+      <c r="O32" s="150"/>
+      <c r="P32" s="150"/>
+      <c r="Q32" s="150"/>
+      <c r="R32" s="151"/>
+      <c r="S32" s="145"/>
+      <c r="T32" s="145"/>
+      <c r="U32" s="145"/>
       <c r="V32" s="146"/>
       <c r="W32" s="147"/>
       <c r="X32" s="147"/>
@@ -6645,38 +6645,38 @@
       <c r="AK32" s="147"/>
       <c r="AL32" s="147"/>
       <c r="AM32" s="148"/>
-      <c r="AN32" s="149"/>
-      <c r="AO32" s="150"/>
-      <c r="AP32" s="150"/>
-      <c r="AQ32" s="150"/>
-      <c r="AR32" s="151"/>
-      <c r="AS32" s="149"/>
-      <c r="AT32" s="150"/>
-      <c r="AU32" s="150"/>
-      <c r="AV32" s="150"/>
-      <c r="AW32" s="151"/>
+      <c r="AN32" s="132"/>
+      <c r="AO32" s="133"/>
+      <c r="AP32" s="133"/>
+      <c r="AQ32" s="133"/>
+      <c r="AR32" s="134"/>
+      <c r="AS32" s="132"/>
+      <c r="AT32" s="133"/>
+      <c r="AU32" s="133"/>
+      <c r="AV32" s="133"/>
+      <c r="AW32" s="134"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="140"/>
-      <c r="C33" s="141"/>
-      <c r="D33" s="142"/>
-      <c r="E33" s="132"/>
-      <c r="F33" s="132"/>
-      <c r="G33" s="132"/>
-      <c r="H33" s="132"/>
-      <c r="I33" s="132"/>
-      <c r="J33" s="133"/>
-      <c r="K33" s="134"/>
-      <c r="L33" s="135"/>
-      <c r="M33" s="154"/>
-      <c r="N33" s="144"/>
-      <c r="O33" s="144"/>
-      <c r="P33" s="144"/>
-      <c r="Q33" s="144"/>
-      <c r="R33" s="145"/>
-      <c r="S33" s="130"/>
-      <c r="T33" s="130"/>
-      <c r="U33" s="130"/>
+      <c r="B33" s="135"/>
+      <c r="C33" s="136"/>
+      <c r="D33" s="137"/>
+      <c r="E33" s="138"/>
+      <c r="F33" s="138"/>
+      <c r="G33" s="138"/>
+      <c r="H33" s="138"/>
+      <c r="I33" s="138"/>
+      <c r="J33" s="139"/>
+      <c r="K33" s="140"/>
+      <c r="L33" s="141"/>
+      <c r="M33" s="149"/>
+      <c r="N33" s="150"/>
+      <c r="O33" s="150"/>
+      <c r="P33" s="150"/>
+      <c r="Q33" s="150"/>
+      <c r="R33" s="151"/>
+      <c r="S33" s="145"/>
+      <c r="T33" s="145"/>
+      <c r="U33" s="145"/>
       <c r="V33" s="146"/>
       <c r="W33" s="147"/>
       <c r="X33" s="147"/>
@@ -6695,38 +6695,38 @@
       <c r="AK33" s="147"/>
       <c r="AL33" s="147"/>
       <c r="AM33" s="148"/>
-      <c r="AN33" s="149"/>
-      <c r="AO33" s="150"/>
-      <c r="AP33" s="150"/>
-      <c r="AQ33" s="150"/>
-      <c r="AR33" s="151"/>
-      <c r="AS33" s="149"/>
-      <c r="AT33" s="150"/>
-      <c r="AU33" s="150"/>
-      <c r="AV33" s="150"/>
-      <c r="AW33" s="151"/>
+      <c r="AN33" s="132"/>
+      <c r="AO33" s="133"/>
+      <c r="AP33" s="133"/>
+      <c r="AQ33" s="133"/>
+      <c r="AR33" s="134"/>
+      <c r="AS33" s="132"/>
+      <c r="AT33" s="133"/>
+      <c r="AU33" s="133"/>
+      <c r="AV33" s="133"/>
+      <c r="AW33" s="134"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="140"/>
-      <c r="C34" s="141"/>
-      <c r="D34" s="142"/>
-      <c r="E34" s="132"/>
-      <c r="F34" s="132"/>
-      <c r="G34" s="132"/>
-      <c r="H34" s="132"/>
-      <c r="I34" s="132"/>
-      <c r="J34" s="133"/>
-      <c r="K34" s="134"/>
-      <c r="L34" s="135"/>
-      <c r="M34" s="158"/>
-      <c r="N34" s="159"/>
-      <c r="O34" s="159"/>
-      <c r="P34" s="159"/>
-      <c r="Q34" s="159"/>
-      <c r="R34" s="160"/>
-      <c r="S34" s="130"/>
-      <c r="T34" s="130"/>
-      <c r="U34" s="130"/>
+      <c r="B34" s="135"/>
+      <c r="C34" s="136"/>
+      <c r="D34" s="137"/>
+      <c r="E34" s="138"/>
+      <c r="F34" s="138"/>
+      <c r="G34" s="138"/>
+      <c r="H34" s="138"/>
+      <c r="I34" s="138"/>
+      <c r="J34" s="139"/>
+      <c r="K34" s="140"/>
+      <c r="L34" s="141"/>
+      <c r="M34" s="142"/>
+      <c r="N34" s="143"/>
+      <c r="O34" s="143"/>
+      <c r="P34" s="143"/>
+      <c r="Q34" s="143"/>
+      <c r="R34" s="144"/>
+      <c r="S34" s="145"/>
+      <c r="T34" s="145"/>
+      <c r="U34" s="145"/>
       <c r="V34" s="146"/>
       <c r="W34" s="147"/>
       <c r="X34" s="147"/>
@@ -6745,19 +6745,252 @@
       <c r="AK34" s="147"/>
       <c r="AL34" s="147"/>
       <c r="AM34" s="148"/>
-      <c r="AN34" s="149"/>
-      <c r="AO34" s="150"/>
-      <c r="AP34" s="150"/>
-      <c r="AQ34" s="150"/>
-      <c r="AR34" s="151"/>
-      <c r="AS34" s="149"/>
-      <c r="AT34" s="150"/>
-      <c r="AU34" s="150"/>
-      <c r="AV34" s="150"/>
-      <c r="AW34" s="151"/>
+      <c r="AN34" s="132"/>
+      <c r="AO34" s="133"/>
+      <c r="AP34" s="133"/>
+      <c r="AQ34" s="133"/>
+      <c r="AR34" s="134"/>
+      <c r="AS34" s="132"/>
+      <c r="AT34" s="133"/>
+      <c r="AU34" s="133"/>
+      <c r="AV34" s="133"/>
+      <c r="AW34" s="134"/>
     </row>
   </sheetData>
   <mergeCells count="249">
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN5:AR5"/>
+    <mergeCell ref="AS5:AW5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:R6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="V6:AM6"/>
+    <mergeCell ref="AN6:AR6"/>
+    <mergeCell ref="AS6:AW6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:R5"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="V5:AM5"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
     <mergeCell ref="AN33:AR33"/>
     <mergeCell ref="AS33:AW33"/>
     <mergeCell ref="B34:D34"/>
@@ -6774,239 +7007,6 @@
     <mergeCell ref="M33:R33"/>
     <mergeCell ref="S33:U33"/>
     <mergeCell ref="V33:AM33"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN5:AR5"/>
-    <mergeCell ref="AS5:AW5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:R6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="V6:AM6"/>
-    <mergeCell ref="AN6:AR6"/>
-    <mergeCell ref="AS6:AW6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:R5"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7166,11 +7166,11 @@
       <c r="AL2" s="33"/>
       <c r="AM2" s="33"/>
       <c r="AN2" s="34"/>
-      <c r="AO2" s="165"/>
-      <c r="AP2" s="166"/>
-      <c r="AQ2" s="166"/>
-      <c r="AR2" s="166"/>
-      <c r="AS2" s="167"/>
+      <c r="AO2" s="176"/>
+      <c r="AP2" s="177"/>
+      <c r="AQ2" s="177"/>
+      <c r="AR2" s="177"/>
+      <c r="AS2" s="178"/>
       <c r="AT2" s="32" t="s">
         <v>26</v>
       </c>
@@ -7179,14 +7179,14 @@
       <c r="AW2" s="33"/>
       <c r="AX2" s="33"/>
       <c r="AY2" s="34"/>
-      <c r="AZ2" s="168"/>
-      <c r="BA2" s="169"/>
-      <c r="BB2" s="169"/>
-      <c r="BC2" s="169"/>
-      <c r="BD2" s="169"/>
-      <c r="BE2" s="169"/>
-      <c r="BF2" s="169"/>
-      <c r="BG2" s="170"/>
+      <c r="AZ2" s="179"/>
+      <c r="BA2" s="180"/>
+      <c r="BB2" s="180"/>
+      <c r="BC2" s="180"/>
+      <c r="BD2" s="180"/>
+      <c r="BE2" s="180"/>
+      <c r="BF2" s="180"/>
+      <c r="BG2" s="181"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A3" s="31"/>
@@ -8297,7 +8297,7 @@
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
-      <c r="M34" s="196" t="s">
+      <c r="M34" s="121" t="s">
         <v>283</v>
       </c>
       <c r="N34" s="9"/>
@@ -8346,7 +8346,7 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
-      <c r="M35" s="196" t="s">
+      <c r="M35" s="121" t="s">
         <v>136</v>
       </c>
       <c r="N35" s="9"/>
@@ -8629,10 +8629,10 @@
     </row>
     <row r="41" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A41" s="27"/>
-      <c r="B41" s="171" t="s">
+      <c r="B41" s="184" t="s">
         <v>81</v>
       </c>
-      <c r="C41" s="172"/>
+      <c r="C41" s="185"/>
       <c r="D41" s="75" t="s">
         <v>80</v>
       </c>
@@ -8715,10 +8715,10 @@
     </row>
     <row r="42" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A42" s="27"/>
-      <c r="B42" s="161">
+      <c r="B42" s="186">
         <v>1</v>
       </c>
-      <c r="C42" s="162"/>
+      <c r="C42" s="187"/>
       <c r="D42" s="69" t="s">
         <v>134</v>
       </c>
@@ -8750,16 +8750,16 @@
       <c r="AB42" s="73"/>
       <c r="AC42" s="73"/>
       <c r="AD42" s="74"/>
-      <c r="AE42" s="163" t="s">
+      <c r="AE42" s="182" t="s">
         <v>89</v>
       </c>
-      <c r="AF42" s="164"/>
-      <c r="AG42" s="163"/>
-      <c r="AH42" s="164"/>
-      <c r="AI42" s="163"/>
-      <c r="AJ42" s="164"/>
-      <c r="AK42" s="163"/>
-      <c r="AL42" s="164"/>
+      <c r="AF42" s="183"/>
+      <c r="AG42" s="182"/>
+      <c r="AH42" s="183"/>
+      <c r="AI42" s="182"/>
+      <c r="AJ42" s="183"/>
+      <c r="AK42" s="182"/>
+      <c r="AL42" s="183"/>
       <c r="AM42" s="70" t="s">
         <v>137</v>
       </c>
@@ -8792,81 +8792,81 @@
       <c r="BN42" s="31"/>
     </row>
     <row r="43" spans="1:66" x14ac:dyDescent="0.15">
-      <c r="A43" s="197"/>
-      <c r="B43" s="198">
+      <c r="A43" s="122"/>
+      <c r="B43" s="172">
         <v>2</v>
       </c>
-      <c r="C43" s="199"/>
-      <c r="D43" s="200" t="s">
+      <c r="C43" s="173"/>
+      <c r="D43" s="123" t="s">
         <v>134</v>
       </c>
-      <c r="E43" s="201"/>
-      <c r="F43" s="201"/>
-      <c r="G43" s="201"/>
-      <c r="H43" s="201"/>
-      <c r="I43" s="201"/>
-      <c r="J43" s="202"/>
-      <c r="K43" s="200" t="s">
+      <c r="E43" s="124"/>
+      <c r="F43" s="124"/>
+      <c r="G43" s="124"/>
+      <c r="H43" s="124"/>
+      <c r="I43" s="124"/>
+      <c r="J43" s="125"/>
+      <c r="K43" s="123" t="s">
         <v>284</v>
       </c>
-      <c r="L43" s="201"/>
-      <c r="M43" s="201"/>
-      <c r="N43" s="201"/>
-      <c r="O43" s="201"/>
-      <c r="P43" s="201"/>
-      <c r="Q43" s="201"/>
-      <c r="R43" s="201"/>
-      <c r="S43" s="201"/>
-      <c r="T43" s="202"/>
-      <c r="U43" s="200"/>
-      <c r="V43" s="201"/>
-      <c r="W43" s="201"/>
-      <c r="X43" s="201"/>
-      <c r="Y43" s="201"/>
-      <c r="Z43" s="201"/>
-      <c r="AA43" s="201"/>
-      <c r="AB43" s="201"/>
-      <c r="AC43" s="201"/>
-      <c r="AD43" s="202"/>
-      <c r="AE43" s="203" t="s">
+      <c r="L43" s="124"/>
+      <c r="M43" s="124"/>
+      <c r="N43" s="124"/>
+      <c r="O43" s="124"/>
+      <c r="P43" s="124"/>
+      <c r="Q43" s="124"/>
+      <c r="R43" s="124"/>
+      <c r="S43" s="124"/>
+      <c r="T43" s="125"/>
+      <c r="U43" s="123"/>
+      <c r="V43" s="124"/>
+      <c r="W43" s="124"/>
+      <c r="X43" s="124"/>
+      <c r="Y43" s="124"/>
+      <c r="Z43" s="124"/>
+      <c r="AA43" s="124"/>
+      <c r="AB43" s="124"/>
+      <c r="AC43" s="124"/>
+      <c r="AD43" s="125"/>
+      <c r="AE43" s="174" t="s">
         <v>89</v>
       </c>
-      <c r="AF43" s="204"/>
-      <c r="AG43" s="203"/>
-      <c r="AH43" s="204"/>
-      <c r="AI43" s="203"/>
-      <c r="AJ43" s="204"/>
-      <c r="AK43" s="203"/>
-      <c r="AL43" s="204"/>
-      <c r="AM43" s="205" t="s">
+      <c r="AF43" s="175"/>
+      <c r="AG43" s="174"/>
+      <c r="AH43" s="175"/>
+      <c r="AI43" s="174"/>
+      <c r="AJ43" s="175"/>
+      <c r="AK43" s="174"/>
+      <c r="AL43" s="175"/>
+      <c r="AM43" s="126" t="s">
         <v>285</v>
       </c>
-      <c r="AN43" s="206"/>
-      <c r="AO43" s="206"/>
-      <c r="AP43" s="206"/>
-      <c r="AQ43" s="206"/>
-      <c r="AR43" s="206"/>
-      <c r="AS43" s="206"/>
-      <c r="AT43" s="206"/>
-      <c r="AU43" s="206"/>
-      <c r="AV43" s="206"/>
-      <c r="AW43" s="206"/>
-      <c r="AX43" s="206"/>
-      <c r="AY43" s="206"/>
-      <c r="AZ43" s="206"/>
-      <c r="BA43" s="206"/>
-      <c r="BB43" s="206"/>
-      <c r="BC43" s="206"/>
-      <c r="BD43" s="206"/>
-      <c r="BE43" s="206"/>
-      <c r="BF43" s="207"/>
+      <c r="AN43" s="127"/>
+      <c r="AO43" s="127"/>
+      <c r="AP43" s="127"/>
+      <c r="AQ43" s="127"/>
+      <c r="AR43" s="127"/>
+      <c r="AS43" s="127"/>
+      <c r="AT43" s="127"/>
+      <c r="AU43" s="127"/>
+      <c r="AV43" s="127"/>
+      <c r="AW43" s="127"/>
+      <c r="AX43" s="127"/>
+      <c r="AY43" s="127"/>
+      <c r="AZ43" s="127"/>
+      <c r="BA43" s="127"/>
+      <c r="BB43" s="127"/>
+      <c r="BC43" s="127"/>
+      <c r="BD43" s="127"/>
+      <c r="BE43" s="127"/>
+      <c r="BF43" s="128"/>
     </row>
     <row r="44" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A44" s="27"/>
-      <c r="B44" s="161">
+      <c r="B44" s="186">
         <v>3</v>
       </c>
-      <c r="C44" s="162"/>
+      <c r="C44" s="187"/>
       <c r="D44" s="99" t="s">
         <v>134</v>
       </c>
@@ -8898,16 +8898,16 @@
       <c r="AB44" s="73"/>
       <c r="AC44" s="73"/>
       <c r="AD44" s="100"/>
-      <c r="AE44" s="163" t="s">
+      <c r="AE44" s="182" t="s">
         <v>89</v>
       </c>
-      <c r="AF44" s="164"/>
-      <c r="AG44" s="163"/>
-      <c r="AH44" s="164"/>
-      <c r="AI44" s="163"/>
-      <c r="AJ44" s="164"/>
-      <c r="AK44" s="163"/>
-      <c r="AL44" s="164"/>
+      <c r="AF44" s="183"/>
+      <c r="AG44" s="182"/>
+      <c r="AH44" s="183"/>
+      <c r="AI44" s="182"/>
+      <c r="AJ44" s="183"/>
+      <c r="AK44" s="182"/>
+      <c r="AL44" s="183"/>
       <c r="AM44" s="70" t="s">
         <v>144</v>
       </c>
@@ -8941,10 +8941,10 @@
     </row>
     <row r="45" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A45" s="27"/>
-      <c r="B45" s="198">
+      <c r="B45" s="172">
         <v>4</v>
       </c>
-      <c r="C45" s="199"/>
+      <c r="C45" s="173"/>
       <c r="D45" s="103" t="s">
         <v>145</v>
       </c>
@@ -8976,16 +8976,16 @@
       <c r="AB45" s="73"/>
       <c r="AC45" s="73"/>
       <c r="AD45" s="104"/>
-      <c r="AE45" s="163"/>
-      <c r="AF45" s="164"/>
-      <c r="AG45" s="163"/>
-      <c r="AH45" s="164"/>
-      <c r="AI45" s="163" t="s">
+      <c r="AE45" s="182"/>
+      <c r="AF45" s="183"/>
+      <c r="AG45" s="182"/>
+      <c r="AH45" s="183"/>
+      <c r="AI45" s="182" t="s">
         <v>89</v>
       </c>
-      <c r="AJ45" s="164"/>
-      <c r="AK45" s="163"/>
-      <c r="AL45" s="164"/>
+      <c r="AJ45" s="183"/>
+      <c r="AK45" s="182"/>
+      <c r="AL45" s="183"/>
       <c r="AM45" s="70" t="s">
         <v>148</v>
       </c>
@@ -9019,10 +9019,10 @@
     </row>
     <row r="46" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A46" s="27"/>
-      <c r="B46" s="161">
+      <c r="B46" s="186">
         <v>5</v>
       </c>
-      <c r="C46" s="162"/>
+      <c r="C46" s="187"/>
       <c r="D46" s="99" t="s">
         <v>145</v>
       </c>
@@ -9054,16 +9054,16 @@
       <c r="AB46" s="73"/>
       <c r="AC46" s="73"/>
       <c r="AD46" s="100"/>
-      <c r="AE46" s="163" t="s">
+      <c r="AE46" s="182" t="s">
         <v>89</v>
       </c>
-      <c r="AF46" s="164"/>
-      <c r="AG46" s="163"/>
-      <c r="AH46" s="164"/>
-      <c r="AI46" s="163"/>
-      <c r="AJ46" s="164"/>
-      <c r="AK46" s="163"/>
-      <c r="AL46" s="164"/>
+      <c r="AF46" s="183"/>
+      <c r="AG46" s="182"/>
+      <c r="AH46" s="183"/>
+      <c r="AI46" s="182"/>
+      <c r="AJ46" s="183"/>
+      <c r="AK46" s="182"/>
+      <c r="AL46" s="183"/>
       <c r="AM46" s="70" t="s">
         <v>149</v>
       </c>
@@ -9097,10 +9097,10 @@
     </row>
     <row r="47" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A47" s="27"/>
-      <c r="B47" s="198">
+      <c r="B47" s="172">
         <v>6</v>
       </c>
-      <c r="C47" s="199"/>
+      <c r="C47" s="173"/>
       <c r="D47" s="99" t="s">
         <v>145</v>
       </c>
@@ -9132,16 +9132,16 @@
       <c r="AB47" s="73"/>
       <c r="AC47" s="73"/>
       <c r="AD47" s="100"/>
-      <c r="AE47" s="163"/>
-      <c r="AF47" s="164"/>
-      <c r="AG47" s="163" t="s">
+      <c r="AE47" s="182"/>
+      <c r="AF47" s="183"/>
+      <c r="AG47" s="182" t="s">
         <v>89</v>
       </c>
-      <c r="AH47" s="164"/>
-      <c r="AI47" s="163"/>
-      <c r="AJ47" s="164"/>
-      <c r="AK47" s="163"/>
-      <c r="AL47" s="164"/>
+      <c r="AH47" s="183"/>
+      <c r="AI47" s="182"/>
+      <c r="AJ47" s="183"/>
+      <c r="AK47" s="182"/>
+      <c r="AL47" s="183"/>
       <c r="AM47" s="70" t="s">
         <v>138</v>
       </c>
@@ -9180,11 +9180,26 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="AE43:AF43"/>
-    <mergeCell ref="AG43:AH43"/>
-    <mergeCell ref="AI43:AJ43"/>
-    <mergeCell ref="AK43:AL43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="AE44:AF44"/>
+    <mergeCell ref="AG44:AH44"/>
+    <mergeCell ref="AI44:AJ44"/>
+    <mergeCell ref="AK44:AL44"/>
+    <mergeCell ref="AE45:AF45"/>
+    <mergeCell ref="AG45:AH45"/>
+    <mergeCell ref="AI45:AJ45"/>
+    <mergeCell ref="AK45:AL45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="AE46:AF46"/>
+    <mergeCell ref="AI46:AJ46"/>
+    <mergeCell ref="AG46:AH46"/>
+    <mergeCell ref="AK46:AL46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="AE47:AF47"/>
+    <mergeCell ref="AI47:AJ47"/>
+    <mergeCell ref="AG47:AH47"/>
+    <mergeCell ref="AK47:AL47"/>
     <mergeCell ref="AO2:AS2"/>
     <mergeCell ref="AZ2:BG2"/>
     <mergeCell ref="AK42:AL42"/>
@@ -9193,26 +9208,11 @@
     <mergeCell ref="AI42:AJ42"/>
     <mergeCell ref="AE42:AF42"/>
     <mergeCell ref="AG42:AH42"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="AE47:AF47"/>
-    <mergeCell ref="AI47:AJ47"/>
-    <mergeCell ref="AG47:AH47"/>
-    <mergeCell ref="AK47:AL47"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="AE46:AF46"/>
-    <mergeCell ref="AI46:AJ46"/>
-    <mergeCell ref="AG46:AH46"/>
-    <mergeCell ref="AK46:AL46"/>
-    <mergeCell ref="AK44:AL44"/>
-    <mergeCell ref="AE45:AF45"/>
-    <mergeCell ref="AG45:AH45"/>
-    <mergeCell ref="AI45:AJ45"/>
-    <mergeCell ref="AK45:AL45"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="AE44:AF44"/>
-    <mergeCell ref="AG44:AH44"/>
-    <mergeCell ref="AI44:AJ44"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="AE43:AF43"/>
+    <mergeCell ref="AG43:AH43"/>
+    <mergeCell ref="AI43:AJ43"/>
+    <mergeCell ref="AK43:AL43"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -9336,20 +9336,20 @@
       <c r="CA1" s="33"/>
       <c r="CB1" s="33"/>
       <c r="CC1" s="34"/>
-      <c r="CD1" s="175">
+      <c r="CD1" s="190">
         <f>変更履歴!E5</f>
         <v>43714</v>
       </c>
-      <c r="CE1" s="176"/>
-      <c r="CF1" s="176"/>
-      <c r="CG1" s="176"/>
-      <c r="CH1" s="176"/>
-      <c r="CI1" s="176"/>
-      <c r="CJ1" s="176"/>
-      <c r="CK1" s="176"/>
-      <c r="CL1" s="176"/>
-      <c r="CM1" s="176"/>
-      <c r="CN1" s="177"/>
+      <c r="CE1" s="191"/>
+      <c r="CF1" s="191"/>
+      <c r="CG1" s="191"/>
+      <c r="CH1" s="191"/>
+      <c r="CI1" s="191"/>
+      <c r="CJ1" s="191"/>
+      <c r="CK1" s="191"/>
+      <c r="CL1" s="191"/>
+      <c r="CM1" s="191"/>
+      <c r="CN1" s="192"/>
       <c r="CO1" s="32" t="s">
         <v>25</v>
       </c>
@@ -9358,23 +9358,23 @@
       <c r="CR1" s="33"/>
       <c r="CS1" s="33"/>
       <c r="CT1" s="34"/>
-      <c r="CU1" s="168" t="str">
+      <c r="CU1" s="179" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
-      <c r="CV1" s="173"/>
-      <c r="CW1" s="173"/>
-      <c r="CX1" s="173"/>
-      <c r="CY1" s="173"/>
-      <c r="CZ1" s="173"/>
-      <c r="DA1" s="173"/>
-      <c r="DB1" s="173"/>
-      <c r="DC1" s="173"/>
-      <c r="DD1" s="173"/>
-      <c r="DE1" s="173"/>
-      <c r="DF1" s="173"/>
-      <c r="DG1" s="173"/>
-      <c r="DH1" s="174"/>
+      <c r="CV1" s="188"/>
+      <c r="CW1" s="188"/>
+      <c r="CX1" s="188"/>
+      <c r="CY1" s="188"/>
+      <c r="CZ1" s="188"/>
+      <c r="DA1" s="188"/>
+      <c r="DB1" s="188"/>
+      <c r="DC1" s="188"/>
+      <c r="DD1" s="188"/>
+      <c r="DE1" s="188"/>
+      <c r="DF1" s="188"/>
+      <c r="DG1" s="188"/>
+      <c r="DH1" s="189"/>
     </row>
     <row r="2" spans="1:113" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
@@ -9429,39 +9429,39 @@
       <c r="AQ2" s="82"/>
       <c r="AR2" s="82"/>
       <c r="AS2" s="83"/>
-      <c r="AT2" s="179" t="str">
+      <c r="AT2" s="194" t="str">
         <f>'１．機能概要'!W2</f>
         <v>全工程で試作の在庫払出可能化</v>
       </c>
-      <c r="AU2" s="180"/>
-      <c r="AV2" s="180"/>
-      <c r="AW2" s="180"/>
-      <c r="AX2" s="180"/>
-      <c r="AY2" s="180"/>
-      <c r="AZ2" s="180"/>
-      <c r="BA2" s="180"/>
-      <c r="BB2" s="180"/>
-      <c r="BC2" s="180"/>
-      <c r="BD2" s="180"/>
-      <c r="BE2" s="180"/>
-      <c r="BF2" s="180"/>
-      <c r="BG2" s="180"/>
-      <c r="BH2" s="180"/>
-      <c r="BI2" s="180"/>
-      <c r="BJ2" s="180"/>
-      <c r="BK2" s="180"/>
-      <c r="BL2" s="180"/>
-      <c r="BM2" s="180"/>
-      <c r="BN2" s="180"/>
-      <c r="BO2" s="180"/>
-      <c r="BP2" s="180"/>
-      <c r="BQ2" s="180"/>
-      <c r="BR2" s="180"/>
-      <c r="BS2" s="180"/>
-      <c r="BT2" s="180"/>
-      <c r="BU2" s="180"/>
-      <c r="BV2" s="180"/>
-      <c r="BW2" s="181"/>
+      <c r="AU2" s="195"/>
+      <c r="AV2" s="195"/>
+      <c r="AW2" s="195"/>
+      <c r="AX2" s="195"/>
+      <c r="AY2" s="195"/>
+      <c r="AZ2" s="195"/>
+      <c r="BA2" s="195"/>
+      <c r="BB2" s="195"/>
+      <c r="BC2" s="195"/>
+      <c r="BD2" s="195"/>
+      <c r="BE2" s="195"/>
+      <c r="BF2" s="195"/>
+      <c r="BG2" s="195"/>
+      <c r="BH2" s="195"/>
+      <c r="BI2" s="195"/>
+      <c r="BJ2" s="195"/>
+      <c r="BK2" s="195"/>
+      <c r="BL2" s="195"/>
+      <c r="BM2" s="195"/>
+      <c r="BN2" s="195"/>
+      <c r="BO2" s="195"/>
+      <c r="BP2" s="195"/>
+      <c r="BQ2" s="195"/>
+      <c r="BR2" s="195"/>
+      <c r="BS2" s="195"/>
+      <c r="BT2" s="195"/>
+      <c r="BU2" s="195"/>
+      <c r="BV2" s="195"/>
+      <c r="BW2" s="196"/>
       <c r="BX2" s="32" t="s">
         <v>24</v>
       </c>
@@ -9470,17 +9470,17 @@
       <c r="CA2" s="33"/>
       <c r="CB2" s="33"/>
       <c r="CC2" s="34"/>
-      <c r="CD2" s="178"/>
-      <c r="CE2" s="173"/>
-      <c r="CF2" s="173"/>
-      <c r="CG2" s="173"/>
-      <c r="CH2" s="173"/>
-      <c r="CI2" s="173"/>
-      <c r="CJ2" s="173"/>
-      <c r="CK2" s="173"/>
-      <c r="CL2" s="173"/>
-      <c r="CM2" s="173"/>
-      <c r="CN2" s="174"/>
+      <c r="CD2" s="193"/>
+      <c r="CE2" s="188"/>
+      <c r="CF2" s="188"/>
+      <c r="CG2" s="188"/>
+      <c r="CH2" s="188"/>
+      <c r="CI2" s="188"/>
+      <c r="CJ2" s="188"/>
+      <c r="CK2" s="188"/>
+      <c r="CL2" s="188"/>
+      <c r="CM2" s="188"/>
+      <c r="CN2" s="189"/>
       <c r="CO2" s="32" t="s">
         <v>26</v>
       </c>
@@ -9489,20 +9489,20 @@
       <c r="CR2" s="33"/>
       <c r="CS2" s="33"/>
       <c r="CT2" s="34"/>
-      <c r="CU2" s="168"/>
-      <c r="CV2" s="173"/>
-      <c r="CW2" s="173"/>
-      <c r="CX2" s="173"/>
-      <c r="CY2" s="173"/>
-      <c r="CZ2" s="173"/>
-      <c r="DA2" s="173"/>
-      <c r="DB2" s="173"/>
-      <c r="DC2" s="173"/>
-      <c r="DD2" s="173"/>
-      <c r="DE2" s="173"/>
-      <c r="DF2" s="173"/>
-      <c r="DG2" s="173"/>
-      <c r="DH2" s="174"/>
+      <c r="CU2" s="179"/>
+      <c r="CV2" s="188"/>
+      <c r="CW2" s="188"/>
+      <c r="CX2" s="188"/>
+      <c r="CY2" s="188"/>
+      <c r="CZ2" s="188"/>
+      <c r="DA2" s="188"/>
+      <c r="DB2" s="188"/>
+      <c r="DC2" s="188"/>
+      <c r="DD2" s="188"/>
+      <c r="DE2" s="188"/>
+      <c r="DF2" s="188"/>
+      <c r="DG2" s="188"/>
+      <c r="DH2" s="189"/>
     </row>
     <row r="3" spans="1:113" x14ac:dyDescent="0.25">
       <c r="AU3" s="46"/>
@@ -9585,7 +9585,7 @@
   <dimension ref="A1:R28"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="F13" activePane="bottomRight" state="frozen"/>
       <selection activeCell="L31" sqref="L31"/>
       <selection pane="topRight" activeCell="L31" sqref="L31"/>
       <selection pane="bottomLeft" activeCell="L31" sqref="L31"/>
@@ -9705,37 +9705,37 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
-      <c r="C6" s="123" t="s">
+      <c r="C6" s="165" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="123" t="s">
+      <c r="D6" s="165" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="123" t="s">
+      <c r="E6" s="165" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="123" t="s">
+      <c r="F6" s="165" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="123" t="s">
+      <c r="G6" s="165" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="123" t="s">
+      <c r="H6" s="165" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="182" t="s">
+      <c r="I6" s="197" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="182" t="s">
+      <c r="J6" s="197" t="s">
         <v>41</v>
       </c>
-      <c r="K6" s="123" t="s">
+      <c r="K6" s="165" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="123" t="s">
+      <c r="L6" s="165" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="123" t="s">
+      <c r="M6" s="165" t="s">
         <v>33</v>
       </c>
       <c r="N6" s="58" t="s">
@@ -9743,24 +9743,24 @@
       </c>
       <c r="O6" s="58"/>
       <c r="P6" s="58"/>
-      <c r="Q6" s="182" t="s">
+      <c r="Q6" s="197" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
-      <c r="C7" s="123"/>
-      <c r="D7" s="123"/>
-      <c r="E7" s="123"/>
-      <c r="F7" s="123"/>
-      <c r="G7" s="123"/>
-      <c r="H7" s="123"/>
-      <c r="I7" s="182"/>
-      <c r="J7" s="182"/>
-      <c r="K7" s="123"/>
-      <c r="L7" s="123"/>
-      <c r="M7" s="123"/>
+      <c r="C7" s="165"/>
+      <c r="D7" s="165"/>
+      <c r="E7" s="165"/>
+      <c r="F7" s="165"/>
+      <c r="G7" s="165"/>
+      <c r="H7" s="165"/>
+      <c r="I7" s="197"/>
+      <c r="J7" s="197"/>
+      <c r="K7" s="165"/>
+      <c r="L7" s="165"/>
+      <c r="M7" s="165"/>
       <c r="N7" s="41" t="s">
         <v>62</v>
       </c>
@@ -9770,7 +9770,7 @@
       <c r="P7" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="Q7" s="182"/>
+      <c r="Q7" s="197"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="13"/>
@@ -9979,37 +9979,37 @@
     <row r="14" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
-      <c r="C14" s="123" t="s">
+      <c r="C14" s="165" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="123" t="s">
+      <c r="D14" s="165" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="123" t="s">
+      <c r="E14" s="165" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="123" t="s">
+      <c r="F14" s="165" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="123" t="s">
+      <c r="G14" s="165" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="123" t="s">
+      <c r="H14" s="165" t="s">
         <v>29</v>
       </c>
-      <c r="I14" s="183" t="s">
+      <c r="I14" s="198" t="s">
         <v>40</v>
       </c>
-      <c r="J14" s="182" t="s">
+      <c r="J14" s="197" t="s">
         <v>41</v>
       </c>
-      <c r="K14" s="123" t="s">
+      <c r="K14" s="165" t="s">
         <v>31</v>
       </c>
-      <c r="L14" s="123" t="s">
+      <c r="L14" s="165" t="s">
         <v>30</v>
       </c>
-      <c r="M14" s="123" t="s">
+      <c r="M14" s="165" t="s">
         <v>33</v>
       </c>
       <c r="N14" s="58" t="s">
@@ -10017,24 +10017,24 @@
       </c>
       <c r="O14" s="58"/>
       <c r="P14" s="58"/>
-      <c r="Q14" s="183" t="s">
+      <c r="Q14" s="198" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
-      <c r="C15" s="123"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="123"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="123"/>
-      <c r="H15" s="123"/>
-      <c r="I15" s="184"/>
-      <c r="J15" s="182"/>
-      <c r="K15" s="123"/>
-      <c r="L15" s="123"/>
-      <c r="M15" s="123"/>
+      <c r="C15" s="165"/>
+      <c r="D15" s="165"/>
+      <c r="E15" s="165"/>
+      <c r="F15" s="165"/>
+      <c r="G15" s="165"/>
+      <c r="H15" s="165"/>
+      <c r="I15" s="199"/>
+      <c r="J15" s="197"/>
+      <c r="K15" s="165"/>
+      <c r="L15" s="165"/>
+      <c r="M15" s="165"/>
       <c r="N15" s="41" t="s">
         <v>62</v>
       </c>
@@ -10044,7 +10044,7 @@
       <c r="P15" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="Q15" s="184"/>
+      <c r="Q15" s="199"/>
     </row>
     <row r="16" spans="1:18" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A16" s="13"/>
@@ -10221,37 +10221,37 @@
     <row r="21" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="13"/>
       <c r="B21" s="52"/>
-      <c r="C21" s="123" t="s">
+      <c r="C21" s="165" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="123" t="s">
+      <c r="D21" s="165" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="123" t="s">
+      <c r="E21" s="165" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="123" t="s">
+      <c r="F21" s="165" t="s">
         <v>38</v>
       </c>
-      <c r="G21" s="123" t="s">
+      <c r="G21" s="165" t="s">
         <v>28</v>
       </c>
-      <c r="H21" s="123" t="s">
+      <c r="H21" s="165" t="s">
         <v>29</v>
       </c>
-      <c r="I21" s="182" t="s">
+      <c r="I21" s="197" t="s">
         <v>40</v>
       </c>
-      <c r="J21" s="182" t="s">
+      <c r="J21" s="197" t="s">
         <v>41</v>
       </c>
-      <c r="K21" s="123" t="s">
+      <c r="K21" s="165" t="s">
         <v>31</v>
       </c>
-      <c r="L21" s="123" t="s">
+      <c r="L21" s="165" t="s">
         <v>30</v>
       </c>
-      <c r="M21" s="123" t="s">
+      <c r="M21" s="165" t="s">
         <v>33</v>
       </c>
       <c r="N21" s="58" t="s">
@@ -10259,24 +10259,24 @@
       </c>
       <c r="O21" s="58"/>
       <c r="P21" s="58"/>
-      <c r="Q21" s="182" t="s">
+      <c r="Q21" s="197" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="13"/>
       <c r="B22" s="52"/>
-      <c r="C22" s="123"/>
-      <c r="D22" s="123"/>
-      <c r="E22" s="123"/>
-      <c r="F22" s="123"/>
-      <c r="G22" s="123"/>
-      <c r="H22" s="123"/>
-      <c r="I22" s="182"/>
-      <c r="J22" s="182"/>
-      <c r="K22" s="123"/>
-      <c r="L22" s="123"/>
-      <c r="M22" s="123"/>
+      <c r="C22" s="165"/>
+      <c r="D22" s="165"/>
+      <c r="E22" s="165"/>
+      <c r="F22" s="165"/>
+      <c r="G22" s="165"/>
+      <c r="H22" s="165"/>
+      <c r="I22" s="197"/>
+      <c r="J22" s="197"/>
+      <c r="K22" s="165"/>
+      <c r="L22" s="165"/>
+      <c r="M22" s="165"/>
       <c r="N22" s="80" t="s">
         <v>62</v>
       </c>
@@ -10286,7 +10286,7 @@
       <c r="P22" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="Q22" s="182"/>
+      <c r="Q22" s="197"/>
     </row>
     <row r="23" spans="1:17" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A23" s="13"/>
@@ -10330,7 +10330,7 @@
       <c r="O23" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="P23" s="195" t="s">
+      <c r="P23" s="120" t="s">
         <v>282</v>
       </c>
       <c r="Q23" s="8" t="s">
@@ -10346,10 +10346,10 @@
       <c r="D24" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="E24" s="193" t="s">
+      <c r="E24" s="118" t="s">
         <v>239</v>
       </c>
-      <c r="F24" s="194" t="s">
+      <c r="F24" s="119" t="s">
         <v>241</v>
       </c>
       <c r="G24" s="42" t="s">
@@ -10398,7 +10398,7 @@
       <c r="E25" s="14" t="s">
         <v>236</v>
       </c>
-      <c r="F25" s="194" t="s">
+      <c r="F25" s="119" t="s">
         <v>242</v>
       </c>
       <c r="G25" s="14" t="s">
@@ -10444,10 +10444,10 @@
       <c r="D26" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="E26" s="193" t="s">
+      <c r="E26" s="118" t="s">
         <v>240</v>
       </c>
-      <c r="F26" s="194" t="s">
+      <c r="F26" s="119" t="s">
         <v>243</v>
       </c>
       <c r="G26" s="42" t="s">
@@ -10520,13 +10520,13 @@
       <c r="M27" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="N27" s="194" t="s">
+      <c r="N27" s="119" t="s">
         <v>167</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="P27" s="195" t="s">
+      <c r="P27" s="120" t="s">
         <v>260</v>
       </c>
       <c r="Q27" s="8" t="s">
@@ -10584,30 +10584,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="L14:L15"/>
     <mergeCell ref="Q21:Q22"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="D21:D22"/>
@@ -10620,6 +10596,30 @@
     <mergeCell ref="K21:K22"/>
     <mergeCell ref="L21:L22"/>
     <mergeCell ref="M21:M22"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="D14:D15"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -10693,14 +10693,14 @@
       <c r="AF1" s="33"/>
       <c r="AG1" s="33"/>
       <c r="AH1" s="34"/>
-      <c r="AI1" s="165">
+      <c r="AI1" s="176">
         <f>変更履歴!E5</f>
         <v>43714</v>
       </c>
-      <c r="AJ1" s="180"/>
-      <c r="AK1" s="180"/>
-      <c r="AL1" s="180"/>
-      <c r="AM1" s="181"/>
+      <c r="AJ1" s="195"/>
+      <c r="AK1" s="195"/>
+      <c r="AL1" s="195"/>
+      <c r="AM1" s="196"/>
       <c r="AN1" s="32" t="s">
         <v>25</v>
       </c>
@@ -10709,16 +10709,16 @@
       <c r="AQ1" s="33"/>
       <c r="AR1" s="33"/>
       <c r="AS1" s="34"/>
-      <c r="AT1" s="168" t="str">
+      <c r="AT1" s="179" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
-      <c r="AU1" s="173"/>
-      <c r="AV1" s="173"/>
-      <c r="AW1" s="173"/>
-      <c r="AX1" s="173"/>
-      <c r="AY1" s="173"/>
-      <c r="AZ1" s="174"/>
+      <c r="AU1" s="188"/>
+      <c r="AV1" s="188"/>
+      <c r="AW1" s="188"/>
+      <c r="AX1" s="188"/>
+      <c r="AY1" s="188"/>
+      <c r="AZ1" s="189"/>
     </row>
     <row r="2" spans="1:52" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
@@ -10746,32 +10746,32 @@
       <c r="P2" s="36"/>
       <c r="Q2" s="36"/>
       <c r="R2" s="37"/>
-      <c r="S2" s="179" t="str">
+      <c r="S2" s="194" t="str">
         <f>'１．機能概要'!W2</f>
         <v>全工程で試作の在庫払出可能化</v>
       </c>
-      <c r="T2" s="180"/>
-      <c r="U2" s="180"/>
-      <c r="V2" s="180"/>
-      <c r="W2" s="180"/>
-      <c r="X2" s="180"/>
-      <c r="Y2" s="180"/>
-      <c r="Z2" s="180"/>
-      <c r="AA2" s="180"/>
-      <c r="AB2" s="180"/>
-      <c r="AC2" s="180"/>
-      <c r="AD2" s="181"/>
+      <c r="T2" s="195"/>
+      <c r="U2" s="195"/>
+      <c r="V2" s="195"/>
+      <c r="W2" s="195"/>
+      <c r="X2" s="195"/>
+      <c r="Y2" s="195"/>
+      <c r="Z2" s="195"/>
+      <c r="AA2" s="195"/>
+      <c r="AB2" s="195"/>
+      <c r="AC2" s="195"/>
+      <c r="AD2" s="196"/>
       <c r="AE2" s="32" t="s">
         <v>24</v>
       </c>
       <c r="AF2" s="33"/>
       <c r="AG2" s="33"/>
       <c r="AH2" s="34"/>
-      <c r="AI2" s="178"/>
-      <c r="AJ2" s="173"/>
-      <c r="AK2" s="173"/>
-      <c r="AL2" s="173"/>
-      <c r="AM2" s="174"/>
+      <c r="AI2" s="193"/>
+      <c r="AJ2" s="188"/>
+      <c r="AK2" s="188"/>
+      <c r="AL2" s="188"/>
+      <c r="AM2" s="189"/>
       <c r="AN2" s="32" t="s">
         <v>26</v>
       </c>
@@ -10780,13 +10780,13 @@
       <c r="AQ2" s="33"/>
       <c r="AR2" s="33"/>
       <c r="AS2" s="34"/>
-      <c r="AT2" s="168"/>
-      <c r="AU2" s="173"/>
-      <c r="AV2" s="173"/>
-      <c r="AW2" s="173"/>
-      <c r="AX2" s="173"/>
-      <c r="AY2" s="173"/>
-      <c r="AZ2" s="174"/>
+      <c r="AT2" s="179"/>
+      <c r="AU2" s="188"/>
+      <c r="AV2" s="188"/>
+      <c r="AW2" s="188"/>
+      <c r="AX2" s="188"/>
+      <c r="AY2" s="188"/>
+      <c r="AZ2" s="189"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A3" s="51"/>
@@ -14292,14 +14292,14 @@
       <c r="AF1" s="33"/>
       <c r="AG1" s="33"/>
       <c r="AH1" s="34"/>
-      <c r="AI1" s="165">
+      <c r="AI1" s="176">
         <f>変更履歴!E5</f>
         <v>43714</v>
       </c>
-      <c r="AJ1" s="180"/>
-      <c r="AK1" s="180"/>
-      <c r="AL1" s="180"/>
-      <c r="AM1" s="181"/>
+      <c r="AJ1" s="195"/>
+      <c r="AK1" s="195"/>
+      <c r="AL1" s="195"/>
+      <c r="AM1" s="196"/>
       <c r="AN1" s="32" t="s">
         <v>25</v>
       </c>
@@ -14308,16 +14308,16 @@
       <c r="AQ1" s="33"/>
       <c r="AR1" s="33"/>
       <c r="AS1" s="34"/>
-      <c r="AT1" s="168" t="str">
+      <c r="AT1" s="179" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
-      <c r="AU1" s="173"/>
-      <c r="AV1" s="173"/>
-      <c r="AW1" s="173"/>
-      <c r="AX1" s="173"/>
-      <c r="AY1" s="173"/>
-      <c r="AZ1" s="174"/>
+      <c r="AU1" s="188"/>
+      <c r="AV1" s="188"/>
+      <c r="AW1" s="188"/>
+      <c r="AX1" s="188"/>
+      <c r="AY1" s="188"/>
+      <c r="AZ1" s="189"/>
     </row>
     <row r="2" spans="1:52" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
@@ -14345,32 +14345,32 @@
       <c r="P2" s="36"/>
       <c r="Q2" s="36"/>
       <c r="R2" s="37"/>
-      <c r="S2" s="179" t="str">
+      <c r="S2" s="194" t="str">
         <f>'１．機能概要'!W2</f>
         <v>全工程で試作の在庫払出可能化</v>
       </c>
-      <c r="T2" s="180"/>
-      <c r="U2" s="180"/>
-      <c r="V2" s="180"/>
-      <c r="W2" s="180"/>
-      <c r="X2" s="180"/>
-      <c r="Y2" s="180"/>
-      <c r="Z2" s="180"/>
-      <c r="AA2" s="180"/>
-      <c r="AB2" s="180"/>
-      <c r="AC2" s="180"/>
-      <c r="AD2" s="181"/>
+      <c r="T2" s="195"/>
+      <c r="U2" s="195"/>
+      <c r="V2" s="195"/>
+      <c r="W2" s="195"/>
+      <c r="X2" s="195"/>
+      <c r="Y2" s="195"/>
+      <c r="Z2" s="195"/>
+      <c r="AA2" s="195"/>
+      <c r="AB2" s="195"/>
+      <c r="AC2" s="195"/>
+      <c r="AD2" s="196"/>
       <c r="AE2" s="32" t="s">
         <v>24</v>
       </c>
       <c r="AF2" s="33"/>
       <c r="AG2" s="33"/>
       <c r="AH2" s="34"/>
-      <c r="AI2" s="178"/>
-      <c r="AJ2" s="173"/>
-      <c r="AK2" s="173"/>
-      <c r="AL2" s="173"/>
-      <c r="AM2" s="174"/>
+      <c r="AI2" s="193"/>
+      <c r="AJ2" s="188"/>
+      <c r="AK2" s="188"/>
+      <c r="AL2" s="188"/>
+      <c r="AM2" s="189"/>
       <c r="AN2" s="32" t="s">
         <v>26</v>
       </c>
@@ -14379,13 +14379,13 @@
       <c r="AQ2" s="33"/>
       <c r="AR2" s="33"/>
       <c r="AS2" s="34"/>
-      <c r="AT2" s="168"/>
-      <c r="AU2" s="173"/>
-      <c r="AV2" s="173"/>
-      <c r="AW2" s="173"/>
-      <c r="AX2" s="173"/>
-      <c r="AY2" s="173"/>
-      <c r="AZ2" s="174"/>
+      <c r="AT2" s="179"/>
+      <c r="AU2" s="188"/>
+      <c r="AV2" s="188"/>
+      <c r="AW2" s="188"/>
+      <c r="AX2" s="188"/>
+      <c r="AY2" s="188"/>
+      <c r="AZ2" s="189"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A3" s="51"/>
@@ -14614,7 +14614,7 @@
       <c r="AW6" s="18"/>
     </row>
     <row r="7" spans="1:52" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B7" s="185">
+      <c r="B7" s="200">
         <v>1</v>
       </c>
       <c r="C7" s="19" t="s">
@@ -14668,7 +14668,7 @@
       <c r="AW7" s="21"/>
     </row>
     <row r="8" spans="1:52" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B8" s="186"/>
+      <c r="B8" s="201"/>
       <c r="C8" s="23"/>
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
@@ -14718,7 +14718,7 @@
       <c r="AW8" s="25"/>
     </row>
     <row r="9" spans="1:52" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B9" s="185">
+      <c r="B9" s="200">
         <v>2</v>
       </c>
       <c r="C9" s="62" t="s">
@@ -14780,7 +14780,7 @@
       <c r="AW9" s="21"/>
     </row>
     <row r="10" spans="1:52" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B10" s="186"/>
+      <c r="B10" s="201"/>
       <c r="C10" s="60"/>
       <c r="D10" s="22"/>
       <c r="E10" s="22"/>
@@ -14830,7 +14830,7 @@
       <c r="AW10" s="25"/>
     </row>
     <row r="11" spans="1:52" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B11" s="185">
+      <c r="B11" s="200">
         <v>3</v>
       </c>
       <c r="C11" s="60"/>
@@ -14890,7 +14890,7 @@
       <c r="AW11" s="21"/>
     </row>
     <row r="12" spans="1:52" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B12" s="186"/>
+      <c r="B12" s="201"/>
       <c r="C12" s="60"/>
       <c r="D12" s="22"/>
       <c r="E12" s="22"/>
@@ -14940,7 +14940,7 @@
       <c r="AW12" s="25"/>
     </row>
     <row r="13" spans="1:52" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B13" s="185">
+      <c r="B13" s="200">
         <v>4</v>
       </c>
       <c r="C13" s="60"/>
@@ -14964,18 +14964,18 @@
       </c>
       <c r="R13" s="20"/>
       <c r="S13" s="21"/>
-      <c r="T13" s="187" t="s">
+      <c r="T13" s="202" t="s">
         <v>217</v>
       </c>
-      <c r="U13" s="188"/>
-      <c r="V13" s="188"/>
-      <c r="W13" s="188"/>
-      <c r="X13" s="188"/>
-      <c r="Y13" s="188"/>
-      <c r="Z13" s="188"/>
-      <c r="AA13" s="188"/>
-      <c r="AB13" s="188"/>
-      <c r="AC13" s="189"/>
+      <c r="U13" s="203"/>
+      <c r="V13" s="203"/>
+      <c r="W13" s="203"/>
+      <c r="X13" s="203"/>
+      <c r="Y13" s="203"/>
+      <c r="Z13" s="203"/>
+      <c r="AA13" s="203"/>
+      <c r="AB13" s="203"/>
+      <c r="AC13" s="204"/>
       <c r="AD13" s="62" t="s">
         <v>218</v>
       </c>
@@ -15000,7 +15000,7 @@
       <c r="AW13" s="21"/>
     </row>
     <row r="14" spans="1:52" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B14" s="186"/>
+      <c r="B14" s="201"/>
       <c r="C14" s="60"/>
       <c r="D14" s="22"/>
       <c r="E14" s="22"/>
@@ -15018,16 +15018,16 @@
       <c r="Q14" s="23"/>
       <c r="R14" s="24"/>
       <c r="S14" s="25"/>
-      <c r="T14" s="190"/>
-      <c r="U14" s="191"/>
-      <c r="V14" s="191"/>
-      <c r="W14" s="191"/>
-      <c r="X14" s="191"/>
-      <c r="Y14" s="191"/>
-      <c r="Z14" s="191"/>
-      <c r="AA14" s="191"/>
-      <c r="AB14" s="191"/>
-      <c r="AC14" s="192"/>
+      <c r="T14" s="205"/>
+      <c r="U14" s="206"/>
+      <c r="V14" s="206"/>
+      <c r="W14" s="206"/>
+      <c r="X14" s="206"/>
+      <c r="Y14" s="206"/>
+      <c r="Z14" s="206"/>
+      <c r="AA14" s="206"/>
+      <c r="AB14" s="206"/>
+      <c r="AC14" s="207"/>
       <c r="AD14" s="65"/>
       <c r="AE14" s="66"/>
       <c r="AF14" s="66"/>
@@ -15050,7 +15050,7 @@
       <c r="AW14" s="25"/>
     </row>
     <row r="15" spans="1:52" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B15" s="185">
+      <c r="B15" s="200">
         <v>5</v>
       </c>
       <c r="C15" s="60"/>
@@ -15074,18 +15074,18 @@
       </c>
       <c r="R15" s="20"/>
       <c r="S15" s="21"/>
-      <c r="T15" s="187" t="s">
+      <c r="T15" s="202" t="s">
         <v>132</v>
       </c>
-      <c r="U15" s="188"/>
-      <c r="V15" s="188"/>
-      <c r="W15" s="188"/>
-      <c r="X15" s="188"/>
-      <c r="Y15" s="188"/>
-      <c r="Z15" s="188"/>
-      <c r="AA15" s="188"/>
-      <c r="AB15" s="188"/>
-      <c r="AC15" s="189"/>
+      <c r="U15" s="203"/>
+      <c r="V15" s="203"/>
+      <c r="W15" s="203"/>
+      <c r="X15" s="203"/>
+      <c r="Y15" s="203"/>
+      <c r="Z15" s="203"/>
+      <c r="AA15" s="203"/>
+      <c r="AB15" s="203"/>
+      <c r="AC15" s="204"/>
       <c r="AD15" s="62" t="s">
         <v>131</v>
       </c>
@@ -15110,7 +15110,7 @@
       <c r="AW15" s="21"/>
     </row>
     <row r="16" spans="1:52" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B16" s="186"/>
+      <c r="B16" s="201"/>
       <c r="C16" s="60"/>
       <c r="D16" s="22"/>
       <c r="E16" s="22"/>
@@ -15128,16 +15128,16 @@
       <c r="Q16" s="23"/>
       <c r="R16" s="24"/>
       <c r="S16" s="25"/>
-      <c r="T16" s="190"/>
-      <c r="U16" s="191"/>
-      <c r="V16" s="191"/>
-      <c r="W16" s="191"/>
-      <c r="X16" s="191"/>
-      <c r="Y16" s="191"/>
-      <c r="Z16" s="191"/>
-      <c r="AA16" s="191"/>
-      <c r="AB16" s="191"/>
-      <c r="AC16" s="192"/>
+      <c r="T16" s="205"/>
+      <c r="U16" s="206"/>
+      <c r="V16" s="206"/>
+      <c r="W16" s="206"/>
+      <c r="X16" s="206"/>
+      <c r="Y16" s="206"/>
+      <c r="Z16" s="206"/>
+      <c r="AA16" s="206"/>
+      <c r="AB16" s="206"/>
+      <c r="AC16" s="207"/>
       <c r="AD16" s="65"/>
       <c r="AE16" s="66"/>
       <c r="AF16" s="66"/>
@@ -15160,7 +15160,7 @@
       <c r="AW16" s="25"/>
     </row>
     <row r="17" spans="1:52" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B17" s="185">
+      <c r="B17" s="200">
         <v>6</v>
       </c>
       <c r="C17" s="60"/>
@@ -15184,18 +15184,18 @@
       </c>
       <c r="R17" s="20"/>
       <c r="S17" s="21"/>
-      <c r="T17" s="187" t="s">
+      <c r="T17" s="202" t="s">
         <v>165</v>
       </c>
-      <c r="U17" s="188"/>
-      <c r="V17" s="188"/>
-      <c r="W17" s="188"/>
-      <c r="X17" s="188"/>
-      <c r="Y17" s="188"/>
-      <c r="Z17" s="188"/>
-      <c r="AA17" s="188"/>
-      <c r="AB17" s="188"/>
-      <c r="AC17" s="189"/>
+      <c r="U17" s="203"/>
+      <c r="V17" s="203"/>
+      <c r="W17" s="203"/>
+      <c r="X17" s="203"/>
+      <c r="Y17" s="203"/>
+      <c r="Z17" s="203"/>
+      <c r="AA17" s="203"/>
+      <c r="AB17" s="203"/>
+      <c r="AC17" s="204"/>
       <c r="AD17" s="62" t="s">
         <v>146</v>
       </c>
@@ -15220,7 +15220,7 @@
       <c r="AW17" s="21"/>
     </row>
     <row r="18" spans="1:52" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B18" s="186"/>
+      <c r="B18" s="201"/>
       <c r="C18" s="60"/>
       <c r="D18" s="22"/>
       <c r="E18" s="22"/>
@@ -15238,16 +15238,16 @@
       <c r="Q18" s="23"/>
       <c r="R18" s="24"/>
       <c r="S18" s="25"/>
-      <c r="T18" s="190"/>
-      <c r="U18" s="191"/>
-      <c r="V18" s="191"/>
-      <c r="W18" s="191"/>
-      <c r="X18" s="191"/>
-      <c r="Y18" s="191"/>
-      <c r="Z18" s="191"/>
-      <c r="AA18" s="191"/>
-      <c r="AB18" s="191"/>
-      <c r="AC18" s="192"/>
+      <c r="T18" s="205"/>
+      <c r="U18" s="206"/>
+      <c r="V18" s="206"/>
+      <c r="W18" s="206"/>
+      <c r="X18" s="206"/>
+      <c r="Y18" s="206"/>
+      <c r="Z18" s="206"/>
+      <c r="AA18" s="206"/>
+      <c r="AB18" s="206"/>
+      <c r="AC18" s="207"/>
       <c r="AD18" s="65"/>
       <c r="AE18" s="66"/>
       <c r="AF18" s="66"/>
@@ -15270,7 +15270,7 @@
       <c r="AW18" s="25"/>
     </row>
     <row r="19" spans="1:52" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="185">
+      <c r="B19" s="200">
         <v>7</v>
       </c>
       <c r="C19" s="62" t="s">
@@ -15330,7 +15330,7 @@
       <c r="AW19" s="64"/>
     </row>
     <row r="20" spans="1:52" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B20" s="186"/>
+      <c r="B20" s="201"/>
       <c r="C20" s="95"/>
       <c r="D20" s="96"/>
       <c r="E20" s="96"/>
@@ -19269,11 +19269,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="T17:AC18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="T15:AC16"/>
     <mergeCell ref="AT1:AZ1"/>
     <mergeCell ref="S2:AD2"/>
     <mergeCell ref="AI2:AM2"/>
@@ -19284,6 +19279,11 @@
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="AI1:AM1"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="T17:AC18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="T15:AC16"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.78740157480314965" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.19685039370078741"/>
@@ -19357,14 +19357,14 @@
       <c r="AF1" s="33"/>
       <c r="AG1" s="33"/>
       <c r="AH1" s="34"/>
-      <c r="AI1" s="165">
+      <c r="AI1" s="176">
         <f>変更履歴!E5</f>
         <v>43714</v>
       </c>
-      <c r="AJ1" s="180"/>
-      <c r="AK1" s="180"/>
-      <c r="AL1" s="180"/>
-      <c r="AM1" s="181"/>
+      <c r="AJ1" s="195"/>
+      <c r="AK1" s="195"/>
+      <c r="AL1" s="195"/>
+      <c r="AM1" s="196"/>
       <c r="AN1" s="32" t="s">
         <v>25</v>
       </c>
@@ -19373,16 +19373,16 @@
       <c r="AQ1" s="33"/>
       <c r="AR1" s="33"/>
       <c r="AS1" s="34"/>
-      <c r="AT1" s="168" t="str">
+      <c r="AT1" s="179" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
-      <c r="AU1" s="173"/>
-      <c r="AV1" s="173"/>
-      <c r="AW1" s="173"/>
-      <c r="AX1" s="173"/>
-      <c r="AY1" s="173"/>
-      <c r="AZ1" s="174"/>
+      <c r="AU1" s="188"/>
+      <c r="AV1" s="188"/>
+      <c r="AW1" s="188"/>
+      <c r="AX1" s="188"/>
+      <c r="AY1" s="188"/>
+      <c r="AZ1" s="189"/>
     </row>
     <row r="2" spans="1:52" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
@@ -19410,32 +19410,32 @@
       <c r="P2" s="36"/>
       <c r="Q2" s="36"/>
       <c r="R2" s="37"/>
-      <c r="S2" s="179" t="str">
+      <c r="S2" s="194" t="str">
         <f>'１．機能概要'!W2</f>
         <v>全工程で試作の在庫払出可能化</v>
       </c>
-      <c r="T2" s="180"/>
-      <c r="U2" s="180"/>
-      <c r="V2" s="180"/>
-      <c r="W2" s="180"/>
-      <c r="X2" s="180"/>
-      <c r="Y2" s="180"/>
-      <c r="Z2" s="180"/>
-      <c r="AA2" s="180"/>
-      <c r="AB2" s="180"/>
-      <c r="AC2" s="180"/>
-      <c r="AD2" s="181"/>
+      <c r="T2" s="195"/>
+      <c r="U2" s="195"/>
+      <c r="V2" s="195"/>
+      <c r="W2" s="195"/>
+      <c r="X2" s="195"/>
+      <c r="Y2" s="195"/>
+      <c r="Z2" s="195"/>
+      <c r="AA2" s="195"/>
+      <c r="AB2" s="195"/>
+      <c r="AC2" s="195"/>
+      <c r="AD2" s="196"/>
       <c r="AE2" s="32" t="s">
         <v>24</v>
       </c>
       <c r="AF2" s="33"/>
       <c r="AG2" s="33"/>
       <c r="AH2" s="34"/>
-      <c r="AI2" s="178"/>
-      <c r="AJ2" s="173"/>
-      <c r="AK2" s="173"/>
-      <c r="AL2" s="173"/>
-      <c r="AM2" s="174"/>
+      <c r="AI2" s="193"/>
+      <c r="AJ2" s="188"/>
+      <c r="AK2" s="188"/>
+      <c r="AL2" s="188"/>
+      <c r="AM2" s="189"/>
       <c r="AN2" s="32" t="s">
         <v>26</v>
       </c>
@@ -19444,13 +19444,13 @@
       <c r="AQ2" s="33"/>
       <c r="AR2" s="33"/>
       <c r="AS2" s="34"/>
-      <c r="AT2" s="168"/>
-      <c r="AU2" s="173"/>
-      <c r="AV2" s="173"/>
-      <c r="AW2" s="173"/>
-      <c r="AX2" s="173"/>
-      <c r="AY2" s="173"/>
-      <c r="AZ2" s="174"/>
+      <c r="AT2" s="179"/>
+      <c r="AU2" s="188"/>
+      <c r="AV2" s="188"/>
+      <c r="AW2" s="188"/>
+      <c r="AX2" s="188"/>
+      <c r="AY2" s="188"/>
+      <c r="AZ2" s="189"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A3" s="51"/>
@@ -30609,12 +30609,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005B3AFDF1A27EF4448B30400A700269C9" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="af1e50296a73b747a155d4c5a148cd8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72c70d25-b9e8-475b-ae7b-39931ca24b85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7c374c4e1cfeff0cf58497e8c642c22" ns2:_="">
     <xsd:import namespace="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
@@ -30772,6 +30766,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
   <ds:schemaRefs>
@@ -30781,15 +30781,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F39FE47-ED8B-411A-AD54-8C8E5636C88B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -30805,4 +30796,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/01_基本設計書/20200220リリース/SC-K20_全工程で試作の在庫払出可能化.xlsx
+++ b/01_基本設計書/20200220リリース/SC-K20_全工程で試作の在庫払出可能化.xlsx
@@ -6,10 +6,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zhang\Documents\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201911\仕様書\K-20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD4E172-5C75-4D70-A599-CA93DC30488C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A2B498-9DB3-4699-B6CD-F9505B7FA6E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -920,14 +920,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>必須チェック
-数量チェック</t>
-    <rPh sb="7" eb="9">
-      <t>スウリョウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>コードマスタ</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -1077,19 +1069,6 @@
   </si>
   <si>
     <t>Individual No</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>当日から過去一週間</t>
-    <rPh sb="0" eb="2">
-      <t>トウジツ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>カコ</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>イッシュウカン</t>
-    </rPh>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -1357,10 +1336,6 @@
   </si>
   <si>
     <t>Transfer division</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>カレンダー</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -2160,6 +2135,34 @@
     <rPh sb="0" eb="2">
       <t>ヒンメイ</t>
     </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>空欄</t>
+    <rPh sb="0" eb="2">
+      <t>クウラン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>在庫データ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">・日付範囲:システム日付から過去一週間
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・登録処理場合、必須</t>
+    </r>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -4048,16 +4051,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>102</xdr:col>
-      <xdr:colOff>122277</xdr:colOff>
+      <xdr:colOff>93706</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>37420</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
+        <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31CCE6E4-213F-45C3-9D02-0116375E21E3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{723385AB-C6B2-444E-8071-AD2E224814CC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4074,7 +4077,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="371475" y="1095375"/>
-          <a:ext cx="12380952" cy="5438095"/>
+          <a:ext cx="12352381" cy="5438095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8251,7 +8254,7 @@
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
       <c r="M33" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N33" s="9"/>
       <c r="O33" s="9"/>
@@ -8267,7 +8270,7 @@
       <c r="AC33" s="9"/>
       <c r="AD33" s="9"/>
       <c r="AE33" s="9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AF33" s="78"/>
       <c r="AG33" s="78"/>
@@ -8298,7 +8301,7 @@
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
       <c r="M34" s="121" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="N34" s="9"/>
       <c r="O34" s="9"/>
@@ -8314,7 +8317,7 @@
       <c r="AC34" s="9"/>
       <c r="AD34" s="9"/>
       <c r="AE34" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AF34" s="9"/>
       <c r="AG34" s="9"/>
@@ -8347,7 +8350,7 @@
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
       <c r="M35" s="121" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N35" s="9"/>
       <c r="O35" s="9"/>
@@ -8363,7 +8366,7 @@
       <c r="AC35" s="9"/>
       <c r="AD35" s="9"/>
       <c r="AE35" s="9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AF35" s="9"/>
       <c r="AG35" s="9"/>
@@ -8720,7 +8723,7 @@
       </c>
       <c r="C42" s="187"/>
       <c r="D42" s="69" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E42" s="73"/>
       <c r="F42" s="73"/>
@@ -8761,7 +8764,7 @@
       <c r="AK42" s="182"/>
       <c r="AL42" s="183"/>
       <c r="AM42" s="70" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AN42" s="71"/>
       <c r="AO42" s="71"/>
@@ -8798,7 +8801,7 @@
       </c>
       <c r="C43" s="173"/>
       <c r="D43" s="123" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E43" s="124"/>
       <c r="F43" s="124"/>
@@ -8807,7 +8810,7 @@
       <c r="I43" s="124"/>
       <c r="J43" s="125"/>
       <c r="K43" s="123" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="L43" s="124"/>
       <c r="M43" s="124"/>
@@ -8839,7 +8842,7 @@
       <c r="AK43" s="174"/>
       <c r="AL43" s="175"/>
       <c r="AM43" s="126" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="AN43" s="127"/>
       <c r="AO43" s="127"/>
@@ -8868,7 +8871,7 @@
       </c>
       <c r="C44" s="187"/>
       <c r="D44" s="99" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E44" s="73"/>
       <c r="F44" s="73"/>
@@ -8877,7 +8880,7 @@
       <c r="I44" s="73"/>
       <c r="J44" s="100"/>
       <c r="K44" s="99" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L44" s="73"/>
       <c r="M44" s="73"/>
@@ -8909,7 +8912,7 @@
       <c r="AK44" s="182"/>
       <c r="AL44" s="183"/>
       <c r="AM44" s="70" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AN44" s="71"/>
       <c r="AO44" s="71"/>
@@ -8946,7 +8949,7 @@
       </c>
       <c r="C45" s="173"/>
       <c r="D45" s="103" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E45" s="73"/>
       <c r="F45" s="73"/>
@@ -8955,7 +8958,7 @@
       <c r="I45" s="73"/>
       <c r="J45" s="104"/>
       <c r="K45" s="103" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L45" s="73"/>
       <c r="M45" s="73"/>
@@ -8987,7 +8990,7 @@
       <c r="AK45" s="182"/>
       <c r="AL45" s="183"/>
       <c r="AM45" s="70" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="AN45" s="71"/>
       <c r="AO45" s="71"/>
@@ -9024,7 +9027,7 @@
       </c>
       <c r="C46" s="187"/>
       <c r="D46" s="99" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E46" s="73"/>
       <c r="F46" s="73"/>
@@ -9033,7 +9036,7 @@
       <c r="I46" s="73"/>
       <c r="J46" s="100"/>
       <c r="K46" s="99" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L46" s="73"/>
       <c r="M46" s="73"/>
@@ -9065,7 +9068,7 @@
       <c r="AK46" s="182"/>
       <c r="AL46" s="183"/>
       <c r="AM46" s="70" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="AN46" s="71"/>
       <c r="AO46" s="71"/>
@@ -9102,7 +9105,7 @@
       </c>
       <c r="C47" s="173"/>
       <c r="D47" s="99" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E47" s="73"/>
       <c r="F47" s="73"/>
@@ -9111,7 +9114,7 @@
       <c r="I47" s="73"/>
       <c r="J47" s="100"/>
       <c r="K47" s="99" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L47" s="73"/>
       <c r="M47" s="73"/>
@@ -9143,7 +9146,7 @@
       <c r="AK47" s="182"/>
       <c r="AL47" s="183"/>
       <c r="AM47" s="70" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AN47" s="71"/>
       <c r="AO47" s="71"/>
@@ -9585,7 +9588,7 @@
   <dimension ref="A1:R28"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="L31" sqref="L31"/>
       <selection pane="topRight" activeCell="L31" sqref="L31"/>
       <selection pane="bottomLeft" activeCell="L31" sqref="L31"/>
@@ -9782,10 +9785,10 @@
         <v>47</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>39</v>
@@ -9816,7 +9819,7 @@
       </c>
       <c r="P8" s="7"/>
       <c r="Q8" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
@@ -9829,10 +9832,10 @@
         <v>48</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G9" s="14" t="s">
         <v>39</v>
@@ -9865,7 +9868,7 @@
         <v>34</v>
       </c>
       <c r="Q9" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.15">
@@ -9875,10 +9878,10 @@
         <v>3</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>115</v>
@@ -9914,7 +9917,7 @@
         <v>34</v>
       </c>
       <c r="Q10" s="8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
@@ -9924,10 +9927,10 @@
         <v>4</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>109</v>
@@ -10062,7 +10065,7 @@
         <v>116</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>42</v>
@@ -10079,11 +10082,11 @@
       <c r="L16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="M16" s="7" t="s">
-        <v>34</v>
+      <c r="M16" s="119" t="s">
+        <v>101</v>
       </c>
       <c r="N16" s="102" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>34</v>
@@ -10102,13 +10105,13 @@
         <v>2</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G17" s="14" t="s">
         <v>92</v>
@@ -10125,23 +10128,23 @@
       <c r="K17" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="L17" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="M17" s="7" t="s">
-        <v>34</v>
+      <c r="L17" s="119" t="s">
+        <v>283</v>
+      </c>
+      <c r="M17" s="119" t="s">
+        <v>101</v>
       </c>
       <c r="N17" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>34</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.15">
@@ -10151,13 +10154,13 @@
         <v>3</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G18" s="14" t="s">
         <v>93</v>
@@ -10174,11 +10177,11 @@
       <c r="K18" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="L18" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="M18" s="7" t="s">
-        <v>34</v>
+      <c r="L18" s="119" t="s">
+        <v>283</v>
+      </c>
+      <c r="M18" s="119" t="s">
+        <v>101</v>
       </c>
       <c r="N18" s="7" t="s">
         <v>34</v>
@@ -10187,7 +10190,7 @@
         <v>34</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>34</v>
@@ -10295,19 +10298,19 @@
         <v>1</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E23" s="14" t="s">
         <v>113</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G23" s="42" t="s">
         <v>93</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="I23" s="101">
         <v>25</v>
@@ -10331,29 +10334,29 @@
         <v>35</v>
       </c>
       <c r="P23" s="120" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="Q23" s="8" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A24" s="13"/>
       <c r="B24" s="52"/>
       <c r="C24" s="7">
         <v>2</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E24" s="118" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F24" s="119" t="s">
-        <v>241</v>
-      </c>
-      <c r="G24" s="42" t="s">
-        <v>190</v>
+        <v>238</v>
+      </c>
+      <c r="G24" s="118" t="s">
+        <v>92</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>94</v>
@@ -10365,16 +10368,16 @@
         <v>35</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="M24" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="N24" s="8" t="s">
-        <v>142</v>
+      <c r="N24" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>35</v>
@@ -10382,8 +10385,8 @@
       <c r="P24" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="Q24" s="8" t="s">
-        <v>199</v>
+      <c r="Q24" s="120" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="28.5" x14ac:dyDescent="0.15">
@@ -10393,13 +10396,13 @@
         <v>3</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F25" s="119" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G25" s="14" t="s">
         <v>92</v>
@@ -10423,16 +10426,16 @@
         <v>101</v>
       </c>
       <c r="N25" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>35</v>
       </c>
       <c r="P25" s="116" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="Q25" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="28.5" x14ac:dyDescent="0.15">
@@ -10442,13 +10445,13 @@
         <v>4</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E26" s="118" t="s">
+        <v>237</v>
+      </c>
+      <c r="F26" s="119" t="s">
         <v>240</v>
-      </c>
-      <c r="F26" s="119" t="s">
-        <v>243</v>
       </c>
       <c r="G26" s="42" t="s">
         <v>93</v>
@@ -10468,8 +10471,8 @@
       <c r="L26" s="101">
         <v>1</v>
       </c>
-      <c r="M26" s="8" t="s">
-        <v>119</v>
+      <c r="M26" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="N26" s="7" t="s">
         <v>35</v>
@@ -10481,7 +10484,7 @@
         <v>35</v>
       </c>
       <c r="Q26" s="8" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="28.5" x14ac:dyDescent="0.15">
@@ -10491,13 +10494,13 @@
         <v>5</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E27" s="14" t="s">
         <v>114</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G27" s="14" t="s">
         <v>92</v>
@@ -10521,16 +10524,16 @@
         <v>101</v>
       </c>
       <c r="N27" s="119" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>35</v>
       </c>
       <c r="P27" s="120" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="Q27" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
@@ -10540,7 +10543,7 @@
         <v>6</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E28" s="14" t="s">
         <v>32</v>
@@ -10566,8 +10569,8 @@
       <c r="L28" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="M28" s="7" t="s">
-        <v>101</v>
+      <c r="M28" s="119" t="s">
+        <v>35</v>
       </c>
       <c r="N28" s="7" t="s">
         <v>35</v>
@@ -11122,20 +11125,20 @@
         <v>2</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
       <c r="F11" s="21"/>
       <c r="G11" s="19" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H11" s="20"/>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
       <c r="K11" s="20"/>
       <c r="L11" s="19" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="M11" s="20"/>
       <c r="N11" s="20"/>
@@ -11182,7 +11185,7 @@
         <v>78</v>
       </c>
       <c r="L12" s="60" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="AV12" s="61"/>
     </row>
@@ -11192,7 +11195,7 @@
       <c r="F13" s="61"/>
       <c r="G13" s="60"/>
       <c r="L13" s="60" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AV13" s="61"/>
     </row>
@@ -11211,7 +11214,7 @@
       <c r="G15" s="60"/>
       <c r="L15" s="60"/>
       <c r="M15" s="110" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="N15" s="110"/>
       <c r="O15" s="110"/>
@@ -11232,7 +11235,7 @@
       <c r="G16" s="60"/>
       <c r="L16" s="60"/>
       <c r="N16" s="110" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="O16" s="110"/>
       <c r="P16" s="110"/>
@@ -11252,7 +11255,7 @@
       <c r="G17" s="60"/>
       <c r="L17" s="60"/>
       <c r="N17" s="110" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="O17" s="110"/>
       <c r="P17" s="110"/>
@@ -11272,7 +11275,7 @@
       <c r="G18" s="60"/>
       <c r="L18" s="60"/>
       <c r="N18" s="110" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="O18" s="110"/>
       <c r="P18" s="110"/>
@@ -11292,7 +11295,7 @@
       <c r="G19" s="60"/>
       <c r="L19" s="60"/>
       <c r="N19" s="110" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="O19" s="110"/>
       <c r="P19" s="110"/>
@@ -11312,7 +11315,7 @@
       <c r="G20" s="60"/>
       <c r="L20" s="60"/>
       <c r="N20" s="110" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="O20" s="110"/>
       <c r="P20" s="110"/>
@@ -11332,7 +11335,7 @@
       <c r="G21" s="60"/>
       <c r="L21" s="60"/>
       <c r="N21" s="110" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="O21" s="110"/>
       <c r="P21" s="110"/>
@@ -11371,7 +11374,7 @@
       <c r="G23" s="60"/>
       <c r="L23" s="60"/>
       <c r="M23" s="110" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="N23" s="110"/>
       <c r="O23" s="110"/>
@@ -11392,7 +11395,7 @@
       <c r="G24" s="60"/>
       <c r="L24" s="60"/>
       <c r="N24" s="110" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="O24" s="110"/>
       <c r="P24" s="110"/>
@@ -11412,7 +11415,7 @@
       <c r="G25" s="60"/>
       <c r="L25" s="60"/>
       <c r="N25" s="110" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="O25" s="110"/>
       <c r="P25" s="110"/>
@@ -11433,7 +11436,7 @@
       <c r="L26" s="60"/>
       <c r="N26" s="110"/>
       <c r="O26" s="110" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="P26" s="110"/>
       <c r="Q26" s="110"/>
@@ -11443,10 +11446,10 @@
       <c r="U26" s="110"/>
       <c r="V26" s="110"/>
       <c r="W26" s="110" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="X26" s="15" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="AV26" s="61"/>
     </row>
@@ -11458,7 +11461,7 @@
       <c r="L27" s="60"/>
       <c r="N27" s="110"/>
       <c r="O27" s="110" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="P27" s="110"/>
       <c r="Q27" s="110"/>
@@ -11468,10 +11471,10 @@
       <c r="U27" s="110"/>
       <c r="V27" s="110"/>
       <c r="W27" s="110" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="X27" s="15" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="AV27" s="61"/>
     </row>
@@ -11483,7 +11486,7 @@
       <c r="L28" s="60"/>
       <c r="N28" s="110"/>
       <c r="O28" s="110" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="P28" s="110"/>
       <c r="Q28" s="110"/>
@@ -11493,10 +11496,10 @@
       <c r="U28" s="110"/>
       <c r="V28" s="110"/>
       <c r="W28" s="110" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="X28" s="15" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="AV28" s="61"/>
     </row>
@@ -11508,7 +11511,7 @@
       <c r="L29" s="60"/>
       <c r="N29" s="110"/>
       <c r="O29" s="110" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="P29" s="110"/>
       <c r="Q29" s="110"/>
@@ -11518,10 +11521,10 @@
       <c r="U29" s="110"/>
       <c r="V29" s="110"/>
       <c r="W29" s="110" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="X29" s="15" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="AV29" s="61"/>
     </row>
@@ -11533,7 +11536,7 @@
       <c r="L30" s="60"/>
       <c r="N30" s="110"/>
       <c r="O30" s="110" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="P30" s="110"/>
       <c r="Q30" s="110"/>
@@ -11543,10 +11546,10 @@
       <c r="U30" s="110"/>
       <c r="V30" s="110"/>
       <c r="W30" s="110" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="X30" s="15" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="AV30" s="61"/>
     </row>
@@ -11575,7 +11578,7 @@
       <c r="G32" s="60"/>
       <c r="L32" s="60"/>
       <c r="M32" s="110" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="N32" s="110"/>
       <c r="O32" s="110"/>
@@ -11596,7 +11599,7 @@
       <c r="G33" s="60"/>
       <c r="L33" s="60"/>
       <c r="N33" s="110" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="O33" s="110"/>
       <c r="P33" s="110"/>
@@ -11607,10 +11610,10 @@
       <c r="U33" s="110"/>
       <c r="V33" s="110"/>
       <c r="W33" s="110" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="X33" s="115" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="Y33" s="110"/>
       <c r="Z33" s="110"/>
@@ -11623,7 +11626,7 @@
       <c r="G34" s="60"/>
       <c r="L34" s="60"/>
       <c r="N34" s="110" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="O34" s="110"/>
       <c r="P34" s="110"/>
@@ -11634,15 +11637,15 @@
       <c r="U34" s="110"/>
       <c r="V34" s="110"/>
       <c r="W34" s="110" t="s">
+        <v>199</v>
+      </c>
+      <c r="X34" s="115" t="s">
         <v>202</v>
-      </c>
-      <c r="X34" s="115" t="s">
-        <v>205</v>
       </c>
       <c r="Y34" s="110"/>
       <c r="Z34" s="110"/>
       <c r="AJ34" s="110" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AV34" s="61"/>
     </row>
@@ -11653,7 +11656,7 @@
       <c r="G35" s="60"/>
       <c r="L35" s="60"/>
       <c r="N35" s="110" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="O35" s="110"/>
       <c r="P35" s="110"/>
@@ -11663,15 +11666,15 @@
       <c r="T35" s="110"/>
       <c r="U35" s="110"/>
       <c r="W35" s="110" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="X35" s="115" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="Y35" s="110"/>
       <c r="Z35" s="110"/>
       <c r="AJ35" s="110" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AV35" s="61"/>
     </row>
@@ -11682,7 +11685,7 @@
       <c r="G36" s="60"/>
       <c r="L36" s="60"/>
       <c r="N36" s="110" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="O36" s="110"/>
       <c r="P36" s="110"/>
@@ -11693,14 +11696,14 @@
       <c r="U36" s="110"/>
       <c r="V36" s="110"/>
       <c r="W36" s="110" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="X36" s="115" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="Y36" s="110"/>
       <c r="AJ36" s="110" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AV36" s="61"/>
     </row>
@@ -11731,7 +11734,7 @@
       <c r="F38" s="61"/>
       <c r="G38" s="60"/>
       <c r="L38" s="60" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M38" s="110"/>
       <c r="N38" s="110"/>
@@ -11771,7 +11774,7 @@
       <c r="F39" s="61"/>
       <c r="G39" s="60"/>
       <c r="L39" s="60" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="M39" s="110"/>
       <c r="N39" s="110"/>
@@ -11859,7 +11862,7 @@
       <c r="J41" s="20"/>
       <c r="K41" s="21"/>
       <c r="L41" s="19" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="M41" s="20"/>
       <c r="N41" s="20"/>
@@ -11907,7 +11910,7 @@
       </c>
       <c r="K42" s="61"/>
       <c r="L42" s="60" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
@@ -11997,7 +12000,7 @@
       <c r="G44" s="60"/>
       <c r="K44" s="61"/>
       <c r="L44" s="111" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="M44" s="98"/>
       <c r="N44" s="98"/>
@@ -12088,7 +12091,7 @@
       <c r="K46" s="61"/>
       <c r="L46" s="111"/>
       <c r="M46" s="98" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N46" s="98"/>
       <c r="O46" s="98"/>
@@ -12133,7 +12136,7 @@
       <c r="L47" s="111"/>
       <c r="M47" s="98"/>
       <c r="N47" s="98" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="O47" s="98"/>
       <c r="P47" s="98"/>
@@ -12176,7 +12179,7 @@
       <c r="K48" s="61"/>
       <c r="L48" s="111"/>
       <c r="M48" s="98" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N48" s="98"/>
       <c r="O48" s="98"/>
@@ -12220,7 +12223,7 @@
       <c r="L49" s="109"/>
       <c r="M49" s="22"/>
       <c r="N49" s="98" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O49" s="98"/>
       <c r="P49" s="98"/>
@@ -12228,7 +12231,7 @@
       <c r="R49" s="98"/>
       <c r="S49" s="98"/>
       <c r="T49" s="115" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="U49" s="98"/>
       <c r="V49" s="112"/>
@@ -12266,7 +12269,7 @@
       <c r="L50" s="111"/>
       <c r="M50" s="98"/>
       <c r="N50" s="98" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O50" s="98"/>
       <c r="P50" s="98"/>
@@ -12274,7 +12277,7 @@
       <c r="R50" s="98"/>
       <c r="S50" s="98"/>
       <c r="T50" s="98" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="U50" s="98"/>
       <c r="V50" s="98"/>
@@ -12311,7 +12314,7 @@
       <c r="L51" s="109"/>
       <c r="M51" s="22"/>
       <c r="N51" s="98" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O51" s="98"/>
       <c r="P51" s="98"/>
@@ -12319,7 +12322,7 @@
       <c r="R51" s="98"/>
       <c r="S51" s="98"/>
       <c r="T51" s="98" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="U51" s="98"/>
       <c r="V51" s="112"/>
@@ -12356,7 +12359,7 @@
       <c r="L52" s="109"/>
       <c r="M52" s="22"/>
       <c r="N52" s="98" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="O52" s="98"/>
       <c r="P52" s="98"/>
@@ -12364,7 +12367,7 @@
       <c r="R52" s="98"/>
       <c r="S52" s="98"/>
       <c r="T52" s="98" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="U52" s="98"/>
       <c r="V52" s="112"/>
@@ -12401,7 +12404,7 @@
       <c r="L53" s="109"/>
       <c r="M53" s="22"/>
       <c r="N53" s="98" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="O53" s="98"/>
       <c r="P53" s="98"/>
@@ -12409,7 +12412,7 @@
       <c r="R53" s="98"/>
       <c r="S53" s="98"/>
       <c r="T53" s="98" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="U53" s="98"/>
       <c r="V53" s="112"/>
@@ -12446,7 +12449,7 @@
       <c r="L54" s="109"/>
       <c r="M54" s="22"/>
       <c r="N54" s="98" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="O54" s="98"/>
       <c r="P54" s="98"/>
@@ -12454,7 +12457,7 @@
       <c r="R54" s="98"/>
       <c r="S54" s="98"/>
       <c r="T54" s="98" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="U54" s="98"/>
       <c r="V54" s="112"/>
@@ -12491,7 +12494,7 @@
       <c r="L55" s="109"/>
       <c r="M55" s="22"/>
       <c r="N55" s="98" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="O55" s="98"/>
       <c r="P55" s="98"/>
@@ -12499,7 +12502,7 @@
       <c r="R55" s="98"/>
       <c r="S55" s="98"/>
       <c r="T55" s="98" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="U55" s="98"/>
       <c r="V55" s="112"/>
@@ -12536,7 +12539,7 @@
       <c r="L56" s="109"/>
       <c r="M56" s="22"/>
       <c r="N56" s="98" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O56" s="98"/>
       <c r="P56" s="98"/>
@@ -12544,7 +12547,7 @@
       <c r="R56" s="98"/>
       <c r="S56" s="98"/>
       <c r="T56" s="98" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="U56" s="98"/>
       <c r="V56" s="98"/>
@@ -12582,7 +12585,7 @@
       <c r="L57" s="111"/>
       <c r="M57" s="98"/>
       <c r="N57" s="98" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="O57" s="98"/>
       <c r="P57" s="98"/>
@@ -12590,7 +12593,7 @@
       <c r="R57" s="98"/>
       <c r="S57" s="98"/>
       <c r="T57" s="98" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="U57" s="98"/>
       <c r="V57" s="98"/>
@@ -12628,7 +12631,7 @@
       <c r="L58" s="111"/>
       <c r="M58" s="98"/>
       <c r="N58" s="98" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O58" s="98"/>
       <c r="P58" s="98"/>
@@ -12636,7 +12639,7 @@
       <c r="R58" s="98"/>
       <c r="S58" s="98"/>
       <c r="T58" s="98" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="U58" s="98"/>
       <c r="V58" s="98"/>
@@ -12674,7 +12677,7 @@
       <c r="L59" s="111"/>
       <c r="M59" s="98"/>
       <c r="N59" s="98" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O59" s="98"/>
       <c r="P59" s="98"/>
@@ -12682,7 +12685,7 @@
       <c r="R59" s="98"/>
       <c r="S59" s="98"/>
       <c r="T59" s="117" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="U59" s="98"/>
       <c r="V59" s="98"/>
@@ -12720,7 +12723,7 @@
       <c r="L60" s="111"/>
       <c r="M60" s="98"/>
       <c r="N60" s="98" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="O60" s="98"/>
       <c r="P60" s="98"/>
@@ -12728,7 +12731,7 @@
       <c r="R60" s="98"/>
       <c r="S60" s="98"/>
       <c r="T60" s="98" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="U60" s="98"/>
       <c r="V60" s="98"/>
@@ -12766,7 +12769,7 @@
       <c r="L61" s="111"/>
       <c r="M61" s="98"/>
       <c r="N61" s="98" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O61" s="98"/>
       <c r="P61" s="98"/>
@@ -12774,7 +12777,7 @@
       <c r="R61" s="98"/>
       <c r="S61" s="98"/>
       <c r="T61" s="98" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="U61" s="98"/>
       <c r="V61" s="98"/>
@@ -12812,7 +12815,7 @@
       <c r="L62" s="111"/>
       <c r="M62" s="98"/>
       <c r="N62" s="98" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O62" s="98"/>
       <c r="P62" s="98"/>
@@ -12820,7 +12823,7 @@
       <c r="R62" s="98"/>
       <c r="S62" s="98"/>
       <c r="T62" s="98" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="U62" s="98"/>
       <c r="V62" s="98"/>
@@ -12857,7 +12860,7 @@
       <c r="K63" s="61"/>
       <c r="L63" s="111"/>
       <c r="M63" s="98" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N63" s="98"/>
       <c r="O63" s="98"/>
@@ -12902,7 +12905,7 @@
       <c r="L64" s="111"/>
       <c r="M64" s="98"/>
       <c r="N64" s="98" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O64" s="98"/>
       <c r="P64" s="98"/>
@@ -12988,7 +12991,7 @@
       <c r="G66" s="60"/>
       <c r="K66" s="61"/>
       <c r="L66" s="95" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="M66" s="96"/>
       <c r="N66" s="96"/>
@@ -13035,7 +13038,7 @@
       <c r="K67" s="61"/>
       <c r="L67" s="111"/>
       <c r="M67" s="98" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N67" s="98"/>
       <c r="O67" s="98"/>
@@ -13082,7 +13085,7 @@
       <c r="L68" s="111"/>
       <c r="M68" s="98"/>
       <c r="N68" s="98" t="s">
-        <v>162</v>
+        <v>284</v>
       </c>
       <c r="O68" s="98"/>
       <c r="P68" s="98"/>
@@ -13127,7 +13130,7 @@
       <c r="K69" s="61"/>
       <c r="L69" s="111"/>
       <c r="M69" s="98" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N69" s="98"/>
       <c r="O69" s="98"/>
@@ -13174,18 +13177,18 @@
       <c r="L70" s="111"/>
       <c r="M70" s="98"/>
       <c r="N70" s="22" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="O70" s="22"/>
       <c r="P70" s="22"/>
       <c r="Q70" s="22"/>
       <c r="R70" s="22"/>
       <c r="S70" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="T70" s="22"/>
       <c r="U70" s="22" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="V70" s="22"/>
       <c r="W70" s="22"/>
@@ -13224,18 +13227,18 @@
       <c r="L71" s="111"/>
       <c r="M71" s="98"/>
       <c r="N71" s="22" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O71" s="22"/>
       <c r="P71" s="22"/>
       <c r="Q71" s="22"/>
       <c r="R71" s="22"/>
       <c r="S71" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="T71" s="22"/>
       <c r="U71" s="22" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="V71" s="22"/>
       <c r="W71" s="22"/>
@@ -13274,18 +13277,18 @@
       <c r="L72" s="111"/>
       <c r="M72" s="98"/>
       <c r="N72" s="22" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O72" s="22"/>
       <c r="P72" s="22"/>
       <c r="Q72" s="22"/>
       <c r="R72" s="22"/>
       <c r="S72" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="T72" s="22"/>
       <c r="U72" s="22" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="V72" s="22"/>
       <c r="W72" s="22"/>
@@ -13323,7 +13326,7 @@
       <c r="K73" s="61"/>
       <c r="L73" s="111"/>
       <c r="M73" s="98" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N73" s="98"/>
       <c r="O73" s="98"/>
@@ -13370,18 +13373,18 @@
       <c r="L74" s="111"/>
       <c r="M74" s="98"/>
       <c r="N74" s="98" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="O74" s="98"/>
       <c r="P74" s="98"/>
       <c r="Q74" s="22"/>
       <c r="R74" s="22"/>
       <c r="S74" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="T74" s="98"/>
       <c r="U74" s="115" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="V74" s="98"/>
       <c r="W74" s="98"/>
@@ -13420,18 +13423,18 @@
       <c r="L75" s="111"/>
       <c r="M75" s="98"/>
       <c r="N75" s="98" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="O75" s="98"/>
       <c r="P75" s="98"/>
       <c r="Q75" s="22"/>
       <c r="R75" s="22"/>
       <c r="S75" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="T75" s="98"/>
       <c r="U75" s="98" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="V75" s="98"/>
       <c r="W75" s="98"/>
@@ -13470,18 +13473,18 @@
       <c r="L76" s="111"/>
       <c r="M76" s="98"/>
       <c r="N76" s="98" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="O76" s="98"/>
       <c r="P76" s="98"/>
       <c r="Q76" s="22"/>
       <c r="R76" s="22"/>
       <c r="S76" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="T76" s="98"/>
       <c r="U76" s="98" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="V76" s="98"/>
       <c r="W76" s="98"/>
@@ -13520,18 +13523,18 @@
       <c r="L77" s="111"/>
       <c r="M77" s="98"/>
       <c r="N77" s="98" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="O77" s="98"/>
       <c r="P77" s="98"/>
       <c r="Q77" s="22"/>
       <c r="R77" s="22"/>
       <c r="S77" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="T77" s="98"/>
       <c r="U77" s="98" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="V77" s="98"/>
       <c r="W77" s="98"/>
@@ -13570,18 +13573,18 @@
       <c r="L78" s="111"/>
       <c r="M78" s="98"/>
       <c r="N78" s="98" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="O78" s="98"/>
       <c r="P78" s="98"/>
       <c r="Q78" s="22"/>
       <c r="R78" s="22"/>
       <c r="S78" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="T78" s="98"/>
       <c r="U78" s="98" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="V78" s="98"/>
       <c r="W78" s="98"/>
@@ -13620,18 +13623,18 @@
       <c r="L79" s="111"/>
       <c r="M79" s="98"/>
       <c r="N79" s="98" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O79" s="98"/>
       <c r="P79" s="98"/>
       <c r="Q79" s="22"/>
       <c r="R79" s="22"/>
       <c r="S79" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="T79" s="98"/>
       <c r="U79" s="98" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="V79" s="98"/>
       <c r="W79" s="98"/>
@@ -13713,7 +13716,7 @@
       <c r="K81" s="61"/>
       <c r="L81" s="111"/>
       <c r="M81" s="22" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N81" s="22"/>
       <c r="O81" s="22"/>
@@ -13802,7 +13805,7 @@
       <c r="G83" s="60"/>
       <c r="K83" s="61"/>
       <c r="L83" s="111" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="M83" s="98"/>
       <c r="N83" s="98"/>
@@ -13849,7 +13852,7 @@
       <c r="K84" s="61"/>
       <c r="L84" s="111"/>
       <c r="M84" s="98" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N84" s="98"/>
       <c r="O84" s="98"/>
@@ -13941,20 +13944,20 @@
         <v>4</v>
       </c>
       <c r="C86" s="19" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D86" s="20"/>
       <c r="E86" s="20"/>
       <c r="F86" s="21"/>
       <c r="G86" s="19" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H86" s="20"/>
       <c r="I86" s="20"/>
       <c r="J86" s="20"/>
       <c r="K86" s="21"/>
       <c r="L86" s="20" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="M86" s="20"/>
       <c r="N86" s="20"/>
@@ -14951,7 +14954,7 @@
       <c r="H13" s="22"/>
       <c r="I13" s="61"/>
       <c r="J13" s="19" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K13" s="20"/>
       <c r="L13" s="20"/>
@@ -14965,7 +14968,7 @@
       <c r="R13" s="20"/>
       <c r="S13" s="21"/>
       <c r="T13" s="202" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="U13" s="203"/>
       <c r="V13" s="203"/>
@@ -14977,7 +14980,7 @@
       <c r="AB13" s="203"/>
       <c r="AC13" s="204"/>
       <c r="AD13" s="62" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="AE13" s="63"/>
       <c r="AF13" s="63"/>
@@ -15061,7 +15064,7 @@
       <c r="H15" s="22"/>
       <c r="I15" s="61"/>
       <c r="J15" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K15" s="20"/>
       <c r="L15" s="20"/>
@@ -15075,7 +15078,7 @@
       <c r="R15" s="20"/>
       <c r="S15" s="21"/>
       <c r="T15" s="202" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U15" s="203"/>
       <c r="V15" s="203"/>
@@ -15087,7 +15090,7 @@
       <c r="AB15" s="203"/>
       <c r="AC15" s="204"/>
       <c r="AD15" s="62" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AE15" s="63"/>
       <c r="AF15" s="63"/>
@@ -15171,7 +15174,7 @@
       <c r="H17" s="22"/>
       <c r="I17" s="61"/>
       <c r="J17" s="19" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K17" s="20"/>
       <c r="L17" s="20"/>
@@ -15185,7 +15188,7 @@
       <c r="R17" s="20"/>
       <c r="S17" s="21"/>
       <c r="T17" s="202" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="U17" s="203"/>
       <c r="V17" s="203"/>
@@ -15197,7 +15200,7 @@
       <c r="AB17" s="203"/>
       <c r="AC17" s="204"/>
       <c r="AD17" s="62" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AE17" s="63"/>
       <c r="AF17" s="63"/>
@@ -15295,7 +15298,7 @@
       <c r="R19" s="63"/>
       <c r="S19" s="64"/>
       <c r="T19" s="108" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="U19" s="108"/>
       <c r="V19" s="108"/>
@@ -19730,7 +19733,7 @@
       <c r="A8" s="47"/>
       <c r="B8" s="47"/>
       <c r="C8" s="47" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D8" s="47"/>
       <c r="E8" s="47"/>
@@ -30600,15 +30603,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005B3AFDF1A27EF4448B30400A700269C9" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="af1e50296a73b747a155d4c5a148cd8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72c70d25-b9e8-475b-ae7b-39931ca24b85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7c374c4e1cfeff0cf58497e8c642c22" ns2:_="">
     <xsd:import namespace="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
@@ -30766,21 +30760,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F39FE47-ED8B-411A-AD54-8C8E5636C88B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -30798,11 +30793,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/01_基本設計書/20200220リリース/SC-K20_全工程で試作の在庫払出可能化.xlsx
+++ b/01_基本設計書/20200220リリース/SC-K20_全工程で試作の在庫払出可能化.xlsx
@@ -9,9 +9,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201911\仕様書\K-20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD01F0F-4079-42EF-A500-507BFA58F76C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FEB66D9-14C7-4A12-8E08-D00F7922800E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="20490" windowHeight="10230" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="615" windowWidth="20490" windowHeight="10230" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -1426,29 +1426,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>・手入力不可
-・登録処理場合、必須</t>
-    <rPh sb="1" eb="2">
-      <t>テ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ニュウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヒッス</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>＜検索条件＞</t>
     <rPh sb="1" eb="2">
       <t>オモ</t>
@@ -2149,23 +2126,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">・日付範囲:システム日付から過去一週間
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・登録処理場合、必須</t>
-    </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>登録処理の確認</t>
     <rPh sb="0" eb="2">
       <t>トウロク</t>
@@ -2216,6 +2176,88 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">・日付範囲:システム日付から過去一週間
+・ソート順：日付降順
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・登録処理場合、必須</t>
+    </r>
+    <rPh sb="24" eb="25">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>コウジュン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">・手入力不可
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">・検索条件(区分、工程コード、個体NO)を変更すると、クリアする
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・登録処理場合、必須</t>
+    </r>
+    <rPh sb="1" eb="2">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ニュウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ヒッス</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -3074,6 +3116,48 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="58" fontId="11" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3083,6 +3167,91 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3110,107 +3279,16 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="27" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3231,17 +3309,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
@@ -3302,48 +3386,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="16">
@@ -4878,108 +4920,108 @@
       <c r="AG31" s="3"/>
     </row>
     <row r="32" spans="1:49" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="129" t="s">
+      <c r="A32" s="143" t="s">
         <v>103</v>
       </c>
-      <c r="B32" s="129"/>
-      <c r="C32" s="129"/>
-      <c r="D32" s="129"/>
-      <c r="E32" s="129"/>
-      <c r="F32" s="129"/>
-      <c r="G32" s="129"/>
-      <c r="H32" s="129"/>
-      <c r="I32" s="129"/>
-      <c r="J32" s="129"/>
-      <c r="K32" s="129"/>
-      <c r="L32" s="129"/>
-      <c r="M32" s="129"/>
-      <c r="N32" s="129"/>
-      <c r="O32" s="129"/>
-      <c r="P32" s="129"/>
-      <c r="Q32" s="129"/>
-      <c r="R32" s="129"/>
-      <c r="S32" s="129"/>
-      <c r="T32" s="129"/>
-      <c r="U32" s="129"/>
-      <c r="V32" s="129"/>
-      <c r="W32" s="129"/>
-      <c r="X32" s="129"/>
-      <c r="Y32" s="129"/>
-      <c r="Z32" s="129"/>
-      <c r="AA32" s="129"/>
-      <c r="AB32" s="129"/>
-      <c r="AC32" s="129"/>
-      <c r="AD32" s="129"/>
-      <c r="AE32" s="129"/>
-      <c r="AF32" s="129"/>
-      <c r="AG32" s="129"/>
-      <c r="AH32" s="129"/>
-      <c r="AI32" s="129"/>
-      <c r="AJ32" s="129"/>
-      <c r="AK32" s="129"/>
-      <c r="AL32" s="129"/>
-      <c r="AM32" s="129"/>
-      <c r="AN32" s="129"/>
-      <c r="AO32" s="129"/>
-      <c r="AP32" s="129"/>
-      <c r="AQ32" s="129"/>
-      <c r="AR32" s="129"/>
-      <c r="AS32" s="129"/>
-      <c r="AT32" s="129"/>
-      <c r="AU32" s="129"/>
-      <c r="AV32" s="129"/>
-      <c r="AW32" s="129"/>
+      <c r="B32" s="143"/>
+      <c r="C32" s="143"/>
+      <c r="D32" s="143"/>
+      <c r="E32" s="143"/>
+      <c r="F32" s="143"/>
+      <c r="G32" s="143"/>
+      <c r="H32" s="143"/>
+      <c r="I32" s="143"/>
+      <c r="J32" s="143"/>
+      <c r="K32" s="143"/>
+      <c r="L32" s="143"/>
+      <c r="M32" s="143"/>
+      <c r="N32" s="143"/>
+      <c r="O32" s="143"/>
+      <c r="P32" s="143"/>
+      <c r="Q32" s="143"/>
+      <c r="R32" s="143"/>
+      <c r="S32" s="143"/>
+      <c r="T32" s="143"/>
+      <c r="U32" s="143"/>
+      <c r="V32" s="143"/>
+      <c r="W32" s="143"/>
+      <c r="X32" s="143"/>
+      <c r="Y32" s="143"/>
+      <c r="Z32" s="143"/>
+      <c r="AA32" s="143"/>
+      <c r="AB32" s="143"/>
+      <c r="AC32" s="143"/>
+      <c r="AD32" s="143"/>
+      <c r="AE32" s="143"/>
+      <c r="AF32" s="143"/>
+      <c r="AG32" s="143"/>
+      <c r="AH32" s="143"/>
+      <c r="AI32" s="143"/>
+      <c r="AJ32" s="143"/>
+      <c r="AK32" s="143"/>
+      <c r="AL32" s="143"/>
+      <c r="AM32" s="143"/>
+      <c r="AN32" s="143"/>
+      <c r="AO32" s="143"/>
+      <c r="AP32" s="143"/>
+      <c r="AQ32" s="143"/>
+      <c r="AR32" s="143"/>
+      <c r="AS32" s="143"/>
+      <c r="AT32" s="143"/>
+      <c r="AU32" s="143"/>
+      <c r="AV32" s="143"/>
+      <c r="AW32" s="143"/>
     </row>
     <row r="33" spans="1:49" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A33" s="130"/>
-      <c r="B33" s="130"/>
-      <c r="C33" s="130"/>
-      <c r="D33" s="130"/>
-      <c r="E33" s="130"/>
-      <c r="F33" s="130"/>
-      <c r="G33" s="130"/>
-      <c r="H33" s="130"/>
-      <c r="I33" s="130"/>
-      <c r="J33" s="130"/>
-      <c r="K33" s="130"/>
-      <c r="L33" s="130"/>
-      <c r="M33" s="130"/>
-      <c r="N33" s="130"/>
-      <c r="O33" s="130"/>
-      <c r="P33" s="130"/>
-      <c r="Q33" s="130"/>
-      <c r="R33" s="130"/>
-      <c r="S33" s="130"/>
-      <c r="T33" s="130"/>
-      <c r="U33" s="130"/>
-      <c r="V33" s="130"/>
-      <c r="W33" s="130"/>
-      <c r="X33" s="130"/>
-      <c r="Y33" s="130"/>
-      <c r="Z33" s="130"/>
-      <c r="AA33" s="130"/>
-      <c r="AB33" s="130"/>
-      <c r="AC33" s="130"/>
-      <c r="AD33" s="130"/>
-      <c r="AE33" s="130"/>
-      <c r="AF33" s="130"/>
-      <c r="AG33" s="130"/>
-      <c r="AH33" s="130"/>
-      <c r="AI33" s="130"/>
-      <c r="AJ33" s="130"/>
-      <c r="AK33" s="130"/>
-      <c r="AL33" s="130"/>
-      <c r="AM33" s="130"/>
-      <c r="AN33" s="130"/>
-      <c r="AO33" s="130"/>
-      <c r="AP33" s="130"/>
-      <c r="AQ33" s="130"/>
-      <c r="AR33" s="130"/>
-      <c r="AS33" s="130"/>
-      <c r="AT33" s="130"/>
-      <c r="AU33" s="130"/>
-      <c r="AV33" s="130"/>
-      <c r="AW33" s="130"/>
+      <c r="A33" s="144"/>
+      <c r="B33" s="144"/>
+      <c r="C33" s="144"/>
+      <c r="D33" s="144"/>
+      <c r="E33" s="144"/>
+      <c r="F33" s="144"/>
+      <c r="G33" s="144"/>
+      <c r="H33" s="144"/>
+      <c r="I33" s="144"/>
+      <c r="J33" s="144"/>
+      <c r="K33" s="144"/>
+      <c r="L33" s="144"/>
+      <c r="M33" s="144"/>
+      <c r="N33" s="144"/>
+      <c r="O33" s="144"/>
+      <c r="P33" s="144"/>
+      <c r="Q33" s="144"/>
+      <c r="R33" s="144"/>
+      <c r="S33" s="144"/>
+      <c r="T33" s="144"/>
+      <c r="U33" s="144"/>
+      <c r="V33" s="144"/>
+      <c r="W33" s="144"/>
+      <c r="X33" s="144"/>
+      <c r="Y33" s="144"/>
+      <c r="Z33" s="144"/>
+      <c r="AA33" s="144"/>
+      <c r="AB33" s="144"/>
+      <c r="AC33" s="144"/>
+      <c r="AD33" s="144"/>
+      <c r="AE33" s="144"/>
+      <c r="AF33" s="144"/>
+      <c r="AG33" s="144"/>
+      <c r="AH33" s="144"/>
+      <c r="AI33" s="144"/>
+      <c r="AJ33" s="144"/>
+      <c r="AK33" s="144"/>
+      <c r="AL33" s="144"/>
+      <c r="AM33" s="144"/>
+      <c r="AN33" s="144"/>
+      <c r="AO33" s="144"/>
+      <c r="AP33" s="144"/>
+      <c r="AQ33" s="144"/>
+      <c r="AR33" s="144"/>
+      <c r="AS33" s="144"/>
+      <c r="AT33" s="144"/>
+      <c r="AU33" s="144"/>
+      <c r="AV33" s="144"/>
+      <c r="AW33" s="144"/>
     </row>
     <row r="34" spans="1:49" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
@@ -5017,55 +5059,55 @@
       <c r="AG34" s="4"/>
     </row>
     <row r="35" spans="1:49" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="131"/>
-      <c r="B35" s="131"/>
-      <c r="C35" s="131"/>
-      <c r="D35" s="131"/>
-      <c r="E35" s="131"/>
-      <c r="F35" s="131"/>
-      <c r="G35" s="131"/>
-      <c r="H35" s="131"/>
-      <c r="I35" s="131"/>
-      <c r="J35" s="131"/>
-      <c r="K35" s="131"/>
-      <c r="L35" s="131"/>
-      <c r="M35" s="131"/>
-      <c r="N35" s="131"/>
-      <c r="O35" s="131"/>
-      <c r="P35" s="131"/>
-      <c r="Q35" s="131"/>
-      <c r="R35" s="131"/>
-      <c r="S35" s="131"/>
-      <c r="T35" s="131"/>
-      <c r="U35" s="131"/>
-      <c r="V35" s="131"/>
-      <c r="W35" s="131"/>
-      <c r="X35" s="131"/>
-      <c r="Y35" s="131"/>
-      <c r="Z35" s="131"/>
-      <c r="AA35" s="131"/>
-      <c r="AB35" s="131"/>
-      <c r="AC35" s="131"/>
-      <c r="AD35" s="131"/>
-      <c r="AE35" s="131"/>
-      <c r="AF35" s="131"/>
-      <c r="AG35" s="131"/>
-      <c r="AH35" s="131"/>
-      <c r="AI35" s="131"/>
-      <c r="AJ35" s="131"/>
-      <c r="AK35" s="131"/>
-      <c r="AL35" s="131"/>
-      <c r="AM35" s="131"/>
-      <c r="AN35" s="131"/>
-      <c r="AO35" s="131"/>
-      <c r="AP35" s="131"/>
-      <c r="AQ35" s="131"/>
-      <c r="AR35" s="131"/>
-      <c r="AS35" s="131"/>
-      <c r="AT35" s="131"/>
-      <c r="AU35" s="131"/>
-      <c r="AV35" s="131"/>
-      <c r="AW35" s="131"/>
+      <c r="A35" s="145"/>
+      <c r="B35" s="145"/>
+      <c r="C35" s="145"/>
+      <c r="D35" s="145"/>
+      <c r="E35" s="145"/>
+      <c r="F35" s="145"/>
+      <c r="G35" s="145"/>
+      <c r="H35" s="145"/>
+      <c r="I35" s="145"/>
+      <c r="J35" s="145"/>
+      <c r="K35" s="145"/>
+      <c r="L35" s="145"/>
+      <c r="M35" s="145"/>
+      <c r="N35" s="145"/>
+      <c r="O35" s="145"/>
+      <c r="P35" s="145"/>
+      <c r="Q35" s="145"/>
+      <c r="R35" s="145"/>
+      <c r="S35" s="145"/>
+      <c r="T35" s="145"/>
+      <c r="U35" s="145"/>
+      <c r="V35" s="145"/>
+      <c r="W35" s="145"/>
+      <c r="X35" s="145"/>
+      <c r="Y35" s="145"/>
+      <c r="Z35" s="145"/>
+      <c r="AA35" s="145"/>
+      <c r="AB35" s="145"/>
+      <c r="AC35" s="145"/>
+      <c r="AD35" s="145"/>
+      <c r="AE35" s="145"/>
+      <c r="AF35" s="145"/>
+      <c r="AG35" s="145"/>
+      <c r="AH35" s="145"/>
+      <c r="AI35" s="145"/>
+      <c r="AJ35" s="145"/>
+      <c r="AK35" s="145"/>
+      <c r="AL35" s="145"/>
+      <c r="AM35" s="145"/>
+      <c r="AN35" s="145"/>
+      <c r="AO35" s="145"/>
+      <c r="AP35" s="145"/>
+      <c r="AQ35" s="145"/>
+      <c r="AR35" s="145"/>
+      <c r="AS35" s="145"/>
+      <c r="AT35" s="145"/>
+      <c r="AU35" s="145"/>
+      <c r="AV35" s="145"/>
+      <c r="AW35" s="145"/>
     </row>
     <row r="42" spans="1:49" x14ac:dyDescent="0.15">
       <c r="P42" s="3" t="s">
@@ -5100,1770 +5142,2003 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="48"/>
-      <c r="B1" s="132" t="s">
+      <c r="B1" s="177" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="132"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="132"/>
-      <c r="P1" s="132"/>
-      <c r="Q1" s="132"/>
-      <c r="R1" s="132"/>
-      <c r="S1" s="132"/>
-      <c r="T1" s="132"/>
-      <c r="U1" s="132"/>
-      <c r="V1" s="132"/>
-      <c r="W1" s="132"/>
-      <c r="X1" s="132"/>
-      <c r="Y1" s="132"/>
-      <c r="Z1" s="132"/>
-      <c r="AA1" s="132"/>
-      <c r="AB1" s="132"/>
-      <c r="AC1" s="132"/>
-      <c r="AD1" s="132"/>
-      <c r="AE1" s="132"/>
-      <c r="AF1" s="132"/>
-      <c r="AG1" s="132"/>
-      <c r="AH1" s="132"/>
-      <c r="AI1" s="132"/>
-      <c r="AJ1" s="132"/>
-      <c r="AK1" s="132"/>
-      <c r="AL1" s="132"/>
-      <c r="AM1" s="132"/>
-      <c r="AN1" s="132"/>
-      <c r="AO1" s="132"/>
-      <c r="AP1" s="132"/>
-      <c r="AQ1" s="132"/>
-      <c r="AR1" s="132"/>
-      <c r="AS1" s="132"/>
-      <c r="AT1" s="132"/>
-      <c r="AU1" s="132"/>
-      <c r="AV1" s="132"/>
-      <c r="AW1" s="132"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
+      <c r="G1" s="177"/>
+      <c r="H1" s="177"/>
+      <c r="I1" s="177"/>
+      <c r="J1" s="177"/>
+      <c r="K1" s="177"/>
+      <c r="L1" s="177"/>
+      <c r="M1" s="177"/>
+      <c r="N1" s="177"/>
+      <c r="O1" s="177"/>
+      <c r="P1" s="177"/>
+      <c r="Q1" s="177"/>
+      <c r="R1" s="177"/>
+      <c r="S1" s="177"/>
+      <c r="T1" s="177"/>
+      <c r="U1" s="177"/>
+      <c r="V1" s="177"/>
+      <c r="W1" s="177"/>
+      <c r="X1" s="177"/>
+      <c r="Y1" s="177"/>
+      <c r="Z1" s="177"/>
+      <c r="AA1" s="177"/>
+      <c r="AB1" s="177"/>
+      <c r="AC1" s="177"/>
+      <c r="AD1" s="177"/>
+      <c r="AE1" s="177"/>
+      <c r="AF1" s="177"/>
+      <c r="AG1" s="177"/>
+      <c r="AH1" s="177"/>
+      <c r="AI1" s="177"/>
+      <c r="AJ1" s="177"/>
+      <c r="AK1" s="177"/>
+      <c r="AL1" s="177"/>
+      <c r="AM1" s="177"/>
+      <c r="AN1" s="177"/>
+      <c r="AO1" s="177"/>
+      <c r="AP1" s="177"/>
+      <c r="AQ1" s="177"/>
+      <c r="AR1" s="177"/>
+      <c r="AS1" s="177"/>
+      <c r="AT1" s="177"/>
+      <c r="AU1" s="177"/>
+      <c r="AV1" s="177"/>
+      <c r="AW1" s="177"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="48"/>
-      <c r="B2" s="133"/>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="133"/>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
-      <c r="L2" s="133"/>
-      <c r="M2" s="133"/>
-      <c r="N2" s="133"/>
-      <c r="O2" s="133"/>
-      <c r="P2" s="133"/>
-      <c r="Q2" s="133"/>
-      <c r="R2" s="133"/>
-      <c r="S2" s="133"/>
-      <c r="T2" s="133"/>
-      <c r="U2" s="133"/>
-      <c r="V2" s="133"/>
-      <c r="W2" s="133"/>
-      <c r="X2" s="133"/>
-      <c r="Y2" s="133"/>
-      <c r="Z2" s="133"/>
-      <c r="AA2" s="133"/>
-      <c r="AB2" s="133"/>
-      <c r="AC2" s="133"/>
-      <c r="AD2" s="133"/>
-      <c r="AE2" s="133"/>
-      <c r="AF2" s="133"/>
-      <c r="AG2" s="133"/>
-      <c r="AH2" s="133"/>
-      <c r="AI2" s="133"/>
-      <c r="AJ2" s="133"/>
-      <c r="AK2" s="133"/>
-      <c r="AL2" s="133"/>
-      <c r="AM2" s="133"/>
-      <c r="AN2" s="133"/>
-      <c r="AO2" s="133"/>
-      <c r="AP2" s="133"/>
-      <c r="AQ2" s="133"/>
-      <c r="AR2" s="133"/>
-      <c r="AS2" s="133"/>
-      <c r="AT2" s="133"/>
-      <c r="AU2" s="133"/>
-      <c r="AV2" s="133"/>
-      <c r="AW2" s="133"/>
+      <c r="B2" s="178"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="178"/>
+      <c r="F2" s="178"/>
+      <c r="G2" s="178"/>
+      <c r="H2" s="178"/>
+      <c r="I2" s="178"/>
+      <c r="J2" s="178"/>
+      <c r="K2" s="178"/>
+      <c r="L2" s="178"/>
+      <c r="M2" s="178"/>
+      <c r="N2" s="178"/>
+      <c r="O2" s="178"/>
+      <c r="P2" s="178"/>
+      <c r="Q2" s="178"/>
+      <c r="R2" s="178"/>
+      <c r="S2" s="178"/>
+      <c r="T2" s="178"/>
+      <c r="U2" s="178"/>
+      <c r="V2" s="178"/>
+      <c r="W2" s="178"/>
+      <c r="X2" s="178"/>
+      <c r="Y2" s="178"/>
+      <c r="Z2" s="178"/>
+      <c r="AA2" s="178"/>
+      <c r="AB2" s="178"/>
+      <c r="AC2" s="178"/>
+      <c r="AD2" s="178"/>
+      <c r="AE2" s="178"/>
+      <c r="AF2" s="178"/>
+      <c r="AG2" s="178"/>
+      <c r="AH2" s="178"/>
+      <c r="AI2" s="178"/>
+      <c r="AJ2" s="178"/>
+      <c r="AK2" s="178"/>
+      <c r="AL2" s="178"/>
+      <c r="AM2" s="178"/>
+      <c r="AN2" s="178"/>
+      <c r="AO2" s="178"/>
+      <c r="AP2" s="178"/>
+      <c r="AQ2" s="178"/>
+      <c r="AR2" s="178"/>
+      <c r="AS2" s="178"/>
+      <c r="AT2" s="178"/>
+      <c r="AU2" s="178"/>
+      <c r="AV2" s="178"/>
+      <c r="AW2" s="178"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="48"/>
-      <c r="B3" s="134" t="s">
+      <c r="B3" s="179" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="134"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="134" t="s">
+      <c r="C3" s="179"/>
+      <c r="D3" s="179"/>
+      <c r="E3" s="179" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="134"/>
-      <c r="G3" s="134"/>
-      <c r="H3" s="134"/>
-      <c r="I3" s="134"/>
-      <c r="J3" s="135" t="s">
+      <c r="F3" s="179"/>
+      <c r="G3" s="179"/>
+      <c r="H3" s="179"/>
+      <c r="I3" s="179"/>
+      <c r="J3" s="180" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="136"/>
-      <c r="L3" s="137"/>
-      <c r="M3" s="135" t="s">
+      <c r="K3" s="181"/>
+      <c r="L3" s="182"/>
+      <c r="M3" s="180" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="136"/>
-      <c r="O3" s="136"/>
-      <c r="P3" s="136"/>
-      <c r="Q3" s="136"/>
-      <c r="R3" s="137"/>
-      <c r="S3" s="134" t="s">
+      <c r="N3" s="181"/>
+      <c r="O3" s="181"/>
+      <c r="P3" s="181"/>
+      <c r="Q3" s="181"/>
+      <c r="R3" s="182"/>
+      <c r="S3" s="179" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="134"/>
-      <c r="U3" s="134"/>
-      <c r="V3" s="134" t="s">
+      <c r="T3" s="179"/>
+      <c r="U3" s="179"/>
+      <c r="V3" s="179" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="134"/>
-      <c r="X3" s="134"/>
-      <c r="Y3" s="134"/>
-      <c r="Z3" s="134"/>
-      <c r="AA3" s="134"/>
-      <c r="AB3" s="134"/>
-      <c r="AC3" s="134"/>
-      <c r="AD3" s="134"/>
-      <c r="AE3" s="134"/>
-      <c r="AF3" s="134"/>
-      <c r="AG3" s="134"/>
-      <c r="AH3" s="134"/>
-      <c r="AI3" s="134"/>
-      <c r="AJ3" s="134"/>
-      <c r="AK3" s="134"/>
-      <c r="AL3" s="134"/>
-      <c r="AM3" s="134"/>
-      <c r="AN3" s="134" t="s">
+      <c r="W3" s="179"/>
+      <c r="X3" s="179"/>
+      <c r="Y3" s="179"/>
+      <c r="Z3" s="179"/>
+      <c r="AA3" s="179"/>
+      <c r="AB3" s="179"/>
+      <c r="AC3" s="179"/>
+      <c r="AD3" s="179"/>
+      <c r="AE3" s="179"/>
+      <c r="AF3" s="179"/>
+      <c r="AG3" s="179"/>
+      <c r="AH3" s="179"/>
+      <c r="AI3" s="179"/>
+      <c r="AJ3" s="179"/>
+      <c r="AK3" s="179"/>
+      <c r="AL3" s="179"/>
+      <c r="AM3" s="179"/>
+      <c r="AN3" s="179" t="s">
         <v>13</v>
       </c>
-      <c r="AO3" s="134"/>
-      <c r="AP3" s="134"/>
-      <c r="AQ3" s="134"/>
-      <c r="AR3" s="134"/>
-      <c r="AS3" s="134" t="s">
+      <c r="AO3" s="179"/>
+      <c r="AP3" s="179"/>
+      <c r="AQ3" s="179"/>
+      <c r="AR3" s="179"/>
+      <c r="AS3" s="179" t="s">
         <v>14</v>
       </c>
-      <c r="AT3" s="134"/>
-      <c r="AU3" s="134"/>
-      <c r="AV3" s="134"/>
-      <c r="AW3" s="134"/>
+      <c r="AT3" s="179"/>
+      <c r="AU3" s="179"/>
+      <c r="AV3" s="179"/>
+      <c r="AW3" s="179"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="48"/>
-      <c r="B4" s="134"/>
-      <c r="C4" s="134"/>
-      <c r="D4" s="134"/>
-      <c r="E4" s="134"/>
-      <c r="F4" s="134"/>
-      <c r="G4" s="134"/>
-      <c r="H4" s="134"/>
-      <c r="I4" s="134"/>
-      <c r="J4" s="138"/>
-      <c r="K4" s="139"/>
-      <c r="L4" s="140"/>
-      <c r="M4" s="138"/>
-      <c r="N4" s="139"/>
-      <c r="O4" s="139"/>
-      <c r="P4" s="139"/>
-      <c r="Q4" s="139"/>
-      <c r="R4" s="140"/>
-      <c r="S4" s="134"/>
-      <c r="T4" s="134"/>
-      <c r="U4" s="134"/>
-      <c r="V4" s="134"/>
-      <c r="W4" s="134"/>
-      <c r="X4" s="134"/>
-      <c r="Y4" s="134"/>
-      <c r="Z4" s="134"/>
-      <c r="AA4" s="134"/>
-      <c r="AB4" s="134"/>
-      <c r="AC4" s="134"/>
-      <c r="AD4" s="134"/>
-      <c r="AE4" s="134"/>
-      <c r="AF4" s="134"/>
-      <c r="AG4" s="134"/>
-      <c r="AH4" s="134"/>
-      <c r="AI4" s="134"/>
-      <c r="AJ4" s="134"/>
-      <c r="AK4" s="134"/>
-      <c r="AL4" s="134"/>
-      <c r="AM4" s="134"/>
-      <c r="AN4" s="134"/>
-      <c r="AO4" s="134"/>
-      <c r="AP4" s="134"/>
-      <c r="AQ4" s="134"/>
-      <c r="AR4" s="134"/>
-      <c r="AS4" s="134"/>
-      <c r="AT4" s="134"/>
-      <c r="AU4" s="134"/>
-      <c r="AV4" s="134"/>
-      <c r="AW4" s="134"/>
+      <c r="B4" s="179"/>
+      <c r="C4" s="179"/>
+      <c r="D4" s="179"/>
+      <c r="E4" s="179"/>
+      <c r="F4" s="179"/>
+      <c r="G4" s="179"/>
+      <c r="H4" s="179"/>
+      <c r="I4" s="179"/>
+      <c r="J4" s="183"/>
+      <c r="K4" s="184"/>
+      <c r="L4" s="185"/>
+      <c r="M4" s="183"/>
+      <c r="N4" s="184"/>
+      <c r="O4" s="184"/>
+      <c r="P4" s="184"/>
+      <c r="Q4" s="184"/>
+      <c r="R4" s="185"/>
+      <c r="S4" s="179"/>
+      <c r="T4" s="179"/>
+      <c r="U4" s="179"/>
+      <c r="V4" s="179"/>
+      <c r="W4" s="179"/>
+      <c r="X4" s="179"/>
+      <c r="Y4" s="179"/>
+      <c r="Z4" s="179"/>
+      <c r="AA4" s="179"/>
+      <c r="AB4" s="179"/>
+      <c r="AC4" s="179"/>
+      <c r="AD4" s="179"/>
+      <c r="AE4" s="179"/>
+      <c r="AF4" s="179"/>
+      <c r="AG4" s="179"/>
+      <c r="AH4" s="179"/>
+      <c r="AI4" s="179"/>
+      <c r="AJ4" s="179"/>
+      <c r="AK4" s="179"/>
+      <c r="AL4" s="179"/>
+      <c r="AM4" s="179"/>
+      <c r="AN4" s="179"/>
+      <c r="AO4" s="179"/>
+      <c r="AP4" s="179"/>
+      <c r="AQ4" s="179"/>
+      <c r="AR4" s="179"/>
+      <c r="AS4" s="179"/>
+      <c r="AT4" s="179"/>
+      <c r="AU4" s="179"/>
+      <c r="AV4" s="179"/>
+      <c r="AW4" s="179"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="50"/>
-      <c r="B5" s="142">
+      <c r="B5" s="171">
         <v>1</v>
       </c>
-      <c r="C5" s="142"/>
-      <c r="D5" s="142"/>
-      <c r="E5" s="143">
+      <c r="C5" s="171"/>
+      <c r="D5" s="171"/>
+      <c r="E5" s="152">
         <v>43714</v>
       </c>
-      <c r="F5" s="143"/>
-      <c r="G5" s="143"/>
-      <c r="H5" s="143"/>
-      <c r="I5" s="143"/>
-      <c r="J5" s="144" t="s">
+      <c r="F5" s="152"/>
+      <c r="G5" s="152"/>
+      <c r="H5" s="152"/>
+      <c r="I5" s="152"/>
+      <c r="J5" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="145"/>
-      <c r="L5" s="146"/>
-      <c r="M5" s="144" t="s">
+      <c r="K5" s="154"/>
+      <c r="L5" s="155"/>
+      <c r="M5" s="153" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="145"/>
-      <c r="O5" s="145"/>
-      <c r="P5" s="145"/>
-      <c r="Q5" s="145"/>
-      <c r="R5" s="146"/>
-      <c r="S5" s="141" t="s">
+      <c r="N5" s="154"/>
+      <c r="O5" s="154"/>
+      <c r="P5" s="154"/>
+      <c r="Q5" s="154"/>
+      <c r="R5" s="155"/>
+      <c r="S5" s="159" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="141"/>
-      <c r="U5" s="141"/>
-      <c r="V5" s="150" t="s">
+      <c r="T5" s="159"/>
+      <c r="U5" s="159"/>
+      <c r="V5" s="170" t="s">
         <v>18</v>
       </c>
-      <c r="W5" s="150"/>
-      <c r="X5" s="150"/>
-      <c r="Y5" s="150"/>
-      <c r="Z5" s="150"/>
-      <c r="AA5" s="150"/>
-      <c r="AB5" s="150"/>
-      <c r="AC5" s="150"/>
-      <c r="AD5" s="150"/>
-      <c r="AE5" s="150"/>
-      <c r="AF5" s="150"/>
-      <c r="AG5" s="150"/>
-      <c r="AH5" s="150"/>
-      <c r="AI5" s="150"/>
-      <c r="AJ5" s="150"/>
-      <c r="AK5" s="150"/>
-      <c r="AL5" s="150"/>
-      <c r="AM5" s="150"/>
-      <c r="AN5" s="141" t="s">
+      <c r="W5" s="170"/>
+      <c r="X5" s="170"/>
+      <c r="Y5" s="170"/>
+      <c r="Z5" s="170"/>
+      <c r="AA5" s="170"/>
+      <c r="AB5" s="170"/>
+      <c r="AC5" s="170"/>
+      <c r="AD5" s="170"/>
+      <c r="AE5" s="170"/>
+      <c r="AF5" s="170"/>
+      <c r="AG5" s="170"/>
+      <c r="AH5" s="170"/>
+      <c r="AI5" s="170"/>
+      <c r="AJ5" s="170"/>
+      <c r="AK5" s="170"/>
+      <c r="AL5" s="170"/>
+      <c r="AM5" s="170"/>
+      <c r="AN5" s="159" t="s">
         <v>106</v>
       </c>
-      <c r="AO5" s="141"/>
-      <c r="AP5" s="141"/>
-      <c r="AQ5" s="141"/>
-      <c r="AR5" s="141"/>
-      <c r="AS5" s="141"/>
-      <c r="AT5" s="141"/>
-      <c r="AU5" s="141"/>
-      <c r="AV5" s="141"/>
-      <c r="AW5" s="141"/>
+      <c r="AO5" s="159"/>
+      <c r="AP5" s="159"/>
+      <c r="AQ5" s="159"/>
+      <c r="AR5" s="159"/>
+      <c r="AS5" s="159"/>
+      <c r="AT5" s="159"/>
+      <c r="AU5" s="159"/>
+      <c r="AV5" s="159"/>
+      <c r="AW5" s="159"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="50"/>
-      <c r="B6" s="142"/>
-      <c r="C6" s="142"/>
-      <c r="D6" s="142"/>
-      <c r="E6" s="143"/>
-      <c r="F6" s="143"/>
-      <c r="G6" s="143"/>
-      <c r="H6" s="143"/>
-      <c r="I6" s="143"/>
-      <c r="J6" s="144"/>
-      <c r="K6" s="145"/>
-      <c r="L6" s="146"/>
-      <c r="M6" s="147"/>
-      <c r="N6" s="148"/>
-      <c r="O6" s="148"/>
-      <c r="P6" s="148"/>
-      <c r="Q6" s="148"/>
-      <c r="R6" s="149"/>
-      <c r="S6" s="141"/>
-      <c r="T6" s="141"/>
-      <c r="U6" s="141"/>
-      <c r="V6" s="150"/>
-      <c r="W6" s="150"/>
-      <c r="X6" s="150"/>
-      <c r="Y6" s="150"/>
-      <c r="Z6" s="150"/>
-      <c r="AA6" s="150"/>
-      <c r="AB6" s="150"/>
-      <c r="AC6" s="150"/>
-      <c r="AD6" s="150"/>
-      <c r="AE6" s="150"/>
-      <c r="AF6" s="150"/>
-      <c r="AG6" s="150"/>
-      <c r="AH6" s="150"/>
-      <c r="AI6" s="150"/>
-      <c r="AJ6" s="150"/>
-      <c r="AK6" s="150"/>
-      <c r="AL6" s="150"/>
-      <c r="AM6" s="150"/>
-      <c r="AN6" s="141"/>
-      <c r="AO6" s="141"/>
-      <c r="AP6" s="141"/>
-      <c r="AQ6" s="141"/>
-      <c r="AR6" s="141"/>
-      <c r="AS6" s="141"/>
-      <c r="AT6" s="141"/>
-      <c r="AU6" s="141"/>
-      <c r="AV6" s="141"/>
-      <c r="AW6" s="141"/>
+      <c r="B6" s="171"/>
+      <c r="C6" s="171"/>
+      <c r="D6" s="171"/>
+      <c r="E6" s="152"/>
+      <c r="F6" s="152"/>
+      <c r="G6" s="152"/>
+      <c r="H6" s="152"/>
+      <c r="I6" s="152"/>
+      <c r="J6" s="153"/>
+      <c r="K6" s="154"/>
+      <c r="L6" s="155"/>
+      <c r="M6" s="174"/>
+      <c r="N6" s="175"/>
+      <c r="O6" s="175"/>
+      <c r="P6" s="175"/>
+      <c r="Q6" s="175"/>
+      <c r="R6" s="176"/>
+      <c r="S6" s="159"/>
+      <c r="T6" s="159"/>
+      <c r="U6" s="159"/>
+      <c r="V6" s="170"/>
+      <c r="W6" s="170"/>
+      <c r="X6" s="170"/>
+      <c r="Y6" s="170"/>
+      <c r="Z6" s="170"/>
+      <c r="AA6" s="170"/>
+      <c r="AB6" s="170"/>
+      <c r="AC6" s="170"/>
+      <c r="AD6" s="170"/>
+      <c r="AE6" s="170"/>
+      <c r="AF6" s="170"/>
+      <c r="AG6" s="170"/>
+      <c r="AH6" s="170"/>
+      <c r="AI6" s="170"/>
+      <c r="AJ6" s="170"/>
+      <c r="AK6" s="170"/>
+      <c r="AL6" s="170"/>
+      <c r="AM6" s="170"/>
+      <c r="AN6" s="159"/>
+      <c r="AO6" s="159"/>
+      <c r="AP6" s="159"/>
+      <c r="AQ6" s="159"/>
+      <c r="AR6" s="159"/>
+      <c r="AS6" s="159"/>
+      <c r="AT6" s="159"/>
+      <c r="AU6" s="159"/>
+      <c r="AV6" s="159"/>
+      <c r="AW6" s="159"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="50"/>
-      <c r="B7" s="142"/>
-      <c r="C7" s="142"/>
-      <c r="D7" s="142"/>
-      <c r="E7" s="143"/>
-      <c r="F7" s="143"/>
-      <c r="G7" s="143"/>
-      <c r="H7" s="143"/>
-      <c r="I7" s="143"/>
-      <c r="J7" s="144"/>
-      <c r="K7" s="145"/>
-      <c r="L7" s="146"/>
-      <c r="M7" s="147"/>
-      <c r="N7" s="148"/>
-      <c r="O7" s="148"/>
-      <c r="P7" s="148"/>
-      <c r="Q7" s="148"/>
-      <c r="R7" s="149"/>
-      <c r="S7" s="141"/>
-      <c r="T7" s="141"/>
-      <c r="U7" s="141"/>
-      <c r="V7" s="150"/>
-      <c r="W7" s="150"/>
-      <c r="X7" s="150"/>
-      <c r="Y7" s="150"/>
-      <c r="Z7" s="150"/>
-      <c r="AA7" s="150"/>
-      <c r="AB7" s="150"/>
-      <c r="AC7" s="150"/>
-      <c r="AD7" s="150"/>
-      <c r="AE7" s="150"/>
-      <c r="AF7" s="150"/>
-      <c r="AG7" s="150"/>
-      <c r="AH7" s="150"/>
-      <c r="AI7" s="150"/>
-      <c r="AJ7" s="150"/>
-      <c r="AK7" s="150"/>
-      <c r="AL7" s="150"/>
-      <c r="AM7" s="150"/>
-      <c r="AN7" s="141"/>
-      <c r="AO7" s="141"/>
-      <c r="AP7" s="141"/>
-      <c r="AQ7" s="141"/>
-      <c r="AR7" s="141"/>
-      <c r="AS7" s="141"/>
-      <c r="AT7" s="141"/>
-      <c r="AU7" s="141"/>
-      <c r="AV7" s="141"/>
-      <c r="AW7" s="141"/>
+      <c r="B7" s="171"/>
+      <c r="C7" s="171"/>
+      <c r="D7" s="171"/>
+      <c r="E7" s="152"/>
+      <c r="F7" s="152"/>
+      <c r="G7" s="152"/>
+      <c r="H7" s="152"/>
+      <c r="I7" s="152"/>
+      <c r="J7" s="153"/>
+      <c r="K7" s="154"/>
+      <c r="L7" s="155"/>
+      <c r="M7" s="174"/>
+      <c r="N7" s="175"/>
+      <c r="O7" s="175"/>
+      <c r="P7" s="175"/>
+      <c r="Q7" s="175"/>
+      <c r="R7" s="176"/>
+      <c r="S7" s="159"/>
+      <c r="T7" s="159"/>
+      <c r="U7" s="159"/>
+      <c r="V7" s="170"/>
+      <c r="W7" s="170"/>
+      <c r="X7" s="170"/>
+      <c r="Y7" s="170"/>
+      <c r="Z7" s="170"/>
+      <c r="AA7" s="170"/>
+      <c r="AB7" s="170"/>
+      <c r="AC7" s="170"/>
+      <c r="AD7" s="170"/>
+      <c r="AE7" s="170"/>
+      <c r="AF7" s="170"/>
+      <c r="AG7" s="170"/>
+      <c r="AH7" s="170"/>
+      <c r="AI7" s="170"/>
+      <c r="AJ7" s="170"/>
+      <c r="AK7" s="170"/>
+      <c r="AL7" s="170"/>
+      <c r="AM7" s="170"/>
+      <c r="AN7" s="159"/>
+      <c r="AO7" s="159"/>
+      <c r="AP7" s="159"/>
+      <c r="AQ7" s="159"/>
+      <c r="AR7" s="159"/>
+      <c r="AS7" s="159"/>
+      <c r="AT7" s="159"/>
+      <c r="AU7" s="159"/>
+      <c r="AV7" s="159"/>
+      <c r="AW7" s="159"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="50"/>
-      <c r="B8" s="142"/>
-      <c r="C8" s="142"/>
-      <c r="D8" s="142"/>
-      <c r="E8" s="143"/>
-      <c r="F8" s="143"/>
-      <c r="G8" s="143"/>
-      <c r="H8" s="143"/>
-      <c r="I8" s="143"/>
-      <c r="J8" s="144"/>
-      <c r="K8" s="145"/>
-      <c r="L8" s="146"/>
-      <c r="M8" s="147"/>
-      <c r="N8" s="148"/>
-      <c r="O8" s="148"/>
-      <c r="P8" s="148"/>
-      <c r="Q8" s="148"/>
-      <c r="R8" s="149"/>
-      <c r="S8" s="141"/>
-      <c r="T8" s="141"/>
-      <c r="U8" s="141"/>
-      <c r="V8" s="150"/>
-      <c r="W8" s="150"/>
-      <c r="X8" s="150"/>
-      <c r="Y8" s="150"/>
-      <c r="Z8" s="150"/>
-      <c r="AA8" s="150"/>
-      <c r="AB8" s="150"/>
-      <c r="AC8" s="150"/>
-      <c r="AD8" s="150"/>
-      <c r="AE8" s="150"/>
-      <c r="AF8" s="150"/>
-      <c r="AG8" s="150"/>
-      <c r="AH8" s="150"/>
-      <c r="AI8" s="150"/>
-      <c r="AJ8" s="150"/>
-      <c r="AK8" s="150"/>
-      <c r="AL8" s="150"/>
-      <c r="AM8" s="150"/>
-      <c r="AN8" s="141"/>
-      <c r="AO8" s="141"/>
-      <c r="AP8" s="141"/>
-      <c r="AQ8" s="141"/>
-      <c r="AR8" s="141"/>
-      <c r="AS8" s="141"/>
-      <c r="AT8" s="141"/>
-      <c r="AU8" s="141"/>
-      <c r="AV8" s="141"/>
-      <c r="AW8" s="141"/>
+      <c r="B8" s="171"/>
+      <c r="C8" s="171"/>
+      <c r="D8" s="171"/>
+      <c r="E8" s="152"/>
+      <c r="F8" s="152"/>
+      <c r="G8" s="152"/>
+      <c r="H8" s="152"/>
+      <c r="I8" s="152"/>
+      <c r="J8" s="153"/>
+      <c r="K8" s="154"/>
+      <c r="L8" s="155"/>
+      <c r="M8" s="174"/>
+      <c r="N8" s="175"/>
+      <c r="O8" s="175"/>
+      <c r="P8" s="175"/>
+      <c r="Q8" s="175"/>
+      <c r="R8" s="176"/>
+      <c r="S8" s="159"/>
+      <c r="T8" s="159"/>
+      <c r="U8" s="159"/>
+      <c r="V8" s="170"/>
+      <c r="W8" s="170"/>
+      <c r="X8" s="170"/>
+      <c r="Y8" s="170"/>
+      <c r="Z8" s="170"/>
+      <c r="AA8" s="170"/>
+      <c r="AB8" s="170"/>
+      <c r="AC8" s="170"/>
+      <c r="AD8" s="170"/>
+      <c r="AE8" s="170"/>
+      <c r="AF8" s="170"/>
+      <c r="AG8" s="170"/>
+      <c r="AH8" s="170"/>
+      <c r="AI8" s="170"/>
+      <c r="AJ8" s="170"/>
+      <c r="AK8" s="170"/>
+      <c r="AL8" s="170"/>
+      <c r="AM8" s="170"/>
+      <c r="AN8" s="159"/>
+      <c r="AO8" s="159"/>
+      <c r="AP8" s="159"/>
+      <c r="AQ8" s="159"/>
+      <c r="AR8" s="159"/>
+      <c r="AS8" s="159"/>
+      <c r="AT8" s="159"/>
+      <c r="AU8" s="159"/>
+      <c r="AV8" s="159"/>
+      <c r="AW8" s="159"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="50"/>
-      <c r="B9" s="142"/>
-      <c r="C9" s="142"/>
-      <c r="D9" s="142"/>
-      <c r="E9" s="143"/>
-      <c r="F9" s="143"/>
-      <c r="G9" s="143"/>
-      <c r="H9" s="143"/>
-      <c r="I9" s="143"/>
-      <c r="J9" s="144"/>
-      <c r="K9" s="145"/>
-      <c r="L9" s="146"/>
-      <c r="M9" s="147"/>
-      <c r="N9" s="148"/>
-      <c r="O9" s="148"/>
-      <c r="P9" s="148"/>
-      <c r="Q9" s="148"/>
-      <c r="R9" s="149"/>
-      <c r="S9" s="141"/>
-      <c r="T9" s="141"/>
-      <c r="U9" s="141"/>
-      <c r="V9" s="150"/>
-      <c r="W9" s="150"/>
-      <c r="X9" s="150"/>
-      <c r="Y9" s="150"/>
-      <c r="Z9" s="150"/>
-      <c r="AA9" s="150"/>
-      <c r="AB9" s="150"/>
-      <c r="AC9" s="150"/>
-      <c r="AD9" s="150"/>
-      <c r="AE9" s="150"/>
-      <c r="AF9" s="150"/>
-      <c r="AG9" s="150"/>
-      <c r="AH9" s="150"/>
-      <c r="AI9" s="150"/>
-      <c r="AJ9" s="150"/>
-      <c r="AK9" s="150"/>
-      <c r="AL9" s="150"/>
-      <c r="AM9" s="150"/>
-      <c r="AN9" s="141"/>
-      <c r="AO9" s="141"/>
-      <c r="AP9" s="141"/>
-      <c r="AQ9" s="141"/>
-      <c r="AR9" s="141"/>
-      <c r="AS9" s="141"/>
-      <c r="AT9" s="141"/>
-      <c r="AU9" s="141"/>
-      <c r="AV9" s="141"/>
-      <c r="AW9" s="141"/>
+      <c r="B9" s="171"/>
+      <c r="C9" s="171"/>
+      <c r="D9" s="171"/>
+      <c r="E9" s="152"/>
+      <c r="F9" s="152"/>
+      <c r="G9" s="152"/>
+      <c r="H9" s="152"/>
+      <c r="I9" s="152"/>
+      <c r="J9" s="153"/>
+      <c r="K9" s="154"/>
+      <c r="L9" s="155"/>
+      <c r="M9" s="174"/>
+      <c r="N9" s="175"/>
+      <c r="O9" s="175"/>
+      <c r="P9" s="175"/>
+      <c r="Q9" s="175"/>
+      <c r="R9" s="176"/>
+      <c r="S9" s="159"/>
+      <c r="T9" s="159"/>
+      <c r="U9" s="159"/>
+      <c r="V9" s="170"/>
+      <c r="W9" s="170"/>
+      <c r="X9" s="170"/>
+      <c r="Y9" s="170"/>
+      <c r="Z9" s="170"/>
+      <c r="AA9" s="170"/>
+      <c r="AB9" s="170"/>
+      <c r="AC9" s="170"/>
+      <c r="AD9" s="170"/>
+      <c r="AE9" s="170"/>
+      <c r="AF9" s="170"/>
+      <c r="AG9" s="170"/>
+      <c r="AH9" s="170"/>
+      <c r="AI9" s="170"/>
+      <c r="AJ9" s="170"/>
+      <c r="AK9" s="170"/>
+      <c r="AL9" s="170"/>
+      <c r="AM9" s="170"/>
+      <c r="AN9" s="159"/>
+      <c r="AO9" s="159"/>
+      <c r="AP9" s="159"/>
+      <c r="AQ9" s="159"/>
+      <c r="AR9" s="159"/>
+      <c r="AS9" s="159"/>
+      <c r="AT9" s="159"/>
+      <c r="AU9" s="159"/>
+      <c r="AV9" s="159"/>
+      <c r="AW9" s="159"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="50"/>
-      <c r="B10" s="142"/>
-      <c r="C10" s="142"/>
-      <c r="D10" s="142"/>
-      <c r="E10" s="143"/>
-      <c r="F10" s="143"/>
-      <c r="G10" s="143"/>
-      <c r="H10" s="143"/>
-      <c r="I10" s="143"/>
-      <c r="J10" s="144"/>
-      <c r="K10" s="145"/>
-      <c r="L10" s="146"/>
-      <c r="M10" s="147"/>
-      <c r="N10" s="148"/>
-      <c r="O10" s="148"/>
-      <c r="P10" s="148"/>
-      <c r="Q10" s="148"/>
-      <c r="R10" s="149"/>
-      <c r="S10" s="141"/>
-      <c r="T10" s="141"/>
-      <c r="U10" s="141"/>
-      <c r="V10" s="150"/>
-      <c r="W10" s="150"/>
-      <c r="X10" s="150"/>
-      <c r="Y10" s="150"/>
-      <c r="Z10" s="150"/>
-      <c r="AA10" s="150"/>
-      <c r="AB10" s="150"/>
-      <c r="AC10" s="150"/>
-      <c r="AD10" s="150"/>
-      <c r="AE10" s="150"/>
-      <c r="AF10" s="150"/>
-      <c r="AG10" s="150"/>
-      <c r="AH10" s="150"/>
-      <c r="AI10" s="150"/>
-      <c r="AJ10" s="150"/>
-      <c r="AK10" s="150"/>
-      <c r="AL10" s="150"/>
-      <c r="AM10" s="150"/>
-      <c r="AN10" s="141"/>
-      <c r="AO10" s="141"/>
-      <c r="AP10" s="141"/>
-      <c r="AQ10" s="141"/>
-      <c r="AR10" s="141"/>
-      <c r="AS10" s="141"/>
-      <c r="AT10" s="141"/>
-      <c r="AU10" s="141"/>
-      <c r="AV10" s="141"/>
-      <c r="AW10" s="141"/>
+      <c r="B10" s="171"/>
+      <c r="C10" s="171"/>
+      <c r="D10" s="171"/>
+      <c r="E10" s="152"/>
+      <c r="F10" s="152"/>
+      <c r="G10" s="152"/>
+      <c r="H10" s="152"/>
+      <c r="I10" s="152"/>
+      <c r="J10" s="153"/>
+      <c r="K10" s="154"/>
+      <c r="L10" s="155"/>
+      <c r="M10" s="174"/>
+      <c r="N10" s="175"/>
+      <c r="O10" s="175"/>
+      <c r="P10" s="175"/>
+      <c r="Q10" s="175"/>
+      <c r="R10" s="176"/>
+      <c r="S10" s="159"/>
+      <c r="T10" s="159"/>
+      <c r="U10" s="159"/>
+      <c r="V10" s="170"/>
+      <c r="W10" s="170"/>
+      <c r="X10" s="170"/>
+      <c r="Y10" s="170"/>
+      <c r="Z10" s="170"/>
+      <c r="AA10" s="170"/>
+      <c r="AB10" s="170"/>
+      <c r="AC10" s="170"/>
+      <c r="AD10" s="170"/>
+      <c r="AE10" s="170"/>
+      <c r="AF10" s="170"/>
+      <c r="AG10" s="170"/>
+      <c r="AH10" s="170"/>
+      <c r="AI10" s="170"/>
+      <c r="AJ10" s="170"/>
+      <c r="AK10" s="170"/>
+      <c r="AL10" s="170"/>
+      <c r="AM10" s="170"/>
+      <c r="AN10" s="159"/>
+      <c r="AO10" s="159"/>
+      <c r="AP10" s="159"/>
+      <c r="AQ10" s="159"/>
+      <c r="AR10" s="159"/>
+      <c r="AS10" s="159"/>
+      <c r="AT10" s="159"/>
+      <c r="AU10" s="159"/>
+      <c r="AV10" s="159"/>
+      <c r="AW10" s="159"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="50"/>
-      <c r="B11" s="142"/>
-      <c r="C11" s="142"/>
-      <c r="D11" s="142"/>
-      <c r="E11" s="143"/>
-      <c r="F11" s="143"/>
-      <c r="G11" s="143"/>
-      <c r="H11" s="143"/>
-      <c r="I11" s="143"/>
-      <c r="J11" s="144"/>
-      <c r="K11" s="145"/>
-      <c r="L11" s="146"/>
-      <c r="M11" s="154"/>
-      <c r="N11" s="155"/>
-      <c r="O11" s="155"/>
-      <c r="P11" s="155"/>
-      <c r="Q11" s="155"/>
-      <c r="R11" s="156"/>
-      <c r="S11" s="141"/>
-      <c r="T11" s="141"/>
-      <c r="U11" s="141"/>
-      <c r="V11" s="157"/>
-      <c r="W11" s="163"/>
-      <c r="X11" s="163"/>
-      <c r="Y11" s="163"/>
-      <c r="Z11" s="163"/>
-      <c r="AA11" s="163"/>
-      <c r="AB11" s="163"/>
-      <c r="AC11" s="163"/>
-      <c r="AD11" s="163"/>
-      <c r="AE11" s="163"/>
-      <c r="AF11" s="163"/>
-      <c r="AG11" s="163"/>
-      <c r="AH11" s="163"/>
-      <c r="AI11" s="163"/>
-      <c r="AJ11" s="163"/>
-      <c r="AK11" s="163"/>
-      <c r="AL11" s="163"/>
-      <c r="AM11" s="164"/>
-      <c r="AN11" s="141"/>
-      <c r="AO11" s="141"/>
-      <c r="AP11" s="141"/>
-      <c r="AQ11" s="141"/>
-      <c r="AR11" s="141"/>
-      <c r="AS11" s="141"/>
-      <c r="AT11" s="141"/>
-      <c r="AU11" s="141"/>
-      <c r="AV11" s="141"/>
-      <c r="AW11" s="141"/>
+      <c r="B11" s="171"/>
+      <c r="C11" s="171"/>
+      <c r="D11" s="171"/>
+      <c r="E11" s="152"/>
+      <c r="F11" s="152"/>
+      <c r="G11" s="152"/>
+      <c r="H11" s="152"/>
+      <c r="I11" s="152"/>
+      <c r="J11" s="153"/>
+      <c r="K11" s="154"/>
+      <c r="L11" s="155"/>
+      <c r="M11" s="166"/>
+      <c r="N11" s="164"/>
+      <c r="O11" s="164"/>
+      <c r="P11" s="164"/>
+      <c r="Q11" s="164"/>
+      <c r="R11" s="165"/>
+      <c r="S11" s="159"/>
+      <c r="T11" s="159"/>
+      <c r="U11" s="159"/>
+      <c r="V11" s="160"/>
+      <c r="W11" s="172"/>
+      <c r="X11" s="172"/>
+      <c r="Y11" s="172"/>
+      <c r="Z11" s="172"/>
+      <c r="AA11" s="172"/>
+      <c r="AB11" s="172"/>
+      <c r="AC11" s="172"/>
+      <c r="AD11" s="172"/>
+      <c r="AE11" s="172"/>
+      <c r="AF11" s="172"/>
+      <c r="AG11" s="172"/>
+      <c r="AH11" s="172"/>
+      <c r="AI11" s="172"/>
+      <c r="AJ11" s="172"/>
+      <c r="AK11" s="172"/>
+      <c r="AL11" s="172"/>
+      <c r="AM11" s="173"/>
+      <c r="AN11" s="159"/>
+      <c r="AO11" s="159"/>
+      <c r="AP11" s="159"/>
+      <c r="AQ11" s="159"/>
+      <c r="AR11" s="159"/>
+      <c r="AS11" s="159"/>
+      <c r="AT11" s="159"/>
+      <c r="AU11" s="159"/>
+      <c r="AV11" s="159"/>
+      <c r="AW11" s="159"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="50"/>
-      <c r="B12" s="151"/>
-      <c r="C12" s="152"/>
-      <c r="D12" s="153"/>
-      <c r="E12" s="143"/>
-      <c r="F12" s="143"/>
-      <c r="G12" s="143"/>
-      <c r="H12" s="143"/>
-      <c r="I12" s="143"/>
-      <c r="J12" s="144"/>
-      <c r="K12" s="145"/>
-      <c r="L12" s="146"/>
-      <c r="M12" s="154"/>
-      <c r="N12" s="155"/>
-      <c r="O12" s="155"/>
-      <c r="P12" s="155"/>
-      <c r="Q12" s="155"/>
-      <c r="R12" s="156"/>
-      <c r="S12" s="141"/>
-      <c r="T12" s="141"/>
-      <c r="U12" s="141"/>
-      <c r="V12" s="157"/>
-      <c r="W12" s="158"/>
-      <c r="X12" s="158"/>
-      <c r="Y12" s="158"/>
-      <c r="Z12" s="158"/>
-      <c r="AA12" s="158"/>
-      <c r="AB12" s="158"/>
-      <c r="AC12" s="158"/>
-      <c r="AD12" s="158"/>
-      <c r="AE12" s="158"/>
-      <c r="AF12" s="158"/>
-      <c r="AG12" s="158"/>
-      <c r="AH12" s="158"/>
-      <c r="AI12" s="158"/>
-      <c r="AJ12" s="158"/>
-      <c r="AK12" s="158"/>
-      <c r="AL12" s="158"/>
-      <c r="AM12" s="159"/>
-      <c r="AN12" s="160"/>
-      <c r="AO12" s="161"/>
-      <c r="AP12" s="161"/>
-      <c r="AQ12" s="161"/>
-      <c r="AR12" s="162"/>
-      <c r="AS12" s="160"/>
-      <c r="AT12" s="161"/>
-      <c r="AU12" s="161"/>
-      <c r="AV12" s="161"/>
-      <c r="AW12" s="162"/>
+      <c r="B12" s="149"/>
+      <c r="C12" s="150"/>
+      <c r="D12" s="151"/>
+      <c r="E12" s="152"/>
+      <c r="F12" s="152"/>
+      <c r="G12" s="152"/>
+      <c r="H12" s="152"/>
+      <c r="I12" s="152"/>
+      <c r="J12" s="153"/>
+      <c r="K12" s="154"/>
+      <c r="L12" s="155"/>
+      <c r="M12" s="166"/>
+      <c r="N12" s="164"/>
+      <c r="O12" s="164"/>
+      <c r="P12" s="164"/>
+      <c r="Q12" s="164"/>
+      <c r="R12" s="165"/>
+      <c r="S12" s="159"/>
+      <c r="T12" s="159"/>
+      <c r="U12" s="159"/>
+      <c r="V12" s="160"/>
+      <c r="W12" s="161"/>
+      <c r="X12" s="161"/>
+      <c r="Y12" s="161"/>
+      <c r="Z12" s="161"/>
+      <c r="AA12" s="161"/>
+      <c r="AB12" s="161"/>
+      <c r="AC12" s="161"/>
+      <c r="AD12" s="161"/>
+      <c r="AE12" s="161"/>
+      <c r="AF12" s="161"/>
+      <c r="AG12" s="161"/>
+      <c r="AH12" s="161"/>
+      <c r="AI12" s="161"/>
+      <c r="AJ12" s="161"/>
+      <c r="AK12" s="161"/>
+      <c r="AL12" s="161"/>
+      <c r="AM12" s="162"/>
+      <c r="AN12" s="146"/>
+      <c r="AO12" s="147"/>
+      <c r="AP12" s="147"/>
+      <c r="AQ12" s="147"/>
+      <c r="AR12" s="148"/>
+      <c r="AS12" s="146"/>
+      <c r="AT12" s="147"/>
+      <c r="AU12" s="147"/>
+      <c r="AV12" s="147"/>
+      <c r="AW12" s="148"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="50"/>
-      <c r="B13" s="151"/>
-      <c r="C13" s="152"/>
-      <c r="D13" s="153"/>
-      <c r="E13" s="143"/>
-      <c r="F13" s="143"/>
-      <c r="G13" s="143"/>
-      <c r="H13" s="143"/>
-      <c r="I13" s="143"/>
-      <c r="J13" s="144"/>
-      <c r="K13" s="145"/>
-      <c r="L13" s="146"/>
-      <c r="M13" s="165"/>
-      <c r="N13" s="155"/>
-      <c r="O13" s="155"/>
-      <c r="P13" s="155"/>
-      <c r="Q13" s="155"/>
-      <c r="R13" s="156"/>
-      <c r="S13" s="141"/>
-      <c r="T13" s="141"/>
-      <c r="U13" s="141"/>
-      <c r="V13" s="157"/>
-      <c r="W13" s="158"/>
-      <c r="X13" s="158"/>
-      <c r="Y13" s="158"/>
-      <c r="Z13" s="158"/>
-      <c r="AA13" s="158"/>
-      <c r="AB13" s="158"/>
-      <c r="AC13" s="158"/>
-      <c r="AD13" s="158"/>
-      <c r="AE13" s="158"/>
-      <c r="AF13" s="158"/>
-      <c r="AG13" s="158"/>
-      <c r="AH13" s="158"/>
-      <c r="AI13" s="158"/>
-      <c r="AJ13" s="158"/>
-      <c r="AK13" s="158"/>
-      <c r="AL13" s="158"/>
-      <c r="AM13" s="159"/>
-      <c r="AN13" s="160"/>
-      <c r="AO13" s="161"/>
-      <c r="AP13" s="161"/>
-      <c r="AQ13" s="161"/>
-      <c r="AR13" s="162"/>
-      <c r="AS13" s="160"/>
-      <c r="AT13" s="161"/>
-      <c r="AU13" s="161"/>
-      <c r="AV13" s="161"/>
-      <c r="AW13" s="162"/>
+      <c r="B13" s="149"/>
+      <c r="C13" s="150"/>
+      <c r="D13" s="151"/>
+      <c r="E13" s="152"/>
+      <c r="F13" s="152"/>
+      <c r="G13" s="152"/>
+      <c r="H13" s="152"/>
+      <c r="I13" s="152"/>
+      <c r="J13" s="153"/>
+      <c r="K13" s="154"/>
+      <c r="L13" s="155"/>
+      <c r="M13" s="163"/>
+      <c r="N13" s="164"/>
+      <c r="O13" s="164"/>
+      <c r="P13" s="164"/>
+      <c r="Q13" s="164"/>
+      <c r="R13" s="165"/>
+      <c r="S13" s="159"/>
+      <c r="T13" s="159"/>
+      <c r="U13" s="159"/>
+      <c r="V13" s="160"/>
+      <c r="W13" s="161"/>
+      <c r="X13" s="161"/>
+      <c r="Y13" s="161"/>
+      <c r="Z13" s="161"/>
+      <c r="AA13" s="161"/>
+      <c r="AB13" s="161"/>
+      <c r="AC13" s="161"/>
+      <c r="AD13" s="161"/>
+      <c r="AE13" s="161"/>
+      <c r="AF13" s="161"/>
+      <c r="AG13" s="161"/>
+      <c r="AH13" s="161"/>
+      <c r="AI13" s="161"/>
+      <c r="AJ13" s="161"/>
+      <c r="AK13" s="161"/>
+      <c r="AL13" s="161"/>
+      <c r="AM13" s="162"/>
+      <c r="AN13" s="146"/>
+      <c r="AO13" s="147"/>
+      <c r="AP13" s="147"/>
+      <c r="AQ13" s="147"/>
+      <c r="AR13" s="148"/>
+      <c r="AS13" s="146"/>
+      <c r="AT13" s="147"/>
+      <c r="AU13" s="147"/>
+      <c r="AV13" s="147"/>
+      <c r="AW13" s="148"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="50"/>
-      <c r="B14" s="151"/>
-      <c r="C14" s="152"/>
-      <c r="D14" s="153"/>
-      <c r="E14" s="143"/>
-      <c r="F14" s="143"/>
-      <c r="G14" s="143"/>
-      <c r="H14" s="143"/>
-      <c r="I14" s="143"/>
-      <c r="J14" s="144"/>
-      <c r="K14" s="145"/>
-      <c r="L14" s="146"/>
-      <c r="M14" s="165"/>
-      <c r="N14" s="155"/>
-      <c r="O14" s="155"/>
-      <c r="P14" s="155"/>
-      <c r="Q14" s="155"/>
-      <c r="R14" s="156"/>
-      <c r="S14" s="141"/>
-      <c r="T14" s="141"/>
-      <c r="U14" s="141"/>
-      <c r="V14" s="166"/>
-      <c r="W14" s="150"/>
-      <c r="X14" s="150"/>
-      <c r="Y14" s="150"/>
-      <c r="Z14" s="150"/>
-      <c r="AA14" s="150"/>
-      <c r="AB14" s="150"/>
-      <c r="AC14" s="150"/>
-      <c r="AD14" s="150"/>
-      <c r="AE14" s="150"/>
-      <c r="AF14" s="150"/>
-      <c r="AG14" s="150"/>
-      <c r="AH14" s="150"/>
-      <c r="AI14" s="150"/>
-      <c r="AJ14" s="150"/>
-      <c r="AK14" s="150"/>
-      <c r="AL14" s="150"/>
-      <c r="AM14" s="150"/>
-      <c r="AN14" s="141"/>
-      <c r="AO14" s="141"/>
-      <c r="AP14" s="141"/>
-      <c r="AQ14" s="141"/>
-      <c r="AR14" s="141"/>
-      <c r="AS14" s="160"/>
-      <c r="AT14" s="161"/>
-      <c r="AU14" s="161"/>
-      <c r="AV14" s="161"/>
-      <c r="AW14" s="162"/>
+      <c r="B14" s="149"/>
+      <c r="C14" s="150"/>
+      <c r="D14" s="151"/>
+      <c r="E14" s="152"/>
+      <c r="F14" s="152"/>
+      <c r="G14" s="152"/>
+      <c r="H14" s="152"/>
+      <c r="I14" s="152"/>
+      <c r="J14" s="153"/>
+      <c r="K14" s="154"/>
+      <c r="L14" s="155"/>
+      <c r="M14" s="163"/>
+      <c r="N14" s="164"/>
+      <c r="O14" s="164"/>
+      <c r="P14" s="164"/>
+      <c r="Q14" s="164"/>
+      <c r="R14" s="165"/>
+      <c r="S14" s="159"/>
+      <c r="T14" s="159"/>
+      <c r="U14" s="159"/>
+      <c r="V14" s="169"/>
+      <c r="W14" s="170"/>
+      <c r="X14" s="170"/>
+      <c r="Y14" s="170"/>
+      <c r="Z14" s="170"/>
+      <c r="AA14" s="170"/>
+      <c r="AB14" s="170"/>
+      <c r="AC14" s="170"/>
+      <c r="AD14" s="170"/>
+      <c r="AE14" s="170"/>
+      <c r="AF14" s="170"/>
+      <c r="AG14" s="170"/>
+      <c r="AH14" s="170"/>
+      <c r="AI14" s="170"/>
+      <c r="AJ14" s="170"/>
+      <c r="AK14" s="170"/>
+      <c r="AL14" s="170"/>
+      <c r="AM14" s="170"/>
+      <c r="AN14" s="159"/>
+      <c r="AO14" s="159"/>
+      <c r="AP14" s="159"/>
+      <c r="AQ14" s="159"/>
+      <c r="AR14" s="159"/>
+      <c r="AS14" s="146"/>
+      <c r="AT14" s="147"/>
+      <c r="AU14" s="147"/>
+      <c r="AV14" s="147"/>
+      <c r="AW14" s="148"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="50"/>
-      <c r="B15" s="151"/>
-      <c r="C15" s="152"/>
-      <c r="D15" s="153"/>
-      <c r="E15" s="143"/>
-      <c r="F15" s="143"/>
-      <c r="G15" s="143"/>
-      <c r="H15" s="143"/>
-      <c r="I15" s="143"/>
-      <c r="J15" s="144"/>
-      <c r="K15" s="145"/>
-      <c r="L15" s="146"/>
-      <c r="M15" s="154"/>
-      <c r="N15" s="155"/>
-      <c r="O15" s="155"/>
-      <c r="P15" s="155"/>
-      <c r="Q15" s="155"/>
-      <c r="R15" s="156"/>
-      <c r="S15" s="141"/>
-      <c r="T15" s="141"/>
-      <c r="U15" s="141"/>
-      <c r="V15" s="157"/>
-      <c r="W15" s="158"/>
-      <c r="X15" s="158"/>
-      <c r="Y15" s="158"/>
-      <c r="Z15" s="158"/>
-      <c r="AA15" s="158"/>
-      <c r="AB15" s="158"/>
-      <c r="AC15" s="158"/>
-      <c r="AD15" s="158"/>
-      <c r="AE15" s="158"/>
-      <c r="AF15" s="158"/>
-      <c r="AG15" s="158"/>
-      <c r="AH15" s="158"/>
-      <c r="AI15" s="158"/>
-      <c r="AJ15" s="158"/>
-      <c r="AK15" s="158"/>
-      <c r="AL15" s="158"/>
-      <c r="AM15" s="159"/>
-      <c r="AN15" s="160"/>
-      <c r="AO15" s="161"/>
-      <c r="AP15" s="161"/>
-      <c r="AQ15" s="161"/>
-      <c r="AR15" s="162"/>
-      <c r="AS15" s="160"/>
-      <c r="AT15" s="161"/>
-      <c r="AU15" s="161"/>
-      <c r="AV15" s="161"/>
-      <c r="AW15" s="162"/>
+      <c r="B15" s="149"/>
+      <c r="C15" s="150"/>
+      <c r="D15" s="151"/>
+      <c r="E15" s="152"/>
+      <c r="F15" s="152"/>
+      <c r="G15" s="152"/>
+      <c r="H15" s="152"/>
+      <c r="I15" s="152"/>
+      <c r="J15" s="153"/>
+      <c r="K15" s="154"/>
+      <c r="L15" s="155"/>
+      <c r="M15" s="166"/>
+      <c r="N15" s="164"/>
+      <c r="O15" s="164"/>
+      <c r="P15" s="164"/>
+      <c r="Q15" s="164"/>
+      <c r="R15" s="165"/>
+      <c r="S15" s="159"/>
+      <c r="T15" s="159"/>
+      <c r="U15" s="159"/>
+      <c r="V15" s="160"/>
+      <c r="W15" s="161"/>
+      <c r="X15" s="161"/>
+      <c r="Y15" s="161"/>
+      <c r="Z15" s="161"/>
+      <c r="AA15" s="161"/>
+      <c r="AB15" s="161"/>
+      <c r="AC15" s="161"/>
+      <c r="AD15" s="161"/>
+      <c r="AE15" s="161"/>
+      <c r="AF15" s="161"/>
+      <c r="AG15" s="161"/>
+      <c r="AH15" s="161"/>
+      <c r="AI15" s="161"/>
+      <c r="AJ15" s="161"/>
+      <c r="AK15" s="161"/>
+      <c r="AL15" s="161"/>
+      <c r="AM15" s="162"/>
+      <c r="AN15" s="146"/>
+      <c r="AO15" s="147"/>
+      <c r="AP15" s="147"/>
+      <c r="AQ15" s="147"/>
+      <c r="AR15" s="148"/>
+      <c r="AS15" s="146"/>
+      <c r="AT15" s="147"/>
+      <c r="AU15" s="147"/>
+      <c r="AV15" s="147"/>
+      <c r="AW15" s="148"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="50"/>
-      <c r="B16" s="151"/>
-      <c r="C16" s="152"/>
-      <c r="D16" s="153"/>
-      <c r="E16" s="143"/>
-      <c r="F16" s="143"/>
-      <c r="G16" s="143"/>
-      <c r="H16" s="143"/>
-      <c r="I16" s="143"/>
-      <c r="J16" s="144"/>
-      <c r="K16" s="145"/>
-      <c r="L16" s="146"/>
-      <c r="M16" s="154"/>
-      <c r="N16" s="155"/>
-      <c r="O16" s="155"/>
-      <c r="P16" s="155"/>
-      <c r="Q16" s="155"/>
-      <c r="R16" s="156"/>
-      <c r="S16" s="141"/>
-      <c r="T16" s="141"/>
-      <c r="U16" s="141"/>
-      <c r="V16" s="157"/>
-      <c r="W16" s="158"/>
-      <c r="X16" s="158"/>
-      <c r="Y16" s="158"/>
-      <c r="Z16" s="158"/>
-      <c r="AA16" s="158"/>
-      <c r="AB16" s="158"/>
-      <c r="AC16" s="158"/>
-      <c r="AD16" s="158"/>
-      <c r="AE16" s="158"/>
-      <c r="AF16" s="158"/>
-      <c r="AG16" s="158"/>
-      <c r="AH16" s="158"/>
-      <c r="AI16" s="158"/>
-      <c r="AJ16" s="158"/>
-      <c r="AK16" s="158"/>
-      <c r="AL16" s="158"/>
-      <c r="AM16" s="159"/>
-      <c r="AN16" s="160"/>
-      <c r="AO16" s="161"/>
-      <c r="AP16" s="161"/>
-      <c r="AQ16" s="161"/>
-      <c r="AR16" s="162"/>
-      <c r="AS16" s="160"/>
-      <c r="AT16" s="161"/>
-      <c r="AU16" s="161"/>
-      <c r="AV16" s="161"/>
-      <c r="AW16" s="162"/>
+      <c r="B16" s="149"/>
+      <c r="C16" s="150"/>
+      <c r="D16" s="151"/>
+      <c r="E16" s="152"/>
+      <c r="F16" s="152"/>
+      <c r="G16" s="152"/>
+      <c r="H16" s="152"/>
+      <c r="I16" s="152"/>
+      <c r="J16" s="153"/>
+      <c r="K16" s="154"/>
+      <c r="L16" s="155"/>
+      <c r="M16" s="166"/>
+      <c r="N16" s="164"/>
+      <c r="O16" s="164"/>
+      <c r="P16" s="164"/>
+      <c r="Q16" s="164"/>
+      <c r="R16" s="165"/>
+      <c r="S16" s="159"/>
+      <c r="T16" s="159"/>
+      <c r="U16" s="159"/>
+      <c r="V16" s="160"/>
+      <c r="W16" s="161"/>
+      <c r="X16" s="161"/>
+      <c r="Y16" s="161"/>
+      <c r="Z16" s="161"/>
+      <c r="AA16" s="161"/>
+      <c r="AB16" s="161"/>
+      <c r="AC16" s="161"/>
+      <c r="AD16" s="161"/>
+      <c r="AE16" s="161"/>
+      <c r="AF16" s="161"/>
+      <c r="AG16" s="161"/>
+      <c r="AH16" s="161"/>
+      <c r="AI16" s="161"/>
+      <c r="AJ16" s="161"/>
+      <c r="AK16" s="161"/>
+      <c r="AL16" s="161"/>
+      <c r="AM16" s="162"/>
+      <c r="AN16" s="146"/>
+      <c r="AO16" s="147"/>
+      <c r="AP16" s="147"/>
+      <c r="AQ16" s="147"/>
+      <c r="AR16" s="148"/>
+      <c r="AS16" s="146"/>
+      <c r="AT16" s="147"/>
+      <c r="AU16" s="147"/>
+      <c r="AV16" s="147"/>
+      <c r="AW16" s="148"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="50"/>
-      <c r="B17" s="151"/>
-      <c r="C17" s="152"/>
-      <c r="D17" s="153"/>
-      <c r="E17" s="143"/>
-      <c r="F17" s="143"/>
-      <c r="G17" s="143"/>
-      <c r="H17" s="143"/>
-      <c r="I17" s="143"/>
-      <c r="J17" s="144"/>
-      <c r="K17" s="145"/>
-      <c r="L17" s="146"/>
-      <c r="M17" s="154"/>
-      <c r="N17" s="155"/>
-      <c r="O17" s="155"/>
-      <c r="P17" s="155"/>
-      <c r="Q17" s="155"/>
+      <c r="B17" s="149"/>
+      <c r="C17" s="150"/>
+      <c r="D17" s="151"/>
+      <c r="E17" s="152"/>
+      <c r="F17" s="152"/>
+      <c r="G17" s="152"/>
+      <c r="H17" s="152"/>
+      <c r="I17" s="152"/>
+      <c r="J17" s="153"/>
+      <c r="K17" s="154"/>
+      <c r="L17" s="155"/>
+      <c r="M17" s="166"/>
+      <c r="N17" s="164"/>
+      <c r="O17" s="164"/>
+      <c r="P17" s="164"/>
+      <c r="Q17" s="164"/>
       <c r="R17" s="167"/>
       <c r="S17" s="168"/>
       <c r="T17" s="168"/>
       <c r="U17" s="168"/>
-      <c r="V17" s="157"/>
-      <c r="W17" s="158"/>
-      <c r="X17" s="158"/>
-      <c r="Y17" s="158"/>
-      <c r="Z17" s="158"/>
-      <c r="AA17" s="158"/>
-      <c r="AB17" s="158"/>
-      <c r="AC17" s="158"/>
-      <c r="AD17" s="158"/>
-      <c r="AE17" s="158"/>
-      <c r="AF17" s="158"/>
-      <c r="AG17" s="158"/>
-      <c r="AH17" s="158"/>
-      <c r="AI17" s="158"/>
-      <c r="AJ17" s="158"/>
-      <c r="AK17" s="158"/>
-      <c r="AL17" s="158"/>
-      <c r="AM17" s="159"/>
-      <c r="AN17" s="160"/>
-      <c r="AO17" s="161"/>
-      <c r="AP17" s="161"/>
-      <c r="AQ17" s="161"/>
-      <c r="AR17" s="162"/>
-      <c r="AS17" s="160"/>
-      <c r="AT17" s="161"/>
-      <c r="AU17" s="161"/>
-      <c r="AV17" s="161"/>
-      <c r="AW17" s="162"/>
+      <c r="V17" s="160"/>
+      <c r="W17" s="161"/>
+      <c r="X17" s="161"/>
+      <c r="Y17" s="161"/>
+      <c r="Z17" s="161"/>
+      <c r="AA17" s="161"/>
+      <c r="AB17" s="161"/>
+      <c r="AC17" s="161"/>
+      <c r="AD17" s="161"/>
+      <c r="AE17" s="161"/>
+      <c r="AF17" s="161"/>
+      <c r="AG17" s="161"/>
+      <c r="AH17" s="161"/>
+      <c r="AI17" s="161"/>
+      <c r="AJ17" s="161"/>
+      <c r="AK17" s="161"/>
+      <c r="AL17" s="161"/>
+      <c r="AM17" s="162"/>
+      <c r="AN17" s="146"/>
+      <c r="AO17" s="147"/>
+      <c r="AP17" s="147"/>
+      <c r="AQ17" s="147"/>
+      <c r="AR17" s="148"/>
+      <c r="AS17" s="146"/>
+      <c r="AT17" s="147"/>
+      <c r="AU17" s="147"/>
+      <c r="AV17" s="147"/>
+      <c r="AW17" s="148"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="50"/>
-      <c r="B18" s="151"/>
-      <c r="C18" s="152"/>
-      <c r="D18" s="153"/>
-      <c r="E18" s="143"/>
-      <c r="F18" s="143"/>
-      <c r="G18" s="143"/>
-      <c r="H18" s="143"/>
-      <c r="I18" s="143"/>
-      <c r="J18" s="144"/>
-      <c r="K18" s="145"/>
-      <c r="L18" s="146"/>
-      <c r="M18" s="165"/>
-      <c r="N18" s="155"/>
-      <c r="O18" s="155"/>
-      <c r="P18" s="155"/>
-      <c r="Q18" s="155"/>
-      <c r="R18" s="156"/>
-      <c r="S18" s="141"/>
-      <c r="T18" s="141"/>
-      <c r="U18" s="141"/>
-      <c r="V18" s="157"/>
-      <c r="W18" s="158"/>
-      <c r="X18" s="158"/>
-      <c r="Y18" s="158"/>
-      <c r="Z18" s="158"/>
-      <c r="AA18" s="158"/>
-      <c r="AB18" s="158"/>
-      <c r="AC18" s="158"/>
-      <c r="AD18" s="158"/>
-      <c r="AE18" s="158"/>
-      <c r="AF18" s="158"/>
-      <c r="AG18" s="158"/>
-      <c r="AH18" s="158"/>
-      <c r="AI18" s="158"/>
-      <c r="AJ18" s="158"/>
-      <c r="AK18" s="158"/>
-      <c r="AL18" s="158"/>
-      <c r="AM18" s="159"/>
-      <c r="AN18" s="160"/>
-      <c r="AO18" s="161"/>
-      <c r="AP18" s="161"/>
-      <c r="AQ18" s="161"/>
-      <c r="AR18" s="162"/>
-      <c r="AS18" s="160"/>
-      <c r="AT18" s="161"/>
-      <c r="AU18" s="161"/>
-      <c r="AV18" s="161"/>
-      <c r="AW18" s="162"/>
+      <c r="B18" s="149"/>
+      <c r="C18" s="150"/>
+      <c r="D18" s="151"/>
+      <c r="E18" s="152"/>
+      <c r="F18" s="152"/>
+      <c r="G18" s="152"/>
+      <c r="H18" s="152"/>
+      <c r="I18" s="152"/>
+      <c r="J18" s="153"/>
+      <c r="K18" s="154"/>
+      <c r="L18" s="155"/>
+      <c r="M18" s="163"/>
+      <c r="N18" s="164"/>
+      <c r="O18" s="164"/>
+      <c r="P18" s="164"/>
+      <c r="Q18" s="164"/>
+      <c r="R18" s="165"/>
+      <c r="S18" s="159"/>
+      <c r="T18" s="159"/>
+      <c r="U18" s="159"/>
+      <c r="V18" s="160"/>
+      <c r="W18" s="161"/>
+      <c r="X18" s="161"/>
+      <c r="Y18" s="161"/>
+      <c r="Z18" s="161"/>
+      <c r="AA18" s="161"/>
+      <c r="AB18" s="161"/>
+      <c r="AC18" s="161"/>
+      <c r="AD18" s="161"/>
+      <c r="AE18" s="161"/>
+      <c r="AF18" s="161"/>
+      <c r="AG18" s="161"/>
+      <c r="AH18" s="161"/>
+      <c r="AI18" s="161"/>
+      <c r="AJ18" s="161"/>
+      <c r="AK18" s="161"/>
+      <c r="AL18" s="161"/>
+      <c r="AM18" s="162"/>
+      <c r="AN18" s="146"/>
+      <c r="AO18" s="147"/>
+      <c r="AP18" s="147"/>
+      <c r="AQ18" s="147"/>
+      <c r="AR18" s="148"/>
+      <c r="AS18" s="146"/>
+      <c r="AT18" s="147"/>
+      <c r="AU18" s="147"/>
+      <c r="AV18" s="147"/>
+      <c r="AW18" s="148"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="50"/>
-      <c r="B19" s="151"/>
-      <c r="C19" s="152"/>
-      <c r="D19" s="153"/>
-      <c r="E19" s="143"/>
-      <c r="F19" s="143"/>
-      <c r="G19" s="143"/>
-      <c r="H19" s="143"/>
-      <c r="I19" s="143"/>
-      <c r="J19" s="144"/>
-      <c r="K19" s="145"/>
-      <c r="L19" s="146"/>
-      <c r="M19" s="154"/>
-      <c r="N19" s="155"/>
-      <c r="O19" s="155"/>
-      <c r="P19" s="155"/>
-      <c r="Q19" s="155"/>
-      <c r="R19" s="156"/>
-      <c r="S19" s="141"/>
-      <c r="T19" s="141"/>
-      <c r="U19" s="141"/>
-      <c r="V19" s="157"/>
-      <c r="W19" s="158"/>
-      <c r="X19" s="158"/>
-      <c r="Y19" s="158"/>
-      <c r="Z19" s="158"/>
-      <c r="AA19" s="158"/>
-      <c r="AB19" s="158"/>
-      <c r="AC19" s="158"/>
-      <c r="AD19" s="158"/>
-      <c r="AE19" s="158"/>
-      <c r="AF19" s="158"/>
-      <c r="AG19" s="158"/>
-      <c r="AH19" s="158"/>
-      <c r="AI19" s="158"/>
-      <c r="AJ19" s="158"/>
-      <c r="AK19" s="158"/>
-      <c r="AL19" s="158"/>
-      <c r="AM19" s="159"/>
-      <c r="AN19" s="141"/>
-      <c r="AO19" s="141"/>
-      <c r="AP19" s="141"/>
-      <c r="AQ19" s="141"/>
-      <c r="AR19" s="141"/>
-      <c r="AS19" s="160"/>
-      <c r="AT19" s="161"/>
-      <c r="AU19" s="161"/>
-      <c r="AV19" s="161"/>
-      <c r="AW19" s="162"/>
+      <c r="B19" s="149"/>
+      <c r="C19" s="150"/>
+      <c r="D19" s="151"/>
+      <c r="E19" s="152"/>
+      <c r="F19" s="152"/>
+      <c r="G19" s="152"/>
+      <c r="H19" s="152"/>
+      <c r="I19" s="152"/>
+      <c r="J19" s="153"/>
+      <c r="K19" s="154"/>
+      <c r="L19" s="155"/>
+      <c r="M19" s="166"/>
+      <c r="N19" s="164"/>
+      <c r="O19" s="164"/>
+      <c r="P19" s="164"/>
+      <c r="Q19" s="164"/>
+      <c r="R19" s="165"/>
+      <c r="S19" s="159"/>
+      <c r="T19" s="159"/>
+      <c r="U19" s="159"/>
+      <c r="V19" s="160"/>
+      <c r="W19" s="161"/>
+      <c r="X19" s="161"/>
+      <c r="Y19" s="161"/>
+      <c r="Z19" s="161"/>
+      <c r="AA19" s="161"/>
+      <c r="AB19" s="161"/>
+      <c r="AC19" s="161"/>
+      <c r="AD19" s="161"/>
+      <c r="AE19" s="161"/>
+      <c r="AF19" s="161"/>
+      <c r="AG19" s="161"/>
+      <c r="AH19" s="161"/>
+      <c r="AI19" s="161"/>
+      <c r="AJ19" s="161"/>
+      <c r="AK19" s="161"/>
+      <c r="AL19" s="161"/>
+      <c r="AM19" s="162"/>
+      <c r="AN19" s="159"/>
+      <c r="AO19" s="159"/>
+      <c r="AP19" s="159"/>
+      <c r="AQ19" s="159"/>
+      <c r="AR19" s="159"/>
+      <c r="AS19" s="146"/>
+      <c r="AT19" s="147"/>
+      <c r="AU19" s="147"/>
+      <c r="AV19" s="147"/>
+      <c r="AW19" s="148"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="50"/>
-      <c r="B20" s="151"/>
-      <c r="C20" s="152"/>
-      <c r="D20" s="153"/>
-      <c r="E20" s="143"/>
-      <c r="F20" s="143"/>
-      <c r="G20" s="143"/>
-      <c r="H20" s="143"/>
-      <c r="I20" s="143"/>
-      <c r="J20" s="144"/>
-      <c r="K20" s="145"/>
-      <c r="L20" s="146"/>
-      <c r="M20" s="154"/>
-      <c r="N20" s="155"/>
-      <c r="O20" s="155"/>
-      <c r="P20" s="155"/>
-      <c r="Q20" s="155"/>
-      <c r="R20" s="156"/>
-      <c r="S20" s="160"/>
-      <c r="T20" s="161"/>
-      <c r="U20" s="162"/>
-      <c r="V20" s="157"/>
-      <c r="W20" s="158"/>
-      <c r="X20" s="158"/>
-      <c r="Y20" s="158"/>
-      <c r="Z20" s="158"/>
-      <c r="AA20" s="158"/>
-      <c r="AB20" s="158"/>
-      <c r="AC20" s="158"/>
-      <c r="AD20" s="158"/>
-      <c r="AE20" s="158"/>
-      <c r="AF20" s="158"/>
-      <c r="AG20" s="158"/>
-      <c r="AH20" s="158"/>
-      <c r="AI20" s="158"/>
-      <c r="AJ20" s="158"/>
-      <c r="AK20" s="158"/>
-      <c r="AL20" s="158"/>
-      <c r="AM20" s="159"/>
-      <c r="AN20" s="160"/>
-      <c r="AO20" s="161"/>
-      <c r="AP20" s="161"/>
-      <c r="AQ20" s="161"/>
-      <c r="AR20" s="162"/>
-      <c r="AS20" s="160"/>
-      <c r="AT20" s="161"/>
-      <c r="AU20" s="161"/>
-      <c r="AV20" s="161"/>
-      <c r="AW20" s="162"/>
+      <c r="B20" s="149"/>
+      <c r="C20" s="150"/>
+      <c r="D20" s="151"/>
+      <c r="E20" s="152"/>
+      <c r="F20" s="152"/>
+      <c r="G20" s="152"/>
+      <c r="H20" s="152"/>
+      <c r="I20" s="152"/>
+      <c r="J20" s="153"/>
+      <c r="K20" s="154"/>
+      <c r="L20" s="155"/>
+      <c r="M20" s="166"/>
+      <c r="N20" s="164"/>
+      <c r="O20" s="164"/>
+      <c r="P20" s="164"/>
+      <c r="Q20" s="164"/>
+      <c r="R20" s="165"/>
+      <c r="S20" s="146"/>
+      <c r="T20" s="147"/>
+      <c r="U20" s="148"/>
+      <c r="V20" s="160"/>
+      <c r="W20" s="161"/>
+      <c r="X20" s="161"/>
+      <c r="Y20" s="161"/>
+      <c r="Z20" s="161"/>
+      <c r="AA20" s="161"/>
+      <c r="AB20" s="161"/>
+      <c r="AC20" s="161"/>
+      <c r="AD20" s="161"/>
+      <c r="AE20" s="161"/>
+      <c r="AF20" s="161"/>
+      <c r="AG20" s="161"/>
+      <c r="AH20" s="161"/>
+      <c r="AI20" s="161"/>
+      <c r="AJ20" s="161"/>
+      <c r="AK20" s="161"/>
+      <c r="AL20" s="161"/>
+      <c r="AM20" s="162"/>
+      <c r="AN20" s="146"/>
+      <c r="AO20" s="147"/>
+      <c r="AP20" s="147"/>
+      <c r="AQ20" s="147"/>
+      <c r="AR20" s="148"/>
+      <c r="AS20" s="146"/>
+      <c r="AT20" s="147"/>
+      <c r="AU20" s="147"/>
+      <c r="AV20" s="147"/>
+      <c r="AW20" s="148"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="50"/>
-      <c r="B21" s="151"/>
-      <c r="C21" s="152"/>
-      <c r="D21" s="153"/>
-      <c r="E21" s="143"/>
-      <c r="F21" s="143"/>
-      <c r="G21" s="143"/>
-      <c r="H21" s="143"/>
-      <c r="I21" s="143"/>
-      <c r="J21" s="144"/>
-      <c r="K21" s="145"/>
-      <c r="L21" s="146"/>
-      <c r="M21" s="154"/>
-      <c r="N21" s="155"/>
-      <c r="O21" s="155"/>
-      <c r="P21" s="155"/>
-      <c r="Q21" s="155"/>
-      <c r="R21" s="156"/>
-      <c r="S21" s="141"/>
-      <c r="T21" s="141"/>
-      <c r="U21" s="141"/>
-      <c r="V21" s="157"/>
-      <c r="W21" s="158"/>
-      <c r="X21" s="158"/>
-      <c r="Y21" s="158"/>
-      <c r="Z21" s="158"/>
-      <c r="AA21" s="158"/>
-      <c r="AB21" s="158"/>
-      <c r="AC21" s="158"/>
-      <c r="AD21" s="158"/>
-      <c r="AE21" s="158"/>
-      <c r="AF21" s="158"/>
-      <c r="AG21" s="158"/>
-      <c r="AH21" s="158"/>
-      <c r="AI21" s="158"/>
-      <c r="AJ21" s="158"/>
-      <c r="AK21" s="158"/>
-      <c r="AL21" s="158"/>
-      <c r="AM21" s="159"/>
-      <c r="AN21" s="160"/>
-      <c r="AO21" s="161"/>
-      <c r="AP21" s="161"/>
-      <c r="AQ21" s="161"/>
-      <c r="AR21" s="162"/>
-      <c r="AS21" s="160"/>
-      <c r="AT21" s="161"/>
-      <c r="AU21" s="161"/>
-      <c r="AV21" s="161"/>
-      <c r="AW21" s="162"/>
+      <c r="B21" s="149"/>
+      <c r="C21" s="150"/>
+      <c r="D21" s="151"/>
+      <c r="E21" s="152"/>
+      <c r="F21" s="152"/>
+      <c r="G21" s="152"/>
+      <c r="H21" s="152"/>
+      <c r="I21" s="152"/>
+      <c r="J21" s="153"/>
+      <c r="K21" s="154"/>
+      <c r="L21" s="155"/>
+      <c r="M21" s="166"/>
+      <c r="N21" s="164"/>
+      <c r="O21" s="164"/>
+      <c r="P21" s="164"/>
+      <c r="Q21" s="164"/>
+      <c r="R21" s="165"/>
+      <c r="S21" s="159"/>
+      <c r="T21" s="159"/>
+      <c r="U21" s="159"/>
+      <c r="V21" s="160"/>
+      <c r="W21" s="161"/>
+      <c r="X21" s="161"/>
+      <c r="Y21" s="161"/>
+      <c r="Z21" s="161"/>
+      <c r="AA21" s="161"/>
+      <c r="AB21" s="161"/>
+      <c r="AC21" s="161"/>
+      <c r="AD21" s="161"/>
+      <c r="AE21" s="161"/>
+      <c r="AF21" s="161"/>
+      <c r="AG21" s="161"/>
+      <c r="AH21" s="161"/>
+      <c r="AI21" s="161"/>
+      <c r="AJ21" s="161"/>
+      <c r="AK21" s="161"/>
+      <c r="AL21" s="161"/>
+      <c r="AM21" s="162"/>
+      <c r="AN21" s="146"/>
+      <c r="AO21" s="147"/>
+      <c r="AP21" s="147"/>
+      <c r="AQ21" s="147"/>
+      <c r="AR21" s="148"/>
+      <c r="AS21" s="146"/>
+      <c r="AT21" s="147"/>
+      <c r="AU21" s="147"/>
+      <c r="AV21" s="147"/>
+      <c r="AW21" s="148"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="50"/>
-      <c r="B22" s="151"/>
-      <c r="C22" s="152"/>
-      <c r="D22" s="153"/>
-      <c r="E22" s="143"/>
-      <c r="F22" s="143"/>
-      <c r="G22" s="143"/>
-      <c r="H22" s="143"/>
-      <c r="I22" s="143"/>
-      <c r="J22" s="144"/>
-      <c r="K22" s="145"/>
-      <c r="L22" s="146"/>
-      <c r="M22" s="154"/>
-      <c r="N22" s="155"/>
-      <c r="O22" s="155"/>
-      <c r="P22" s="155"/>
-      <c r="Q22" s="155"/>
-      <c r="R22" s="156"/>
-      <c r="S22" s="141"/>
-      <c r="T22" s="141"/>
-      <c r="U22" s="141"/>
-      <c r="V22" s="157"/>
-      <c r="W22" s="158"/>
-      <c r="X22" s="158"/>
-      <c r="Y22" s="158"/>
-      <c r="Z22" s="158"/>
-      <c r="AA22" s="158"/>
-      <c r="AB22" s="158"/>
-      <c r="AC22" s="158"/>
-      <c r="AD22" s="158"/>
-      <c r="AE22" s="158"/>
-      <c r="AF22" s="158"/>
-      <c r="AG22" s="158"/>
-      <c r="AH22" s="158"/>
-      <c r="AI22" s="158"/>
-      <c r="AJ22" s="158"/>
-      <c r="AK22" s="158"/>
-      <c r="AL22" s="158"/>
-      <c r="AM22" s="159"/>
-      <c r="AN22" s="160"/>
-      <c r="AO22" s="161"/>
-      <c r="AP22" s="161"/>
-      <c r="AQ22" s="161"/>
-      <c r="AR22" s="162"/>
-      <c r="AS22" s="160"/>
-      <c r="AT22" s="161"/>
-      <c r="AU22" s="161"/>
-      <c r="AV22" s="161"/>
-      <c r="AW22" s="162"/>
+      <c r="B22" s="149"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="152"/>
+      <c r="G22" s="152"/>
+      <c r="H22" s="152"/>
+      <c r="I22" s="152"/>
+      <c r="J22" s="153"/>
+      <c r="K22" s="154"/>
+      <c r="L22" s="155"/>
+      <c r="M22" s="166"/>
+      <c r="N22" s="164"/>
+      <c r="O22" s="164"/>
+      <c r="P22" s="164"/>
+      <c r="Q22" s="164"/>
+      <c r="R22" s="165"/>
+      <c r="S22" s="159"/>
+      <c r="T22" s="159"/>
+      <c r="U22" s="159"/>
+      <c r="V22" s="160"/>
+      <c r="W22" s="161"/>
+      <c r="X22" s="161"/>
+      <c r="Y22" s="161"/>
+      <c r="Z22" s="161"/>
+      <c r="AA22" s="161"/>
+      <c r="AB22" s="161"/>
+      <c r="AC22" s="161"/>
+      <c r="AD22" s="161"/>
+      <c r="AE22" s="161"/>
+      <c r="AF22" s="161"/>
+      <c r="AG22" s="161"/>
+      <c r="AH22" s="161"/>
+      <c r="AI22" s="161"/>
+      <c r="AJ22" s="161"/>
+      <c r="AK22" s="161"/>
+      <c r="AL22" s="161"/>
+      <c r="AM22" s="162"/>
+      <c r="AN22" s="146"/>
+      <c r="AO22" s="147"/>
+      <c r="AP22" s="147"/>
+      <c r="AQ22" s="147"/>
+      <c r="AR22" s="148"/>
+      <c r="AS22" s="146"/>
+      <c r="AT22" s="147"/>
+      <c r="AU22" s="147"/>
+      <c r="AV22" s="147"/>
+      <c r="AW22" s="148"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="48"/>
-      <c r="B23" s="151"/>
-      <c r="C23" s="152"/>
-      <c r="D23" s="153"/>
-      <c r="E23" s="143"/>
-      <c r="F23" s="143"/>
-      <c r="G23" s="143"/>
-      <c r="H23" s="143"/>
-      <c r="I23" s="143"/>
-      <c r="J23" s="144"/>
-      <c r="K23" s="145"/>
-      <c r="L23" s="146"/>
-      <c r="M23" s="154"/>
-      <c r="N23" s="155"/>
-      <c r="O23" s="155"/>
-      <c r="P23" s="155"/>
-      <c r="Q23" s="155"/>
-      <c r="R23" s="156"/>
-      <c r="S23" s="141"/>
-      <c r="T23" s="141"/>
-      <c r="U23" s="141"/>
-      <c r="V23" s="157"/>
-      <c r="W23" s="158"/>
-      <c r="X23" s="158"/>
-      <c r="Y23" s="158"/>
-      <c r="Z23" s="158"/>
-      <c r="AA23" s="158"/>
-      <c r="AB23" s="158"/>
-      <c r="AC23" s="158"/>
-      <c r="AD23" s="158"/>
-      <c r="AE23" s="158"/>
-      <c r="AF23" s="158"/>
-      <c r="AG23" s="158"/>
-      <c r="AH23" s="158"/>
-      <c r="AI23" s="158"/>
-      <c r="AJ23" s="158"/>
-      <c r="AK23" s="158"/>
-      <c r="AL23" s="158"/>
-      <c r="AM23" s="159"/>
-      <c r="AN23" s="160"/>
-      <c r="AO23" s="161"/>
-      <c r="AP23" s="161"/>
-      <c r="AQ23" s="161"/>
-      <c r="AR23" s="162"/>
-      <c r="AS23" s="160"/>
-      <c r="AT23" s="161"/>
-      <c r="AU23" s="161"/>
-      <c r="AV23" s="161"/>
-      <c r="AW23" s="162"/>
+      <c r="B23" s="149"/>
+      <c r="C23" s="150"/>
+      <c r="D23" s="151"/>
+      <c r="E23" s="152"/>
+      <c r="F23" s="152"/>
+      <c r="G23" s="152"/>
+      <c r="H23" s="152"/>
+      <c r="I23" s="152"/>
+      <c r="J23" s="153"/>
+      <c r="K23" s="154"/>
+      <c r="L23" s="155"/>
+      <c r="M23" s="166"/>
+      <c r="N23" s="164"/>
+      <c r="O23" s="164"/>
+      <c r="P23" s="164"/>
+      <c r="Q23" s="164"/>
+      <c r="R23" s="165"/>
+      <c r="S23" s="159"/>
+      <c r="T23" s="159"/>
+      <c r="U23" s="159"/>
+      <c r="V23" s="160"/>
+      <c r="W23" s="161"/>
+      <c r="X23" s="161"/>
+      <c r="Y23" s="161"/>
+      <c r="Z23" s="161"/>
+      <c r="AA23" s="161"/>
+      <c r="AB23" s="161"/>
+      <c r="AC23" s="161"/>
+      <c r="AD23" s="161"/>
+      <c r="AE23" s="161"/>
+      <c r="AF23" s="161"/>
+      <c r="AG23" s="161"/>
+      <c r="AH23" s="161"/>
+      <c r="AI23" s="161"/>
+      <c r="AJ23" s="161"/>
+      <c r="AK23" s="161"/>
+      <c r="AL23" s="161"/>
+      <c r="AM23" s="162"/>
+      <c r="AN23" s="146"/>
+      <c r="AO23" s="147"/>
+      <c r="AP23" s="147"/>
+      <c r="AQ23" s="147"/>
+      <c r="AR23" s="148"/>
+      <c r="AS23" s="146"/>
+      <c r="AT23" s="147"/>
+      <c r="AU23" s="147"/>
+      <c r="AV23" s="147"/>
+      <c r="AW23" s="148"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="48"/>
-      <c r="B24" s="151"/>
-      <c r="C24" s="152"/>
-      <c r="D24" s="153"/>
-      <c r="E24" s="143"/>
-      <c r="F24" s="143"/>
-      <c r="G24" s="143"/>
-      <c r="H24" s="143"/>
-      <c r="I24" s="143"/>
-      <c r="J24" s="144"/>
-      <c r="K24" s="145"/>
-      <c r="L24" s="146"/>
-      <c r="M24" s="154"/>
-      <c r="N24" s="155"/>
-      <c r="O24" s="155"/>
-      <c r="P24" s="155"/>
-      <c r="Q24" s="155"/>
-      <c r="R24" s="156"/>
-      <c r="S24" s="141"/>
-      <c r="T24" s="141"/>
-      <c r="U24" s="141"/>
-      <c r="V24" s="157"/>
-      <c r="W24" s="158"/>
-      <c r="X24" s="158"/>
-      <c r="Y24" s="158"/>
-      <c r="Z24" s="158"/>
-      <c r="AA24" s="158"/>
-      <c r="AB24" s="158"/>
-      <c r="AC24" s="158"/>
-      <c r="AD24" s="158"/>
-      <c r="AE24" s="158"/>
-      <c r="AF24" s="158"/>
-      <c r="AG24" s="158"/>
-      <c r="AH24" s="158"/>
-      <c r="AI24" s="158"/>
-      <c r="AJ24" s="158"/>
-      <c r="AK24" s="158"/>
-      <c r="AL24" s="158"/>
-      <c r="AM24" s="159"/>
-      <c r="AN24" s="160"/>
-      <c r="AO24" s="161"/>
-      <c r="AP24" s="161"/>
-      <c r="AQ24" s="161"/>
-      <c r="AR24" s="162"/>
-      <c r="AS24" s="160"/>
-      <c r="AT24" s="161"/>
-      <c r="AU24" s="161"/>
-      <c r="AV24" s="161"/>
-      <c r="AW24" s="162"/>
+      <c r="B24" s="149"/>
+      <c r="C24" s="150"/>
+      <c r="D24" s="151"/>
+      <c r="E24" s="152"/>
+      <c r="F24" s="152"/>
+      <c r="G24" s="152"/>
+      <c r="H24" s="152"/>
+      <c r="I24" s="152"/>
+      <c r="J24" s="153"/>
+      <c r="K24" s="154"/>
+      <c r="L24" s="155"/>
+      <c r="M24" s="166"/>
+      <c r="N24" s="164"/>
+      <c r="O24" s="164"/>
+      <c r="P24" s="164"/>
+      <c r="Q24" s="164"/>
+      <c r="R24" s="165"/>
+      <c r="S24" s="159"/>
+      <c r="T24" s="159"/>
+      <c r="U24" s="159"/>
+      <c r="V24" s="160"/>
+      <c r="W24" s="161"/>
+      <c r="X24" s="161"/>
+      <c r="Y24" s="161"/>
+      <c r="Z24" s="161"/>
+      <c r="AA24" s="161"/>
+      <c r="AB24" s="161"/>
+      <c r="AC24" s="161"/>
+      <c r="AD24" s="161"/>
+      <c r="AE24" s="161"/>
+      <c r="AF24" s="161"/>
+      <c r="AG24" s="161"/>
+      <c r="AH24" s="161"/>
+      <c r="AI24" s="161"/>
+      <c r="AJ24" s="161"/>
+      <c r="AK24" s="161"/>
+      <c r="AL24" s="161"/>
+      <c r="AM24" s="162"/>
+      <c r="AN24" s="146"/>
+      <c r="AO24" s="147"/>
+      <c r="AP24" s="147"/>
+      <c r="AQ24" s="147"/>
+      <c r="AR24" s="148"/>
+      <c r="AS24" s="146"/>
+      <c r="AT24" s="147"/>
+      <c r="AU24" s="147"/>
+      <c r="AV24" s="147"/>
+      <c r="AW24" s="148"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="48"/>
-      <c r="B25" s="151"/>
-      <c r="C25" s="152"/>
-      <c r="D25" s="153"/>
-      <c r="E25" s="143"/>
-      <c r="F25" s="143"/>
-      <c r="G25" s="143"/>
-      <c r="H25" s="143"/>
-      <c r="I25" s="143"/>
-      <c r="J25" s="144"/>
-      <c r="K25" s="145"/>
-      <c r="L25" s="146"/>
-      <c r="M25" s="165"/>
-      <c r="N25" s="155"/>
-      <c r="O25" s="155"/>
-      <c r="P25" s="155"/>
-      <c r="Q25" s="155"/>
-      <c r="R25" s="156"/>
-      <c r="S25" s="141"/>
-      <c r="T25" s="141"/>
-      <c r="U25" s="141"/>
-      <c r="V25" s="157"/>
-      <c r="W25" s="158"/>
-      <c r="X25" s="158"/>
-      <c r="Y25" s="158"/>
-      <c r="Z25" s="158"/>
-      <c r="AA25" s="158"/>
-      <c r="AB25" s="158"/>
-      <c r="AC25" s="158"/>
-      <c r="AD25" s="158"/>
-      <c r="AE25" s="158"/>
-      <c r="AF25" s="158"/>
-      <c r="AG25" s="158"/>
-      <c r="AH25" s="158"/>
-      <c r="AI25" s="158"/>
-      <c r="AJ25" s="158"/>
-      <c r="AK25" s="158"/>
-      <c r="AL25" s="158"/>
-      <c r="AM25" s="159"/>
-      <c r="AN25" s="160"/>
-      <c r="AO25" s="161"/>
-      <c r="AP25" s="161"/>
-      <c r="AQ25" s="161"/>
-      <c r="AR25" s="162"/>
-      <c r="AS25" s="160"/>
-      <c r="AT25" s="161"/>
-      <c r="AU25" s="161"/>
-      <c r="AV25" s="161"/>
-      <c r="AW25" s="162"/>
+      <c r="B25" s="149"/>
+      <c r="C25" s="150"/>
+      <c r="D25" s="151"/>
+      <c r="E25" s="152"/>
+      <c r="F25" s="152"/>
+      <c r="G25" s="152"/>
+      <c r="H25" s="152"/>
+      <c r="I25" s="152"/>
+      <c r="J25" s="153"/>
+      <c r="K25" s="154"/>
+      <c r="L25" s="155"/>
+      <c r="M25" s="163"/>
+      <c r="N25" s="164"/>
+      <c r="O25" s="164"/>
+      <c r="P25" s="164"/>
+      <c r="Q25" s="164"/>
+      <c r="R25" s="165"/>
+      <c r="S25" s="159"/>
+      <c r="T25" s="159"/>
+      <c r="U25" s="159"/>
+      <c r="V25" s="160"/>
+      <c r="W25" s="161"/>
+      <c r="X25" s="161"/>
+      <c r="Y25" s="161"/>
+      <c r="Z25" s="161"/>
+      <c r="AA25" s="161"/>
+      <c r="AB25" s="161"/>
+      <c r="AC25" s="161"/>
+      <c r="AD25" s="161"/>
+      <c r="AE25" s="161"/>
+      <c r="AF25" s="161"/>
+      <c r="AG25" s="161"/>
+      <c r="AH25" s="161"/>
+      <c r="AI25" s="161"/>
+      <c r="AJ25" s="161"/>
+      <c r="AK25" s="161"/>
+      <c r="AL25" s="161"/>
+      <c r="AM25" s="162"/>
+      <c r="AN25" s="146"/>
+      <c r="AO25" s="147"/>
+      <c r="AP25" s="147"/>
+      <c r="AQ25" s="147"/>
+      <c r="AR25" s="148"/>
+      <c r="AS25" s="146"/>
+      <c r="AT25" s="147"/>
+      <c r="AU25" s="147"/>
+      <c r="AV25" s="147"/>
+      <c r="AW25" s="148"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="48"/>
-      <c r="B26" s="151"/>
-      <c r="C26" s="152"/>
-      <c r="D26" s="153"/>
-      <c r="E26" s="143"/>
-      <c r="F26" s="143"/>
-      <c r="G26" s="143"/>
-      <c r="H26" s="143"/>
-      <c r="I26" s="143"/>
-      <c r="J26" s="144"/>
-      <c r="K26" s="145"/>
-      <c r="L26" s="146"/>
-      <c r="M26" s="165"/>
-      <c r="N26" s="155"/>
-      <c r="O26" s="155"/>
-      <c r="P26" s="155"/>
-      <c r="Q26" s="155"/>
-      <c r="R26" s="156"/>
-      <c r="S26" s="141"/>
-      <c r="T26" s="141"/>
-      <c r="U26" s="141"/>
-      <c r="V26" s="157"/>
-      <c r="W26" s="158"/>
-      <c r="X26" s="158"/>
-      <c r="Y26" s="158"/>
-      <c r="Z26" s="158"/>
-      <c r="AA26" s="158"/>
-      <c r="AB26" s="158"/>
-      <c r="AC26" s="158"/>
-      <c r="AD26" s="158"/>
-      <c r="AE26" s="158"/>
-      <c r="AF26" s="158"/>
-      <c r="AG26" s="158"/>
-      <c r="AH26" s="158"/>
-      <c r="AI26" s="158"/>
-      <c r="AJ26" s="158"/>
-      <c r="AK26" s="158"/>
-      <c r="AL26" s="158"/>
-      <c r="AM26" s="159"/>
-      <c r="AN26" s="160"/>
-      <c r="AO26" s="161"/>
-      <c r="AP26" s="161"/>
-      <c r="AQ26" s="161"/>
-      <c r="AR26" s="162"/>
-      <c r="AS26" s="160"/>
-      <c r="AT26" s="161"/>
-      <c r="AU26" s="161"/>
-      <c r="AV26" s="161"/>
-      <c r="AW26" s="162"/>
+      <c r="B26" s="149"/>
+      <c r="C26" s="150"/>
+      <c r="D26" s="151"/>
+      <c r="E26" s="152"/>
+      <c r="F26" s="152"/>
+      <c r="G26" s="152"/>
+      <c r="H26" s="152"/>
+      <c r="I26" s="152"/>
+      <c r="J26" s="153"/>
+      <c r="K26" s="154"/>
+      <c r="L26" s="155"/>
+      <c r="M26" s="163"/>
+      <c r="N26" s="164"/>
+      <c r="O26" s="164"/>
+      <c r="P26" s="164"/>
+      <c r="Q26" s="164"/>
+      <c r="R26" s="165"/>
+      <c r="S26" s="159"/>
+      <c r="T26" s="159"/>
+      <c r="U26" s="159"/>
+      <c r="V26" s="160"/>
+      <c r="W26" s="161"/>
+      <c r="X26" s="161"/>
+      <c r="Y26" s="161"/>
+      <c r="Z26" s="161"/>
+      <c r="AA26" s="161"/>
+      <c r="AB26" s="161"/>
+      <c r="AC26" s="161"/>
+      <c r="AD26" s="161"/>
+      <c r="AE26" s="161"/>
+      <c r="AF26" s="161"/>
+      <c r="AG26" s="161"/>
+      <c r="AH26" s="161"/>
+      <c r="AI26" s="161"/>
+      <c r="AJ26" s="161"/>
+      <c r="AK26" s="161"/>
+      <c r="AL26" s="161"/>
+      <c r="AM26" s="162"/>
+      <c r="AN26" s="146"/>
+      <c r="AO26" s="147"/>
+      <c r="AP26" s="147"/>
+      <c r="AQ26" s="147"/>
+      <c r="AR26" s="148"/>
+      <c r="AS26" s="146"/>
+      <c r="AT26" s="147"/>
+      <c r="AU26" s="147"/>
+      <c r="AV26" s="147"/>
+      <c r="AW26" s="148"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="48"/>
-      <c r="B27" s="151"/>
-      <c r="C27" s="152"/>
-      <c r="D27" s="153"/>
-      <c r="E27" s="143"/>
-      <c r="F27" s="143"/>
-      <c r="G27" s="143"/>
-      <c r="H27" s="143"/>
-      <c r="I27" s="143"/>
-      <c r="J27" s="144"/>
-      <c r="K27" s="145"/>
-      <c r="L27" s="146"/>
-      <c r="M27" s="165"/>
-      <c r="N27" s="155"/>
-      <c r="O27" s="155"/>
-      <c r="P27" s="155"/>
-      <c r="Q27" s="155"/>
-      <c r="R27" s="156"/>
-      <c r="S27" s="141"/>
-      <c r="T27" s="141"/>
-      <c r="U27" s="141"/>
-      <c r="V27" s="157"/>
-      <c r="W27" s="158"/>
-      <c r="X27" s="158"/>
-      <c r="Y27" s="158"/>
-      <c r="Z27" s="158"/>
-      <c r="AA27" s="158"/>
-      <c r="AB27" s="158"/>
-      <c r="AC27" s="158"/>
-      <c r="AD27" s="158"/>
-      <c r="AE27" s="158"/>
-      <c r="AF27" s="158"/>
-      <c r="AG27" s="158"/>
-      <c r="AH27" s="158"/>
-      <c r="AI27" s="158"/>
-      <c r="AJ27" s="158"/>
-      <c r="AK27" s="158"/>
-      <c r="AL27" s="158"/>
-      <c r="AM27" s="159"/>
-      <c r="AN27" s="160"/>
-      <c r="AO27" s="161"/>
-      <c r="AP27" s="161"/>
-      <c r="AQ27" s="161"/>
-      <c r="AR27" s="162"/>
-      <c r="AS27" s="160"/>
-      <c r="AT27" s="161"/>
-      <c r="AU27" s="161"/>
-      <c r="AV27" s="161"/>
-      <c r="AW27" s="162"/>
+      <c r="B27" s="149"/>
+      <c r="C27" s="150"/>
+      <c r="D27" s="151"/>
+      <c r="E27" s="152"/>
+      <c r="F27" s="152"/>
+      <c r="G27" s="152"/>
+      <c r="H27" s="152"/>
+      <c r="I27" s="152"/>
+      <c r="J27" s="153"/>
+      <c r="K27" s="154"/>
+      <c r="L27" s="155"/>
+      <c r="M27" s="163"/>
+      <c r="N27" s="164"/>
+      <c r="O27" s="164"/>
+      <c r="P27" s="164"/>
+      <c r="Q27" s="164"/>
+      <c r="R27" s="165"/>
+      <c r="S27" s="159"/>
+      <c r="T27" s="159"/>
+      <c r="U27" s="159"/>
+      <c r="V27" s="160"/>
+      <c r="W27" s="161"/>
+      <c r="X27" s="161"/>
+      <c r="Y27" s="161"/>
+      <c r="Z27" s="161"/>
+      <c r="AA27" s="161"/>
+      <c r="AB27" s="161"/>
+      <c r="AC27" s="161"/>
+      <c r="AD27" s="161"/>
+      <c r="AE27" s="161"/>
+      <c r="AF27" s="161"/>
+      <c r="AG27" s="161"/>
+      <c r="AH27" s="161"/>
+      <c r="AI27" s="161"/>
+      <c r="AJ27" s="161"/>
+      <c r="AK27" s="161"/>
+      <c r="AL27" s="161"/>
+      <c r="AM27" s="162"/>
+      <c r="AN27" s="146"/>
+      <c r="AO27" s="147"/>
+      <c r="AP27" s="147"/>
+      <c r="AQ27" s="147"/>
+      <c r="AR27" s="148"/>
+      <c r="AS27" s="146"/>
+      <c r="AT27" s="147"/>
+      <c r="AU27" s="147"/>
+      <c r="AV27" s="147"/>
+      <c r="AW27" s="148"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="48"/>
-      <c r="B28" s="151"/>
-      <c r="C28" s="152"/>
-      <c r="D28" s="153"/>
-      <c r="E28" s="143"/>
-      <c r="F28" s="143"/>
-      <c r="G28" s="143"/>
-      <c r="H28" s="143"/>
-      <c r="I28" s="143"/>
-      <c r="J28" s="144"/>
-      <c r="K28" s="145"/>
-      <c r="L28" s="146"/>
-      <c r="M28" s="154"/>
-      <c r="N28" s="155"/>
-      <c r="O28" s="155"/>
-      <c r="P28" s="155"/>
-      <c r="Q28" s="155"/>
-      <c r="R28" s="156"/>
-      <c r="S28" s="141"/>
-      <c r="T28" s="141"/>
-      <c r="U28" s="141"/>
-      <c r="V28" s="157"/>
-      <c r="W28" s="158"/>
-      <c r="X28" s="158"/>
-      <c r="Y28" s="158"/>
-      <c r="Z28" s="158"/>
-      <c r="AA28" s="158"/>
-      <c r="AB28" s="158"/>
-      <c r="AC28" s="158"/>
-      <c r="AD28" s="158"/>
-      <c r="AE28" s="158"/>
-      <c r="AF28" s="158"/>
-      <c r="AG28" s="158"/>
-      <c r="AH28" s="158"/>
-      <c r="AI28" s="158"/>
-      <c r="AJ28" s="158"/>
-      <c r="AK28" s="158"/>
-      <c r="AL28" s="158"/>
-      <c r="AM28" s="159"/>
-      <c r="AN28" s="160"/>
-      <c r="AO28" s="161"/>
-      <c r="AP28" s="161"/>
-      <c r="AQ28" s="161"/>
-      <c r="AR28" s="162"/>
-      <c r="AS28" s="160"/>
-      <c r="AT28" s="161"/>
-      <c r="AU28" s="161"/>
-      <c r="AV28" s="161"/>
-      <c r="AW28" s="162"/>
+      <c r="B28" s="149"/>
+      <c r="C28" s="150"/>
+      <c r="D28" s="151"/>
+      <c r="E28" s="152"/>
+      <c r="F28" s="152"/>
+      <c r="G28" s="152"/>
+      <c r="H28" s="152"/>
+      <c r="I28" s="152"/>
+      <c r="J28" s="153"/>
+      <c r="K28" s="154"/>
+      <c r="L28" s="155"/>
+      <c r="M28" s="166"/>
+      <c r="N28" s="164"/>
+      <c r="O28" s="164"/>
+      <c r="P28" s="164"/>
+      <c r="Q28" s="164"/>
+      <c r="R28" s="165"/>
+      <c r="S28" s="159"/>
+      <c r="T28" s="159"/>
+      <c r="U28" s="159"/>
+      <c r="V28" s="160"/>
+      <c r="W28" s="161"/>
+      <c r="X28" s="161"/>
+      <c r="Y28" s="161"/>
+      <c r="Z28" s="161"/>
+      <c r="AA28" s="161"/>
+      <c r="AB28" s="161"/>
+      <c r="AC28" s="161"/>
+      <c r="AD28" s="161"/>
+      <c r="AE28" s="161"/>
+      <c r="AF28" s="161"/>
+      <c r="AG28" s="161"/>
+      <c r="AH28" s="161"/>
+      <c r="AI28" s="161"/>
+      <c r="AJ28" s="161"/>
+      <c r="AK28" s="161"/>
+      <c r="AL28" s="161"/>
+      <c r="AM28" s="162"/>
+      <c r="AN28" s="146"/>
+      <c r="AO28" s="147"/>
+      <c r="AP28" s="147"/>
+      <c r="AQ28" s="147"/>
+      <c r="AR28" s="148"/>
+      <c r="AS28" s="146"/>
+      <c r="AT28" s="147"/>
+      <c r="AU28" s="147"/>
+      <c r="AV28" s="147"/>
+      <c r="AW28" s="148"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="48"/>
-      <c r="B29" s="151"/>
-      <c r="C29" s="152"/>
-      <c r="D29" s="153"/>
-      <c r="E29" s="143"/>
-      <c r="F29" s="143"/>
-      <c r="G29" s="143"/>
-      <c r="H29" s="143"/>
-      <c r="I29" s="143"/>
-      <c r="J29" s="144"/>
-      <c r="K29" s="145"/>
-      <c r="L29" s="146"/>
-      <c r="M29" s="154"/>
-      <c r="N29" s="155"/>
-      <c r="O29" s="155"/>
-      <c r="P29" s="155"/>
-      <c r="Q29" s="155"/>
-      <c r="R29" s="156"/>
-      <c r="S29" s="141"/>
-      <c r="T29" s="141"/>
-      <c r="U29" s="141"/>
-      <c r="V29" s="157"/>
-      <c r="W29" s="158"/>
-      <c r="X29" s="158"/>
-      <c r="Y29" s="158"/>
-      <c r="Z29" s="158"/>
-      <c r="AA29" s="158"/>
-      <c r="AB29" s="158"/>
-      <c r="AC29" s="158"/>
-      <c r="AD29" s="158"/>
-      <c r="AE29" s="158"/>
-      <c r="AF29" s="158"/>
-      <c r="AG29" s="158"/>
-      <c r="AH29" s="158"/>
-      <c r="AI29" s="158"/>
-      <c r="AJ29" s="158"/>
-      <c r="AK29" s="158"/>
-      <c r="AL29" s="158"/>
-      <c r="AM29" s="159"/>
-      <c r="AN29" s="160"/>
-      <c r="AO29" s="161"/>
-      <c r="AP29" s="161"/>
-      <c r="AQ29" s="161"/>
-      <c r="AR29" s="162"/>
-      <c r="AS29" s="160"/>
-      <c r="AT29" s="161"/>
-      <c r="AU29" s="161"/>
-      <c r="AV29" s="161"/>
-      <c r="AW29" s="162"/>
+      <c r="B29" s="149"/>
+      <c r="C29" s="150"/>
+      <c r="D29" s="151"/>
+      <c r="E29" s="152"/>
+      <c r="F29" s="152"/>
+      <c r="G29" s="152"/>
+      <c r="H29" s="152"/>
+      <c r="I29" s="152"/>
+      <c r="J29" s="153"/>
+      <c r="K29" s="154"/>
+      <c r="L29" s="155"/>
+      <c r="M29" s="166"/>
+      <c r="N29" s="164"/>
+      <c r="O29" s="164"/>
+      <c r="P29" s="164"/>
+      <c r="Q29" s="164"/>
+      <c r="R29" s="165"/>
+      <c r="S29" s="159"/>
+      <c r="T29" s="159"/>
+      <c r="U29" s="159"/>
+      <c r="V29" s="160"/>
+      <c r="W29" s="161"/>
+      <c r="X29" s="161"/>
+      <c r="Y29" s="161"/>
+      <c r="Z29" s="161"/>
+      <c r="AA29" s="161"/>
+      <c r="AB29" s="161"/>
+      <c r="AC29" s="161"/>
+      <c r="AD29" s="161"/>
+      <c r="AE29" s="161"/>
+      <c r="AF29" s="161"/>
+      <c r="AG29" s="161"/>
+      <c r="AH29" s="161"/>
+      <c r="AI29" s="161"/>
+      <c r="AJ29" s="161"/>
+      <c r="AK29" s="161"/>
+      <c r="AL29" s="161"/>
+      <c r="AM29" s="162"/>
+      <c r="AN29" s="146"/>
+      <c r="AO29" s="147"/>
+      <c r="AP29" s="147"/>
+      <c r="AQ29" s="147"/>
+      <c r="AR29" s="148"/>
+      <c r="AS29" s="146"/>
+      <c r="AT29" s="147"/>
+      <c r="AU29" s="147"/>
+      <c r="AV29" s="147"/>
+      <c r="AW29" s="148"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="48"/>
-      <c r="B30" s="151"/>
-      <c r="C30" s="152"/>
-      <c r="D30" s="153"/>
-      <c r="E30" s="143"/>
-      <c r="F30" s="143"/>
-      <c r="G30" s="143"/>
-      <c r="H30" s="143"/>
-      <c r="I30" s="143"/>
-      <c r="J30" s="144"/>
-      <c r="K30" s="145"/>
-      <c r="L30" s="146"/>
-      <c r="M30" s="165"/>
-      <c r="N30" s="155"/>
-      <c r="O30" s="155"/>
-      <c r="P30" s="155"/>
-      <c r="Q30" s="155"/>
-      <c r="R30" s="156"/>
-      <c r="S30" s="141"/>
-      <c r="T30" s="141"/>
-      <c r="U30" s="141"/>
-      <c r="V30" s="157"/>
-      <c r="W30" s="158"/>
-      <c r="X30" s="158"/>
-      <c r="Y30" s="158"/>
-      <c r="Z30" s="158"/>
-      <c r="AA30" s="158"/>
-      <c r="AB30" s="158"/>
-      <c r="AC30" s="158"/>
-      <c r="AD30" s="158"/>
-      <c r="AE30" s="158"/>
-      <c r="AF30" s="158"/>
-      <c r="AG30" s="158"/>
-      <c r="AH30" s="158"/>
-      <c r="AI30" s="158"/>
-      <c r="AJ30" s="158"/>
-      <c r="AK30" s="158"/>
-      <c r="AL30" s="158"/>
-      <c r="AM30" s="159"/>
-      <c r="AN30" s="160"/>
-      <c r="AO30" s="161"/>
-      <c r="AP30" s="161"/>
-      <c r="AQ30" s="161"/>
-      <c r="AR30" s="162"/>
-      <c r="AS30" s="160"/>
-      <c r="AT30" s="161"/>
-      <c r="AU30" s="161"/>
-      <c r="AV30" s="161"/>
-      <c r="AW30" s="162"/>
+      <c r="B30" s="149"/>
+      <c r="C30" s="150"/>
+      <c r="D30" s="151"/>
+      <c r="E30" s="152"/>
+      <c r="F30" s="152"/>
+      <c r="G30" s="152"/>
+      <c r="H30" s="152"/>
+      <c r="I30" s="152"/>
+      <c r="J30" s="153"/>
+      <c r="K30" s="154"/>
+      <c r="L30" s="155"/>
+      <c r="M30" s="163"/>
+      <c r="N30" s="164"/>
+      <c r="O30" s="164"/>
+      <c r="P30" s="164"/>
+      <c r="Q30" s="164"/>
+      <c r="R30" s="165"/>
+      <c r="S30" s="159"/>
+      <c r="T30" s="159"/>
+      <c r="U30" s="159"/>
+      <c r="V30" s="160"/>
+      <c r="W30" s="161"/>
+      <c r="X30" s="161"/>
+      <c r="Y30" s="161"/>
+      <c r="Z30" s="161"/>
+      <c r="AA30" s="161"/>
+      <c r="AB30" s="161"/>
+      <c r="AC30" s="161"/>
+      <c r="AD30" s="161"/>
+      <c r="AE30" s="161"/>
+      <c r="AF30" s="161"/>
+      <c r="AG30" s="161"/>
+      <c r="AH30" s="161"/>
+      <c r="AI30" s="161"/>
+      <c r="AJ30" s="161"/>
+      <c r="AK30" s="161"/>
+      <c r="AL30" s="161"/>
+      <c r="AM30" s="162"/>
+      <c r="AN30" s="146"/>
+      <c r="AO30" s="147"/>
+      <c r="AP30" s="147"/>
+      <c r="AQ30" s="147"/>
+      <c r="AR30" s="148"/>
+      <c r="AS30" s="146"/>
+      <c r="AT30" s="147"/>
+      <c r="AU30" s="147"/>
+      <c r="AV30" s="147"/>
+      <c r="AW30" s="148"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="48"/>
-      <c r="B31" s="151"/>
-      <c r="C31" s="152"/>
-      <c r="D31" s="153"/>
-      <c r="E31" s="143"/>
-      <c r="F31" s="143"/>
-      <c r="G31" s="143"/>
-      <c r="H31" s="143"/>
-      <c r="I31" s="143"/>
-      <c r="J31" s="144"/>
-      <c r="K31" s="145"/>
-      <c r="L31" s="146"/>
-      <c r="M31" s="165"/>
-      <c r="N31" s="155"/>
-      <c r="O31" s="155"/>
-      <c r="P31" s="155"/>
-      <c r="Q31" s="155"/>
-      <c r="R31" s="156"/>
-      <c r="S31" s="141"/>
-      <c r="T31" s="141"/>
-      <c r="U31" s="141"/>
-      <c r="V31" s="157"/>
-      <c r="W31" s="158"/>
-      <c r="X31" s="158"/>
-      <c r="Y31" s="158"/>
-      <c r="Z31" s="158"/>
-      <c r="AA31" s="158"/>
-      <c r="AB31" s="158"/>
-      <c r="AC31" s="158"/>
-      <c r="AD31" s="158"/>
-      <c r="AE31" s="158"/>
-      <c r="AF31" s="158"/>
-      <c r="AG31" s="158"/>
-      <c r="AH31" s="158"/>
-      <c r="AI31" s="158"/>
-      <c r="AJ31" s="158"/>
-      <c r="AK31" s="158"/>
-      <c r="AL31" s="158"/>
-      <c r="AM31" s="159"/>
-      <c r="AN31" s="160"/>
-      <c r="AO31" s="161"/>
-      <c r="AP31" s="161"/>
-      <c r="AQ31" s="161"/>
-      <c r="AR31" s="162"/>
-      <c r="AS31" s="160"/>
-      <c r="AT31" s="161"/>
-      <c r="AU31" s="161"/>
-      <c r="AV31" s="161"/>
-      <c r="AW31" s="162"/>
+      <c r="B31" s="149"/>
+      <c r="C31" s="150"/>
+      <c r="D31" s="151"/>
+      <c r="E31" s="152"/>
+      <c r="F31" s="152"/>
+      <c r="G31" s="152"/>
+      <c r="H31" s="152"/>
+      <c r="I31" s="152"/>
+      <c r="J31" s="153"/>
+      <c r="K31" s="154"/>
+      <c r="L31" s="155"/>
+      <c r="M31" s="163"/>
+      <c r="N31" s="164"/>
+      <c r="O31" s="164"/>
+      <c r="P31" s="164"/>
+      <c r="Q31" s="164"/>
+      <c r="R31" s="165"/>
+      <c r="S31" s="159"/>
+      <c r="T31" s="159"/>
+      <c r="U31" s="159"/>
+      <c r="V31" s="160"/>
+      <c r="W31" s="161"/>
+      <c r="X31" s="161"/>
+      <c r="Y31" s="161"/>
+      <c r="Z31" s="161"/>
+      <c r="AA31" s="161"/>
+      <c r="AB31" s="161"/>
+      <c r="AC31" s="161"/>
+      <c r="AD31" s="161"/>
+      <c r="AE31" s="161"/>
+      <c r="AF31" s="161"/>
+      <c r="AG31" s="161"/>
+      <c r="AH31" s="161"/>
+      <c r="AI31" s="161"/>
+      <c r="AJ31" s="161"/>
+      <c r="AK31" s="161"/>
+      <c r="AL31" s="161"/>
+      <c r="AM31" s="162"/>
+      <c r="AN31" s="146"/>
+      <c r="AO31" s="147"/>
+      <c r="AP31" s="147"/>
+      <c r="AQ31" s="147"/>
+      <c r="AR31" s="148"/>
+      <c r="AS31" s="146"/>
+      <c r="AT31" s="147"/>
+      <c r="AU31" s="147"/>
+      <c r="AV31" s="147"/>
+      <c r="AW31" s="148"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="48"/>
-      <c r="B32" s="151"/>
-      <c r="C32" s="152"/>
-      <c r="D32" s="153"/>
-      <c r="E32" s="143"/>
-      <c r="F32" s="143"/>
-      <c r="G32" s="143"/>
-      <c r="H32" s="143"/>
-      <c r="I32" s="143"/>
-      <c r="J32" s="144"/>
-      <c r="K32" s="145"/>
-      <c r="L32" s="146"/>
-      <c r="M32" s="165"/>
-      <c r="N32" s="155"/>
-      <c r="O32" s="155"/>
-      <c r="P32" s="155"/>
-      <c r="Q32" s="155"/>
-      <c r="R32" s="156"/>
-      <c r="S32" s="141"/>
-      <c r="T32" s="141"/>
-      <c r="U32" s="141"/>
-      <c r="V32" s="157"/>
-      <c r="W32" s="158"/>
-      <c r="X32" s="158"/>
-      <c r="Y32" s="158"/>
-      <c r="Z32" s="158"/>
-      <c r="AA32" s="158"/>
-      <c r="AB32" s="158"/>
-      <c r="AC32" s="158"/>
-      <c r="AD32" s="158"/>
-      <c r="AE32" s="158"/>
-      <c r="AF32" s="158"/>
-      <c r="AG32" s="158"/>
-      <c r="AH32" s="158"/>
-      <c r="AI32" s="158"/>
-      <c r="AJ32" s="158"/>
-      <c r="AK32" s="158"/>
-      <c r="AL32" s="158"/>
-      <c r="AM32" s="159"/>
-      <c r="AN32" s="160"/>
-      <c r="AO32" s="161"/>
-      <c r="AP32" s="161"/>
-      <c r="AQ32" s="161"/>
-      <c r="AR32" s="162"/>
-      <c r="AS32" s="160"/>
-      <c r="AT32" s="161"/>
-      <c r="AU32" s="161"/>
-      <c r="AV32" s="161"/>
-      <c r="AW32" s="162"/>
+      <c r="B32" s="149"/>
+      <c r="C32" s="150"/>
+      <c r="D32" s="151"/>
+      <c r="E32" s="152"/>
+      <c r="F32" s="152"/>
+      <c r="G32" s="152"/>
+      <c r="H32" s="152"/>
+      <c r="I32" s="152"/>
+      <c r="J32" s="153"/>
+      <c r="K32" s="154"/>
+      <c r="L32" s="155"/>
+      <c r="M32" s="163"/>
+      <c r="N32" s="164"/>
+      <c r="O32" s="164"/>
+      <c r="P32" s="164"/>
+      <c r="Q32" s="164"/>
+      <c r="R32" s="165"/>
+      <c r="S32" s="159"/>
+      <c r="T32" s="159"/>
+      <c r="U32" s="159"/>
+      <c r="V32" s="160"/>
+      <c r="W32" s="161"/>
+      <c r="X32" s="161"/>
+      <c r="Y32" s="161"/>
+      <c r="Z32" s="161"/>
+      <c r="AA32" s="161"/>
+      <c r="AB32" s="161"/>
+      <c r="AC32" s="161"/>
+      <c r="AD32" s="161"/>
+      <c r="AE32" s="161"/>
+      <c r="AF32" s="161"/>
+      <c r="AG32" s="161"/>
+      <c r="AH32" s="161"/>
+      <c r="AI32" s="161"/>
+      <c r="AJ32" s="161"/>
+      <c r="AK32" s="161"/>
+      <c r="AL32" s="161"/>
+      <c r="AM32" s="162"/>
+      <c r="AN32" s="146"/>
+      <c r="AO32" s="147"/>
+      <c r="AP32" s="147"/>
+      <c r="AQ32" s="147"/>
+      <c r="AR32" s="148"/>
+      <c r="AS32" s="146"/>
+      <c r="AT32" s="147"/>
+      <c r="AU32" s="147"/>
+      <c r="AV32" s="147"/>
+      <c r="AW32" s="148"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="151"/>
-      <c r="C33" s="152"/>
-      <c r="D33" s="153"/>
-      <c r="E33" s="143"/>
-      <c r="F33" s="143"/>
-      <c r="G33" s="143"/>
-      <c r="H33" s="143"/>
-      <c r="I33" s="143"/>
-      <c r="J33" s="144"/>
-      <c r="K33" s="145"/>
-      <c r="L33" s="146"/>
-      <c r="M33" s="165"/>
-      <c r="N33" s="155"/>
-      <c r="O33" s="155"/>
-      <c r="P33" s="155"/>
-      <c r="Q33" s="155"/>
-      <c r="R33" s="156"/>
-      <c r="S33" s="141"/>
-      <c r="T33" s="141"/>
-      <c r="U33" s="141"/>
-      <c r="V33" s="157"/>
-      <c r="W33" s="158"/>
-      <c r="X33" s="158"/>
-      <c r="Y33" s="158"/>
-      <c r="Z33" s="158"/>
-      <c r="AA33" s="158"/>
-      <c r="AB33" s="158"/>
-      <c r="AC33" s="158"/>
-      <c r="AD33" s="158"/>
-      <c r="AE33" s="158"/>
-      <c r="AF33" s="158"/>
-      <c r="AG33" s="158"/>
-      <c r="AH33" s="158"/>
-      <c r="AI33" s="158"/>
-      <c r="AJ33" s="158"/>
-      <c r="AK33" s="158"/>
-      <c r="AL33" s="158"/>
-      <c r="AM33" s="159"/>
-      <c r="AN33" s="160"/>
-      <c r="AO33" s="161"/>
-      <c r="AP33" s="161"/>
-      <c r="AQ33" s="161"/>
-      <c r="AR33" s="162"/>
-      <c r="AS33" s="160"/>
-      <c r="AT33" s="161"/>
-      <c r="AU33" s="161"/>
-      <c r="AV33" s="161"/>
-      <c r="AW33" s="162"/>
+      <c r="B33" s="149"/>
+      <c r="C33" s="150"/>
+      <c r="D33" s="151"/>
+      <c r="E33" s="152"/>
+      <c r="F33" s="152"/>
+      <c r="G33" s="152"/>
+      <c r="H33" s="152"/>
+      <c r="I33" s="152"/>
+      <c r="J33" s="153"/>
+      <c r="K33" s="154"/>
+      <c r="L33" s="155"/>
+      <c r="M33" s="163"/>
+      <c r="N33" s="164"/>
+      <c r="O33" s="164"/>
+      <c r="P33" s="164"/>
+      <c r="Q33" s="164"/>
+      <c r="R33" s="165"/>
+      <c r="S33" s="159"/>
+      <c r="T33" s="159"/>
+      <c r="U33" s="159"/>
+      <c r="V33" s="160"/>
+      <c r="W33" s="161"/>
+      <c r="X33" s="161"/>
+      <c r="Y33" s="161"/>
+      <c r="Z33" s="161"/>
+      <c r="AA33" s="161"/>
+      <c r="AB33" s="161"/>
+      <c r="AC33" s="161"/>
+      <c r="AD33" s="161"/>
+      <c r="AE33" s="161"/>
+      <c r="AF33" s="161"/>
+      <c r="AG33" s="161"/>
+      <c r="AH33" s="161"/>
+      <c r="AI33" s="161"/>
+      <c r="AJ33" s="161"/>
+      <c r="AK33" s="161"/>
+      <c r="AL33" s="161"/>
+      <c r="AM33" s="162"/>
+      <c r="AN33" s="146"/>
+      <c r="AO33" s="147"/>
+      <c r="AP33" s="147"/>
+      <c r="AQ33" s="147"/>
+      <c r="AR33" s="148"/>
+      <c r="AS33" s="146"/>
+      <c r="AT33" s="147"/>
+      <c r="AU33" s="147"/>
+      <c r="AV33" s="147"/>
+      <c r="AW33" s="148"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="151"/>
-      <c r="C34" s="152"/>
-      <c r="D34" s="153"/>
-      <c r="E34" s="143"/>
-      <c r="F34" s="143"/>
-      <c r="G34" s="143"/>
-      <c r="H34" s="143"/>
-      <c r="I34" s="143"/>
-      <c r="J34" s="144"/>
-      <c r="K34" s="145"/>
-      <c r="L34" s="146"/>
-      <c r="M34" s="169"/>
-      <c r="N34" s="170"/>
-      <c r="O34" s="170"/>
-      <c r="P34" s="170"/>
-      <c r="Q34" s="170"/>
-      <c r="R34" s="171"/>
-      <c r="S34" s="141"/>
-      <c r="T34" s="141"/>
-      <c r="U34" s="141"/>
-      <c r="V34" s="157"/>
-      <c r="W34" s="158"/>
-      <c r="X34" s="158"/>
-      <c r="Y34" s="158"/>
-      <c r="Z34" s="158"/>
-      <c r="AA34" s="158"/>
-      <c r="AB34" s="158"/>
-      <c r="AC34" s="158"/>
-      <c r="AD34" s="158"/>
-      <c r="AE34" s="158"/>
-      <c r="AF34" s="158"/>
-      <c r="AG34" s="158"/>
-      <c r="AH34" s="158"/>
-      <c r="AI34" s="158"/>
-      <c r="AJ34" s="158"/>
-      <c r="AK34" s="158"/>
-      <c r="AL34" s="158"/>
-      <c r="AM34" s="159"/>
-      <c r="AN34" s="160"/>
-      <c r="AO34" s="161"/>
-      <c r="AP34" s="161"/>
-      <c r="AQ34" s="161"/>
-      <c r="AR34" s="162"/>
-      <c r="AS34" s="160"/>
-      <c r="AT34" s="161"/>
-      <c r="AU34" s="161"/>
-      <c r="AV34" s="161"/>
-      <c r="AW34" s="162"/>
+      <c r="B34" s="149"/>
+      <c r="C34" s="150"/>
+      <c r="D34" s="151"/>
+      <c r="E34" s="152"/>
+      <c r="F34" s="152"/>
+      <c r="G34" s="152"/>
+      <c r="H34" s="152"/>
+      <c r="I34" s="152"/>
+      <c r="J34" s="153"/>
+      <c r="K34" s="154"/>
+      <c r="L34" s="155"/>
+      <c r="M34" s="156"/>
+      <c r="N34" s="157"/>
+      <c r="O34" s="157"/>
+      <c r="P34" s="157"/>
+      <c r="Q34" s="157"/>
+      <c r="R34" s="158"/>
+      <c r="S34" s="159"/>
+      <c r="T34" s="159"/>
+      <c r="U34" s="159"/>
+      <c r="V34" s="160"/>
+      <c r="W34" s="161"/>
+      <c r="X34" s="161"/>
+      <c r="Y34" s="161"/>
+      <c r="Z34" s="161"/>
+      <c r="AA34" s="161"/>
+      <c r="AB34" s="161"/>
+      <c r="AC34" s="161"/>
+      <c r="AD34" s="161"/>
+      <c r="AE34" s="161"/>
+      <c r="AF34" s="161"/>
+      <c r="AG34" s="161"/>
+      <c r="AH34" s="161"/>
+      <c r="AI34" s="161"/>
+      <c r="AJ34" s="161"/>
+      <c r="AK34" s="161"/>
+      <c r="AL34" s="161"/>
+      <c r="AM34" s="162"/>
+      <c r="AN34" s="146"/>
+      <c r="AO34" s="147"/>
+      <c r="AP34" s="147"/>
+      <c r="AQ34" s="147"/>
+      <c r="AR34" s="148"/>
+      <c r="AS34" s="146"/>
+      <c r="AT34" s="147"/>
+      <c r="AU34" s="147"/>
+      <c r="AV34" s="147"/>
+      <c r="AW34" s="148"/>
     </row>
   </sheetData>
   <mergeCells count="249">
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN5:AR5"/>
+    <mergeCell ref="AS5:AW5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:R6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="V6:AM6"/>
+    <mergeCell ref="AN6:AR6"/>
+    <mergeCell ref="AS6:AW6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:R5"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="V5:AM5"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
     <mergeCell ref="AN33:AR33"/>
     <mergeCell ref="AS33:AW33"/>
     <mergeCell ref="B34:D34"/>
@@ -6880,239 +7155,6 @@
     <mergeCell ref="M33:R33"/>
     <mergeCell ref="S33:U33"/>
     <mergeCell ref="V33:AM33"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN5:AR5"/>
-    <mergeCell ref="AS5:AW5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:R6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="V6:AM6"/>
-    <mergeCell ref="AN6:AR6"/>
-    <mergeCell ref="AS6:AW6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:R5"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7272,11 +7314,11 @@
       <c r="AL2" s="33"/>
       <c r="AM2" s="33"/>
       <c r="AN2" s="34"/>
-      <c r="AO2" s="178"/>
-      <c r="AP2" s="179"/>
-      <c r="AQ2" s="179"/>
-      <c r="AR2" s="179"/>
-      <c r="AS2" s="180"/>
+      <c r="AO2" s="190"/>
+      <c r="AP2" s="191"/>
+      <c r="AQ2" s="191"/>
+      <c r="AR2" s="191"/>
+      <c r="AS2" s="192"/>
       <c r="AT2" s="32" t="s">
         <v>26</v>
       </c>
@@ -7285,14 +7327,14 @@
       <c r="AW2" s="33"/>
       <c r="AX2" s="33"/>
       <c r="AY2" s="34"/>
-      <c r="AZ2" s="181"/>
-      <c r="BA2" s="182"/>
-      <c r="BB2" s="182"/>
-      <c r="BC2" s="182"/>
-      <c r="BD2" s="182"/>
-      <c r="BE2" s="182"/>
-      <c r="BF2" s="182"/>
-      <c r="BG2" s="183"/>
+      <c r="AZ2" s="193"/>
+      <c r="BA2" s="194"/>
+      <c r="BB2" s="194"/>
+      <c r="BC2" s="194"/>
+      <c r="BD2" s="194"/>
+      <c r="BE2" s="194"/>
+      <c r="BF2" s="194"/>
+      <c r="BG2" s="195"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A3" s="31"/>
@@ -8404,7 +8446,7 @@
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
       <c r="M34" s="121" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="N34" s="9"/>
       <c r="O34" s="9"/>
@@ -8735,10 +8777,10 @@
     </row>
     <row r="41" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A41" s="27"/>
-      <c r="B41" s="184" t="s">
+      <c r="B41" s="198" t="s">
         <v>81</v>
       </c>
-      <c r="C41" s="185"/>
+      <c r="C41" s="199"/>
       <c r="D41" s="75" t="s">
         <v>80</v>
       </c>
@@ -8821,10 +8863,10 @@
     </row>
     <row r="42" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A42" s="27"/>
-      <c r="B42" s="172">
+      <c r="B42" s="200">
         <v>1</v>
       </c>
-      <c r="C42" s="173"/>
+      <c r="C42" s="201"/>
       <c r="D42" s="69" t="s">
         <v>133</v>
       </c>
@@ -8856,16 +8898,16 @@
       <c r="AB42" s="73"/>
       <c r="AC42" s="73"/>
       <c r="AD42" s="74"/>
-      <c r="AE42" s="176" t="s">
+      <c r="AE42" s="196" t="s">
         <v>89</v>
       </c>
-      <c r="AF42" s="177"/>
-      <c r="AG42" s="176"/>
-      <c r="AH42" s="177"/>
-      <c r="AI42" s="176"/>
-      <c r="AJ42" s="177"/>
-      <c r="AK42" s="176"/>
-      <c r="AL42" s="177"/>
+      <c r="AF42" s="197"/>
+      <c r="AG42" s="196"/>
+      <c r="AH42" s="197"/>
+      <c r="AI42" s="196"/>
+      <c r="AJ42" s="197"/>
+      <c r="AK42" s="196"/>
+      <c r="AL42" s="197"/>
       <c r="AM42" s="70" t="s">
         <v>136</v>
       </c>
@@ -8899,10 +8941,10 @@
     </row>
     <row r="43" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A43" s="122"/>
-      <c r="B43" s="174">
+      <c r="B43" s="186">
         <v>2</v>
       </c>
-      <c r="C43" s="175"/>
+      <c r="C43" s="187"/>
       <c r="D43" s="123" t="s">
         <v>133</v>
       </c>
@@ -8913,7 +8955,7 @@
       <c r="I43" s="124"/>
       <c r="J43" s="125"/>
       <c r="K43" s="123" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L43" s="124"/>
       <c r="M43" s="124"/>
@@ -8934,18 +8976,18 @@
       <c r="AB43" s="124"/>
       <c r="AC43" s="124"/>
       <c r="AD43" s="125"/>
-      <c r="AE43" s="186" t="s">
+      <c r="AE43" s="188" t="s">
         <v>89</v>
       </c>
-      <c r="AF43" s="187"/>
-      <c r="AG43" s="186"/>
-      <c r="AH43" s="187"/>
-      <c r="AI43" s="186"/>
-      <c r="AJ43" s="187"/>
-      <c r="AK43" s="186"/>
-      <c r="AL43" s="187"/>
+      <c r="AF43" s="189"/>
+      <c r="AG43" s="188"/>
+      <c r="AH43" s="189"/>
+      <c r="AI43" s="188"/>
+      <c r="AJ43" s="189"/>
+      <c r="AK43" s="188"/>
+      <c r="AL43" s="189"/>
       <c r="AM43" s="126" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AN43" s="127"/>
       <c r="AO43" s="127"/>
@@ -8969,10 +9011,10 @@
     </row>
     <row r="44" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A44" s="27"/>
-      <c r="B44" s="172">
+      <c r="B44" s="200">
         <v>3</v>
       </c>
-      <c r="C44" s="173"/>
+      <c r="C44" s="201"/>
       <c r="D44" s="99" t="s">
         <v>133</v>
       </c>
@@ -9004,16 +9046,16 @@
       <c r="AB44" s="73"/>
       <c r="AC44" s="73"/>
       <c r="AD44" s="100"/>
-      <c r="AE44" s="176" t="s">
+      <c r="AE44" s="196" t="s">
         <v>89</v>
       </c>
-      <c r="AF44" s="177"/>
-      <c r="AG44" s="176"/>
-      <c r="AH44" s="177"/>
-      <c r="AI44" s="176"/>
-      <c r="AJ44" s="177"/>
-      <c r="AK44" s="176"/>
-      <c r="AL44" s="177"/>
+      <c r="AF44" s="197"/>
+      <c r="AG44" s="196"/>
+      <c r="AH44" s="197"/>
+      <c r="AI44" s="196"/>
+      <c r="AJ44" s="197"/>
+      <c r="AK44" s="196"/>
+      <c r="AL44" s="197"/>
       <c r="AM44" s="70" t="s">
         <v>142</v>
       </c>
@@ -9047,10 +9089,10 @@
     </row>
     <row r="45" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A45" s="27"/>
-      <c r="B45" s="174">
+      <c r="B45" s="186">
         <v>4</v>
       </c>
-      <c r="C45" s="175"/>
+      <c r="C45" s="187"/>
       <c r="D45" s="103" t="s">
         <v>143</v>
       </c>
@@ -9082,16 +9124,16 @@
       <c r="AB45" s="73"/>
       <c r="AC45" s="73"/>
       <c r="AD45" s="104"/>
-      <c r="AE45" s="176"/>
-      <c r="AF45" s="177"/>
-      <c r="AG45" s="176"/>
-      <c r="AH45" s="177"/>
-      <c r="AI45" s="176" t="s">
+      <c r="AE45" s="196"/>
+      <c r="AF45" s="197"/>
+      <c r="AG45" s="196"/>
+      <c r="AH45" s="197"/>
+      <c r="AI45" s="196" t="s">
         <v>89</v>
       </c>
-      <c r="AJ45" s="177"/>
-      <c r="AK45" s="176"/>
-      <c r="AL45" s="177"/>
+      <c r="AJ45" s="197"/>
+      <c r="AK45" s="196"/>
+      <c r="AL45" s="197"/>
       <c r="AM45" s="70" t="s">
         <v>146</v>
       </c>
@@ -9125,10 +9167,10 @@
     </row>
     <row r="46" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A46" s="27"/>
-      <c r="B46" s="172">
+      <c r="B46" s="200">
         <v>5</v>
       </c>
-      <c r="C46" s="173"/>
+      <c r="C46" s="201"/>
       <c r="D46" s="99" t="s">
         <v>143</v>
       </c>
@@ -9160,16 +9202,16 @@
       <c r="AB46" s="73"/>
       <c r="AC46" s="73"/>
       <c r="AD46" s="100"/>
-      <c r="AE46" s="176" t="s">
+      <c r="AE46" s="196" t="s">
         <v>89</v>
       </c>
-      <c r="AF46" s="177"/>
-      <c r="AG46" s="176"/>
-      <c r="AH46" s="177"/>
-      <c r="AI46" s="176"/>
-      <c r="AJ46" s="177"/>
-      <c r="AK46" s="176"/>
-      <c r="AL46" s="177"/>
+      <c r="AF46" s="197"/>
+      <c r="AG46" s="196"/>
+      <c r="AH46" s="197"/>
+      <c r="AI46" s="196"/>
+      <c r="AJ46" s="197"/>
+      <c r="AK46" s="196"/>
+      <c r="AL46" s="197"/>
       <c r="AM46" s="70" t="s">
         <v>147</v>
       </c>
@@ -9203,10 +9245,10 @@
     </row>
     <row r="47" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A47" s="27"/>
-      <c r="B47" s="174">
+      <c r="B47" s="186">
         <v>6</v>
       </c>
-      <c r="C47" s="175"/>
+      <c r="C47" s="187"/>
       <c r="D47" s="99" t="s">
         <v>143</v>
       </c>
@@ -9238,16 +9280,16 @@
       <c r="AB47" s="73"/>
       <c r="AC47" s="73"/>
       <c r="AD47" s="100"/>
-      <c r="AE47" s="176"/>
-      <c r="AF47" s="177"/>
-      <c r="AG47" s="176" t="s">
+      <c r="AE47" s="196"/>
+      <c r="AF47" s="197"/>
+      <c r="AG47" s="196" t="s">
         <v>89</v>
       </c>
-      <c r="AH47" s="177"/>
-      <c r="AI47" s="176"/>
-      <c r="AJ47" s="177"/>
-      <c r="AK47" s="176"/>
-      <c r="AL47" s="177"/>
+      <c r="AH47" s="197"/>
+      <c r="AI47" s="196"/>
+      <c r="AJ47" s="197"/>
+      <c r="AK47" s="196"/>
+      <c r="AL47" s="197"/>
       <c r="AM47" s="70" t="s">
         <v>137</v>
       </c>
@@ -9286,11 +9328,26 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="AE43:AF43"/>
-    <mergeCell ref="AG43:AH43"/>
-    <mergeCell ref="AI43:AJ43"/>
-    <mergeCell ref="AK43:AL43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="AE44:AF44"/>
+    <mergeCell ref="AG44:AH44"/>
+    <mergeCell ref="AI44:AJ44"/>
+    <mergeCell ref="AK44:AL44"/>
+    <mergeCell ref="AE45:AF45"/>
+    <mergeCell ref="AG45:AH45"/>
+    <mergeCell ref="AI45:AJ45"/>
+    <mergeCell ref="AK45:AL45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="AE46:AF46"/>
+    <mergeCell ref="AI46:AJ46"/>
+    <mergeCell ref="AG46:AH46"/>
+    <mergeCell ref="AK46:AL46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="AE47:AF47"/>
+    <mergeCell ref="AI47:AJ47"/>
+    <mergeCell ref="AG47:AH47"/>
+    <mergeCell ref="AK47:AL47"/>
     <mergeCell ref="AO2:AS2"/>
     <mergeCell ref="AZ2:BG2"/>
     <mergeCell ref="AK42:AL42"/>
@@ -9299,26 +9356,11 @@
     <mergeCell ref="AI42:AJ42"/>
     <mergeCell ref="AE42:AF42"/>
     <mergeCell ref="AG42:AH42"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="AE47:AF47"/>
-    <mergeCell ref="AI47:AJ47"/>
-    <mergeCell ref="AG47:AH47"/>
-    <mergeCell ref="AK47:AL47"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="AE46:AF46"/>
-    <mergeCell ref="AI46:AJ46"/>
-    <mergeCell ref="AG46:AH46"/>
-    <mergeCell ref="AK46:AL46"/>
-    <mergeCell ref="AK44:AL44"/>
-    <mergeCell ref="AE45:AF45"/>
-    <mergeCell ref="AG45:AH45"/>
-    <mergeCell ref="AI45:AJ45"/>
-    <mergeCell ref="AK45:AL45"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="AE44:AF44"/>
-    <mergeCell ref="AG44:AH44"/>
-    <mergeCell ref="AI44:AJ44"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="AE43:AF43"/>
+    <mergeCell ref="AG43:AH43"/>
+    <mergeCell ref="AI43:AJ43"/>
+    <mergeCell ref="AK43:AL43"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -9442,20 +9484,20 @@
       <c r="CA1" s="33"/>
       <c r="CB1" s="33"/>
       <c r="CC1" s="34"/>
-      <c r="CD1" s="190">
+      <c r="CD1" s="204">
         <f>変更履歴!E5</f>
         <v>43714</v>
       </c>
-      <c r="CE1" s="191"/>
-      <c r="CF1" s="191"/>
-      <c r="CG1" s="191"/>
-      <c r="CH1" s="191"/>
-      <c r="CI1" s="191"/>
-      <c r="CJ1" s="191"/>
-      <c r="CK1" s="191"/>
-      <c r="CL1" s="191"/>
-      <c r="CM1" s="191"/>
-      <c r="CN1" s="192"/>
+      <c r="CE1" s="205"/>
+      <c r="CF1" s="205"/>
+      <c r="CG1" s="205"/>
+      <c r="CH1" s="205"/>
+      <c r="CI1" s="205"/>
+      <c r="CJ1" s="205"/>
+      <c r="CK1" s="205"/>
+      <c r="CL1" s="205"/>
+      <c r="CM1" s="205"/>
+      <c r="CN1" s="206"/>
       <c r="CO1" s="32" t="s">
         <v>25</v>
       </c>
@@ -9464,23 +9506,23 @@
       <c r="CR1" s="33"/>
       <c r="CS1" s="33"/>
       <c r="CT1" s="34"/>
-      <c r="CU1" s="181" t="str">
+      <c r="CU1" s="193" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
-      <c r="CV1" s="188"/>
-      <c r="CW1" s="188"/>
-      <c r="CX1" s="188"/>
-      <c r="CY1" s="188"/>
-      <c r="CZ1" s="188"/>
-      <c r="DA1" s="188"/>
-      <c r="DB1" s="188"/>
-      <c r="DC1" s="188"/>
-      <c r="DD1" s="188"/>
-      <c r="DE1" s="188"/>
-      <c r="DF1" s="188"/>
-      <c r="DG1" s="188"/>
-      <c r="DH1" s="189"/>
+      <c r="CV1" s="202"/>
+      <c r="CW1" s="202"/>
+      <c r="CX1" s="202"/>
+      <c r="CY1" s="202"/>
+      <c r="CZ1" s="202"/>
+      <c r="DA1" s="202"/>
+      <c r="DB1" s="202"/>
+      <c r="DC1" s="202"/>
+      <c r="DD1" s="202"/>
+      <c r="DE1" s="202"/>
+      <c r="DF1" s="202"/>
+      <c r="DG1" s="202"/>
+      <c r="DH1" s="203"/>
     </row>
     <row r="2" spans="1:113" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
@@ -9535,39 +9577,39 @@
       <c r="AQ2" s="82"/>
       <c r="AR2" s="82"/>
       <c r="AS2" s="83"/>
-      <c r="AT2" s="194" t="str">
+      <c r="AT2" s="208" t="str">
         <f>'１．機能概要'!W2</f>
         <v>全工程で試作の在庫払出可能化</v>
       </c>
-      <c r="AU2" s="195"/>
-      <c r="AV2" s="195"/>
-      <c r="AW2" s="195"/>
-      <c r="AX2" s="195"/>
-      <c r="AY2" s="195"/>
-      <c r="AZ2" s="195"/>
-      <c r="BA2" s="195"/>
-      <c r="BB2" s="195"/>
-      <c r="BC2" s="195"/>
-      <c r="BD2" s="195"/>
-      <c r="BE2" s="195"/>
-      <c r="BF2" s="195"/>
-      <c r="BG2" s="195"/>
-      <c r="BH2" s="195"/>
-      <c r="BI2" s="195"/>
-      <c r="BJ2" s="195"/>
-      <c r="BK2" s="195"/>
-      <c r="BL2" s="195"/>
-      <c r="BM2" s="195"/>
-      <c r="BN2" s="195"/>
-      <c r="BO2" s="195"/>
-      <c r="BP2" s="195"/>
-      <c r="BQ2" s="195"/>
-      <c r="BR2" s="195"/>
-      <c r="BS2" s="195"/>
-      <c r="BT2" s="195"/>
-      <c r="BU2" s="195"/>
-      <c r="BV2" s="195"/>
-      <c r="BW2" s="196"/>
+      <c r="AU2" s="209"/>
+      <c r="AV2" s="209"/>
+      <c r="AW2" s="209"/>
+      <c r="AX2" s="209"/>
+      <c r="AY2" s="209"/>
+      <c r="AZ2" s="209"/>
+      <c r="BA2" s="209"/>
+      <c r="BB2" s="209"/>
+      <c r="BC2" s="209"/>
+      <c r="BD2" s="209"/>
+      <c r="BE2" s="209"/>
+      <c r="BF2" s="209"/>
+      <c r="BG2" s="209"/>
+      <c r="BH2" s="209"/>
+      <c r="BI2" s="209"/>
+      <c r="BJ2" s="209"/>
+      <c r="BK2" s="209"/>
+      <c r="BL2" s="209"/>
+      <c r="BM2" s="209"/>
+      <c r="BN2" s="209"/>
+      <c r="BO2" s="209"/>
+      <c r="BP2" s="209"/>
+      <c r="BQ2" s="209"/>
+      <c r="BR2" s="209"/>
+      <c r="BS2" s="209"/>
+      <c r="BT2" s="209"/>
+      <c r="BU2" s="209"/>
+      <c r="BV2" s="209"/>
+      <c r="BW2" s="210"/>
       <c r="BX2" s="32" t="s">
         <v>24</v>
       </c>
@@ -9576,17 +9618,17 @@
       <c r="CA2" s="33"/>
       <c r="CB2" s="33"/>
       <c r="CC2" s="34"/>
-      <c r="CD2" s="193"/>
-      <c r="CE2" s="188"/>
-      <c r="CF2" s="188"/>
-      <c r="CG2" s="188"/>
-      <c r="CH2" s="188"/>
-      <c r="CI2" s="188"/>
-      <c r="CJ2" s="188"/>
-      <c r="CK2" s="188"/>
-      <c r="CL2" s="188"/>
-      <c r="CM2" s="188"/>
-      <c r="CN2" s="189"/>
+      <c r="CD2" s="207"/>
+      <c r="CE2" s="202"/>
+      <c r="CF2" s="202"/>
+      <c r="CG2" s="202"/>
+      <c r="CH2" s="202"/>
+      <c r="CI2" s="202"/>
+      <c r="CJ2" s="202"/>
+      <c r="CK2" s="202"/>
+      <c r="CL2" s="202"/>
+      <c r="CM2" s="202"/>
+      <c r="CN2" s="203"/>
       <c r="CO2" s="32" t="s">
         <v>26</v>
       </c>
@@ -9595,20 +9637,20 @@
       <c r="CR2" s="33"/>
       <c r="CS2" s="33"/>
       <c r="CT2" s="34"/>
-      <c r="CU2" s="181"/>
-      <c r="CV2" s="188"/>
-      <c r="CW2" s="188"/>
-      <c r="CX2" s="188"/>
-      <c r="CY2" s="188"/>
-      <c r="CZ2" s="188"/>
-      <c r="DA2" s="188"/>
-      <c r="DB2" s="188"/>
-      <c r="DC2" s="188"/>
-      <c r="DD2" s="188"/>
-      <c r="DE2" s="188"/>
-      <c r="DF2" s="188"/>
-      <c r="DG2" s="188"/>
-      <c r="DH2" s="189"/>
+      <c r="CU2" s="193"/>
+      <c r="CV2" s="202"/>
+      <c r="CW2" s="202"/>
+      <c r="CX2" s="202"/>
+      <c r="CY2" s="202"/>
+      <c r="CZ2" s="202"/>
+      <c r="DA2" s="202"/>
+      <c r="DB2" s="202"/>
+      <c r="DC2" s="202"/>
+      <c r="DD2" s="202"/>
+      <c r="DE2" s="202"/>
+      <c r="DF2" s="202"/>
+      <c r="DG2" s="202"/>
+      <c r="DH2" s="203"/>
     </row>
     <row r="3" spans="1:113" x14ac:dyDescent="0.25">
       <c r="AU3" s="46"/>
@@ -9811,37 +9853,37 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
-      <c r="C6" s="134" t="s">
+      <c r="C6" s="179" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="134" t="s">
+      <c r="D6" s="179" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="134" t="s">
+      <c r="E6" s="179" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="134" t="s">
+      <c r="F6" s="179" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="134" t="s">
+      <c r="G6" s="179" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="134" t="s">
+      <c r="H6" s="179" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="197" t="s">
+      <c r="I6" s="211" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="197" t="s">
+      <c r="J6" s="211" t="s">
         <v>41</v>
       </c>
-      <c r="K6" s="134" t="s">
+      <c r="K6" s="179" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="134" t="s">
+      <c r="L6" s="179" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="134" t="s">
+      <c r="M6" s="179" t="s">
         <v>33</v>
       </c>
       <c r="N6" s="58" t="s">
@@ -9849,24 +9891,24 @@
       </c>
       <c r="O6" s="58"/>
       <c r="P6" s="58"/>
-      <c r="Q6" s="197" t="s">
+      <c r="Q6" s="211" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
-      <c r="C7" s="134"/>
-      <c r="D7" s="134"/>
-      <c r="E7" s="134"/>
-      <c r="F7" s="134"/>
-      <c r="G7" s="134"/>
-      <c r="H7" s="134"/>
-      <c r="I7" s="197"/>
-      <c r="J7" s="197"/>
-      <c r="K7" s="134"/>
-      <c r="L7" s="134"/>
-      <c r="M7" s="134"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="211"/>
+      <c r="J7" s="211"/>
+      <c r="K7" s="179"/>
+      <c r="L7" s="179"/>
+      <c r="M7" s="179"/>
       <c r="N7" s="41" t="s">
         <v>62</v>
       </c>
@@ -9876,7 +9918,7 @@
       <c r="P7" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="Q7" s="197"/>
+      <c r="Q7" s="211"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="13"/>
@@ -10085,37 +10127,37 @@
     <row r="14" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
-      <c r="C14" s="134" t="s">
+      <c r="C14" s="179" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="134" t="s">
+      <c r="D14" s="179" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="134" t="s">
+      <c r="E14" s="179" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="134" t="s">
+      <c r="F14" s="179" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="134" t="s">
+      <c r="G14" s="179" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="134" t="s">
+      <c r="H14" s="179" t="s">
         <v>29</v>
       </c>
-      <c r="I14" s="198" t="s">
+      <c r="I14" s="212" t="s">
         <v>40</v>
       </c>
-      <c r="J14" s="197" t="s">
+      <c r="J14" s="211" t="s">
         <v>41</v>
       </c>
-      <c r="K14" s="134" t="s">
+      <c r="K14" s="179" t="s">
         <v>31</v>
       </c>
-      <c r="L14" s="134" t="s">
+      <c r="L14" s="179" t="s">
         <v>30</v>
       </c>
-      <c r="M14" s="134" t="s">
+      <c r="M14" s="179" t="s">
         <v>33</v>
       </c>
       <c r="N14" s="58" t="s">
@@ -10123,24 +10165,24 @@
       </c>
       <c r="O14" s="58"/>
       <c r="P14" s="58"/>
-      <c r="Q14" s="198" t="s">
+      <c r="Q14" s="212" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
-      <c r="C15" s="134"/>
-      <c r="D15" s="134"/>
-      <c r="E15" s="134"/>
-      <c r="F15" s="134"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="134"/>
-      <c r="I15" s="199"/>
-      <c r="J15" s="197"/>
-      <c r="K15" s="134"/>
-      <c r="L15" s="134"/>
-      <c r="M15" s="134"/>
+      <c r="C15" s="179"/>
+      <c r="D15" s="179"/>
+      <c r="E15" s="179"/>
+      <c r="F15" s="179"/>
+      <c r="G15" s="179"/>
+      <c r="H15" s="179"/>
+      <c r="I15" s="213"/>
+      <c r="J15" s="211"/>
+      <c r="K15" s="179"/>
+      <c r="L15" s="179"/>
+      <c r="M15" s="179"/>
       <c r="N15" s="41" t="s">
         <v>62</v>
       </c>
@@ -10150,7 +10192,7 @@
       <c r="P15" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="Q15" s="199"/>
+      <c r="Q15" s="213"/>
     </row>
     <row r="16" spans="1:18" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A16" s="13"/>
@@ -10232,7 +10274,7 @@
         <v>63</v>
       </c>
       <c r="L17" s="119" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M17" s="119" t="s">
         <v>101</v>
@@ -10281,7 +10323,7 @@
         <v>63</v>
       </c>
       <c r="L18" s="119" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M18" s="119" t="s">
         <v>101</v>
@@ -10327,37 +10369,37 @@
     <row r="21" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="13"/>
       <c r="B21" s="52"/>
-      <c r="C21" s="134" t="s">
+      <c r="C21" s="179" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="134" t="s">
+      <c r="D21" s="179" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="134" t="s">
+      <c r="E21" s="179" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="134" t="s">
+      <c r="F21" s="179" t="s">
         <v>38</v>
       </c>
-      <c r="G21" s="134" t="s">
+      <c r="G21" s="179" t="s">
         <v>28</v>
       </c>
-      <c r="H21" s="134" t="s">
+      <c r="H21" s="179" t="s">
         <v>29</v>
       </c>
-      <c r="I21" s="197" t="s">
+      <c r="I21" s="211" t="s">
         <v>40</v>
       </c>
-      <c r="J21" s="197" t="s">
+      <c r="J21" s="211" t="s">
         <v>41</v>
       </c>
-      <c r="K21" s="134" t="s">
+      <c r="K21" s="179" t="s">
         <v>31</v>
       </c>
-      <c r="L21" s="134" t="s">
+      <c r="L21" s="179" t="s">
         <v>30</v>
       </c>
-      <c r="M21" s="134" t="s">
+      <c r="M21" s="179" t="s">
         <v>33</v>
       </c>
       <c r="N21" s="58" t="s">
@@ -10365,24 +10407,24 @@
       </c>
       <c r="O21" s="58"/>
       <c r="P21" s="58"/>
-      <c r="Q21" s="197" t="s">
+      <c r="Q21" s="211" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="13"/>
       <c r="B22" s="52"/>
-      <c r="C22" s="134"/>
-      <c r="D22" s="134"/>
-      <c r="E22" s="134"/>
-      <c r="F22" s="134"/>
-      <c r="G22" s="134"/>
-      <c r="H22" s="134"/>
-      <c r="I22" s="197"/>
-      <c r="J22" s="197"/>
-      <c r="K22" s="134"/>
-      <c r="L22" s="134"/>
-      <c r="M22" s="134"/>
+      <c r="C22" s="179"/>
+      <c r="D22" s="179"/>
+      <c r="E22" s="179"/>
+      <c r="F22" s="179"/>
+      <c r="G22" s="179"/>
+      <c r="H22" s="179"/>
+      <c r="I22" s="211"/>
+      <c r="J22" s="211"/>
+      <c r="K22" s="179"/>
+      <c r="L22" s="179"/>
+      <c r="M22" s="179"/>
       <c r="N22" s="80" t="s">
         <v>62</v>
       </c>
@@ -10392,16 +10434,16 @@
       <c r="P22" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="Q22" s="197"/>
-    </row>
-    <row r="23" spans="1:17" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="Q22" s="211"/>
+    </row>
+    <row r="23" spans="1:17" ht="57" x14ac:dyDescent="0.15">
       <c r="A23" s="13"/>
       <c r="B23" s="52"/>
       <c r="C23" s="7">
         <v>1</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E23" s="14" t="s">
         <v>113</v>
@@ -10413,7 +10455,7 @@
         <v>93</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I23" s="101">
         <v>25</v>
@@ -10437,26 +10479,26 @@
         <v>35</v>
       </c>
       <c r="P23" s="120" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Q23" s="8" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" ht="28.5" x14ac:dyDescent="0.15">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A24" s="13"/>
       <c r="B24" s="52"/>
       <c r="C24" s="7">
         <v>2</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E24" s="118" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F24" s="119" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G24" s="118" t="s">
         <v>92</v>
@@ -10474,7 +10516,7 @@
         <v>141</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M24" s="7" t="s">
         <v>101</v>
@@ -10489,7 +10531,7 @@
         <v>35</v>
       </c>
       <c r="Q24" s="120" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="28.5" x14ac:dyDescent="0.15">
@@ -10499,13 +10541,13 @@
         <v>3</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F25" s="119" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G25" s="14" t="s">
         <v>92</v>
@@ -10535,7 +10577,7 @@
         <v>35</v>
       </c>
       <c r="P25" s="116" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q25" s="8" t="s">
         <v>196</v>
@@ -10548,13 +10590,13 @@
         <v>4</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E26" s="118" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F26" s="119" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G26" s="42" t="s">
         <v>93</v>
@@ -10587,7 +10629,7 @@
         <v>35</v>
       </c>
       <c r="Q26" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="28.5" x14ac:dyDescent="0.15">
@@ -10597,7 +10639,7 @@
         <v>5</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E27" s="14" t="s">
         <v>114</v>
@@ -10633,7 +10675,7 @@
         <v>35</v>
       </c>
       <c r="P27" s="120" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Q27" s="8" t="s">
         <v>196</v>
@@ -10646,7 +10688,7 @@
         <v>6</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E28" s="14" t="s">
         <v>32</v>
@@ -10690,30 +10732,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="L14:L15"/>
     <mergeCell ref="Q21:Q22"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="D21:D22"/>
@@ -10726,6 +10744,30 @@
     <mergeCell ref="K21:K22"/>
     <mergeCell ref="L21:L22"/>
     <mergeCell ref="M21:M22"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="D14:D15"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -10799,14 +10841,14 @@
       <c r="AF1" s="33"/>
       <c r="AG1" s="33"/>
       <c r="AH1" s="34"/>
-      <c r="AI1" s="178">
+      <c r="AI1" s="190">
         <f>変更履歴!E5</f>
         <v>43714</v>
       </c>
-      <c r="AJ1" s="195"/>
-      <c r="AK1" s="195"/>
-      <c r="AL1" s="195"/>
-      <c r="AM1" s="196"/>
+      <c r="AJ1" s="209"/>
+      <c r="AK1" s="209"/>
+      <c r="AL1" s="209"/>
+      <c r="AM1" s="210"/>
       <c r="AN1" s="32" t="s">
         <v>25</v>
       </c>
@@ -10815,16 +10857,16 @@
       <c r="AQ1" s="33"/>
       <c r="AR1" s="33"/>
       <c r="AS1" s="34"/>
-      <c r="AT1" s="181" t="str">
+      <c r="AT1" s="193" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
-      <c r="AU1" s="188"/>
-      <c r="AV1" s="188"/>
-      <c r="AW1" s="188"/>
-      <c r="AX1" s="188"/>
-      <c r="AY1" s="188"/>
-      <c r="AZ1" s="189"/>
+      <c r="AU1" s="202"/>
+      <c r="AV1" s="202"/>
+      <c r="AW1" s="202"/>
+      <c r="AX1" s="202"/>
+      <c r="AY1" s="202"/>
+      <c r="AZ1" s="203"/>
     </row>
     <row r="2" spans="1:52" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
@@ -10852,32 +10894,32 @@
       <c r="P2" s="36"/>
       <c r="Q2" s="36"/>
       <c r="R2" s="37"/>
-      <c r="S2" s="194" t="str">
+      <c r="S2" s="208" t="str">
         <f>'１．機能概要'!W2</f>
         <v>全工程で試作の在庫払出可能化</v>
       </c>
-      <c r="T2" s="195"/>
-      <c r="U2" s="195"/>
-      <c r="V2" s="195"/>
-      <c r="W2" s="195"/>
-      <c r="X2" s="195"/>
-      <c r="Y2" s="195"/>
-      <c r="Z2" s="195"/>
-      <c r="AA2" s="195"/>
-      <c r="AB2" s="195"/>
-      <c r="AC2" s="195"/>
-      <c r="AD2" s="196"/>
+      <c r="T2" s="209"/>
+      <c r="U2" s="209"/>
+      <c r="V2" s="209"/>
+      <c r="W2" s="209"/>
+      <c r="X2" s="209"/>
+      <c r="Y2" s="209"/>
+      <c r="Z2" s="209"/>
+      <c r="AA2" s="209"/>
+      <c r="AB2" s="209"/>
+      <c r="AC2" s="209"/>
+      <c r="AD2" s="210"/>
       <c r="AE2" s="32" t="s">
         <v>24</v>
       </c>
       <c r="AF2" s="33"/>
       <c r="AG2" s="33"/>
       <c r="AH2" s="34"/>
-      <c r="AI2" s="193"/>
-      <c r="AJ2" s="188"/>
-      <c r="AK2" s="188"/>
-      <c r="AL2" s="188"/>
-      <c r="AM2" s="189"/>
+      <c r="AI2" s="207"/>
+      <c r="AJ2" s="202"/>
+      <c r="AK2" s="202"/>
+      <c r="AL2" s="202"/>
+      <c r="AM2" s="203"/>
       <c r="AN2" s="32" t="s">
         <v>26</v>
       </c>
@@ -10886,13 +10928,13 @@
       <c r="AQ2" s="33"/>
       <c r="AR2" s="33"/>
       <c r="AS2" s="34"/>
-      <c r="AT2" s="181"/>
-      <c r="AU2" s="188"/>
-      <c r="AV2" s="188"/>
-      <c r="AW2" s="188"/>
-      <c r="AX2" s="188"/>
-      <c r="AY2" s="188"/>
-      <c r="AZ2" s="189"/>
+      <c r="AT2" s="193"/>
+      <c r="AU2" s="202"/>
+      <c r="AV2" s="202"/>
+      <c r="AW2" s="202"/>
+      <c r="AX2" s="202"/>
+      <c r="AY2" s="202"/>
+      <c r="AZ2" s="203"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A3" s="51"/>
@@ -11338,7 +11380,7 @@
       <c r="G16" s="60"/>
       <c r="L16" s="60"/>
       <c r="N16" s="110" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O16" s="110"/>
       <c r="P16" s="110"/>
@@ -11358,7 +11400,7 @@
       <c r="G17" s="60"/>
       <c r="L17" s="60"/>
       <c r="N17" s="110" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O17" s="110"/>
       <c r="P17" s="110"/>
@@ -11378,7 +11420,7 @@
       <c r="G18" s="60"/>
       <c r="L18" s="60"/>
       <c r="N18" s="110" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O18" s="110"/>
       <c r="P18" s="110"/>
@@ -11398,7 +11440,7 @@
       <c r="G19" s="60"/>
       <c r="L19" s="60"/>
       <c r="N19" s="110" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O19" s="110"/>
       <c r="P19" s="110"/>
@@ -11418,7 +11460,7 @@
       <c r="G20" s="60"/>
       <c r="L20" s="60"/>
       <c r="N20" s="110" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O20" s="110"/>
       <c r="P20" s="110"/>
@@ -11438,7 +11480,7 @@
       <c r="G21" s="60"/>
       <c r="L21" s="60"/>
       <c r="N21" s="110" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O21" s="110"/>
       <c r="P21" s="110"/>
@@ -11498,7 +11540,7 @@
       <c r="G24" s="60"/>
       <c r="L24" s="60"/>
       <c r="N24" s="110" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O24" s="110"/>
       <c r="P24" s="110"/>
@@ -11518,7 +11560,7 @@
       <c r="G25" s="60"/>
       <c r="L25" s="60"/>
       <c r="N25" s="110" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O25" s="110"/>
       <c r="P25" s="110"/>
@@ -11539,7 +11581,7 @@
       <c r="L26" s="60"/>
       <c r="N26" s="110"/>
       <c r="O26" s="110" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="P26" s="110"/>
       <c r="Q26" s="110"/>
@@ -11549,10 +11591,10 @@
       <c r="U26" s="110"/>
       <c r="V26" s="110"/>
       <c r="W26" s="110" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X26" s="15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AV26" s="61"/>
     </row>
@@ -11564,7 +11606,7 @@
       <c r="L27" s="60"/>
       <c r="N27" s="110"/>
       <c r="O27" s="110" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="P27" s="110"/>
       <c r="Q27" s="110"/>
@@ -11574,10 +11616,10 @@
       <c r="U27" s="110"/>
       <c r="V27" s="110"/>
       <c r="W27" s="110" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X27" s="15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AV27" s="61"/>
     </row>
@@ -11589,7 +11631,7 @@
       <c r="L28" s="60"/>
       <c r="N28" s="110"/>
       <c r="O28" s="110" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P28" s="110"/>
       <c r="Q28" s="110"/>
@@ -11599,10 +11641,10 @@
       <c r="U28" s="110"/>
       <c r="V28" s="110"/>
       <c r="W28" s="110" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X28" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AV28" s="61"/>
     </row>
@@ -11614,7 +11656,7 @@
       <c r="L29" s="60"/>
       <c r="N29" s="110"/>
       <c r="O29" s="110" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="P29" s="110"/>
       <c r="Q29" s="110"/>
@@ -11624,10 +11666,10 @@
       <c r="U29" s="110"/>
       <c r="V29" s="110"/>
       <c r="W29" s="110" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X29" s="15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AV29" s="61"/>
     </row>
@@ -11639,7 +11681,7 @@
       <c r="L30" s="60"/>
       <c r="N30" s="110"/>
       <c r="O30" s="110" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="P30" s="110"/>
       <c r="Q30" s="110"/>
@@ -11649,10 +11691,10 @@
       <c r="U30" s="110"/>
       <c r="V30" s="110"/>
       <c r="W30" s="110" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X30" s="15" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AV30" s="61"/>
     </row>
@@ -11681,7 +11723,7 @@
       <c r="G32" s="60"/>
       <c r="L32" s="60"/>
       <c r="M32" s="110" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N32" s="110"/>
       <c r="O32" s="110"/>
@@ -11702,7 +11744,7 @@
       <c r="G33" s="60"/>
       <c r="L33" s="60"/>
       <c r="N33" s="110" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O33" s="110"/>
       <c r="P33" s="110"/>
@@ -11713,10 +11755,10 @@
       <c r="U33" s="110"/>
       <c r="V33" s="110"/>
       <c r="W33" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="X33" s="115" t="s">
         <v>199</v>
-      </c>
-      <c r="X33" s="115" t="s">
-        <v>200</v>
       </c>
       <c r="Y33" s="110"/>
       <c r="Z33" s="110"/>
@@ -11729,7 +11771,7 @@
       <c r="G34" s="60"/>
       <c r="L34" s="60"/>
       <c r="N34" s="110" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O34" s="110"/>
       <c r="P34" s="110"/>
@@ -11740,15 +11782,15 @@
       <c r="U34" s="110"/>
       <c r="V34" s="110"/>
       <c r="W34" s="110" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X34" s="115" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Y34" s="110"/>
       <c r="Z34" s="110"/>
       <c r="AJ34" s="110" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AV34" s="61"/>
     </row>
@@ -11759,7 +11801,7 @@
       <c r="G35" s="60"/>
       <c r="L35" s="60"/>
       <c r="N35" s="110" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O35" s="110"/>
       <c r="P35" s="110"/>
@@ -11769,15 +11811,15 @@
       <c r="T35" s="110"/>
       <c r="U35" s="110"/>
       <c r="W35" s="110" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X35" s="115" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Y35" s="110"/>
       <c r="Z35" s="110"/>
       <c r="AJ35" s="110" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AV35" s="61"/>
     </row>
@@ -11788,7 +11830,7 @@
       <c r="G36" s="60"/>
       <c r="L36" s="60"/>
       <c r="N36" s="110" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O36" s="110"/>
       <c r="P36" s="110"/>
@@ -11799,14 +11841,14 @@
       <c r="U36" s="110"/>
       <c r="V36" s="110"/>
       <c r="W36" s="110" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X36" s="115" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Y36" s="110"/>
       <c r="AJ36" s="110" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AV36" s="61"/>
     </row>
@@ -11837,7 +11879,7 @@
       <c r="F38" s="61"/>
       <c r="G38" s="60"/>
       <c r="L38" s="60" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M38" s="110"/>
       <c r="N38" s="110"/>
@@ -11877,7 +11919,7 @@
       <c r="F39" s="61"/>
       <c r="G39" s="60"/>
       <c r="L39" s="60" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="M39" s="110"/>
       <c r="N39" s="110"/>
@@ -11965,7 +12007,7 @@
       <c r="J41" s="20"/>
       <c r="K41" s="21"/>
       <c r="L41" s="19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M41" s="20"/>
       <c r="N41" s="20"/>
@@ -12013,7 +12055,7 @@
       </c>
       <c r="K42" s="61"/>
       <c r="L42" s="60" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
@@ -12103,7 +12145,7 @@
       <c r="G44" s="60"/>
       <c r="K44" s="61"/>
       <c r="L44" s="111" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M44" s="98"/>
       <c r="N44" s="98"/>
@@ -12334,7 +12376,7 @@
       <c r="R49" s="98"/>
       <c r="S49" s="98"/>
       <c r="T49" s="115" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="U49" s="98"/>
       <c r="V49" s="112"/>
@@ -12380,7 +12422,7 @@
       <c r="R50" s="98"/>
       <c r="S50" s="98"/>
       <c r="T50" s="98" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="U50" s="98"/>
       <c r="V50" s="98"/>
@@ -12425,7 +12467,7 @@
       <c r="R51" s="98"/>
       <c r="S51" s="98"/>
       <c r="T51" s="98" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="U51" s="98"/>
       <c r="V51" s="112"/>
@@ -12462,7 +12504,7 @@
       <c r="L52" s="109"/>
       <c r="M52" s="22"/>
       <c r="N52" s="98" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O52" s="98"/>
       <c r="P52" s="98"/>
@@ -12470,7 +12512,7 @@
       <c r="R52" s="98"/>
       <c r="S52" s="98"/>
       <c r="T52" s="98" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U52" s="98"/>
       <c r="V52" s="112"/>
@@ -12507,7 +12549,7 @@
       <c r="L53" s="109"/>
       <c r="M53" s="22"/>
       <c r="N53" s="98" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O53" s="98"/>
       <c r="P53" s="98"/>
@@ -12515,7 +12557,7 @@
       <c r="R53" s="98"/>
       <c r="S53" s="98"/>
       <c r="T53" s="98" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="U53" s="98"/>
       <c r="V53" s="112"/>
@@ -12552,7 +12594,7 @@
       <c r="L54" s="109"/>
       <c r="M54" s="22"/>
       <c r="N54" s="98" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O54" s="98"/>
       <c r="P54" s="98"/>
@@ -12560,7 +12602,7 @@
       <c r="R54" s="98"/>
       <c r="S54" s="98"/>
       <c r="T54" s="98" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="U54" s="98"/>
       <c r="V54" s="112"/>
@@ -12597,7 +12639,7 @@
       <c r="L55" s="109"/>
       <c r="M55" s="22"/>
       <c r="N55" s="98" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O55" s="98"/>
       <c r="P55" s="98"/>
@@ -12605,7 +12647,7 @@
       <c r="R55" s="98"/>
       <c r="S55" s="98"/>
       <c r="T55" s="98" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U55" s="98"/>
       <c r="V55" s="112"/>
@@ -12650,7 +12692,7 @@
       <c r="R56" s="98"/>
       <c r="S56" s="98"/>
       <c r="T56" s="98" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="U56" s="98"/>
       <c r="V56" s="98"/>
@@ -12688,7 +12730,7 @@
       <c r="L57" s="111"/>
       <c r="M57" s="98"/>
       <c r="N57" s="98" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O57" s="98"/>
       <c r="P57" s="98"/>
@@ -12696,7 +12738,7 @@
       <c r="R57" s="98"/>
       <c r="S57" s="98"/>
       <c r="T57" s="98" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="U57" s="98"/>
       <c r="V57" s="98"/>
@@ -12742,7 +12784,7 @@
       <c r="R58" s="98"/>
       <c r="S58" s="98"/>
       <c r="T58" s="98" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="U58" s="98"/>
       <c r="V58" s="98"/>
@@ -12788,7 +12830,7 @@
       <c r="R59" s="98"/>
       <c r="S59" s="98"/>
       <c r="T59" s="117" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="U59" s="98"/>
       <c r="V59" s="98"/>
@@ -12826,7 +12868,7 @@
       <c r="L60" s="111"/>
       <c r="M60" s="98"/>
       <c r="N60" s="98" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O60" s="98"/>
       <c r="P60" s="98"/>
@@ -12834,7 +12876,7 @@
       <c r="R60" s="98"/>
       <c r="S60" s="98"/>
       <c r="T60" s="98" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="U60" s="98"/>
       <c r="V60" s="98"/>
@@ -12880,7 +12922,7 @@
       <c r="R61" s="98"/>
       <c r="S61" s="98"/>
       <c r="T61" s="98" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="U61" s="98"/>
       <c r="V61" s="98"/>
@@ -12926,7 +12968,7 @@
       <c r="R62" s="98"/>
       <c r="S62" s="98"/>
       <c r="T62" s="98" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="U62" s="98"/>
       <c r="V62" s="98"/>
@@ -13188,7 +13230,7 @@
       <c r="L68" s="111"/>
       <c r="M68" s="98"/>
       <c r="N68" s="98" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O68" s="98"/>
       <c r="P68" s="98"/>
@@ -13280,7 +13322,7 @@
       <c r="L70" s="111"/>
       <c r="M70" s="98"/>
       <c r="N70" s="22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O70" s="22"/>
       <c r="P70" s="22"/>
@@ -13291,7 +13333,7 @@
       </c>
       <c r="T70" s="22"/>
       <c r="U70" s="22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="V70" s="22"/>
       <c r="W70" s="22"/>
@@ -13341,7 +13383,7 @@
       </c>
       <c r="T71" s="22"/>
       <c r="U71" s="22" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="V71" s="22"/>
       <c r="W71" s="22"/>
@@ -13391,7 +13433,7 @@
       </c>
       <c r="T72" s="22"/>
       <c r="U72" s="22" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="V72" s="22"/>
       <c r="W72" s="22"/>
@@ -13476,7 +13518,7 @@
       <c r="L74" s="111"/>
       <c r="M74" s="98"/>
       <c r="N74" s="98" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O74" s="98"/>
       <c r="P74" s="98"/>
@@ -13487,7 +13529,7 @@
       </c>
       <c r="T74" s="98"/>
       <c r="U74" s="115" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="V74" s="98"/>
       <c r="W74" s="98"/>
@@ -13526,7 +13568,7 @@
       <c r="L75" s="111"/>
       <c r="M75" s="98"/>
       <c r="N75" s="98" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O75" s="98"/>
       <c r="P75" s="98"/>
@@ -13537,7 +13579,7 @@
       </c>
       <c r="T75" s="98"/>
       <c r="U75" s="98" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="V75" s="98"/>
       <c r="W75" s="98"/>
@@ -13576,7 +13618,7 @@
       <c r="L76" s="111"/>
       <c r="M76" s="98"/>
       <c r="N76" s="98" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O76" s="98"/>
       <c r="P76" s="98"/>
@@ -13587,7 +13629,7 @@
       </c>
       <c r="T76" s="98"/>
       <c r="U76" s="98" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="V76" s="98"/>
       <c r="W76" s="98"/>
@@ -13626,7 +13668,7 @@
       <c r="L77" s="111"/>
       <c r="M77" s="98"/>
       <c r="N77" s="98" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O77" s="98"/>
       <c r="P77" s="98"/>
@@ -13637,7 +13679,7 @@
       </c>
       <c r="T77" s="98"/>
       <c r="U77" s="98" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="V77" s="98"/>
       <c r="W77" s="98"/>
@@ -13676,7 +13718,7 @@
       <c r="L78" s="111"/>
       <c r="M78" s="98"/>
       <c r="N78" s="98" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O78" s="98"/>
       <c r="P78" s="98"/>
@@ -13687,7 +13729,7 @@
       </c>
       <c r="T78" s="98"/>
       <c r="U78" s="98" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="V78" s="98"/>
       <c r="W78" s="98"/>
@@ -13737,7 +13779,7 @@
       </c>
       <c r="T79" s="98"/>
       <c r="U79" s="98" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="V79" s="98"/>
       <c r="W79" s="98"/>
@@ -14047,20 +14089,20 @@
         <v>4</v>
       </c>
       <c r="C86" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D86" s="20"/>
       <c r="E86" s="20"/>
       <c r="F86" s="21"/>
       <c r="G86" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H86" s="20"/>
       <c r="I86" s="20"/>
       <c r="J86" s="20"/>
       <c r="K86" s="21"/>
       <c r="L86" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M86" s="20"/>
       <c r="N86" s="20"/>
@@ -14398,14 +14440,14 @@
       <c r="AF1" s="33"/>
       <c r="AG1" s="33"/>
       <c r="AH1" s="34"/>
-      <c r="AI1" s="178">
+      <c r="AI1" s="190">
         <f>変更履歴!E5</f>
         <v>43714</v>
       </c>
-      <c r="AJ1" s="195"/>
-      <c r="AK1" s="195"/>
-      <c r="AL1" s="195"/>
-      <c r="AM1" s="196"/>
+      <c r="AJ1" s="209"/>
+      <c r="AK1" s="209"/>
+      <c r="AL1" s="209"/>
+      <c r="AM1" s="210"/>
       <c r="AN1" s="32" t="s">
         <v>25</v>
       </c>
@@ -14414,16 +14456,16 @@
       <c r="AQ1" s="33"/>
       <c r="AR1" s="33"/>
       <c r="AS1" s="34"/>
-      <c r="AT1" s="181" t="str">
+      <c r="AT1" s="193" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
-      <c r="AU1" s="188"/>
-      <c r="AV1" s="188"/>
-      <c r="AW1" s="188"/>
-      <c r="AX1" s="188"/>
-      <c r="AY1" s="188"/>
-      <c r="AZ1" s="189"/>
+      <c r="AU1" s="202"/>
+      <c r="AV1" s="202"/>
+      <c r="AW1" s="202"/>
+      <c r="AX1" s="202"/>
+      <c r="AY1" s="202"/>
+      <c r="AZ1" s="203"/>
     </row>
     <row r="2" spans="1:52" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
@@ -14451,32 +14493,32 @@
       <c r="P2" s="36"/>
       <c r="Q2" s="36"/>
       <c r="R2" s="37"/>
-      <c r="S2" s="194" t="str">
+      <c r="S2" s="208" t="str">
         <f>'１．機能概要'!W2</f>
         <v>全工程で試作の在庫払出可能化</v>
       </c>
-      <c r="T2" s="195"/>
-      <c r="U2" s="195"/>
-      <c r="V2" s="195"/>
-      <c r="W2" s="195"/>
-      <c r="X2" s="195"/>
-      <c r="Y2" s="195"/>
-      <c r="Z2" s="195"/>
-      <c r="AA2" s="195"/>
-      <c r="AB2" s="195"/>
-      <c r="AC2" s="195"/>
-      <c r="AD2" s="196"/>
+      <c r="T2" s="209"/>
+      <c r="U2" s="209"/>
+      <c r="V2" s="209"/>
+      <c r="W2" s="209"/>
+      <c r="X2" s="209"/>
+      <c r="Y2" s="209"/>
+      <c r="Z2" s="209"/>
+      <c r="AA2" s="209"/>
+      <c r="AB2" s="209"/>
+      <c r="AC2" s="209"/>
+      <c r="AD2" s="210"/>
       <c r="AE2" s="32" t="s">
         <v>24</v>
       </c>
       <c r="AF2" s="33"/>
       <c r="AG2" s="33"/>
       <c r="AH2" s="34"/>
-      <c r="AI2" s="193"/>
-      <c r="AJ2" s="188"/>
-      <c r="AK2" s="188"/>
-      <c r="AL2" s="188"/>
-      <c r="AM2" s="189"/>
+      <c r="AI2" s="207"/>
+      <c r="AJ2" s="202"/>
+      <c r="AK2" s="202"/>
+      <c r="AL2" s="202"/>
+      <c r="AM2" s="203"/>
       <c r="AN2" s="32" t="s">
         <v>26</v>
       </c>
@@ -14485,13 +14527,13 @@
       <c r="AQ2" s="33"/>
       <c r="AR2" s="33"/>
       <c r="AS2" s="34"/>
-      <c r="AT2" s="181"/>
-      <c r="AU2" s="188"/>
-      <c r="AV2" s="188"/>
-      <c r="AW2" s="188"/>
-      <c r="AX2" s="188"/>
-      <c r="AY2" s="188"/>
-      <c r="AZ2" s="189"/>
+      <c r="AT2" s="193"/>
+      <c r="AU2" s="202"/>
+      <c r="AV2" s="202"/>
+      <c r="AW2" s="202"/>
+      <c r="AX2" s="202"/>
+      <c r="AY2" s="202"/>
+      <c r="AZ2" s="203"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A3" s="51"/>
@@ -14720,7 +14762,7 @@
       <c r="AW6" s="18"/>
     </row>
     <row r="7" spans="1:52" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B7" s="200">
+      <c r="B7" s="214">
         <v>1</v>
       </c>
       <c r="C7" s="19" t="s">
@@ -14774,7 +14816,7 @@
       <c r="AW7" s="21"/>
     </row>
     <row r="8" spans="1:52" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B8" s="201"/>
+      <c r="B8" s="215"/>
       <c r="C8" s="23"/>
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
@@ -14824,7 +14866,7 @@
       <c r="AW8" s="25"/>
     </row>
     <row r="9" spans="1:52" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B9" s="200">
+      <c r="B9" s="214">
         <v>2</v>
       </c>
       <c r="C9" s="62" t="s">
@@ -14886,7 +14928,7 @@
       <c r="AW9" s="21"/>
     </row>
     <row r="10" spans="1:52" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B10" s="201"/>
+      <c r="B10" s="215"/>
       <c r="C10" s="60"/>
       <c r="D10" s="22"/>
       <c r="E10" s="22"/>
@@ -14936,7 +14978,7 @@
       <c r="AW10" s="25"/>
     </row>
     <row r="11" spans="1:52" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B11" s="200">
+      <c r="B11" s="214">
         <v>3</v>
       </c>
       <c r="C11" s="60"/>
@@ -14996,7 +15038,7 @@
       <c r="AW11" s="21"/>
     </row>
     <row r="12" spans="1:52" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B12" s="201"/>
+      <c r="B12" s="215"/>
       <c r="C12" s="60"/>
       <c r="D12" s="22"/>
       <c r="E12" s="22"/>
@@ -15046,7 +15088,7 @@
       <c r="AW12" s="25"/>
     </row>
     <row r="13" spans="1:52" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B13" s="200">
+      <c r="B13" s="214">
         <v>4</v>
       </c>
       <c r="C13" s="60"/>
@@ -15070,20 +15112,20 @@
       </c>
       <c r="R13" s="20"/>
       <c r="S13" s="21"/>
-      <c r="T13" s="202" t="s">
+      <c r="T13" s="216" t="s">
+        <v>213</v>
+      </c>
+      <c r="U13" s="217"/>
+      <c r="V13" s="217"/>
+      <c r="W13" s="217"/>
+      <c r="X13" s="217"/>
+      <c r="Y13" s="217"/>
+      <c r="Z13" s="217"/>
+      <c r="AA13" s="217"/>
+      <c r="AB13" s="217"/>
+      <c r="AC13" s="218"/>
+      <c r="AD13" s="62" t="s">
         <v>214</v>
-      </c>
-      <c r="U13" s="203"/>
-      <c r="V13" s="203"/>
-      <c r="W13" s="203"/>
-      <c r="X13" s="203"/>
-      <c r="Y13" s="203"/>
-      <c r="Z13" s="203"/>
-      <c r="AA13" s="203"/>
-      <c r="AB13" s="203"/>
-      <c r="AC13" s="204"/>
-      <c r="AD13" s="62" t="s">
-        <v>215</v>
       </c>
       <c r="AE13" s="63"/>
       <c r="AF13" s="63"/>
@@ -15106,7 +15148,7 @@
       <c r="AW13" s="21"/>
     </row>
     <row r="14" spans="1:52" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B14" s="201"/>
+      <c r="B14" s="215"/>
       <c r="C14" s="60"/>
       <c r="D14" s="22"/>
       <c r="E14" s="22"/>
@@ -15124,16 +15166,16 @@
       <c r="Q14" s="23"/>
       <c r="R14" s="24"/>
       <c r="S14" s="25"/>
-      <c r="T14" s="205"/>
-      <c r="U14" s="206"/>
-      <c r="V14" s="206"/>
-      <c r="W14" s="206"/>
-      <c r="X14" s="206"/>
-      <c r="Y14" s="206"/>
-      <c r="Z14" s="206"/>
-      <c r="AA14" s="206"/>
-      <c r="AB14" s="206"/>
-      <c r="AC14" s="207"/>
+      <c r="T14" s="219"/>
+      <c r="U14" s="220"/>
+      <c r="V14" s="220"/>
+      <c r="W14" s="220"/>
+      <c r="X14" s="220"/>
+      <c r="Y14" s="220"/>
+      <c r="Z14" s="220"/>
+      <c r="AA14" s="220"/>
+      <c r="AB14" s="220"/>
+      <c r="AC14" s="221"/>
       <c r="AD14" s="65"/>
       <c r="AE14" s="66"/>
       <c r="AF14" s="66"/>
@@ -15156,7 +15198,7 @@
       <c r="AW14" s="25"/>
     </row>
     <row r="15" spans="1:52" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="200">
+      <c r="B15" s="214">
         <v>5</v>
       </c>
       <c r="C15" s="60"/>
@@ -15166,44 +15208,44 @@
       <c r="G15" s="22"/>
       <c r="H15" s="22"/>
       <c r="I15" s="61"/>
-      <c r="J15" s="208" t="s">
+      <c r="J15" s="129" t="s">
         <v>108</v>
       </c>
-      <c r="K15" s="209"/>
-      <c r="L15" s="209"/>
-      <c r="M15" s="209"/>
-      <c r="N15" s="209"/>
-      <c r="O15" s="209"/>
-      <c r="P15" s="210"/>
-      <c r="Q15" s="211" t="s">
+      <c r="K15" s="130"/>
+      <c r="L15" s="130"/>
+      <c r="M15" s="130"/>
+      <c r="N15" s="130"/>
+      <c r="O15" s="130"/>
+      <c r="P15" s="131"/>
+      <c r="Q15" s="132" t="s">
         <v>76</v>
       </c>
-      <c r="R15" s="212"/>
-      <c r="S15" s="213"/>
-      <c r="T15" s="214" t="s">
-        <v>286</v>
-      </c>
-      <c r="U15" s="214"/>
-      <c r="V15" s="214"/>
-      <c r="W15" s="214"/>
-      <c r="X15" s="214"/>
-      <c r="Y15" s="214"/>
-      <c r="Z15" s="214"/>
-      <c r="AA15" s="214"/>
-      <c r="AB15" s="214"/>
-      <c r="AC15" s="214"/>
-      <c r="AD15" s="211" t="s">
-        <v>287</v>
-      </c>
-      <c r="AE15" s="212"/>
-      <c r="AF15" s="212"/>
-      <c r="AG15" s="212"/>
-      <c r="AH15" s="212"/>
-      <c r="AI15" s="212"/>
-      <c r="AJ15" s="212"/>
-      <c r="AK15" s="212"/>
-      <c r="AL15" s="212"/>
-      <c r="AM15" s="212"/>
+      <c r="R15" s="133"/>
+      <c r="S15" s="134"/>
+      <c r="T15" s="135" t="s">
+        <v>284</v>
+      </c>
+      <c r="U15" s="135"/>
+      <c r="V15" s="135"/>
+      <c r="W15" s="135"/>
+      <c r="X15" s="135"/>
+      <c r="Y15" s="135"/>
+      <c r="Z15" s="135"/>
+      <c r="AA15" s="135"/>
+      <c r="AB15" s="135"/>
+      <c r="AC15" s="135"/>
+      <c r="AD15" s="132" t="s">
+        <v>285</v>
+      </c>
+      <c r="AE15" s="133"/>
+      <c r="AF15" s="133"/>
+      <c r="AG15" s="133"/>
+      <c r="AH15" s="133"/>
+      <c r="AI15" s="133"/>
+      <c r="AJ15" s="133"/>
+      <c r="AK15" s="133"/>
+      <c r="AL15" s="133"/>
+      <c r="AM15" s="133"/>
       <c r="AN15" s="63"/>
       <c r="AO15" s="20"/>
       <c r="AP15" s="20"/>
@@ -15216,7 +15258,7 @@
       <c r="AW15" s="21"/>
     </row>
     <row r="16" spans="1:52" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B16" s="201"/>
+      <c r="B16" s="215"/>
       <c r="C16" s="60"/>
       <c r="D16" s="22"/>
       <c r="E16" s="22"/>
@@ -15224,36 +15266,36 @@
       <c r="G16" s="22"/>
       <c r="H16" s="22"/>
       <c r="I16" s="61"/>
-      <c r="J16" s="215"/>
-      <c r="K16" s="216"/>
-      <c r="L16" s="216"/>
-      <c r="M16" s="216"/>
-      <c r="N16" s="216"/>
-      <c r="O16" s="216"/>
-      <c r="P16" s="217"/>
-      <c r="Q16" s="218"/>
-      <c r="R16" s="219"/>
-      <c r="S16" s="220"/>
-      <c r="T16" s="221"/>
-      <c r="U16" s="221"/>
-      <c r="V16" s="221"/>
-      <c r="W16" s="221"/>
-      <c r="X16" s="221"/>
-      <c r="Y16" s="221"/>
-      <c r="Z16" s="221"/>
-      <c r="AA16" s="221"/>
-      <c r="AB16" s="221"/>
-      <c r="AC16" s="221"/>
-      <c r="AD16" s="218"/>
-      <c r="AE16" s="219"/>
-      <c r="AF16" s="219"/>
-      <c r="AG16" s="219"/>
-      <c r="AH16" s="219"/>
-      <c r="AI16" s="219"/>
-      <c r="AJ16" s="219"/>
-      <c r="AK16" s="219"/>
-      <c r="AL16" s="219"/>
-      <c r="AM16" s="219"/>
+      <c r="J16" s="136"/>
+      <c r="K16" s="137"/>
+      <c r="L16" s="137"/>
+      <c r="M16" s="137"/>
+      <c r="N16" s="137"/>
+      <c r="O16" s="137"/>
+      <c r="P16" s="138"/>
+      <c r="Q16" s="139"/>
+      <c r="R16" s="140"/>
+      <c r="S16" s="141"/>
+      <c r="T16" s="142"/>
+      <c r="U16" s="142"/>
+      <c r="V16" s="142"/>
+      <c r="W16" s="142"/>
+      <c r="X16" s="142"/>
+      <c r="Y16" s="142"/>
+      <c r="Z16" s="142"/>
+      <c r="AA16" s="142"/>
+      <c r="AB16" s="142"/>
+      <c r="AC16" s="142"/>
+      <c r="AD16" s="139"/>
+      <c r="AE16" s="140"/>
+      <c r="AF16" s="140"/>
+      <c r="AG16" s="140"/>
+      <c r="AH16" s="140"/>
+      <c r="AI16" s="140"/>
+      <c r="AJ16" s="140"/>
+      <c r="AK16" s="140"/>
+      <c r="AL16" s="140"/>
+      <c r="AM16" s="140"/>
       <c r="AN16" s="66"/>
       <c r="AO16" s="24"/>
       <c r="AP16" s="24"/>
@@ -15266,7 +15308,7 @@
       <c r="AW16" s="25"/>
     </row>
     <row r="17" spans="1:52" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B17" s="200">
+      <c r="B17" s="214">
         <v>5</v>
       </c>
       <c r="C17" s="60"/>
@@ -15290,18 +15332,18 @@
       </c>
       <c r="R17" s="20"/>
       <c r="S17" s="21"/>
-      <c r="T17" s="202" t="s">
+      <c r="T17" s="216" t="s">
         <v>131</v>
       </c>
-      <c r="U17" s="203"/>
-      <c r="V17" s="203"/>
-      <c r="W17" s="203"/>
-      <c r="X17" s="203"/>
-      <c r="Y17" s="203"/>
-      <c r="Z17" s="203"/>
-      <c r="AA17" s="203"/>
-      <c r="AB17" s="203"/>
-      <c r="AC17" s="204"/>
+      <c r="U17" s="217"/>
+      <c r="V17" s="217"/>
+      <c r="W17" s="217"/>
+      <c r="X17" s="217"/>
+      <c r="Y17" s="217"/>
+      <c r="Z17" s="217"/>
+      <c r="AA17" s="217"/>
+      <c r="AB17" s="217"/>
+      <c r="AC17" s="218"/>
       <c r="AD17" s="62" t="s">
         <v>130</v>
       </c>
@@ -15326,7 +15368,7 @@
       <c r="AW17" s="21"/>
     </row>
     <row r="18" spans="1:52" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B18" s="201"/>
+      <c r="B18" s="215"/>
       <c r="C18" s="60"/>
       <c r="D18" s="22"/>
       <c r="E18" s="22"/>
@@ -15344,16 +15386,16 @@
       <c r="Q18" s="23"/>
       <c r="R18" s="24"/>
       <c r="S18" s="25"/>
-      <c r="T18" s="205"/>
-      <c r="U18" s="206"/>
-      <c r="V18" s="206"/>
-      <c r="W18" s="206"/>
-      <c r="X18" s="206"/>
-      <c r="Y18" s="206"/>
-      <c r="Z18" s="206"/>
-      <c r="AA18" s="206"/>
-      <c r="AB18" s="206"/>
-      <c r="AC18" s="207"/>
+      <c r="T18" s="219"/>
+      <c r="U18" s="220"/>
+      <c r="V18" s="220"/>
+      <c r="W18" s="220"/>
+      <c r="X18" s="220"/>
+      <c r="Y18" s="220"/>
+      <c r="Z18" s="220"/>
+      <c r="AA18" s="220"/>
+      <c r="AB18" s="220"/>
+      <c r="AC18" s="221"/>
       <c r="AD18" s="65"/>
       <c r="AE18" s="66"/>
       <c r="AF18" s="66"/>
@@ -15376,7 +15418,7 @@
       <c r="AW18" s="25"/>
     </row>
     <row r="19" spans="1:52" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B19" s="200">
+      <c r="B19" s="214">
         <v>6</v>
       </c>
       <c r="C19" s="60"/>
@@ -15400,18 +15442,18 @@
       </c>
       <c r="R19" s="20"/>
       <c r="S19" s="21"/>
-      <c r="T19" s="202" t="s">
+      <c r="T19" s="216" t="s">
         <v>163</v>
       </c>
-      <c r="U19" s="203"/>
-      <c r="V19" s="203"/>
-      <c r="W19" s="203"/>
-      <c r="X19" s="203"/>
-      <c r="Y19" s="203"/>
-      <c r="Z19" s="203"/>
-      <c r="AA19" s="203"/>
-      <c r="AB19" s="203"/>
-      <c r="AC19" s="204"/>
+      <c r="U19" s="217"/>
+      <c r="V19" s="217"/>
+      <c r="W19" s="217"/>
+      <c r="X19" s="217"/>
+      <c r="Y19" s="217"/>
+      <c r="Z19" s="217"/>
+      <c r="AA19" s="217"/>
+      <c r="AB19" s="217"/>
+      <c r="AC19" s="218"/>
       <c r="AD19" s="62" t="s">
         <v>144</v>
       </c>
@@ -15436,7 +15478,7 @@
       <c r="AW19" s="21"/>
     </row>
     <row r="20" spans="1:52" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B20" s="201"/>
+      <c r="B20" s="215"/>
       <c r="C20" s="60"/>
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
@@ -15454,16 +15496,16 @@
       <c r="Q20" s="23"/>
       <c r="R20" s="24"/>
       <c r="S20" s="25"/>
-      <c r="T20" s="205"/>
-      <c r="U20" s="206"/>
-      <c r="V20" s="206"/>
-      <c r="W20" s="206"/>
-      <c r="X20" s="206"/>
-      <c r="Y20" s="206"/>
-      <c r="Z20" s="206"/>
-      <c r="AA20" s="206"/>
-      <c r="AB20" s="206"/>
-      <c r="AC20" s="207"/>
+      <c r="T20" s="219"/>
+      <c r="U20" s="220"/>
+      <c r="V20" s="220"/>
+      <c r="W20" s="220"/>
+      <c r="X20" s="220"/>
+      <c r="Y20" s="220"/>
+      <c r="Z20" s="220"/>
+      <c r="AA20" s="220"/>
+      <c r="AB20" s="220"/>
+      <c r="AC20" s="221"/>
       <c r="AD20" s="65"/>
       <c r="AE20" s="66"/>
       <c r="AF20" s="66"/>
@@ -15486,7 +15528,7 @@
       <c r="AW20" s="25"/>
     </row>
     <row r="21" spans="1:52" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="200">
+      <c r="B21" s="214">
         <v>5</v>
       </c>
       <c r="C21" s="60"/>
@@ -15496,44 +15538,44 @@
       <c r="G21" s="22"/>
       <c r="H21" s="22"/>
       <c r="I21" s="61"/>
-      <c r="J21" s="208" t="s">
-        <v>291</v>
-      </c>
-      <c r="K21" s="209"/>
-      <c r="L21" s="209"/>
-      <c r="M21" s="209"/>
-      <c r="N21" s="209"/>
-      <c r="O21" s="209"/>
-      <c r="P21" s="210"/>
-      <c r="Q21" s="211" t="s">
+      <c r="J21" s="129" t="s">
+        <v>289</v>
+      </c>
+      <c r="K21" s="130"/>
+      <c r="L21" s="130"/>
+      <c r="M21" s="130"/>
+      <c r="N21" s="130"/>
+      <c r="O21" s="130"/>
+      <c r="P21" s="131"/>
+      <c r="Q21" s="132" t="s">
+        <v>286</v>
+      </c>
+      <c r="R21" s="133"/>
+      <c r="S21" s="134"/>
+      <c r="T21" s="135" t="s">
         <v>288</v>
       </c>
-      <c r="R21" s="212"/>
-      <c r="S21" s="213"/>
-      <c r="T21" s="214" t="s">
-        <v>290</v>
-      </c>
-      <c r="U21" s="214"/>
-      <c r="V21" s="214"/>
-      <c r="W21" s="214"/>
-      <c r="X21" s="214"/>
-      <c r="Y21" s="214"/>
-      <c r="Z21" s="214"/>
-      <c r="AA21" s="214"/>
-      <c r="AB21" s="214"/>
-      <c r="AC21" s="214"/>
-      <c r="AD21" s="211" t="s">
-        <v>289</v>
-      </c>
-      <c r="AE21" s="212"/>
-      <c r="AF21" s="212"/>
-      <c r="AG21" s="212"/>
-      <c r="AH21" s="212"/>
-      <c r="AI21" s="212"/>
-      <c r="AJ21" s="212"/>
-      <c r="AK21" s="212"/>
-      <c r="AL21" s="212"/>
-      <c r="AM21" s="212"/>
+      <c r="U21" s="135"/>
+      <c r="V21" s="135"/>
+      <c r="W21" s="135"/>
+      <c r="X21" s="135"/>
+      <c r="Y21" s="135"/>
+      <c r="Z21" s="135"/>
+      <c r="AA21" s="135"/>
+      <c r="AB21" s="135"/>
+      <c r="AC21" s="135"/>
+      <c r="AD21" s="132" t="s">
+        <v>287</v>
+      </c>
+      <c r="AE21" s="133"/>
+      <c r="AF21" s="133"/>
+      <c r="AG21" s="133"/>
+      <c r="AH21" s="133"/>
+      <c r="AI21" s="133"/>
+      <c r="AJ21" s="133"/>
+      <c r="AK21" s="133"/>
+      <c r="AL21" s="133"/>
+      <c r="AM21" s="133"/>
       <c r="AN21" s="63"/>
       <c r="AO21" s="20"/>
       <c r="AP21" s="20"/>
@@ -15546,7 +15588,7 @@
       <c r="AW21" s="21"/>
     </row>
     <row r="22" spans="1:52" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B22" s="201"/>
+      <c r="B22" s="215"/>
       <c r="C22" s="60"/>
       <c r="D22" s="22"/>
       <c r="E22" s="22"/>
@@ -15554,36 +15596,36 @@
       <c r="G22" s="22"/>
       <c r="H22" s="22"/>
       <c r="I22" s="61"/>
-      <c r="J22" s="215"/>
-      <c r="K22" s="216"/>
-      <c r="L22" s="216"/>
-      <c r="M22" s="216"/>
-      <c r="N22" s="216"/>
-      <c r="O22" s="216"/>
-      <c r="P22" s="217"/>
-      <c r="Q22" s="218"/>
-      <c r="R22" s="219"/>
-      <c r="S22" s="220"/>
-      <c r="T22" s="221"/>
-      <c r="U22" s="221"/>
-      <c r="V22" s="221"/>
-      <c r="W22" s="221"/>
-      <c r="X22" s="221"/>
-      <c r="Y22" s="221"/>
-      <c r="Z22" s="221"/>
-      <c r="AA22" s="221"/>
-      <c r="AB22" s="221"/>
-      <c r="AC22" s="221"/>
-      <c r="AD22" s="218"/>
-      <c r="AE22" s="219"/>
-      <c r="AF22" s="219"/>
-      <c r="AG22" s="219"/>
-      <c r="AH22" s="219"/>
-      <c r="AI22" s="219"/>
-      <c r="AJ22" s="219"/>
-      <c r="AK22" s="219"/>
-      <c r="AL22" s="219"/>
-      <c r="AM22" s="219"/>
+      <c r="J22" s="136"/>
+      <c r="K22" s="137"/>
+      <c r="L22" s="137"/>
+      <c r="M22" s="137"/>
+      <c r="N22" s="137"/>
+      <c r="O22" s="137"/>
+      <c r="P22" s="138"/>
+      <c r="Q22" s="139"/>
+      <c r="R22" s="140"/>
+      <c r="S22" s="141"/>
+      <c r="T22" s="142"/>
+      <c r="U22" s="142"/>
+      <c r="V22" s="142"/>
+      <c r="W22" s="142"/>
+      <c r="X22" s="142"/>
+      <c r="Y22" s="142"/>
+      <c r="Z22" s="142"/>
+      <c r="AA22" s="142"/>
+      <c r="AB22" s="142"/>
+      <c r="AC22" s="142"/>
+      <c r="AD22" s="139"/>
+      <c r="AE22" s="140"/>
+      <c r="AF22" s="140"/>
+      <c r="AG22" s="140"/>
+      <c r="AH22" s="140"/>
+      <c r="AI22" s="140"/>
+      <c r="AJ22" s="140"/>
+      <c r="AK22" s="140"/>
+      <c r="AL22" s="140"/>
+      <c r="AM22" s="140"/>
       <c r="AN22" s="66"/>
       <c r="AO22" s="24"/>
       <c r="AP22" s="24"/>
@@ -15596,7 +15638,7 @@
       <c r="AW22" s="25"/>
     </row>
     <row r="23" spans="1:52" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="200">
+      <c r="B23" s="214">
         <v>7</v>
       </c>
       <c r="C23" s="62" t="s">
@@ -15656,7 +15698,7 @@
       <c r="AW23" s="64"/>
     </row>
     <row r="24" spans="1:52" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B24" s="201"/>
+      <c r="B24" s="215"/>
       <c r="C24" s="95"/>
       <c r="D24" s="96"/>
       <c r="E24" s="96"/>
@@ -19595,13 +19637,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="T19:AC20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="T17:AC18"/>
     <mergeCell ref="AT1:AZ1"/>
     <mergeCell ref="S2:AD2"/>
     <mergeCell ref="AI2:AM2"/>
@@ -19612,6 +19647,13 @@
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="AI1:AM1"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="T19:AC20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="T17:AC18"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.78740157480314965" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.19685039370078741"/>
@@ -19685,14 +19727,14 @@
       <c r="AF1" s="33"/>
       <c r="AG1" s="33"/>
       <c r="AH1" s="34"/>
-      <c r="AI1" s="178">
+      <c r="AI1" s="190">
         <f>変更履歴!E5</f>
         <v>43714</v>
       </c>
-      <c r="AJ1" s="195"/>
-      <c r="AK1" s="195"/>
-      <c r="AL1" s="195"/>
-      <c r="AM1" s="196"/>
+      <c r="AJ1" s="209"/>
+      <c r="AK1" s="209"/>
+      <c r="AL1" s="209"/>
+      <c r="AM1" s="210"/>
       <c r="AN1" s="32" t="s">
         <v>25</v>
       </c>
@@ -19701,16 +19743,16 @@
       <c r="AQ1" s="33"/>
       <c r="AR1" s="33"/>
       <c r="AS1" s="34"/>
-      <c r="AT1" s="181" t="str">
+      <c r="AT1" s="193" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
-      <c r="AU1" s="188"/>
-      <c r="AV1" s="188"/>
-      <c r="AW1" s="188"/>
-      <c r="AX1" s="188"/>
-      <c r="AY1" s="188"/>
-      <c r="AZ1" s="189"/>
+      <c r="AU1" s="202"/>
+      <c r="AV1" s="202"/>
+      <c r="AW1" s="202"/>
+      <c r="AX1" s="202"/>
+      <c r="AY1" s="202"/>
+      <c r="AZ1" s="203"/>
     </row>
     <row r="2" spans="1:52" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
@@ -19738,32 +19780,32 @@
       <c r="P2" s="36"/>
       <c r="Q2" s="36"/>
       <c r="R2" s="37"/>
-      <c r="S2" s="194" t="str">
+      <c r="S2" s="208" t="str">
         <f>'１．機能概要'!W2</f>
         <v>全工程で試作の在庫払出可能化</v>
       </c>
-      <c r="T2" s="195"/>
-      <c r="U2" s="195"/>
-      <c r="V2" s="195"/>
-      <c r="W2" s="195"/>
-      <c r="X2" s="195"/>
-      <c r="Y2" s="195"/>
-      <c r="Z2" s="195"/>
-      <c r="AA2" s="195"/>
-      <c r="AB2" s="195"/>
-      <c r="AC2" s="195"/>
-      <c r="AD2" s="196"/>
+      <c r="T2" s="209"/>
+      <c r="U2" s="209"/>
+      <c r="V2" s="209"/>
+      <c r="W2" s="209"/>
+      <c r="X2" s="209"/>
+      <c r="Y2" s="209"/>
+      <c r="Z2" s="209"/>
+      <c r="AA2" s="209"/>
+      <c r="AB2" s="209"/>
+      <c r="AC2" s="209"/>
+      <c r="AD2" s="210"/>
       <c r="AE2" s="32" t="s">
         <v>24</v>
       </c>
       <c r="AF2" s="33"/>
       <c r="AG2" s="33"/>
       <c r="AH2" s="34"/>
-      <c r="AI2" s="193"/>
-      <c r="AJ2" s="188"/>
-      <c r="AK2" s="188"/>
-      <c r="AL2" s="188"/>
-      <c r="AM2" s="189"/>
+      <c r="AI2" s="207"/>
+      <c r="AJ2" s="202"/>
+      <c r="AK2" s="202"/>
+      <c r="AL2" s="202"/>
+      <c r="AM2" s="203"/>
       <c r="AN2" s="32" t="s">
         <v>26</v>
       </c>
@@ -19772,13 +19814,13 @@
       <c r="AQ2" s="33"/>
       <c r="AR2" s="33"/>
       <c r="AS2" s="34"/>
-      <c r="AT2" s="181"/>
-      <c r="AU2" s="188"/>
-      <c r="AV2" s="188"/>
-      <c r="AW2" s="188"/>
-      <c r="AX2" s="188"/>
-      <c r="AY2" s="188"/>
-      <c r="AZ2" s="189"/>
+      <c r="AT2" s="193"/>
+      <c r="AU2" s="202"/>
+      <c r="AV2" s="202"/>
+      <c r="AW2" s="202"/>
+      <c r="AX2" s="202"/>
+      <c r="AY2" s="202"/>
+      <c r="AZ2" s="203"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A3" s="51"/>
@@ -20058,7 +20100,7 @@
       <c r="A8" s="47"/>
       <c r="B8" s="47"/>
       <c r="C8" s="47" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D8" s="47"/>
       <c r="E8" s="47"/>
@@ -30928,12 +30970,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005B3AFDF1A27EF4448B30400A700269C9" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="af1e50296a73b747a155d4c5a148cd8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72c70d25-b9e8-475b-ae7b-39931ca24b85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7c374c4e1cfeff0cf58497e8c642c22" ns2:_="">
     <xsd:import namespace="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
@@ -31091,6 +31127,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -31101,15 +31143,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F39FE47-ED8B-411A-AD54-8C8E5636C88B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -31127,6 +31160,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
   <ds:schemaRefs>
